--- a/MathTest2.xlsx
+++ b/MathTest2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Taylor\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{269D4208-D218-475A-86B5-EF2A136B47D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{BEE19E63-1CAB-4CC5-9DF4-624CA2BE6C90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{437A6C5E-B59D-4A6C-9B83-9637B857EE9D}"/>
   </bookViews>
@@ -67,10 +67,10 @@
     <t>C</t>
   </si>
   <si>
-    <t>P4dMvg5dyR+bPHwSfs3ipxvrPhLvdFXJPq768VGXEsEeo4f3s9o/PpDO2Ti95/ta9I+cj7pflbyKog+2AfjA3CT9D5J8X5uiR9pf4lkv7PW+5XR+azkVSh9gh8c/PPhfD39Db6JH2n/cjXtc+xSb7LSV1nRZ8+JnC/oK/gHc038kZr5FZbr6aGd7VMCuI6Vvgqlv3ug6N8sna83//iqg7uR+L3T/io17Vs5H7qDlb7Ky/urRM43Jv4vrcSPVr9vr2dnrfctReex0ld50T8Lztd7f6iTWv3Y3uW1xKOmfQt7WaX9wumzINFnzxF10Ffxf0eJn7Z3gb6x6HtXOF+t+HkCiJbBbL9w+tABuCInA/8ENsJaAviK+cfTGJjTffjR/mVfpGZBxvoI/FlawcpAxaI/pS8UUulPZCOsZVr6wM/7Pcfa+7o9i76HCbvW+1zRyuiNrAxUHPo1c9p18NmI60Yj/fH2+DJxHt/ch7LPe4FvZ4P3BxhXvKf1WFa6Kgr92f1APyr0k609cZvbbT7eH/Lu96DTx30P+CTkfBq3O05bTs9tLJkV/aLTn7x/aBThxxvnph2nM6/LsB+Hso/Ay7GB7/Cgm/aCvrboe0U432D96JWMqw/nxSRaSmdPT9HoTzoC3EeYfl1LAucf9Yl+jyH0E3iuwZOp7Ju2T71n2Repqb5V8T5yPg25pa8xFXaotyfoR64Xl36kdeUowU/09IYdSjWKzX0O74+T4KTzif7AwbzsQ7dPX/QtzLR6dN6PRqNnOYJPczqcESspFUZ/RlNIgT9C9PGGp5sdaXf5DprQL9BzHeixzIe0v2pLxfvI+TSWuguPRF+XfUZwSakQ+nWaC+/bRwA+Dmvp6ksk3Rd0mb3P9aVntw8lP8/5JNX7UdLtTFWMEtEmE/kntrWr8I8YsTZfgsqsGFO1DvAd3oeGjsEVPeaib4l0Pkp+Dl6OF1lZaGPpRzouVdn3TmaAP0p6RKAX3kfoF9owB4u8HiU/gddbn9CTnmJloY2kf+xilX34MDb68Hm3T+Afh9APXXGy2NYN+rqSXzgf9K2cj1Hi1+0XRH/KIk3Cn1PNgkB/7Th4f5wS+nnR3zDbs9cb4V1+Aq/xftRWWSzvbhz9arR1oUVTWCDgs+VwvtP7UJux6EfR95B0/tagH8Wgkr88lD/9w8Iq+8XU7A4IffYCoZdDoY+iH5fxa+g/TOgV78P5VPKXh/KlP7lXZX9pRyQ48Nk64XyT919D0W+k/7Rwvs77BL9cSv486U84QpPw2yYyFiD6j8jAv4OWfnRIdPpBXy35bxbGJ/jwfhS6lpWH8qFfc4om4d/jWNsIAnx2F0dvNv8GbPAw0r/FRk9DvgB8b+kJNno6/9wzmFlnnp3zq+RHf0a/yr5pBmMBo/+wyPkG+tHvqNOPKZ9+wveK9D7RR+CHHmJQEbHOJJ0dSPr7aNq6K1uz378gwGcPwvn6CT+mfEb67xJ4L+8vZ8XXezPP4FQuvNiLbYH08Sr50J80PaTqCOXgwADAZ8t5zjfQj46PDswVu7pB3z3dnygCPylD36kBVnxdQtQFm4DRV9ZxxeFZwZSn96M04acbuPA7t2HC7yr5ryb0Ou9LXc+KrqsuOIPc/8EhZ7NL7r3PfuKXC2ZeePG5Mz/4lCcF+jNPDWeffy79BT3JJf6GiSc52TOtF3gvp1f50Ub526/0jPx758+Y2rr9s1lQ9SE5X08/ysd0vrkLq3ya9V075yveH8bpPjEn93/12U+M/mdzu/Diqy6gbEAwyaicq3AtUaEnBXzrWUIqn6TvuOSDT+n5n1gOr/LH3zb8P0MHnnmGfC3nz7A6bVu3hgVW64zeJ/TE7ktM+A30b5LOJ/rwPnS3XGTuTaUSiZZj40XI+uTZnxgBgvc5K6QEcrOM2XiS/s+/VT5J38HJf0Vsc3iV338Ikf5p+Td0IF7L8TOf6tZx+6awACl+bEsikUr1yq0VSwB/Kyf9qBivmSb8aPZw8GbvXynpQ6lUc6KVQbgBdxMFylTDBOYpQm/xuOr7T+lzoHL76jOK1i7679FTZ2joc8L0H/97j1cB/b/++EFPf8YPmnXcETwyLnaix7vXmmhOZREQB3QpiR/4LQ3JCb+Bfm31Zdz5ZvorGFdTOFtdSq18cMY67Z0Tfen/ZBX8imt5Qjgjd+/zZE9f+ryKv/cP+I8+FUpbl42Yqmf1m9899d1vEmu8GefTyNCPyhH9hK/xot2jafVtrbM+JC7fTTZaMQf/ipTnZuf99/WJ/O+RV8+kh5YbfW1xowfo8+86m4mcDvrsTCra/F5F0Kec/7fI+/K17J+5t4/HBKWtOwLCafzQy/XMpRS4W/m3Mcm4Vo3Thn4Cb2uDod2D6f4Scr5C39zsiSWTCQpD6ZTuhEmoa7LPhA9ycaMPBk0HiBnF7rNtbsDLg3k2/Uuogvd9FdAXNb94Lf4zNfSBUOgvqmMjJfXIonumuOmnKdkmksmYtt2zldb7pO94uwfbelX6b/l4f2FOxw29nNdxa2dSxC+WKHsU1uef3a9dxx1Bqaf0zalluWghnI+8L5zP6aPdo6c/dd3O3vTP2siTxmZFvNw/E43eAkXJvQD6yFhKW3fkpB7VtXgflovmc/Ba71saf8VcupYvGTfQjxD9y729Pz6Pf377yfWRmqPEpPmjejYS4pP9/Onj8hxV0yexkdXRtvX79qFjSsWHsYHloogu70ehK2Szb6qe/i4T3/Win+POnmkrHXavOTnE1ciCJYW+vq17D2w3QorMdZzNG2/iX7TluLuHPK/zvtDA8Z2tYnePgf4LWvr5NXob7ErvkKxIcMQuLFBS6OPyHKh/BhtxTVrE041dalTbBWDP1Nxavdz1/OH0Puij1aunv7U3/Y9ZDjrYjlxyitQpz9oPlFz0lctzcCr+CCsyYVrD9PQ9e+HUtpy9f7nW+9CBaPVq6S/wof84y0Ft+LwiFKycxgIlB33T5TkT2KhLBM6GXBv9wK/Dtze1er3oL/Sh/07u9BdNAn1L/7N3pr9RlHEcf9xdGkVEQIuVF61JuyQk22Ohu70kSNVa2Xqj0pqqbbQWFUMgaDRoJKkcERsU7wMUGhPxwDMigme872iM0ehbE33rH+Azz/xmvzPzPM88swva2e18nzRRk6rsZ7/P73rmmVtZpOSir348Jwpz3FRbQQTRIRZKj3m8L+PrQ6NfPeA10N/HQugu++wTfXwNIwmhu1ikBPrfqh/PmX6lzu4W8AttIUvOB0TMnzPH+lHSv1G8o0NLf7eBfqgTvRckhPrr7b8jY0Xs6n7QVz+eM+06a3XJU+WDBu9/ceMlNOZR0q9/ORz95cu88u5Mq0apPXpVA2vpmkhUGv3NkZjjNo1R3ZGVUQ0t82q5Q99Gb0lJf+014ejPkeiLunEXE7o96dU65tbigYRXUSz5iP60t3VNb65OXqGo9tYlvbqdCT0a7H3Qr08pR3xvFK2v/PKcviOAPjQ0mJDFa4AoCfSlx3OioeVOOjJxWX1Y+uT803TeH+D07RGvkv5eQu/1Ptxvpk+xvjLpW3PcqOh8jJvGGsPRv8/g/W9oxKunT/g13p8MRz91gwt/j50GXB8VUwk1YJwD7Y/S1WONZ5/F0pQ15erD0efYHZVD/5BAL3v/dOuHLwN9aFmvY6fxzHnRy/o0j+dET/YuWrg6FP3nyPcm+mkN/RfI+d5fxxfgsIE+lDq3+/ZE4vbxoRQFsAEWGZ29f/rnuCG1uNtOmevD0H93DlQm/Tmy9wV8sbT0zQGsjUVEusdzoqkLMDIz0w/2/rxg+g31h8j5Su/z06GTZdDvSAhFZF+trMdzeAhtR+P0v/E+6O91nI9fp5gvVsn0MeNrj8YHHP3Hc1Zc3Na///Y1vsMSK0PHfZLW+8MB9Dl46dcp5nOFq/dT53esyZ3nJFE3fWaf7LuJTb/weI5Lv0Xr8ZwBb318K7xjzvlN3sexziDvu38dzg9FHz3KNRS47C/veASSqpWFBBTVN7HauDfQkyP1q3E6wkzf4H0T/Tc4eKX3T7dl6vTK5zma19mF30o2/aqfqAD6y9pt8y/FiBdbganXByl7fQb6LzvOx6/D+eHow2P7z8e5xM2ReD/zpRVAn9ye6D23IdW8toBTkcdEf561LPpBcf9l+ddFzHekm/GZziQXOlgktD369EWoVD4OYZ7xBXqf0zfU+7vJ+ZL3SfuYWTjOA41HJLMargD6DX3S6ClktfyAgj6cH4K+/OtAD/qlPot0b2SGJ9c6c9xvI0ufNX/m2zgvTR0DfVjfSP9+xa+78X/IzHJyPagvOo20FQVq63ZHl77vOuANl4ctlx5T05/nrBED/TsV3nfrmdATqpFidbX96ggUeyin6dsYZfqsvg1TqM1D4S/vUNFH2kf09TO+tMr7Lv0evqM6dON5hURhtPvciIT8YtVnPZ4TcfrO7Q0T6y7LlGCdrYHenzevz0B/6UfB3n+QVbwaGasA+mXpZzV9gZ7r7r6B4vUNynN9S38Opr+TVYuqkT6si8M5cH7N3X2B5/pSZy3dqqQPRSmEx/R9gvM9A/p55P1t3TjTq6b/dTD9hetZlagK6T8N5/u9T/RvvCSY/o8G79/JqkRVSB/luudwzjxHe7oNz/I0HaHfP02mv9Ba/nt7hofFvT0V9jK+Cqdv39szPOy/t4fQS97nquE/f3UbnuNr+mUOSXXLM8evuLOrAl/FWOn0fXd2DdOdXXC+54Z1R1MXGp7hbbrPAs+Xzvua+/pGWaWpkunr7uuD80FfwLfd/8f1huf3mw6r4j7wL9Te1VlpqmT6urs64XyX96E/jHd3vOB437/1L7TXPof+oLint7NC375f2fRJrZ3int5Bh/4DcL6Hfg29R/mA4d6ehnP2ipjvS/uAf+FbrEpUBfT9+hrOB3yXvunP34U7u1THO3bLT4LB+XxVQau3aum/COf76NdYq+YL3Nenod8iTnfIaR8HL1Q1rd4qpE/otd7vM93VWZ/+VfI+ud7+AlRNs6/66D8N54O+iPn2eqpPd08vRrzvKUo+Qi/0MqsOVR/9l+B82fsc/7Y+3R3dGPH+qPe+0CFWHao++q/A+W76Nc7aI0Z8uJ9f1ej/xYFfpG+Bh6rk9ftVSP/dUyDQR9o35RryaOg3Teq8T5qZ7+GtBB2E85Vx/w+0+UFfbveIu169+KGZ+g7u6OtrnfWp3XMAjV4t/TdOC976Z+7796Ouh1T0a7COotGrod/QtEKA5wJ9oK+ikq/q6D+tC/sEv2aEt/qepVZfimnaPT+R893ed+sNFiuK+vyUYO9v0Td7QP+m90TM93m/CpP+apMm5ae0r6ZmW0CzB+2eI8L5Wvq11ZL0V5sOGrw/5TrNr6W/dBKvcwR+Q9Kf6cj35Fms/0P8k+5IM1nvqOgTekt/dBdfxQn6UtJ/aI6E3+X8hbX+pL8zf+1oZR7uqkz1iLNU1+aH/Yf5HfKLvPBp1bx6Icp9Pf37Cb12638axwuyud5kUSzW/yF84L25LA7XbFKHfQFeKCfK/asuCqbf8pGWfq1Y1Onv6km6NDgW7/z/j/Jjg0mXerqoy38KvL/I730Of8tI/xr+PjbrZA8KPvl0T8t7Qd6vra3dxYTGcK403xGlC26rXzzNwnnqMSb06CnA70n6SNsCCz6UfEcc+Gd46dfSeoa8Lzaf/mzFnuyrcLVm+0XY7XInfYuU3re0R6T8KPjKSPprLe20f7l1rKuTxZpedXaNtdrgPpI2fi4bPKX89nwXBZ+a/iFyPl8u+rVYu1msqGk3oRcL8LH1vyoe48J8V5f2ZXRJfy3peRYranoEzndt/C7lMOELpN/4q3A+/wF9OJ/T38diRU0PcPBK75OeQsoP+sqk/0dl2ldb1A8sVtS0Fc5fpPL+HlfKD/qqY72TIuYj7nPB+ZZuY7GipY0Oel3S9z11+ZHy69K+vcW0D+avdWsvixUtve1yvjLsv+p0+ZHyawL/CoFeLJ/3SbtYrGjpUXh/0UnqpE88vY0uvz7te5+cD+9bzOPAH11thfOV3t820i8d69KlfUfOgPddWT+0kcWKktYL9Nj4JfpTdtLXugrHurRp32Fyvtb8L7BYUdLDcL467B8wJn1I+/4h53Mp0r644o+cHijGfL4k+rNqao7yTp8h6UPg/4lzD/L+a0ytdCTewVC10n68D8H5yqRvi+j0IekLpv+JcL6W/oLa+5msDJ/4R+qFm1Wn/uS1XRkm635yvtb7e/hp7uBOH9K++pZJQT4A/2EZfW9l3t5USRoUQ3X5C/Cuy/nKpO8PcZ43uNOHc71/nxZAfwFff0roSfG0/79Ta1JI/gK8STFfLC/8WeLnqDXe1Ty8Ld/VvOJXg/fr0OxtzfdK/1danXNB32ghkdjQc02mam78PT5Kbw54TT1cho8aPrvtpKLzT4L3PWHfPtGJ8W5w4P8R9B3B+daimi8zPpokjWUz4V46gLcOxMKnnk+AfoAy2bEkaXQ8Q/UeYr688XPnz9pDvR6Md4P7PYfVgR/4P2FC2SL6NDOqabX3BagReTNvJLRyAvQNShe/AFkm9Bg537fxA/8BGvCh1xPc7/lHQ3+Bs3Y22P8nZvRwfi7h1fY4SXC9xwj0Q38B7I998UcCvM/7Tsy3FsI+ej36tC8w8C9YsMD6oTlfLgf0BnUUAD5Kr2iMgBrWJsLSxxcgl6P5HmI+/1Fs/E/lri+GfSR9QYH/iCrwL8Aqvd3XZL8DrbCmMdVwVY/911ezWJYumAD9Mhp98L4FH96nNSXO9SDsmwP/88qtn9BbepKVqOXbBfA28Z9vsd85NsBicTX3Jsqnn3qoGPNl63P4s2bxJv/NbTcg7JsDf4Yq/rlnzD2BJMBjvVFqXmO/m7eFwoDzh40lXr5ZPv3POXbZ+7Nc3l8tDnMj7JsC/1lLV7x3BuHH1k8xn/RxGfTxx1vWHtN3dHnhWOgfRMyH9U+A82dtK57sQLVvCvyT5HwXfq/3nyyxXdNZiOkHhMTBMukvfsjtfdC30Nv4vx/h9/NaTX5j2Eer/x9n45/r3fqhQ6wkXTTo3vlvTVhaw2LZ7yzef3mZ9F9BzHd5n5wvdNSa7d8wvKwZTX5jzdf8vvA9vI/ITwHgkxK/pN2U9aG+3XALm/FKtVl74sS5K8uk/5gc9bmKMd/a+OXZvnnr3yGcL4St36269SUOKbbbFV8LazjffkH/2mi9pHVa1CpC4CWpMulvPEnEfJJ347dl1Xt4cD8k/Za/LfiKrR9F3/OlVrUbovpe9ulTejO1vcqk/wic76JPvhf6tG/AavPiprYwgT/d/CsHbwtbv0faazt1456hzQmosCZO+Wi4097KDPS1A7QvBXaSZ+MnPcU3ftR7oG8I/I275iq2fk/Rd6d6L8sls0ytRsx5Xs/HzhfDHZELGehnkzn1TGQTnI/hLrwvNn5xqAv1Xsit/9DcouB9j3aouvk91vRZ3dW41LP1b79uxo/4m9dRBDTQt8b6PR1M1n1wvnfjL+pVPt+zr+hE2A+x9d/U/BPoq4u+1+TRA437Myr4N/rGPIW2GY6/YS1GnUH0MzTQlwdqL8L56o1/S443+sRZ7ptCbfyY8x0xmn+v938y325f5NOvDFOXFgTykVV8ymMnABMzfMJ/3evWB3IpM9FnmRx9svmMt8vLsUPY+KGpEbvRh3ovbM2n2vq9Rd+f3nAvNJhPq3e536jKQ4sjsW4Fm8FaNZrgytXr6UPpPN3U5UkA3nScL2f82Pj53cxyo8/c7lNu/R4t2eQK90K9WaZRNmFpdBU6vVy3spkr+7TL4BALpA9l6VAfEoA7T9JaHxn/WvEQDxp9obf+Xcatfxd9M+mLOdbJdDrLTvfHU56/7VvMZqzIAJLOa9SOSsYoAaDd9VHhfPPGfx02/hK2/r/nmsy/8zYkpe25DNOrxZ5htzHSwIwf8ZZEHwkASqrbHvd4H/Cho6Vv/Nj63w+iv8Ra1O/LItxr1Hiel36b8yedsSqVPhKALPp8quEu4G8TGT82/tD0xdY/Gbz1c/xfMVsI9yHp99sn+5ayGavS6fs+6xeN1v/eavU4Gz/oh9z6z/5AbX54P8wRH+z8CPTnXGu3+uvZjFXZ9FHuLVLmfNBq3uopeeNHw+cTpfmBf8mSD1kIIc3bfrbzR5/xA/5jpf+YMePfI3r8ulaPeet/XpP3LSmuuk3aDCUtV3yirYl6//VhFiuw4ktrM+lNFPOFTlZt/LMP2MPd84ew8Ze09V/0hG7r577n8Ll26bKTZE7u9nBtXp5KLadh37fxpMdAP5fUZdMHjdbfkuOneuzhbkkbP8a86m4vvL+kbud6ZWbSjgd60en1aWIlixVIv9WqpJUZ9XqQ584/GfChKevhTf1w13y0Vy75gd/RL4q2RI/dlfLPNOIpT4n06XNUNNEeNVhfnOvgT3GIhzfVz/CYx7yr/rTRn8lXkb7L+Xzt3Ci1JJKkrBf/ZQUP/Dvig10G+tkkSWqkrX8cMZ8vif7sWbN5sW8f51yFjb/ErV/kfYT/BC9+Ul3dDl/AF/MotCSh1JX7Ab/3ytj5Bvrp0aSj9rxvsG+2/gFe7NOl7Nj4S8z7Mj8J9PA+F5wvlsf8HaNJl/L+f2Xmmp4NPOCvW9MaszfSzyddGu1g0MbHEfP5An14/6nVfQOmYt9c8u8oev9M4HdkwXebv1UEKqg9fmFP+cq0Jz3qaVVa3wMf+L83FPvhSv7lT3DwYoE+nC/Wk2T+dC7pV47FKldj8qeZduY7iPly1J9trS1H+6Riv5y8b58DH+ZHzLc1iS+rX/G7e8pVZ1JSO9F/zu38k1Hueft8a8vP+VDy3zPXgQ/zu5xvicyPQAX1sljlqTcpKY+oL8BLUR/e/9Qa8IicD8V+WXnfezZ6N37EfFu/4EY5v7IsVjnKJiUNyrX+yV7ro9xbLR7iKDvnQ953mJzvNj+8L7RzE2X88v9xvPWXp07ZSR3U4T/R7Xyv9WfTEuXeFVcj5yuHvuj3Df3E4Uvmr/NoH7Plz/m7WKxy1eXP+THcczlfWe5tWd1nPbZNfT7QL3nrP6dl1Y4ifJjf9j20G41pqD++lulYlO7HR4mxyW4bvBz14X2Ue/y2Fmz8ZRd9svnrvHqrOJTCdzW+ka18yf2Tfvpn78D5luRyb/Zsbn1TuRe+6MvsUpjf9j60l76v7U7A72Cxjl0dg75q72043wd/trO49c3lXviiT2X+Op++SlG0sv9f4xeyHy/R3KSLgGz1OF9V7nHr82MdUrlXdtEnmV/GP7/ueVfVl4sD/vFTJueq9h5xxXwvfHh/KtdNxzpQ7h2L+Zc9YcbvtHw6kz1xlXd81dnj9Ew3PuR2vqrc49Y/6kz3cKyj/LzPOuH1MaE/9cxTVfTnW+sIsxUH/OMtfKYHEfM98Iu+55oSJ7qo04Oc7xg6Prd8oMYPzZ8//2V97TIe5/9h1TquD5sveZ0vl3uw/tVXSp2ecos+Mv+pYkn059P6LqX7A/Ume+NMwCAc6ejVWWXxVsR8rhMBH94n6z+7Uur0lN/xaf77A8LPpcIvNKlvWsUvbPqXvTOPjaKK4/hsW40GFe+TwwQXoi5s13aPWpraVmylXLaU0iJWy1Gh2DQ2SEo0wcSCRvBArnriEY1aObRqFAXEM2pEQY3xSIwmHn9o1D/82997+7bfmXlv9s3uzq7b4/uyMYoK3c98f9d7M+NSdUlGpE8qnI92jwTrsyEvJj0Zm/8p4Xxr6Ifzz6DP5kdVF/MNfK9v7JyHOwX43t4NqlC5dhd8T86Xsj4Tt/5qYX1MejwwP3e+yvxnJPS+ol5tLxxzforuJ7Ur+qZBOB/wUe+brN/olfWR+Qm+HPrPwGJ6woCw5V861gKmolgpNvNN2mPJ+XLWz4L1Yf5gv3C+hN+k/V3WMFbOB/5jFV9q8se/Nmuy7PoazreXfMj6C721Psx/jxT6SXA+fUgPWLpUfhGP7fKmrjIeMi2Tk71DvofzkfWFPkfB74X1sdczveITlfnPsOkVU5PPd3vGOv10FOS7O6bW/yM4397qA/4jC6WC3zPzvzleiZ8taH8PmvyxiX9awgFptP49Wy05H/AtgX9ffMLvofWR+SseU9A/w67j0h2IGaquQKV8ugO04u707sGHtHfC7oTz7SUftInt67Mxn1fWx7iXzP/XBSr89uD/fKLcZ03+qKAfq/eWPlr/ROG/zZTzbfAZflh/FZ/ww/qemb9jesU7Mn3Z/Q8/igfMjA76jQWe0ofKxF8f3Yo+H/U+kxn+43Saj470sM29Dljfo8xP+/w/HnYT+w8aQqOF/pzs0IfeMOd8acqX0Nvha1csWbA8FlRv7mW8zz/zXb35SW+OLvqTNmSZ/gFrzof1LVn/GXaQdx2d5tPs66e9zx8IfuIG/+ZeI4kiwbTo5++LPWZUZ0o/GEn2q727kPPZkuGj22uMLi3x2Pq4nX/mv+PdxP6jkw1HhQtLgxnTX5lH8I2S0gzpB0uT3e7atXEcRM631PvQPjbjpTP8s3Caz0v6/J5Od4Xf5U8lbWPLM3qHVd69vrsq09fKlicdjOy05Hznku+muvighx/kBX1Pu76aw67wP+sAnz/RN5jpu0zy6/BYMaffaKQueL/Q8fzLdmvON8M36c4PWLcnBj2wvnf0xcjn7wT7y8ZfpqJ/Of9Me8hz+HiXyTX59cQfnpperjGygv+hXcj5HD/gm/W56PbEoAf0vTV/IHhUa/7Lae3v0fyQ6b/LpKXVyCfFnzrbMtdIXXpbdL9o7vNV1kfJRw9k5t1eFqyPru8veF+F/3KxfvUSPuI+qdjIK8UfQP1hh5EF/EVvIOej3ncs+eRuz+uub3bJV+MR/EHfip90j2puHfZn/u7CPNs4ipf8CytWfFdfcGv5An+6uzrY04X6rDnfKe4/Iwb8NXTvltTteRr7K1tn9RN2Qo/Mz4ScH8c/4fLX5ccRhDN/V3l9s5Ffipf8L9dn+prJsPywi4+Q8/lyKvkWDpV8eDyb5yoSG/3HhkL/ZTb8cD7p4V77Ea+IkYkqb8nL93msL7Dpw9lGWorYz8L0bjXV+1LSh14I05RPlHxSt+d94fcq970NP0cP59P6pFu6sDPrrPLR+kU3Fth1y3QjDSE8ouJDzudLDf/xxJSPl3xy3Pd64lfTL5wP+ib8QoT/UKI1i2GzPwPr52PWNy5ZWSApPCmDLf1YYsb3sS3nO8X9DfxMx27NlM+rwo8mfscE/ItomfDD+WK9j2PKabX58hP+8+4pUJXfSfDTD1DBUmTHQWufD+fb4z5v9UNtNRWaks+ziV/nVwRf6CIzfjh/wgT2uWcIfzBTj30mXuiXZxJT/vJ5VxhFU8rEq4YXTkoXfx3KffT5cL5D3Ocbu95P+WT6/JzHzKb944m7WDb88D7hf17z07p+vkvNywWkK/PuDX5TiueUt9+6THzpwbsLXM1+gtWan3ubPec7zXl43I+3+h2aKZ9nTX/Fv9z8DP5FJvObcr7QtFc0kc5lRii6Pi9rPkkhHD/I5Of+6CTkfKX1Mefhcb9ZE/e9jv3vct/L+CdgcaHvswhP+Ym4nKh5G/iLgiuuri+ob79ykbff19yWAhfzyAiexANJvZ6j86FneL1Pcb9TE/c9jv2zjia8b8WPnC+0f23S8WbY5Uyl3stXtxY14UTG7QHDO+HFg8kVTjr0Xvv1OCGN8x+Jz3nWzMt+3If5eez/67BwPqMPwflCaPtThw8txjZq5pq8ur4AainJ5FhXbNn14atL1+vp6/Gj0ZdyvtO+Ls33I7mo90FfxP7g3xy9Hf8QeOhoj+YL0OsKPuK/dZY38FdlOp2BOj5EkW9qATCwTz3u9WxEzof1HfZ169icR1fvZyX2v+qEn5ZFh7oygY8vtXqGAWV0PgjK8MDA1GsKhq5LHPUoLTHSw48pD/r8pM3eCprzZCPu62c+Sz+5SI1f0sHJysKnBfA1isYddnF2zuHd2mmkrTWW+LHobs0LhrUlb9cb6PMdnY9mb/U6mu/nJO6Dvpj3U+p3gX8irfeL5Jl2KuO/xd69uXXqlQJ58SVFs8MFmf2P8ZrJq2svNmYkpj3Frk/0hOx/ukF7zpfhI+nfTPu6bL6fo7iP2E/z/tZFf5vpQ5L3J048nj58vMY3anigmXF73lXLi7YwvJqeiiIFkp6uNNLEX7RTzvlOE14x5Kta1Erz/VzFfcR+Sv1fgf40Nf6J8TXtLennjqZaW71c4+E8Zn4ROsmMzmVVPl0A4cJSS+eBLeMk5zt3+tdSs8eHfDmL+2j72K1dFUuPOuKHJnK9pYl5mq0UqZbKpEzD28BnX/3dhlUNsbQPDWC6q3/JqB7/XvT5mqS/aaFI+tTsZeson77tq90v0NOaKNOfmFik40XY8XN4pEfgZn+SQu27Sk/uvPH8fpCmFovzQyoQ/psDTkO/OoR9Kec7Jv23edKnTX3R7OWSPtq+RccuGsI/zeR+i/OF3p8K/GGHVxG1B53pXz3Fu4p/juGhKm+qx+iwVRkf2h1eUBVG2T8VOd/B+dA+3unzpD/dn71mT5/63004X3I/fE+aRp9fhxq/mOPDyurUZ+c8ox+rx9TQQ/7z4y8ZvS5QlNpPhm+ia1Dq8x3hfy46/f8j6SP2s4lvzatx/Fw+CM6HDnYlBZOLV7hFE5twU+bTNs+tn0WzfU4Qsx0CDen7fOeK73Ge9Ncj6eecPrr+pV8I75O/zfjNOX+aWId6ko0/UAJlT8ViNhcir3Ld3ZyLry5YmnxXr+djZc5XV3xszBOhbV3e6ecePlI/6/pr9wvnS+6faBXhP9qd9GbGkJFVYRQbRqauXzHZyL7Kkt6+2r1RnfPVMz5R8cU6WyuznvT1qf/fh5n3hb99EHI+3P9Jb5KvZ6WRNYG+rFW5wL8SjY6k3hfHaZ2PGR9VfDTmWVaV/aSvT/008G86RqYntNMk/EPCRdD/kjo0aub+2aT/cpuRfflb8Awumwa2qvt8dbnPKr4lNOZh4/3sJ3196q+o+ZuDl92PnI81fo/yufT2siiGLJAl+tCHM4xsKBSzF7Xtqut7zy5XOR8D3lXX8Yrv/0v6SP288qv5irs/viYq3Z/4Vfr37lP0vdKGV0thNb487+nX3xQoKpq+qj7+N1WG94rR9EIa7SjmHE+Oc5PzMeBlMz52zx6D/38lfaR+qvzmdsZenah2P3K+ab2lGnmWy4+qDQcMr9WIcaxpr3+x4bUC/L0EZfq6dov93L4SPno9Xu5Hl3bOpYovN0lfX/ktqvpCoCVJ7kfhJ+oDW+MfYP0QSOO1jqURr0uBKrENNwOHhkgbJhmeyh8Rf36/8seEeqjN1/X50Kahcn9Rjio+feqPF/5t+x3db1/UIRxda3/ZfFTKBFztHqZ/THpxPrQOW7zeKdSOF6iaFbXPs9ZuHOcu56PXowFvotzPXdLXF/7/Mvwk2f0AL0T4+1+xRvk6qQPIzgt9Z7dz3HWoA6Qhsnevz0WVr97f+mirq5yP8xy816OjXLzc///hDxX+hP8XuJ/k7P74nsBFptovghN+yJBQGL/o0YNWcCP4HA+3/PAcBqjcPvGNSPWe5HznRv/G60WvN+WKvICPwr+k5peHibra/cj5BJ8t0vs9sEtQipBmeVn8LcG5S1wMODGYsQKFJiGjyT9oz6CAjz5fC38F6/Xyody3Vn6TqPAPEn4UfhPU7r+ILYH/k3sNtVoKLYoYHqrm5bj545m+9q4CpiWGd4oUWtRuqHUvndo/OSXn38Th817Pnzfw0fcFlx5zcr8559MSOvy89vvzcgSIm4FJ1TiG6dWNAmhX9Nfutl3jUsv5fMqzjm3t5EOvZ6bP+76O6a2dJvwTVO4n8ML5Qm9NNiA0RpD3Wz+1ZH4IN2N4plAh5HDD3uS95Ht9nw/4+xj81Qw+be10UK+XN9Y39X2LYhb8E6z44Xzo0FrF3M+5bvKgAph8cwHklfUDTjUr5nvWRo/kss8H/LIQ29fLj15PKvyBn6MX+CHmehl//zbpkIdVMUtJVZ15JJiyUj6GmZlC1YUB7U8Abds6TpHzfUnhX8vg8ylPnvR6OvwkK36At+h4j6F3DsJCIHP8G6RjmBmX+WFN9IJ66PCmlPOHNXwb/rjv2Uflfosuo/XlR87dXmnAVlCFjcw1qfhW6RhmJgoju6Nycej6Xv+a+z5F58/Ja/hm/FUcP0nlfoXoOQDfdJniZouiYkYzEPRm6BPdUMqOYS5u9eKLDCr+oFBLDL/QtdfyXj03zv8gAb8qf+Gb8M+q+mW/S/yXJda3DxlQGazTYp8DlBv5qHL09TjKQbK/T32AnsHnPuej1ct7+Hb8TMAP2Z1P6JnG901VTUuj9lYqv57Nb05XIeW0ss6UEab2nQTnS8/kUW/sDBf4luC/7EEX+C/Douf/HR2QdkpsTq9GLICCRu4VVE0nq63RQN6hGthIrpf7/KTw3yb4+V3wKUu/ZV+4cT9hh8a/1WN2j3QOLgaDmevtdtz+lRP5b24vDKgmPDHpnGLUgHpowAPno89PCn8Dn+2vGxbwLfiX/5BAfzlbVvyy8/my9v6R0rD9VGypX3UUOMf0sUtr7UZWWvuA0ojU46tyvoo9DnMMJ/gW/FHCLyTwQwj9cD7XwV6zry1YA8qZeTW+9VypHFEeitgnEX6/AfW+Qb5X5XyfHv76UPMwgW/Gv7T59yHnS/hVzh/PPod3TDYg7aQnACPmTGXqP4jzKKKrbxd8b3G+Ej7O8NFhDrart3S4wAd+2vJp/jNhfSYrfnvOh740hX/NpAckciOADmknPtC2F08Wzof0zv+cw19S3MA2doYLfCv+fzYnnE86w8qf+Z6DFwv8D+GGD92kZyVFYfnfLI94t1tfXhjRZhtMfGR9tJHAK3O+Lxn8Fwj+zQx+27CCb8IfrGn7+WGBXmF/yfnQ+0j/0qRHW4GtxL/pSZJfqak05YkP1DtI7NU5X80e090r5yyeX7ymrSY4dzjBH8LPTvvUHtufcD5bVvy2nG/WBd90J2+p8E8DiuvEQ++DqSb0R+V/2r2Xg5dzvhN8zHg4/AW7awl+5bCCn8DfUTm3pKa24QtCL/CTfBbB+ZL67+uy7aK2GJrADzZRu1tLy8vdGL28tEzBNOCu0Wix7T53PblL+F7u833Ji32a8cyJzG9cVttUMreyY3jBTxz38FcGKprmLf+doRfLzh/el/XlASt/vy7wg5dfdrCJfustZrVaqEYUv0XUXej3W9kf+JqoO+R8n6bYp05vdVnj8nlNFYFKf74d5nCNn+7wnFUV/TPufSbZ/qCt4P+khb+7wB9RzIPDFvolhWaVWFJ32CGP6EO/zfdbCbxDzndkj2Kfz3iqZlXQAc6rhh18cdbvKnbOf1Ys+s9m4Xw1fnhfUn8fpr/qwK+p04BVQx8Xia6G1M+Yeoj9hRbnM7mq9e+kYv9KKvbXN0Rjs2bSuf2r8uoMX0r4JxF+Nvc59iDHnrr9L5D5qwM/hH9ooR/R0EeCkEJJqbL99Duy74PvpT4/GXvUe9Tp8RkPndsflvCH8LPGv6at4Xdyvlv8QM9X/45u58AfVPXdMacrQk+/0LAppvxNnEN/dx9qPUXOTw7/cRrusnpvAev0qM0ftvAJP+li1vizzm/Zn5vTsT/BJx1+6yGHwN+ivCRU8SDmgn5M9d8qQbc4zHUHtoC9Iuf7nOBjxFNH9R4V+zUlos0fpvDR+MdL/5/vV+CHnL3PdXB7l2q4Wqd6NF61ZFU9fWefVyt/FxX9ru0fX8jyvWPO10d9Svms3mPF/vDr9JKW/qEfXOMHfKh/R6+U+EMBVUEWVkVvvwv6flXWCKtKy0BISvu9O5DulX2+Txf1h1J+jBX7w7DTU+K/Kl77ta15b7OWP9CLZdJpn+5RfRn6QB1FRFfRh9Dc21KJTlP3DJLjaTnmfJ9VJ6gavRtX8ZRP9R4V+8Ox03Ou/VjyV0d/yO59SV/ukO781BVpqNv19EvRG8hpw1n37vga2GXnw/fOUZ8G+2w/l6X84V7vSfj51L+iiaL/7wnw5/PP+U744XzoNL4OHejWbL4bEDo5DX10hpoWUlL3Acr2fDnnfEf2qPV51F9PI56mCjbZHxnwGX5e+/HkH2teQ5Mfvf1l9LgASMf3TDYg/XCmPAX65S7GR9BkivhAbpXe+JjwJKI+HeNhKX94F/vq5D99ZidF/wU/JNwvlsT/Aifni0X8+3fuUQ+Bg2UrQyp+EVf0Iyr6ZSvLgupx7h7q7+B7h5zvkzL+CTbjv81qfRH1O2dOHxkpX5H855aw6G9u/Qn/+edL/J2dD/Uf39ZluFNLCvTbDXfq2bZz14UkYLfKje9hfLaX30BRv2TuiEn5UvTvqKToT7X/zw8K53P4yP5QMudDh49vRw2g6QO09FHf69W9nUp8eN4x5/vsEr6HNrEmv+761WWs1p/FuvyRFPWBn3f+FP2p9l8eeg/O55L5J3U+dN7BvoEiF/v2MVf0Yy7OAUwd6PuY0MeVNOf7kgZ99Hm83FtOtT5FfdrSG3HwRfKPR3+a/DQ3kP2F913wh++VOnJ8e6+RgipuM6vCSEG92wd3nXohW6TkOV/le1p247PR7vwFfMLDo/6ISvlS69cxZTYv/hrf2wz0ev5Ar9a3W/b0GNlVz569X586hF6T8xW+tzv/zoTx14V4uTd7in/ENHpK/KL258Vfw/rf4H3gt0qd81UZ4LTzzju0ZfvAVMNLIdpv37KRsBN8vnQ535ccPkp9ZnxR7lGtPzKjvjT5CdDgl+z/z/0g78QfztfpPKazDu7d1mt4qd5tez8+ciqTgK/N+Qr2JAEfwz1hfOrzaLQbGEETHk3tT/Zv5fYv/n2zmf2ltHySXDmfr4SOHNxy4PW1RqZa+/qBLRw80Otzvk/le7EQ9J9ZGGY9PmV8bvxWZvyRV+s7FH9815fZP/Tzgzb8l17qkwXwzvghXANPbhvoNlLXowN7ngR3SJ/zfVrfo9pbxUt9Mn4FM/5ILfccBr/c/s1rFvx5vwAvlpq/O+dDZ7EPX0cOHd9x4PWBe9f26Jr4tfcOvH5gx+DGI6ecypZZbnK+xvcI+vH5Dg33aLLLjT+yRrt6/InsX1MbDRVT9Q/vc53pUyip9yUJ+BYd+fLbjZ9+Onh855a9e3f09fXt2Ltly86dg59+uvHFrUdOgazoXeZ8n4PvhfdR6fOgz6q9UJSV+tz4I7rck4s/bn/W+8fadjeW/Z7wPkfPl5q/3vlAjzWkU1RLCOjhfH3O17G3e/+Zt4k9D/qNu9t4j8+NP7LLPSf7z54ZbJoXbVjw828cvRDDfyb8b5YKvzvnQyroqTkf2IHe2fdw/uOU8FmlT0GfVXtB6vFHl/Et2Z9Gf1T9sdFv8R8Pwvl8gb9Nzs6H4PrkzpfRp5zzfZDG95v2iYRPLT4Ndqnamz5jVJT6Mn7e+4vqj8L/MuJ/P3zP5e4CSMn5p8D5Evp0cn4S9PC+qdjjXV5xaBkFfV7tsR5/9MFH+L+Ch3+q/nc3rnvvfjgf/NXKg5zv07CH94n955z9ighL+M086FfOuGL0BX1p9MfDf2fNvOiaxrL37gd68HdQqjkf0D3I+T7Ile9FsbeucU10Xk0nD/ojfrjnxv6i+qf0T+Uf8Zfxn4MLwC6pz89Fzvfp0cP3IuYz9rzYo4TPK/1RWO05Vv9TZlP6X1q7nPH/Cdwhn6NSyvmnZOZ8mF5je3h/k5k9jfZ4wu8YYy/ws+b/Kp7+qfwj/sVl31v4n8M/tHxJlIucD/Aa9PC+nT0Ve5TweaU/Oqs9p+qf+Aeo/Iu1LQ8tKPtD5X9cAGpltc/3uUcP/Jv2gX1oeVuMir0AsR+1lb4m/Zv4/2ZxPpYvubKQ832QEv2JfMm+f3xfvM5fvIR8L9hPnzGW8PX8Kf+vfu25IdfjMmDy6eRZn+/T6USAt+pOmunSXI/1eGA/Vuy548/rvyVUANqcjwvAhdLO+cCuRy/jZyGf7eWwuV5kyTqW78fYu0j/Fv7RhsZ187+PJwCAh3zu5brP90Fa9CS180XIr5tDc731jQ1RqvWG2I8Ve+74U/9H85/i+ZQArM6HzsUVkFsx7PyjyPmPJEL+Yprn02yndukY+zT4U/8/r3l3qLhsyfe/3cHdr5Qvl4Lp1c6/M257HvLLikO7m+fVzCoZY586f9b/L6qpYgXguvmrqQKQnS8WyZcTAbza99Tcc9uvItuzdN9WRXO91tmVY+xT50/zn7kVnU0xlgAoAFxPGUDWuZAvuwJ4tfMf+ZwiPmV7bnse8mNNnRVz2WxnjH0q/EmT+fyH5v8zgywBLAtRALjue+oBVc7P9iVw4um0IEXOf+SZDwg9RfwV3PahZc3zWLqneX6cfdEY+/T4B3gCoADAKoDVK177yRr8JZ197tlne8b99NMB3tH5m8j1Av1qlu3J9hTyKd2Psc+MPy8AKAHwALC8oVFcAHC+hF4srkywn2hdVsH3Jwr0VONfz9A3NizntqeQz9P9GPv/2jWfnTSiMIpvJu22iz6CuqLiSALaQIAY0DYi/wpDBsxggCDCnoSERVc8hIlxYWLiqivfwYVv0JDQuGh8ip7vu3e4IypGi4rmHtKkLcvf75xvxvh0/kveAcATgFVTAqibf0uAW3lM11UU+NuR6Ic/+Naj9QJ9zcK1L0ZU7Zc0+/98AIytNmkA8ApIF0AKULn6ezq9+Sof3c89+SQ/jNz9Iz/33Xyc+jP8imbymwc9Fp9e8Lj2qzH9qDebAyAH4Lsd8XsEyJYaV6PT6b1X+B/KJ8BXUQrcmcOjM7n325VS1oPejxc8WXs9+TM8ALGFRboANwRIZ4OV3+fX/dk1n7FPvfn4gc5QkEfpK8Fs+gZ6WvzFhZie/Od4AsDPAKQAeAao58xMjyYABoxO+wL/E5vP6B+++YOTM5d8i0vfy5i5Om69RB9dXtTXfvb81QVoKgF2rNCxmV/ppssHpUrrCgrM4uZPfNTYD38BvCSPS5/uruTN45Czo9A35eJr9s81ACwAnwC8BezGMQEdk45AGVegsQ0F/vQf3/ypN//n4GQMfp/Xvkxzb3ZQ+vhuoRiQgw/0uvYqzygAPQPgLSDSpglw8BRAG4DngIMSFKhenV+f9qc1X2X6zR+4hRfgUXnc+S6Rr4nStyN4wtfoXyJKAJwAegiMigkQBtQ7uXwGZwAKYAVacODyfHQ96H9+XO8RtP3oZHh2eeFyx9RXggCPsc/kc526IC9KH6XHPAy+Rv8SUQLE6DUQE+ALCwNwBUK1jkkK4BDQDFRa29v7W0loMByNrmFC/76b/6F/OADykyFBTyKgTtjBHYWnqQd4rjzWXpAP+1B6ermLafQvFvUQOL4BUT4CgXaigBFgBXJjB7LBEixokAb7W1vVavVrMnlBuaTw3/b2GDelCuRb+wS9AeqlYHbMPcfgUflCoi3IR8d7rx/zXjiGdwKkAT6pAK2AY9WlAyRBugwNDoIkAkxoNFqQYSKtFv6/wsix8YCeJuySe91y0HgJPiXJu6XX6F8jhpoAYYBQwJYK7GIGHCtEEsAC0qDX667DBLhAyXpTpqSJ+Hq31yPooE7YQ5aDwu9uJBi8LcAzeVF6jf61oiYABtAV4BGQKxCO+NsJliBOFkCDeu0YIuRMEy4gGW/yFHyTA/LjWh3QiXoc2Avg7o+EZeO58lh7dF6Xfi5iqCtAI+CugHQAQ1AkC6DBWhwibG46joWEbsZCHGdzE8jja4BO1Iv+QERydxuPyvPa687PUwzvCPAKsANCAl/KZg0C/naxmIAKyMZkCkgCxIttf4Ch2ymfwM7cqfEMXpOfzxgeBXgG2IEmJIAFpAE88KVSth3mRLwJc2w7BeRgDuigDuxNcJeFZ/Ca/FzHmHCAh4A1gAcQgROlfFGJAjYivlwm5gSdqY+5a/BvJYZyABLAAtaA14CzKrLoRv6bv2PmDB3UgX3J0ODfYiQzpYEUgWWYiMQtkUvomvs7iHFnlrzxwNbUdXR0dHR0dN5d/gFDNMMwbmq6wwAAAABJRU5ErkJggg==</t>
-  </si>
-  <si>
     <t>image_base64</t>
+  </si>
+  <si>
+    <t>4oCwUE5HDQoaCgAAAA1JSERSAAABw70AAAHDtwgDAAAA4oCg4oCwdsOcAAADAFBMVEXDv8O/w7/CtcOmHQAAACIiIsO+w73DveKAmRYm4oCdFyfLnBgow4gqOsOFKTnCjxUlw4YpOcK/JjfDgig4wrgkNMKzIjLigJMXKMKnHi7CoRwswr0mNuKAuhkpxbgbK8KdGirCuyU1wqUdLcK2IzPDgyg4wq8hMcKrHy/CrSAww7fDt8O3w7vDu8O7w7nDucO5w60cJMOKKzvDrMOsw6zDtMO0w7TDscOxw7HDvcO8w7zCrSExIsKxTMKjHCzCsSExwqkeLsOjw6LDosOnw6fDp8Ouw67DrsOVw5XDlcKkwqTCpMKswqzCrMOyw7LDssOXw5fDly8vL3R0dMKQwpDCkMK5wrnCucOGw4bDhsW+xb7Fvn19fVhYWMOdw53DncOZw5nDmcOJKjrDqcOpw6nDtsO2w7bDhMOEw4RKSkrDi8OLw4tHR0fDkMOQw5B5eXnDgMOAw4DigJrigJrigJp+fn7DpMOkw6QNDQ3igKDigKDigKDDocOhw6DDgsOCw4LFocWhxaHCpsKmwqbigKLigKLigKLCr8Kvwq/CqcKpwqlxcHDDjsONw43DksOSw5LCu8K7wrvFvcW9xb07OzvDn8Ofw5/igJTigJTigJTFksWSxZLDiMOIw4hnZ2fCvcK9wr1/f392dnY+Pj7CtMK0wrTCtsK2wrbFoOKAsOKAsGZmZsOww7DDsMaSxpLGksuGy4bLhuKAnOKAmeKAmcOUw5TDlMKywrLCsk5OTsO8w7bDt8OZw63Dv8O5w6/DsMOtw5nDgycnJ8O7w7LDs8ODw5nDrcO2w6bDqDg4OMKgwqDCoMOjw47Dg8O0w6DDosKiwqHCocO/w7/Dtl1dXcucIjHDmcODw4PDg8ODw5lsa2vFkh4tw63Dv8O/w7/DrcOZHh4ew57CkMucw45LWeKAsC46NjY2w43CjeKAosO/w7/DrcOxw5zDnsKmJjXDmHjigJrDlOKAlMW+wqIvPsOJxpLigLnCpTxJw4o3RsOvw5fDmsOowrLCt8OlwqjCrsOby4bigJjDlm96w4gxQMK3MUDCrC074oCwJjPDt8Orw63Cs1RgxpI5Q8Okw4DDhMKzwrPCs8Ohy5zCoMOCdH5RUVHigqxDS8ODw47Do8OZwqnCruKAuiw5w7bDv8O/w5/Cs8K4eVdbw41BUMOxw5DDk8Orw5DDk8OpwrjCvcObf8uGdV9iwq83RBgYGMOow4nDjcOVZXDCt1xnwo9ZX8Orw4DDhcOfwrnCvcOTWmbDlMKhwqfDo8W4wqfDjXfCgXNqa8OFVmLDgU1awrUqOcK7ZnDDgTFAw4N94oCmxZNtc8OFZnFxZWdVVVXDrsOHw4t+bG/DkVRhwrc/TcONXWnigJpiZmBgYMK5SFV7TFLCrERRwrnCocKkw41qdcK8OUfCu294w4k+TMO2w6PDjsOSxpLigLnDiMOHw4vDgUFPREREwo97fcKrS1fCgU9Ww6TDtsO/w47Dg8ODxb1GT+KEojlFwqfigKLigJTigLBrb8O/w7bDo8K6wqvCrcOBXWjFoUxWwqVcZMW9PUfDnMOMw492BATFk8KBxpLCqXd9w47Do8O2w4vCs8K1wr/igJjigJPCqcuGxZLDmcOtw63DosOTw5XigJ3CtcODw4HCsMKyAABcw4PDg8Kvw4PDgcKjw4PCqeKCrAB2wqJXAAAAV8KPwo9XAEB/wqVoc8KdLQAAXTRJREFUeMOaw6zLnMObS+KAnGEcw4fDnzHCq+KAsMKdw5AOZsKQMQ9gw6jDhDRTPBIEIcOYXUFedOKEohfCgQxkwoEXdsKnMFZzwrrDpSEcw4NdLOKAoGnDhBzDjhnDmgwhSsKQDsWgCMKBV3XDkU1Bf0DDj8Ozw6xdwr/DrX3FvsO3wrDCtuKEom3Dj8On4oChF0bDkcOFw6fDt33CvsK/TcOgcDgcDuKAocODw6FwOBwOJ0vDiMOT4oCaw4DDiSLDmMW9KxPDoeKAucKQZUhk4oCUYi7FoFzCoMK5KFLFoMKpwqzDpFvDsMOf4oCZKMO9wo/DrsOOckTCr8OFYnM6w6cCAcKPw4cTCMOMOcKdwrYB4oC5w6kywqY8SsOnxbhlIGvDgFfDoMO/AcK8Y8OrRHrDuUBgw77DicOMw5DigLnigLDigKbCjcOhw63CtWPDsRzCjcONw5HCtcOtw5XigKLCjeKAsMKdccK7w4/Dr8Kxw7VWVMKQXSB7QMK24oKsw6/DgEEnXjzDtm7ihKJzLcKPT2zDjMOm4oCU4oCd4oCdHCsBw6USw70Mxb3DrcKufMOawrHDuwM2Uy9ZA8K0A3wFDjAgHns3B+KAkx/Cv+KAusOML8OBQ8OU4oC5A0jigJkfT1HDnMKswq3CvMKye2pMwqbCuB3CqMOkG3DCoADDscOIwrzDjTXCtDDigLrCjyDDqmNoTT7CvQTLnMOdw7Udw5/CrzLCvAPDpcOlw6Irw4A3w6AgEB/DuQHDl8O4w4Ykw5IO4oCcfMOyQTtM4oCdwrXigKLDhBXDoBvDsMKPwqDDjU8vDi1sw6cDSDwEX2vDp8aSfsOyU+KAnsOF4oCcH8Ogw7PigKDDlV9dZsOqw6Ubw7Bv4oCwMz8/PgzDmsOTxbh8w6As4oSiwqLDlVfCvsOqwrIyU0VsA8O4AsOsH8KgHl3DtsOl4oC5w6PDrwzDuRRpw6x8AFbDoMOsw5nCosOVHX8Xw5rigqzDqBtQWsOKF2DCv8uG4oCmw77DgsObwqHCpcOJ4oCaw7wCZMK74oKsKMOPdMOyw4nCjzjLhsKi4oCiwp1QDWnCgU7DsgTDsAXDiDDCoMOew6zFoRgrQCDDsUB6Oh/DhB/igKJJPsKwwrYew67DriAlw4AXIMKz4oKsesOL4oCc4oCmSSLFvsWSwqbDjsOXaUXCocOzYcOiKcO6ZsO/VcaSFsOgMsOqAMK+AEBmw5QPw4wsGQpEQMK9TMOnw6vDvh7DmcOOwqcpWsK1fsOHHcOAFwDDiOKAnsO6wrnCoWFDAR4EZMW4w5HDucK6dMOBw6h8CcOHw4nDrDoew5Z04oCdRRfigqwfwoFpd8KPU0/DlCPigJ3igJnCr8OLBMOsw6TGkn7DgsKuw6M7WQByA3DDv8OpxZJ9wqdrAcKrwo/DqWd2wr4uwrPDiCbFuAzDpsOsSsK4wqcGH8KBwp3CvAHDkhjDu8K3L8OGDAjigKbDpMOrw7YH4oSiw6QDU8OeUDVaAMOcAMO8AUjCjWjDrMKnZ+KAoMOFw5RDw6cnfMOOw5fDrS/DrMOkA8K7w5ZfXcK4AcOIA8OAw73Cp8O0w6Q7HxsQwrLDicOXw70by5zDiQfDlh9GHwBeACk9w7nCriXGksKBw4494oSiw6TDjB/igJjDp1R0wqLDqMK0A8K5Z8KwGsOuRg8AwroAeAHDvMKlw7vDqcKhWQPigJpOwr52w7UnT8W+PHISRMOLw6rCp8OQwroAw7J8dnzCjz4Aw5zDv1/DlMO9c8Oxw4lndcK+FsOt4oCh4oCYeBjCtnZIwr7igJ4zw6LCpMKwAMOnxb3FuFsPdRPDv8O8AEjDksO9In7DssOZw4lXwo87wqDFvnvDvMaSYMOqwo/CoVNGTj/FoVVfT1figKHCqeKAmsO7T8OGw73DvDvDkB4bDcOqUcOew4nLhsOiYcOYwqgkH8O0wqvCrwBTPuKEosONcCsqAMOuX8Krw7vigLnCrmFDAsWhw5TGknZtw4kHw73DrMOkM8ORKcOAw5JPeMOPw71rdn/DoQlxw4/DqHzigKLDjMODwqTDlMO5Z2ASOB0bwp08ID42wqJ/axvDssOf4oC5PwBww78Kw67Du+KAlMOJ4oSiTydfPsOz4oCh4oCYw7DDg8Kiw7J0dj7DjcOpP8Kow7knw6LDicKPw4hnw65fw53DvcOMwrZEwrs4SsOqwqVD4oKsw5zCp8OUw7kgHkZtAxLigJkPTDnDqsK74oCYf8O+w74zIH3CvzxmwqDCkFd/WATCtCcAw6rDk8OUw7nCp2lkw73GksO6eMO/VsOww4/DtScGwr90fsOYYGQkX019wqrCncW4fMOywoHDgsOT4oCmOibCkHzDoMOEwrkTw6/Dg23DncOiw73Dh8OjH8Ovw77DueKAmcKBBVs9wrDDj8KdT1NYw4heACzFuMOWf2LDs0dbNcO3Lyl8w4tjxpLigJhOwr7CunrLnMO0f8OOV08+xZLFveKApkTCvTjigJjCvcOWw6oOw7TDvR8/w7/DhMOCN8KPTyYZe8OVw47igJRlZMOUw60ORiJbw543DuKAocOVw6F4w6PDncWgROKAmm7Dt8OoSMKywp0Pw7rCo8OIw7oHw71RXntvwrd2IcO/wp0XcsK9w77DsxDDqMOYM8OSw4lnwqs/RMOJw5fDksO5xpLCo8Ouy4bDg8OuCwVsZkEewrMtEMOyw5kdEcO3aGESw4nigKEVYMOe4oKsw5LDpBPCphzCtT1dZcKmHH/DvsOJwqPDvxzFvT1AMcO2w5o7w7/Dg+KAk8OVw6dxw7YLw4lidnp8w5bCrQ8aOh/DvcOEw4PDsg/DiQfDnsO/IMOnXy4/w7/DpMORf2E0wpBRcQ/CqcOXw5bDucOPw5wOxbjCs1JIwo1KwqfDj8OhHlFLwr5qAUDDssKBc+KAmFvDqMOrX8O8w7zDp2bDvMOJwqXDr8OaBsOxCsOuQcK94oCgw44fCVo9FiF9WDzDlsOgy4Ziw6fCq8OmH8OEA1M/a1tzw7bDucOHw4EfWDBAw7LigKJywo8GOl/DtnM+ER/FoRYywoElBCtAJV9DAUDDsgHDt17DrMO5w4/CscOrwo9cezPigJzDrcOt4oCZw6TCs8OUHwLDrUrCncO/LBLCtgnihKLDhRbFvcWSUMKdw4/igKDigJh/xaHDl29u4oCcT385FsO/w6jCtWfCpOKAmcOPeMOyw5HCqHfDvmDDkD4nJEHDm8aSeMOa4oCeJHDDmsaSwo9kOh/CqELCo8KoH8Kuwr/DusW+HOKAuX8ewqJvw4hobAfDsTLDrnHDrsOVOn/DkG0NwqjFvnctLQ1NAlDCr8KPwqdeAMWhGlpaVMKPw4HigqzDlV0sUU7Dq8KvwqrDksOkw597HX3DueKAlEPDscOHw4F3DhPDtWTDpMOdQ8Oyw6U+w6cPRsO8feKAmgbCkMOjOk3DtsOrw5DDr+KAmgbDusO8w6vCj8OYwp1fBcKjw67DvxLFvT/CusO+ciXDvsOkw5Rfxb5sN0o6xbhywo9Rw6x8UMKvw44dwr3CvlHigJzDvUbCvcO+xb3CoMKNwr4QWgAmRD1Gw5E/wrR/w47DhMW4fMKpwr9k4oCew6TDi8K7V8Ouw7xnW8KhUsKBRW3Ds8OdOsO6w6VPw4I+w73DsjfDn23CrhVY4oCd4oCgwrxP4oSiw6rigLDDvmIyxaDDui/igJjDmcOc4oC5w4Y/w5s/w7vigJzDj8O4Y0g+w5bCr8uce8OFw44/EsO0w4tWw709w6LCj8K2w5/CosOJfuKAucOMwr/Cvid7BOKAniLDheKAncO+GFh/ccKxwqJ/wqzDv8OSw6vFuCjDvh3CpsOsfsO9w7MQw6bigLB2acOyWcOuw6nDjuKAocOkf8Kw4oC6BXnFoVnDjcOdy5zigJ7DvUbDlsOVw5Asw4hjDm8yOsK/GEbDqh9yTwZxPsK4V+KAucW9w7/Di8Kdw5nDu8O6w6NXf3HDlmjigJ7DjlcIwr7DnMOnw7wR4oChTVDCpAnCucKqZcOYb8OQZMK/woFhwr8Ww73CnSZBEeKAukNsAMKkHcKyXwzDkMO+IcO54oCewqnCj8K3W8KzOcO+w7gLxb4hwqM0w7nCtHvCpcOOw7/DosKvTMOiwr4Hwq7Coj/DlGQfw716VQDCtH8Ow4jDs8K7CxnDiQfDvRLDosKzf8W+w4zDlsKtw7rDrsOow7HigJR9w7rDsxDDk0tGI3Q+w5vCvULDpw96wp3igJrigJ7FoMK6akHDijXCvcO+CsOrQcKow5Bgwr/igJoVw7MresO9NUFKdV0Fw7UAeB9Rwp3Crxh/SD7Dln9+w7PDpsO9LD3DvsOIwrd7wrPigJnDpMOTw64VOn/DlMOeLzDCvMOcEMKkw5wAWcOUw6PDjcK2wq9SG8OXy5zDvwvDrBjDkG9/SXXCvuKAmn/CscOzY3PDvsOlw5fDrDzDvn7Cs3d2wrFRVGEYHmdXTcK4wrJ3JsK0w5RWwqbCvcOow6J2w6nDvsOV4oCaw5Atw5LigKLCtRBBw4TDhSBmQcOFwr/DhsOQNMKmw4YmXMKgwoFYw4HigJoGbGjLhsucQBpEU+KApgjigJ7CqATigLAJJOKAmWIwJsKkVyQSbkjDpOKAmmvDj+KEosKdw607Z8OOw58swrvDrcOuIsOv4oCeRBvDksOOw6zCs8OvecK/w687wqdLwr7DiW9Gw6bCq8KNw49nw77DuGlJfcW4M3wtw5RFw5BXRQnigJ0FfcK34oCawqdPceKEoi/DpU/DocODw7tUF8OWd2wkwqvDv8O94oCmxbg8w4rDgMKBZ8OEw44He3nDpsW4w4figJnDj8KBDsKrfQ7igJpxH8O0w6MCw7pJw5kP4oCwSCrDgOKAucKPw4PDt27DleKAmMOL4oC5H8Oew4/Dq1TDsiV7w7XCv3/Dgj9INMO0STPigLrDuSrDn8Kzw6gfwr0mwq3Dsi3DtGJCw5JQ4oCUb8O6XcWgfgHFoMKjwpDDoDV0wqQOw6hZw7x1dcOsxpI7w7jCocOLd8Opw6rDv8OmfRPDvnbCo8K3wo91wr4CPjLDnynDtXBSQ8K4w7TCp8OUw4MZfC3DpsaSfgzDtMOVw6PCoxR+4oCgSMaSw6dGw6B9OF/igqzDn3E+w7TDq8K/wrTDtsK/X8OCxbjDgsO/xaHigqxHw6ZLwo3Dj8O3w7nDgxdwWEPCtsO04oChOF/CohpgwrAqw6nDo00iw58j4oKsQljDuGXDvD8fw6HCvU/DhcOzw7fDqlpPeMOJwqInw6/igLnDsMKnwrvCuQfFoVnDp3PDsCXihKI/w7w5O8OUwrN0Sz/FoXtLOcOsw5vDuMW+WxsZS8OHBcKgE8OcQBE/Qnp/4oChdsKPwrjDgMOjw6LDsMODw7lsw7gvwq/DucOwwqfCs13CssKpw4NkPsOHXsWTw7nCj15gw5lHUjnDmcOSwq/Dp8OV4oCwfXvDjTnigqxOw4F7KcOkb8Ohw4/CpiLDrAgYw77Dj2PigKHDlMOuxbjDmsOs4oCef03Do3fDqj04X8Whw7h8w6bFuB/DohfDucKkdsOpw4daXR5hw49Xwr/DsCfDuMKvDl3DpMKdw7/CuGbDtW8lw5fDpF0Sw77Di8W+wqrDqcOawo/DnHfDi8K3w7vDmMOMw6fDoQvDu8O8w6kTwqIOwrtLwrvDtMKjTivCj1BDw6oXw74uw5HDmeKCrBNXwpDDucKsVMO4W8OHwq7DtuKAnjfDlnTDrUfDq8K9Lw7DisWTD8O2fMOmwo9Oy4ZNGAgr4oCUfsO8w43CrjJ6wr8rEMO3wrXDsOKAocORaTLFocK4DMOnwqvDsMODw7kNw6Rqw713w5M7wrVcw7tRw7gfNxMhw7NVw7DigJjDucOHw7bCtAjigLrDu8KoaMK8w5bigLDCpcOfwo82ZEzDk1zDscKkw4FoecOvw4ocw7l6wrTDq+KAosKQw751w4bDgsOPwrcVUUt4BMOgw6wYwpB7w7FDw4DFuMOXNVrDu8OVKn7Cu8OYf+KAoHE+w4t+xb7DhMO5w5dkwrvDtzERw6gQ4oCTfh9aw77CqsOJw5Ffw7jDgnZzRh9tNMO0w6rigJ3DnUhMdgLDoBzDjXsdw7/igJrDs8OpxbhWcsKNwq8mwrVfbeKAk8O+dMK4e8Ky4oSiw4l84oCmw7HDkcOnwo/CugM/ZHlfw5/CuGrDrsKiVyLDg8ORX8WhMsOdw5oZCcO6KQVSw4JgCjFr4oCiw7vDv37CvAzDpBrDvDNqy5zDrl3CvzRU4oC5Y18Kw7/FksOKw7nDosOMH8Oew61ew7TDo8ORy5w3w6PCo+KAk8K8AsOTK8K8w4vDtMOSX8WhNVnDrVxrQMO6w7kycsOJw7suxZJFw6PDrsOlf8OPy4YefyHDtVvCnWtqw7PDug7DksO5w5UafsOaw6ZfambDunw5e2TDvsO4wpDDm8KnOW/ihKLigJQUw6VtKMKQTcO7wqTCv8OoPcOTS3/DuQ7Dk8KrXUt1w7TDk1nCuFzDkMKQwqIIw4wlDGjDqMKmw57DvnDCvsaSP8ORQzvCv8OaasO8w6lJxb1LcsOnPyzDjsO8Y0cNKMOcFcKgw6rDssKuw7I5w57DkOKAoE/DtX1j4oCaPsKqQE5PwrfDqBcRwr4fw7XCpsKBc8O/YQPFocucw7TigqxvwqN/WMO7w5vihKLCj2vDsm5PwrhvUU3DoSc3OsO4CTJfw5nDqMKhw48/w6XCqsO2wqxYw4BRw4JrwrDDhMK9w55Ud8OUw6TDqC94w5HCtOKAosOqfcOCeMKiw5fCqQBywqvFkmLigKZJD8K+w6Bo4oC6a2EawrjDiDnCv8KNw4NPwqDCtxbDoDc0TMO+QxrDv1rDgk/DoR/igKHDs8K9w7DDpwkzf8O4KDPigJQNFOKAnVNOfMO8a2EaLgfDvcK+fMOqwr/Ct8OIwqB6w6oj4oCcKuKAnDR0w5JOesKsXMKgIGZ2PDHDpkHDj8OjwqfDmHERw7zigLrDnsKpIcO8dMK6e8WTw6nDs8Klw4YHw77DsUPCrnjDjwVcxaDDqyc+elkfUMOjw7PDtOKAnBkbw7cGNgfDnjXFoFVYcMKjUC7DqcOaw7vCucOJw6HCp2LDnA/Dp1PCjRHDvEtqBT/CucOFT8O/4oCZOsO/YWHDpg/FuMOlw5ZMWCfCpMWhw7jDuG/Ds+KApsO0w5tNwqpsX8KhAcOIw7cEw6sMwo3CtOKAnMW+EBYvLsK/w47FvSDDsx3DvMO1bcO1CsO3wo9dTcK+VCPDuMOJDcOuw5/igKHDjFc4H33DvsOUEF8vQTHDncOEw4c/w73Dn8K3ecOo4oChw5vDn8Wgwq3DiMO9w77CpuKAmMOXwrLDqyZVwrfDoVvLnETCpMOZw5vigJ7CuMOadcOoCsOrfCoBw74Zw5UOfsOqw7x9csOn4oC5MsO/wrHDnUHDriAdwqMkw7M6wqciw7fDrMO94oCi4oC5w5tBX8KkDjsfwqIdRsKxxaDCpAIhw50TQMOBPcO1w4h8G8K9w5zDvcK14oCew5/DicO8Z8Wgw4jDvMK9GMOuw7lxTsKxw4YHw73DrVvigJrigKDigKB+JD/DrV1sFMKvwpDCj8OVCzoxCcOnO8O4w6tZw7xEwrXDpn5Uw7vCvjN/HH3FvjQ1w7Vuw5fDk8OPwrxOwpBrw6hbw7nFoX/CjVHCoiLFvsOKw4USTMO+byLDs8OJJXXCv8Kjw7rCsX/Cqh4/HcOywrB9wr7CtsOLw58tOVHDgShn4oCiSn/DpRrDizB0w7TGksOtw7fDmsOuw7NDX1nDlwLDrcKu4oChw7PDqwl6W1LDt8OXT1Y7fjrDnsO9RMOmw7x5wqLDjD/DtsKjIVbigJN7w71K4oCT4oCTfnDDq07Cu8O9W1vDumkgRllDwqzFuMOGGMOnw7PDuFsdw7DDtMKqesO8w45sH30+C1/CoMOpQTTDjGHDj8OoxZJVaMO2w6kHN8Obw7DDjcOYAsKjNOKApgLDgm7Cj3/DkMOBX8KQw7nFvcOEw6FPw6HDl8OXwo9uwq1iw7zDrMKuHg/FuMOPw7wjLS7Cu8KkLEXDlxfCs2bCjz7Fk8KPwrFfScKyYsWgbsOPSsK5FsKy4oCTwr/DoXw5w77DusOCNUXDsFfDqcOUwo8ew6Y4wqnDj3zDgB/FvmB3acOTxb7DoRnigJ7CneKAmcOZwqMfxZLDpMOhwqfDusWSEuKAnh0qy4bCvcO5NFvDhE7FkiHDs1XDuMOzxaFKw5hDw5/DqsObw7DCpcK/xZN/wrLLnMOMw5/Cu8OfwrN5F0jLhsK7wr4swr4+e8O0G8OXZMOyw6PCoFVGWRTihKIpXMOSXMKiwqXLnF/DuuKAuiTDsMOlw7htw7TDgD9Nw7FXw59+Pz3Dg8O3GcO6fH3DpsKPHsOiesK8aEhQOEfDo+KAkzHDu8O0G1/Dj8ODw5/CscOYKOKAnMKseBTDnR7Dv8ucw5DCoSvDgC7Dgw/CjW/DmBTDriPDuMKrw6vCrB/CgcO/dTHihKJ/wqrDn2sWLiE7w63DgA/DoRwmwqvigKZ/UFzDrWXCocK/w6B54oCcKsOzdmkFw5/CosOrw64xccOIXsK9OsK5asOGwrvigJ3DtV9kw5ETw5xuw7wUPsOeAG3CtzfDtBDDvMOkwqxfS8O1w5Anw7DCvyvCpsOPwr8gPsKyGcO3dH3CqcKkw7ccJsOUw7tDw5nDqC9/w43CpMOawrkuWMW94oCmwqUbw7PDnuKAncKnw5vigLkLw6d+w4HCv8K9w55vaHDDo2d1Z3NPBznDq8K3w6DigLDCqjE/wrnigJhvDxbigJjDuWdFS2XDljsPT0ZEw6cwMeKAkysXw73DhsK3TMKqaMOSKE3Cq3IOfSjDgj4Qwq1iREF2wrQVw6DCnUvFoH/DpEYvw4XCv8K4asOww5PDucOuPsO/fcO+w7Bhw6kWecOOw5LCncODBMKxwrLDkMOHwrdawrHDlChNC3fLnMKgL+KAmeKApnPFoF4dHmPFk08lw4U/duKAosWTw7Qlw6fDvMKrwqTDr8KzR3zDvjPDn13DrHNBw7/CqsO6HCZmwrLihKLCssOQw4fCt8OaVUJX4oCwN+KAmOKAmcO+GygDOMOtxbjigJ7Ds1XDuGl/MMK54oCTxZPDs19VJW0/w63DtcOOw7jDj8O8w5FBw5XDqcKoQMKnw7wcJsOUw7hBw4YsF8O9w57CnXbDpsO34oCTwrrigJzCsC3Co8Khw5/igLDCulbCoMOBw4vFksOzVcOub+KAusOaw5rDvcOs4oCZKmnDu2nCr8OnP8OzR8OfV8Ovxb1Ew4PCsnPLnMOQw6LigKLCplkuw7rDi8K+MXnCtRdfw67igJwyRE0/HEXDuwcxwp1fA8K8T8O3w7d4w7xtw451K8ORbcOPfCtfw7jDk17Dj3/FuD89wqDDu8ucw43igJ3CpT7igKFpBHvCsmbDmcOoB8OXy5xlwqAfw5zCssOdw5TDkMK3Uihqw4Uaw7gFw47igJTCusW4w4InwrrCnUjCvlMNfR9Ze35iw47DrSszf8K8fwbCtAHCsXPDkMK0w7IcZsOwwqU/MmbDqcO0w5HCouKAlE7Cv3E1wrN+dCvFuAzDol7igLDDvsW4ZzLCv+KAonc/xZNPw7HDn8KhbX/DhQt/wrvDnGd+V0/igKLDucKnWsOwYsOEDOKAmFLCgVRYeQ7Cs8Ob4oCew4pAP2LigJNAH8OfU08/xZPDheKAnuKAlFEMU8W9w4bigLrCrMO1woEfa8K/wqPigJh2w5rDtlfCrMOww4fDlsOOJcOGw7nCqsOMPx8EfEnDuRtKW8Wgc8ucwqDFuHnDuXppw7TDsVPDikV/w7vDm1FVw65bw6nCkMOkLADDluKAnuKAkz/CncOMw4fDpcOCD8On4oCcM0HCo2vDrcK+wq8y4oCmP0LDv3vDt8Ovw6crM8O/CFsCBSLDhcW+w4MEw71ow7figJwrw4pBf1XCrmzDtFd0dOKCrMK+b0UCbMKhew7DhhfDosW4UcOdwq0twqvFuMKtUMOlB8O4X3DDjsOHGT4xfMOgTxR3DhPDtHcsM8OKQ8O/w5nDrWXCosW4SS80FMO0w7XDsMKBwr/igKJ1w79DEMWTT8Kvw5tbwrvDiW7Dv+KAuhXCqMO8cHrDuyAyX8Odw6jFuFc+wrfDvhwmw6jCp1YHDcOQwq/CvMOIHX4UDhrCvsOpwqvigJTDgD8bUMO4ecOxE8O0Dn7CouKAmBsJwrLDn1fCscOow4fFksKPd8O+PFHDgcKnw4fCrz/igKHihKLDnMKxxb48alnDqDdRGcKla8Odw4olw6TigJN8w5PDl8OkX8OwInwvw4JfV8K4w6rDtkYqUcO5woF+w6NJZMK+wrrDnB9vEcOWO1HDq14mw7Mlw5IHe8OgL13DhcOTwrfCosW+bU1Uw75AT8OlNX/CncKjw6l3ScOlZ8OPw7zDpuKAkz7DhjzDuDQuVcOmT8O34oC5eh3DjHbDpsW+fsOTxZI2V8uGwr7igKLDssOsw7fCosOv4oCUwrsfw47Cp8O6bUvDt8WTV37DmMOVRcOmwqvCnT8Fw7g8w75Kw5N/wq4Cw7QBXzzDtSvCuMK/NcOvw77DuQx+4oCUw67DpGd+czjDtEHDqB/igKHDs+KAogPDnsORAcOVC1Ahw7pQBcOoa8Oew7oDV1zDjsW4Ty/Cj8O7CxpZwrdhbsKjH8Orw74BZD5nfcO9w4YOw7DDvy/DqcKrw5fCvUPigJQpeEfDs8OJw6XCosOPaMOaHsO6w4zDmcOaD8OrfyfDvsOUbS7Ds8KPDcOqCsW4CsOQb8KqKH19w4k7w7jigKLDo3zigJrCvsKBw4VPwp0Pw53CpkMfw5rDtcOPwo3DuTHDnkfDpsKrxZM/wrxfw5PDtETDg8O/Q8O6w5rDpz7DsWshw7PDqUUkccO/w4jigKF2w7TDj8ONw5rCj2bDr8WSw5DDucO8GcK+w5PCul98CFdgw6Vvwqo0fcO9cx/FvsW4d8K+DsO/aOKAnkY/HcO4w486feKAnsO+4oCUw4h8wqXDtcO3GMW9w5LDksKnwp17w7pN4oCiwqcvU3hbw6HCv8O2OMOOL0gWw73Cv8K9w5s7R20fPsKiw6HCoMOww5/DmMOhw47DrV/Dg8KuXjTDvOKCrMK+wo9EQBl0wq7DlcOJfDXDvuKAmBtbw4jDgH/ihKI1V2s/OcOIdwnihKLCr3A+RnxJWsOlRMKq4oCefuKAnEfDlUM/EnXCnQAKw77DrELCr1rDu8OXJTY5bcOfwqzDksOHwpBPw6h8LsOzR8O7w5lfw4vigLk8wqDCr8O/w4zCj8ucwqvDrcO34oChw78WbcO7Zn3DrcOHw45eMzJfSh/CvR4+w5IgXg3DtOKAujhVCX3DuyXDqmTDuj7CkFdFwr/CvcO2w4/DtsOID8O1wr7DsF/DlMO0ZsO+IycEb8OsB8O0w79jw6/DjGPDmyjCojA+w5gWBuKApiPCoiUcfyRAw6sIUOKAmuKAnDZxHAxqccKhDQTDmnAnCgQIbShXKcKBCgoNIMOOcuKAnXLigKJDKsOiEg3LhksqwpByCQoUUUEBIW4oRznDhC0kEMOiPsOew47DjsO4W8Ovw4zDrMOawrXigJzCrMOdfMaSRcOjJlbDo8W4wr/Dt8OewrzihKLDnVFlDsKPD8KBwrwZw7/FvTzDtsOH4oChPcO2wqPDnsOHWcK6w6ZjVsKuw5UlwrXDpsOYKMOTB8O8UCjDs8OHAMOQwo9Zw7DigLrDnBtew67DssOCD8KtOcOswrjDocKNw73CoMK/w7wGOH8LM8O8w6fDtcOrw5nDqcOYw6jDksOfNcucw7RjacO9fuKAoeKAlEDFvsW4w5nCqcOQw5/DkRrDl8WTxpLCusW4DeKAuXDDrQZywr5Hw5JHw4XCp8OgDwbDvRAJw7hHwo8+w6B3wqnDsMOZwrxXwrPCvMK/wqfDnsO8O35DwrHFuMO3fOKAoMOHw7wow7nDlirDjsOXwp3CqzdwwrXDhyd8FMOpA37CkMOoe8OYw6LDqsOVcD4NB35+wrbFuBw/UsOdw497PsODWcO4w5EOw64HZMOOw5fDhH3DqH7DjwAXFMO6w4A/WsO0w71jw6LDvQ7Dp1tSw41Pw7B3XMOaQMKxX8O0w7vDmTDigLDFuMKxJsWTTzLFuMKle8K3Z3HigJxiwqMkw4DDn1vCoT/FoEp5w47igKDFvsKBw7NpOMOMD8OnE8O+b8KtfsO/QRPigKDCp8Oww4NUH8OON8OXw7tvw5Z6TGzDssOzw77CsMORDxDDvngTw6DCq8KqeSMTw7phfi7DqXzCri/CqMOfL8OWehlUw6TCqcK+dD7DicOow7zCgQXFvk3CjQDDgGfCgcKiw4/DosW+bcKw4oCmwqvDt3R4f1vDoOKAlMK+w6fCj8OrO2bDk1rDr3BMw7oxw5Unw7Amw6vDo37DuytYMEXCkEE/UMO4wr3CtUzDpnzDlcO8BF5qDcOFw75hw5jDpwPDumfDnSDCnU/DksODwqfDsTgLwqhAwrrCtMOowrPCr8OhfGs4w6p+w6DCp0nDv8KdMw8Y4oCTST9Kwr7FksWS4oCcwr1BwrnCj8Kv4oCiBUsAbcORLwXDvMOyHcWTf+KAusODw7vDm24Lw7zigJ4ew7pWTMO64oC5a37DrMOmwrpVcT7DiX3CusOWHcK4w7duHQvigJlKwo1+HcOuw6nDuzDFk0/Dg2F+Z8Oow5/DrgvFocO0F8K7w7BDw4nCt2QLX8OrY8KyF8K34oCUw7TGkiNgw47Con9gUMOxw7N14oCYwrjFk8O2w4HDueKAkxDDusKdw7rCpmPDtn7DhS7DvDDDm+KAnMOOJxnCncK/dMW+wqTFuBZ3w5cOxaBK4oC5wr59wqfDr8K0wqQ/w69tAi/igKAZw7/Dj1bDoVfDnMW9H8Kuw5rDs8Kzw77DplnDi8K6wrHCtjDCqTfDjgIiQMOOwqbDj+KAmsuGP8OeGybCtcOBOw/DgcO5ZsO6w5c3w5xpwq3DtsOAw7xFbMOww6saPcOuwrN0wq9kDsK1NOKApklBKcO+xZLDtFnDsMOowrfigKDigKLDtcOe4oC6wqXDr8O3NMOgw5/GksOGwo/igKHCt8OQwqwPw6Yvxb7DtS9XxZNPcsKdxbh/fW12w53igJkK4oCcUsOBy4bDvhJxw7DDqcOHw6zCty3Cu2bCrn0Vw44HfeKAlMO74oCUxb5ndcO8MMOrK8OeXTp0wo0ew4DCt8OHwqPDmsOdSk1JFgTCgcKw4oC5PgsWw71k4oCcdhfDnFrDrn0VP8K8T2NNcWd9WMObMyV9w6R8bMOg4oCg4oCZXcO8IGoWMAXLnD4v4oCUwro04oCgeQbDqE3DuMO3WMOaesucw5XDruKAocO54oC5Y8O9wqfCjcKNHjh/YMK+LsWSWcO3wqcNw5rDlMOfRcW4BQc+TcOySX1KwrLDpD0feMOfRcW4w7vFvsOjX0PDrcO+OMOMP8K8w5bigKHDt0lqfx/Dp8KpwrfCsUDDiUk/UGrDg+KEosOtxaDigJPihKLDjA/Dr8OvMcOYSnvDvGDDvmItw68Yw6jDg8O54oC6f8OMw5zDgsOUPx3FksOKL8O4w7RjXcucw6QresOORF84xbjCtF3DkcOMD8O6w5V6w6sDP8Kpw7Jqw7PCr8OUFsucWX/DkMOpwrPCuEfigJ3CvHFbD8O8wrbDiMO8wo3igJPDuU/igJrDueKAocOPw7pww77DpsOXw4lZPisBBeKAlMK+RnhPw5/Dl8OT4oChw7NpwqzCoU1ewqfDgsO8RcK4bk9vfcOMw7NJwrLDheKAugzCp+KAmjHDgSsfw7rDiVQ4KRvCvmbDvFzDm1HDmT/igLnDjMK/L8OMX+KAnsK5fkYVwqDDr3A+w6l+w4cRwrrDjQHCq8OwS8WhPj/DnMKr4oCUw5nCusOJFMO7OXp7wqjDpi9+4oC6DznFuMOrTcO0KElNCRZs4oCiDn1xwrBfwqt3w6HCt+KAoRDDgcOfxb3DjMKPw4xfTMOrV+KCrMK+w5PDueKEoi4fTh/Drw12w7ovFcO6LcK9wq5Dw7zDlxrDjE/DoMOlUMOMP2zDlifDtFzCj8OjUkTCqVTDkMOqw7zDksKjwo8DfcORMHnDiUTFuMaSw6daw5rDmsuGOX/DgQctw4LDucOIw7pwPsOXw5XDmMOSAcONwo15HsWTGcOrSMO14oChQk3Cr8W4OOKAmMO5wqtcw6lHw6rCusKtd8Khwr13w7rFksKpw57igKF5CzNdw61gwr/Dk8K2OwHCv3Q+4oCww4zCjzl/w4HCu8K4M1JKPsKhwrs1B8KnwqNpwqU9OHNqZ8K7BMOQw59Rw4PDvFTFvsO0IwfCpEIZw7U3VCstUuKAoVJow7cbQ8K/w5DDp+KApsWhH8OWfxDDjsOfQsOnfHoMLMOHEcOTw5nDqk0aDsOOxZPDkBdyaMK6wq/DvcOL4oCZfsONwqHigJMDwqBFUzDDi8OrDcK7JSrCqcOlwqvCncOeB37DrnzCoR8bRMODwo/DlsO5C8Kzw74tGsOrY8W+w491JWZ7bjXCqgdnw6LDpErDqGQ/w7figJQjw73DmmNsw7jDkMOrODEow6wSZn03Az4Nw5B3w6gbWsOqxpLDuQvCoMK/YDfDqXxkfTjFuGtwHhbDs11KGw7DjsOscMO9w57DrX5T4oCecsKkwr/Dn8KlIcK3w6bDlMOi4oKsKkUJw5HDssK5TcKgF8O4w6F9KEHDncO+w4l1fOKAnE9Bw5bCv0xrfcKgJ13igLnDk8Olw51KKgdnGk5Ce3kvw6bCrcOywqNPwrXCsMKiw75TcTghw6TFocO1w50Fw6/igJzCtMOmH8Oiw6vDvOKApsOtw7Ajw7pTb8OIOB/DtOKAmMOzYX3DlMKoDjXDqw7DjsOESWjCqX0jNcOTw5LCtsO5wo9mxb4qQ8O6w4fCrsK0f8OzOcO14oCYSMO9HMOh4oCYbibCpXk3Y8OSw7zDsD5JR8O/xaHDrg7DmsOkY8Ovw7Arw4rDusW9wqvDkcOjwrY+w6bCp1BTwp3DvsOgw4zCqT3DksOvOBhrei3Ds1HCucORw6/CtMOhN3A84oCYw5k2w77igLl4w53Cj1DCqsOtxbhcJsOg4oCcTMOmX3PDjml0XRfDrcOtwqdJXwHDt2XDjDgfc33DoXzCocKBwrMYw5TigJlVw7hNNxzFk8K5w69iwqfDnWfDoQYNxb4qM8O6w5UXw5nigKbDnsOEwqw8w7DDsknDjj3igJhQVwvGksOmwq3igKDDsw3DtOKAlMOOOsK8w4XDmsObPxXCoT9/w6vCr+KAosOGd8OBd8OoSsK1Ly3DhBnDq8OowrfDsMKvew9yw57DtMKiw78Aw6bCqcKywqMvbj/DksOJ4oCeDsOmX8KmUcO/w4TDoCTDt8K6w4llcMK+CcO/w7rDs2hvw78hw6jDuGzDpHTCr0LDjcO6w4jDucKwwr5zTUooYTo4wrPigLp/w50nPsO1e8OZ4oSiw780w6bCqcKywqM/w6nCuMOOxpJTw7vDt2d+w63Ds0LigJN6w5DDscODwqxPWTM9azXDsMOrw6hvTx3FuFnCjUcfwrlvAeKAnD7FocOuacWhwrw8w6dDw5dpw5fCoy3CpUwHZ8OWw5rigKLDoMOxEVQBMMKBSWVHw5/CpcOIw7EhS3PCgUrCtE7CtcO7JW4mw6gQw6g7w7Qjwq3DtcuGxb3Dj0Zaw79mw6l8Y8OgH8ucb8K+AlE9OFPCj8K7DR8GD+KAojnDvcK9w6zigJzCvEV6w4fCsklXI8OTaMO+auKApj7DsG/Djx/Dn8Owdi/CrsOsw4jCv8OmezfDo8O8CsOAN1sfxaAlw4LDjcO6xpIzEcOqG0AfMcOPwqwywqfDn8OCC8Okwo/DqsOdJ3TDh8ucVsOvw7vFoX/DoMOQxb3Dmcucw7RtRMONwrfCqkLigJzDteKAmMOzSeKAosOL4oSiQXUxw5PDgeKEosO0w7UYfcK3w6ptR8OMw4oGFcKrYwYtcMOCw58Gw6bigJTDjsKnwrHDphzDqsO4YMOS4oCUf8ON4oCUcX4Fw6hnw6l5w6YjP8O6wqh3Fk1ixb4qa8O6E8O6w7LDrXjCvmUIw70Iw74bwrppw5LigKENfsO5w5LFuH/Cq3DCvjnDsD9aDMO6DTlNw7jDi+KEosO+JMK7EsK6dBrDi1lrw6F8GhIPxZNPwqPigJwmfcKnwqLDrsOLw5PDusOL4oCew7PDjcOWwr9eVnljw7QLcz7Dmn4+w4J7w73FkyHDtAsRw74hwr7DgQ/DjcO+w7xqwr4nw5XFoMW4w6d8aOKApsWTy5zDtiZiY+KAmH9jNWXigJgNf+KAk8O/Mncsw5EbFsO44oCUw4HDuTRAf8O7w4zDuHzDo8Orwr5Iw61Cw6F8wrPDtQdrwrAaw5nCpMOfw4Y9VsO1w7nDqsKQwrTFuMOzw5FIw6N3w7TigKJrPcW9w5Bvw5EHfsO5WG/CrcO0w5HCjXzCqMOf4oCUw7/DmsKuw7DCveKEosO+dcOZLcOJxb4kw5NobMOGw6fCrcOJXcO2w5rDrgw/QsOJHsORw7LCj2HDksK3wo0cwqAPw69Tw6jCp8aSesORw6/Di2/Csi/DkOKAnMO0w7ArFzDCoRbCscK44oCUw5YVAH7DncW+w4jDseKAunLCt8OnwqjDhXbDlTPDmS/DncKnw4PCrsOOw59COMW44oCdwqHCj8Kyb8O7w4FTw5DDr8OLe8KBJ8Ojw73DjcO0FcO/w6MMxaDigLnDrj4KADPDvV3FvcOgX8K3wrHCsU4v4oC6ZsODX1TDr+KAusOuw5XFvcO/OsOhw7vDrMOQD8Ov4oC5w5BPdR/CpsO8wrkGw75HCMK8w47DusOQHcOZSeKAsMKvw67CoQAww5Nnwp0iw5Rvw5LCqzxcw7HDhcOYw5XDquKAosOuw4VKX8O2O8K7CsOOJ8K5J33igJPCvsOJc8OKwo/DgH/GkgjDvFtWbMKpwqNfKcKne1DCrFEUAHU+w7RPG1vDoXXDgm8/wqXDhhPCvkjDt8KNSlTDvVA6xbjCpMOLw7zDmw/Fk+KAmil/XsOWX8OLw5F7VMO84oCiwq7igKZ9FABpP8OvH8OQw4/FuMucwr1Jw6/DriDDlcW4w67Cs8KhGVPCqlQLU3UZxZPDrw7DvULDq8O54oCdH8KhP8Onw6XCvcWgxZLDtwEfw6hpLGBQVgHDkMOoR8O/wqTigJRlXxMdw67CvTfCucKdXXJbw7tFE33Dj8OobMW9M8KdFsOCw7kkwrfDt3nDqD/igJ3DtsO3w5Edw7wQw7pzwrxkwr9Cw4gUw7hvN0Yqw6ZHxbh1wo/DrcOqVMK3wrXigLpDwqDCseKAnMOywqwAw68Ow70ZDSbDjjttwr/CoxDDunPCvuKAmkfCoAd8w5DCr8K0w4YKZuKAmT/DvX0Wwo/DrcOoFsObWVXDunloGcOYw7vigKHDvsK8Wj0kwq/DgD8wwq8Aw7rigJhEKFsrwo9jPio/w7rCs0IFw5PFuMK3WuKAoX974oCh4oCgw7IIw70Iw7zigJTigLnFk8OvwqrDuMOhw713WB7DtMOHwq7DpMOSbcOmKcWTPsK7JeKAlMOQwo/Cqj/Dlx5/4oCmZ8OgwqfDhx3igKbDkMKnw6cuw5rDlMKvw6LDnMKvwr0Iw7RXw6lDPxdCwr9ow7jDpBzDuMOvEsK+VwN/wqU94oCTwrLDgsOowrPDquKAoMO+TcO7CsOuw65QEcOoR8Oew7YJw71VQ8OdHWjDuMOkwrrCuCvCncK/JQJ/FsO+FwvCpE/FoB3DvsK6fcO34oCgGMOLRWVGwr92egHDtMKhw7fDvRLDv8On4oCwPBs+4oCYw5rDpTZ6NcOwV8OKw7EoK2nCjT7DvSJpwq1nw6jCr8Kiw4fFk8OWRsOaw57igKHDkMOvH8O4b+KAmcOO4oChw7XCnTnCv8KycsKQ4oCiwrbDiuKAoD4z4oCefsOoS8Oew6vDhzLCr3/DoH9EOMOfRcK/MjPDrmbCpcKtw7LCocK/w4RMwr/FoMKPDcO2Mi92w7jDuDfDusKkw7NNwoFfVMO8w43DjcKNAcK7w73DsiZCP8OWw5jDk8WTW8OVXzXDmGnDr8OwAX3Cv8O5xb7DsD09w7TDsAfDrMKmfMWSw6/DqCnDhQ9AScOTJ8O0YeKAmcO9wrbDl8OcZjB/4oCiHMOraeKAoQ/Cv8KNCxLCv8O3Zl7DqXzDkHfDpHx6wrzGksOLDEvDswNQwrrDtAV6UsKjR8ODB2VfVcOVw5DCoQ18cycuw6bDtg7DvMK3CMOvO8OpVzrDhxNiw7XCocKtK8WTw7kABMO+w57CvGVAwr/CruKAosOQw5vDqmoTb8O4w4M6w7pwflXDlXcJwrrigJwDVnrDvAJ/w7UNAsK9M8OtA31lw6UAwrozw7HDlnRYKMOdWjof4oKsUsKkX8OnfMKrw6PDqMO1wo8zJsO+KsKuwoFjw5DDrsOLIcOwP1Qhwr3Cv8KzfDELO8OGw7PCpn9VwpBvw45aw6rDtMOjJuKAlMK94oCiYcK/w4M2O+KCrMK+cD5pfQ5zPgTDvsK7y4bCu8OLw7vDiMO54oCTVhg+4oCTXcKsVFTigJrDtFnigJQhw4AuM+KAlH3CtuKAoGjDjuKAlMWSI8Oxe8OTf8KsAsO0wrXDnl/CoMKNS31BO3rCqcOMw6jCt+KApsO7wrTCuXUhxZPDj8K9wo/DjC/DtDnDjcO5Zh7igKY5xbh3w5rCvxXDsMOdRR/Dl8O1wqZywrR0KsO/UsKkb3x7PwTDvh0yw7g5dyR+bMOxw7BJw7s3xaDFk2/CrMO4S8K9w5FXJMO6wrvDq8OFRlxLBHrFvR/DnsOPaMO8w7pDO2TDosO3xbjDrWvDkj5yPsOpflbDsirLhj7DmAfDowNw4oCcw7Q+ScOxfm7igLAfaX/igLBkwr/Cs8OWw7vigKLDkcO5wqzDpFUofeKAmh8cw7zDs8OhfD3DvQ3CvuKAsB9pw79yNcOtc8OsUm/CssOSV1nDkWfDj+KAsMWTL8OoK8O4B3NNw7zigJjFocO5FeKAk8Orw6nCocKdw61TAsK4xb3igKLCvgrCpcK/e8Kgw6jDnyzCncKvN8O/w7jCqsaSwrvigJjDuMK9w5PDvio1w61bOR/CusaS4oCiwr7DisOLw7vCq0TDjjcmw74vwq3DhMKPVsK/b8KvZ2fCrcO3LUXDp8Kxw5JXecORPwvDjsOXe3/CqOKAnFrDvcOYw57DpcK1w4TCo8KmfQt7WcKlw73DgsOpwrMgw5Fnw48RdcOQV8Oxf0figLDFuMK2d8KBwr7CscOoe1c4X8Ktw7h5AsuG4oCTw4Fswr9ww7rDkAHCuCInA8O/BDbDgloCw7jFoMO5w4fDkxjLnMOTfcO4w5HDvmVfwqRmQcOGw7oIw7xZWsOBw4pAw4XCoj/CpS8UUsOpT2QjwqxlWsO6w4DDj8O7PcOHw5rDu8K6PeKAucK+4oChCcK7w5bDu1zDkcOKw6jCjcKsDFQcw7o1c8OadcOww5nLhsOrRiPDvcOxw7bDuDJxHsOfw5zigKHCssOPe8KBb2fGksO3BxhXwrzCp8O1WFbCuioKw73DmcO9QD8qw7TigJzCrT1x4oC6w5ttPsOeH8Oyw67Dt8Kgw5PDh30Pw7gkw6R8GsK3O05bTsOPbSzihKIVw73CosOTxbjCvH9oFMOhw4cbw6fCph3CpzPCr8OLwrAf4oChwrLCj8OAw4vCscKBw6/DsMKg4oC6w7bigJrCvsK2w6h7RTjDn2DDvcOo4oCixZLCqw/Dp8OFJFpKZ09Pw5HDqE86AsOcR8ucfl1LAsOnH8O14oCwfsKPIcO0E3jCrsOB4oCcwqnDrOKAusK2T8K9Z8OZF8KpwqnCvlXDsT5yPg3CucKlwq8xFXbCqMK3J8OoR8KuF+KAlH7CpHXDpSjDgU/DtMO04oCgHUo1xaDDjX0Ow6/Cj+KAnMOgwqTDs+KAsMO+w4DDgcK8w6xDwrdPX8O0LcOMwrR6dMOewo9GwqNnOeKAmk9zOsWTESspFUZ/RlNIwoE/QsO0w7HigKDCp+KAuh1pd8O5DsWhw5Avw5BzHcOowrHDjOKAocK0wr9qS8OFw7vDiMO5NOKAk8K6C8KPRF/igJR9RnBJwqkQw7p1xaELw6/Dm0cAPg5rw6nDqkskw50XdOKEosK9w4/DtcKlZ8K3DyU/w4/DuSTDlcO7UcOSw61MVcWSEsORJhPDuSfCtsK1wqvDsMKPGMKxNl/igJrDisKsGFPCtQ7DsB3DnuKAoeKAoMW9w4EVPcOmwqJv4oCwdD5Kfg5exb0XWVloY8OpRzouVcOZw7dOZuKCrD9KekTCoBfDnkfDqBfDmjAH4oC5wrweJT/CgcOXW8W4w5DigJzFvmJlwqHCjcKkf8OsYuKAon3DuDA2w7rDsHnCt0/DoB/igKHDkA9dccKyw5jDlg3DusK64oCZXzgfw7TCrcWTwo9Rw6LDl8OtF0R/w4oiTcOCxbhTw43igJpAf8OtOHh/xZMSw7p5w5HDnzDDm8Kzw5cbw6FdfgLCr8OxfsOUVlksw69uHMO9asK0dcKhRVNYIMOgwrPDpXDCvsOTw7tQ4oC6wrHDqEfDkcO3wpB0w77DlsKgH8OFwqDigJnCvzzigJ0/w73Dg8OCKsO7w4XDlMOsDgh9w7YCwqHigJRDwqHCj8KiH+KAlMOxa8OoP0zDqBXDr8ODw7lUw7LigJTigKHDssKlP8K5V2V/aUckOMOww5k6w6F84oCcw7dfQ8ORb8Kkw7/CtHDCvsOOw7sEwr9cSsO+PMOpTzhC4oCcw7DDmyYyFiDDusKPw4jDgMK/xpLigJN+dEh0w7pBXy3DuW8Ww4Ynw7jDsH4UwrrigJPigKLigKHDssKhX3PFoCbDocOfw6NYw5sIAnx2F0dvNsO/BmzDsDDDksK/w4VGT0PCvgB8b8OpCTZ6OsO/w5wzy5xZZ8W+wp3Ds8Krw6RHf0bCv8OKwr5pBmMBwqPDv8Kww4jDuQbDusORw6/CqMOTwo8pxbh+w4LDt8Wgw7Q+w5FHw6DigKEeYlARwrHDjiTCnR1Iw7rDu2jDmsK6K1vCs8Ofwr8gw4BnD8OCw7nDugk/wqZ8RsO6w68SeC/Dry9nw4XDl3szw4/DoFQuwrzDmOKAuW3CgcO0w7Eqw7nDkMW4ND3CpMOqCMOlw6DDgADDgGfDi3nDjjfDkMKPxb3Cjw7DjBXCu8K6QcOfPcOdxbgoAj8pQ8OfwqkBVnxdQsOUBeKAuuKCrMORV8OWccOFw6FZw4HigJ3Cp8O3wqM0w6HCpxvCuMOwO8K3YcOCw68qw7nCrybDtDrDr0tdw4/FoMKuwqsuOMaSw5zDv8OBIWfCs0vDrsK9w49+w6LigJQLZl54w7HCuTM/w7jigJ0nBcO6M08NZ8W4fy7DvQU9w4klw77igKDigLAnOcOZM8KtF3gvwqdXw7nDkUbDucObwq/DtMWSw7x7w6fDj8ucw5rCusO9wrNZUMO1ITlfTz/DisOHdMK+wrkLwqt8xaHDtV07w6crw54fw4bDqT4xJ8O3f8O1w5lPxZLDvmdzwrvDsMOiwqsuwqBsQDDDicKoxZPCq3AtUcKhJwV8w6tZQirFuMKkw6/CuMOkxpJPw6nDucW4WA7Cr8Oyw4fDnzbDvD9DB8W+eeKAoHwtw6fDj8KwOm1bwrfigKAFVsOrxZLDnifDtMOEw65LTMO4DcO0b+KAmcOOJ8O6w7A+dMK3XGTDrk3CpRLigLDigJNjw6NFw4jDusOkw5nFuBgB4oCaw7c5K8KkBHLCs8WSw5l44oCZw77Dj8K/VT5Jw5/DgcOJf0Vsc3jigKLDn38I4oCYw75pw7k3dCBew4vDsTPFuMOqw5Zxw7vCpsKwACl+bEsi4oCYSsO1w4rCrRVLAH8rJ8O9wqgYwq/ihKImw7xow7Zww7Bmw69fKcOpQ8KpVHPCouKAokHCuAF3EwXDilTDgwTDpilCb8OxwrjDqsO7T8Opc8KgcsO7w6ozxaDDli7DusOvw5FTZ2jDqHPDgsO0H8O/e8KPVwHDvcK/w77DuEFPf8OGD8WhdcOcETwyLnbCosOHwrvDl8WhaE5lERAHdCnigLAfw7gtDcOJCcK/woF+bcO1ZcOcw7lmw7orGFdTOFtdSsKtfHDDhjrDrcKdE33DqcO/ZBXDvMWga3lCOCN3w6/Ds2RPX8O6wrzFoMK/w7cPw7jCjz4VSlvigJTCjcucwqpnw7XigLrDnz3DtcOdbxJrwrwZw6fDk8OIw5DCj8OKEcO94oCewq/DscKiw53Co2nDtW3CrcKzPiQuw59NNloxB8O/xaDigJ3Dp2bDp8O9w7fDteKAsMO8w6/igJhXw4/CpOKAoeKAkxt9bXHCowfDqMOzw6864oC64oCwxZMOw7rDrEwqw5rDvF5Fw5DCp8WTw7/Ct8OIw7vDssK1w6zFuMK5wrfCj8OHBMKlwq07AsOCacO8w5DDi8O1w4zCpRTCuFvDucK3McOJwrhWwo3Dk+KAoH4Cb2vGksKhw53GksOpw74ScsK+QsOfw5zDrOKAsCXigJwJCkPDqeKAncOu4oCeScKoa8Kyw4/igJ4PcnHCow8GTQfLhhnDhcOuwrNtbsOAw4vGknk2w71LwqjigJrDt30Vw5AXNcK/eC3DvjM1w7TCgVDDqC/CqmMjJcO1w4jConvCpsK4w6nCpynDmSbigJnDicucwrbDncKz4oCiw5bDu8Kkw694wrsHw5t6VcO6b8O5eH9hTsOHDcK9xZPDl3FrZ1LDhC/igJMoexTDlsOnxbjDncKvXcOHHUHCqcKnw7TDjcKpZcK5aCHFk8KPwrwvxZPDj8OpwqPDncKjwqc/dcOdw47DnsO0w4/DmsOI4oCcw4ZmRcK8w5w/E8KNw54CRcOJwr0Aw7rDiFhKW3fDpMKkHsOVwrV4H+KAk+KAucOmc8OwWsOvWxp/w4VcwrrigJMvGTfDkMKPEMO9w4vCvcK9Pz7Cj39+w7vDicO14oCYxaHCo8OEwqTDucKjejYSw6LigJzDvcO8w6nDo8OyHFXDkyfCseKAmMOVw5HCtsO1w7vDtsKhY0rDheKAocKxwoHDpcKiy4Yuw69HwqErZMKzb8Kqxb7Dvi4Tw5/DtcKixbjDo8OOxb5pKx12wq85OcOEw5XDiOKAmiXigKbCvsK+wq17D2w3QsWgw4x1xZPDjRtvw6JfwrTDpcK4wrvigKE8wq/Ds8K+w5DDgMOxwp3CrWJ3wo/CgcO+C1rDusO5NXobw6xKw6/CkMKsSHDDhC4sUFLDqMOjw7Icwqh/BhtxTVrDhMOTwo1dalTDmwVgw4/DlMOcWsK9w5zDtcO8w6HDtD7DqMKjw5XCq8Knwr/CtTfDvcKPWQ46w5jFvVxyxaDDlCnDj8OaD+KAnVzDtOKAosOLc3Aqw74IKzJhWsODw7TDtD17w6HDlMK2xZPCvX/CucOWw7vDkMKBaMO1asOpL8OwwqHDvzjDi0Ftw7jCvCIUwqzFk8OGAiUHfcOTw6U5E8OYwqhLBMOO4oCgXBvDvcOAwq/Dg8K3N8K1esK9w6gvw7TCocO/TsOuw7QXTQJ9S8O/wrN3wqbCv1HigJ1xHH/DnF0aRURA4oC54oCiF8KtScK7JCTDm2PCocK7wr0kSMOVWsOZesKjw5LFocKqbcK0FhVDIGg0aCTCqRwRGxTDrwMUGhPDscOAMyLigJpnwrzDr2jFksORw6hbE33Dqx/DoDPDj8O8ZsK/M8OzPMOPPMKzC8Oaw5nDrXzFuDRR4oCcwqrDrGfCv8OPw696w6bihKJbWcKkw6TCosKvfjwnCnPDnFRbQQTDkSEWSsKPecK8L8Ojw6tDwqNfPcOgNcOQw5/Dh0LDqC7Du8OsE318DSMJwqHCu1jCpATDusOfwqofw4/ihKJ+wqXDjsOuFsOwC20hS8OOB0TDjMW4M8OHw7pRw5LCv1HCvMKjQ0t/wrfCgX7CqBPCvRck4oCew7rDq8Otwr8jY0XDrMOqfsOQVz/FvjPDrTprdcOJU8OlxpIGw69/ccOjJTTDplHDksKvfzkcw73DpcOLwrzDssOuTMKrRsKpPXpVA2vDqcWhSFQaw73DjeKAmMucw6M2wo1Rw53igJjigKJRDS3Ds2rCuUPDn0ZvSUl/w601w6HDqMOP4oCYw6jigLnCunEXE8K6PcOpw5U6w6bDlsOiwoHigJ5XUSzDucuGw77CtMK3dU1vwq5OXsKhwqjDtsOWJcK9wrrCnQk9GsOsfcOQwq9PKUd8bxTCrcKvw7zDssWTwr4j4oKsPjQ0y5zCkMOFa+KCrCgJw7TCpcOHc8KiwqHDpU46MnFZfVjDusOkw7zDk3TDnh/DoMO0w60Rwq/igJnDvl5Cw6/DtT7DnG/Cpk/CscK+MsOpW3PDnMKow6h8xZLigLrDhhrDg8ORwr/Dj8Ogw71vaMOEwqvCp0/DuDXDnsW4DEc/dcaSC3/Cj8KdBlwfFVMJNWDFkwPDrcKPw5LDlWPCjWfFuMOFw5LigJ01w6XDqsODw5HDp8OYHeKAokPDv8KQQC97w790w6vigKEvA31oWcKvY8Knw7HDjHnDkcOLw7o0wo/Dp0RPw7YuWsK4OhTDvcOnw4jDtybDumkNw70Xw4jDucOeX8OHF8OgwrDCgT7igJ06wrfDu8O2RMOiw7bDscKhFAXCsAEWGcKdwr1/w7rDp8K4IcK1wrjDm07ihKLDq8ODw5B/dw5UJsO9OcKyw7cFfMKxwrTDtMONAcKswo1FRMK6w4dzwqLCqQswMjPDkw/DtsO+wrxgw7oNw7XigKHDiMO5SsOvw7PDk8Kh4oCcZcOQw69ICEVkX8KtwqzDh3N4CG1Hw6PDtMK/w7E+w6jDr3XFk8KPX8Kny5wvVsOJw7Qxw6Nrwo/Dhgccw73Dh3NWXMOcw5bCv8O/w7Y1wr7DgxIrQ8OHfeKAmcOWw7vDgwHDtDl4w6nDlynDpnPigKbCq8O3U8Ond8Ksw4nCncOnJFE3fWbFuMOswrvigLBNwr/DsHjFvUvCv0XDq8OxxZMBb318K8K8Y8OOw7lNw57Dh8Kxw44gw6/Cu38dw44PRR89w4o1FMK4w6wvw694BOKAmcKq4oCi4oCmBBTDlTfCscOawrg3w5DigJwjw7XCq3E6w4JMw5/DoH0Tw703OHjCpcO3T8K3ZcOqw7TDisOnOcWhw5fDmeKApsOfSjbDvcKqxbjCqADDusOLw5ptw7Mvw4XLhhdbwoHCqcOXByl7fQbDui87w47Dh8Kvw4PDucOhw6jDg2PDu8OPw4fCucOEw43igJh4P8OzwqUVQMW4w5zFvsOoPcK3IcOVwrzCtuKCrFPigJjDh0R/xb7CtSzDukFxw79lw7nDl0XDjHfCpOKAusOx4oSiw44kFzpYJMK0PcO6w7RFwqhUPg5hxb7DsQV6xbjDkzfDlMO7wrvDicO54oCZw7dJw7vLnFk4w44Dwo1HJMKzGsKuAMO6DX3DksOoKWTCtcO84oKs4oCaPsWTH+KAmsK+w7zDq0APw7rCpT7igLl0b2TigKAnw5c6c8OcbyNLxbg1f8Omw5s4L00dA31Yw59Iw79+w4XCr8K7w7F/w4jDjHJyPcKoLzrCjcK0FQVqw6t2R+KAlMK+w686w6AN4oCU4oChLeKAlB5Tw5PFuMOnwqwRA8O9OxXDnnfDq+KEosOQE8Kq4oCYYnXCtcO9w6oIFHsowqfDqcObGGXDusKswr4NU8Kow41Dw6Evw69Qw5FHw5pHw7TDtTPCvsK0w4rDuy7DvR7CvsKjOnTDo3nigKZEYcK0w7vDnMuG4oCew7xiw5VnPcW+E3HDusOOw60NE8OrLsOL4oCdYMKdwq3CgcOexbg3wq/Dj0B/w6lHw4HDnn/CkFXCvBoZwqsAw7plw6lnNX3CgcW+w6vDrsK+woHDosO1DcOKc31Lfw7CpsK/4oCcVeKAucKq4oCYPsKs4oC5w4M5cH7DjcOdfcKBw6fDulJnLcOdwqrCpA9FKeKAnsOHw7R94oCaw7M9A8O6ecOkw71tw504w5PCq8Kmw791MMO94oCmw6tZ4oCiwqgKw6k/DcOnw7vCvU/DtG/CvCTLnMO+wo8Gw6/Dn8OJwqpEVUgfw6XCusOncMOOPEd7wroNw4/DsjQdwqHDnz9NwqbCv8OQWsO+e3vigKDigKHDhcK9PRXDtjLCvgrCp2/Dn8ObMzzDrMK/wrfigKHDkEvDnsOnwqrDoT9/dRvFvsOja8O6ZQ5JdcOLM8OHwq/CuMKzwqsCX8OFWMOpw7R9d3YNw5PCnV1wwr7Dp+KAoHVHUxcaxb7DoW3CusOPAsOP4oCUw47Du8Whw7vDukZZwqXCqeKAmcOpw6vDrsOrxpLDs0Ffw4DCt8Odw7/Dh8O14oCgw6fDt+KAug7Cq8OiPsOwL8OUw57DlVlpwqpkw7rCusK7OsOhfOKAlMO3wqE/xZJ3d8K8w6B4w5/Cv8O1L8K0w5c+4oChw77CoMK4wqfCt8KzQsOfwr5fw5nDtEnCrcKdw6LFvsOeQeKAocO+A3DCvuKAoX4Nwr1Hw7nigqzDocOexb7igKBzw7bFoMucw69Lw7vigqx/w6FbwqxKVAXDtMO9w7oaw44HfOKAlMK+w6nDj8Of4oCmO8K7VMOHO3bDi0/igJrDgcO5fFVBwqvCt2rDqcK/CMOnw7vDqMOXWMKrw6YLw5zDl8KnwqHDnyJOd8OIaR8HL1Q1wq3DnirCpE/DqMK1w57DrzPDncOVWcW4w75Vw7I+wrnDnsO+AlRNwrPCr8O6w6g/DcOnxpLCvsuGw7nDtnrCqk93Ty9GwrzDrylKPkIvw7QywqsOVR/DveKAlMOgfMOZw7scw7/Ctj7DnR3DnRjDscO+wqjDt8K+w5AhVh3Cqj7DusKvw4DDuW7DujXDjsOaI0Z8wrjFuF/DlcOow7/DhcKBX8Kkb8KB4oChwqrDpMO1w7tVSMO/w51TIMOQR8OaN8OlGsOyaMOoN03DqsK8T8Wh4oSiw6/DocKtBB3igJ7Ds+KAonHDvw/CtMO5QV9uw7fLhsK7XsK9w7jCoeKEosO6DsOuw6jDq2vCncO1wqnDnXMAwo1eLcO9N04Lw57DumfDrsO7w7fCo8Ku4oChVMO0a8Kwxb3CosORwqvCocOfw5DCtELigqzDpwJ9wqDCr8Ki4oCZwq/DqsOoP8KtC8O7BMK/ZuKAnsK3w7rFvsKlVl/FoGnDmj0/4oCYw7PDncOed8OrDRYrxaDDusO84oCdYMOvb8ORN3tAw7/CpsO3RMOMw7d5wr8K4oCcw75q4oCcJsOlwqfCtMKvwqZmW0DCswfDrcW+I8OCw7law7rCtcOV4oCZw7RX4oC6DhrCvD/DpTrDjcKvwqXCv3QSwq9zBH5Dw5LFuMOpw4jDt8OkWcKsw79Dw7zigJzDrkgzWcOvwqjDqBN6S390F1/DhQnDulLDkn9oxb3igJ7Dn8Olw7zigKbCtcO+wqTCvzN/w61oZR7DrsKqTMO1y4bCs1TDl8Om4oChw73igKHDuR3DsuKAucK8w7Bpw5XCvHohw4p9PcO9w7sJwr12w6t/GsOHC8KywrnDnmRRLMOWw78hfMOgwr3CuSwOw5dsUuKAoX0BXignw4rDvcKrLgrCpsOfw7LigJjigJN+wq1Yw5TDqcOvw6pJwro0OBbDr8O8w7/Cj8OyY8aSSeKAlHrCusKow4t/CsK8wr/DiMOvfQ5/w4tIw78aw74+NsOrZA8KPsO5dE/Di3tBw57Cr8Ktwq3DncOF4oCew4Zwwq40w58RwqULbsKrXzzDjcOCecOqMSbDtMOoKcOAw69Jw7pIw5sCCz7igJ18RxzDuGd4w6nDl8OSeuKAoMK8LzbFuMO+bMOFxb7DrMKrcMK1ZsO7RcOYw61yJ33igLnigJ3DnsK3wrRHwqTDvCjDuMOKSMO6ay3DrcK0f8K5dcKswqvigJzDhcWhXnV2wo3CtcOaw6A+4oCZNn4uGzzCpcO8w7Z8FwXFuMWhw74hcj5fLsO6wrVYwrtZwqzCqGk3wqEXC8OwwrHDtcK/Kh7Do8OCfFfigJTDtmV0SX8tw6l5FitqegTDjndtw7wuw6Uww6ELwqTDn8O4wqtwPsO/AX04xbjDk8Ofw4diRU0PcMOwSsOv4oCcxb5Cw4oPw7rDisKkw79HZcOaV1vDlA8sVsOUwrQVw45fwqTDssO+HlfDig/DusKqY8K94oCcIsOmI8Ouc8OBw7nigJNuY8KxwqLCpcKNDnpdw5LDtz11w7nigJjDssOrw5LCvsK9w4XCtA/DpsKvdWsv4oC5FS3CvcOtcsK+MsOswr/DqnTDueKAmMOyawLDvwrCgV4sxbjDt0nCu1jCrGjDqVF4f8ORScOqwqRPPMK9wo0uwr8+w617xbjFkw/Dr1vDjMOjw4AfXW3igKbDs+KAosOew582w5IvHcOrw5LCpX1Hw47igqzDt11ZP8K04oCYw4XFoOKAmcOWC8O0w5jDuCXDulN2w5LDl8K6CsOHwrrCtGnDn2Fywr7DlsO8L8KwWFHDksODcMK+OsOsHzAmfUjDu8O+IcOncynDksK+wrjDosKPxZMeKMOGfMK+JMO6wrNqasW9w7JOxbghw6lDw6DDv+KAsHMPw7LDvmtMwq10JMOew4FQwrXDkn7CvA/DgcO5w4rCpG/igLnDqMO0IcOpC8Kmw7/igLBwwr7igJPDvuKAmsOaw7vihKLCrAzFuMO4R8Oq4oCm4oC6VcKnw77DpMK1XRkmw6t+csK+w5bDu3vDuGnDrsOgTh/DksK+w7rigJNJQT4Aw79hGX1vZcOew55USRoUQ3XDuQvDsMKuw4vDucOKwqTDrw9xxb43wrjDk+KAoXPCvX/FuBZAfwFff0rDqEnDscK0w7/Cv1NrUkjDvgLCvEkxXywvw7xZw6LDp8KoNcOew5U8wrwtw5/DlcK8w6JXxpLDt8Orw5DDrG3DjcO3SsO/V1rCnXNBw59oIeKAmMOYw5BzTcKmam7DvD0+Sm8OeE09XOKAoMKPGj7Cu8OtwqTCosOzT+KAmsO3PWHDnz7DkeKAsMOxbnDDoMO/EcO0HcOBw7nDlsKixaEvMz7FoSTCjWUzw6FeOuKCrMK3DsOEw4LCp8W+T+KCrH7igqwyw5nCsSRpdDxDw7UeYsK+wrzDsXPDp8OPw5pDwr0exZJ3xpLDuz3igKHDlcKBH8O4P2FCw5kiw7o0M8KqacK1w7cFwqgReTNvJMK0cgLDtA1KF8K/AFkmw7QYOcOfwrfDsQPDvwEaw7DCocOXE8Ocw6/DuUdDf8KBwrN2NsOYw78nZsO0cH4uw6HDlcO2OElwwr3DhwjDtEN/AcOswo99w7FHAsK8w4/Du07DjMK3FsOCPno9w7rCtC8ww7AvWMKww4DDusKhOV8uB8O0BnUUAD5Kwq9oxZLigqwaw5Ymw4LDksOHFyDigJTCo8O5HmI+w79RbMO8T8Olwq4v4oCgfSR9QcKBw7/LhirDsC/DgCrCvcOdw5dkwr8Dwq3CsMKmMcOVcFXCj8O9w5dXwrNY4oCTLsucAMO9Mhp9w7DCvgUfw57CpzUlw47DtSDDrOKAugPDv8Ozw4rCrcW4w5BbeuKAmeKAosKow6XDmwXDsDbDscW4b8Kxw585NsOAYnE1w7cmw4rCp8W4esKoGMOzZcOrc8O4wrNmw7Emw7/DjW03IMOs4oC6A3/igKAqw77CuWfDjD3CgSTDgGPCvVFqXmPCv+KAusK34oCmw4LigqzDs+KAocKNJV7Cvlk+w73Djzl2w5nDu8KzXMOeXy0OcyPDrOKAugLDv1lLV8K8dwbDocOHw5ZPMcW4w7RxGcO0w7HDh1vDlh7Dk3d0ecOhWMOoH0TDjOKAocO1T+KCrMOzZ20rxb7DrEDCtW8Kw7zigJzDpHwXfsKvw7fFuCzCsV3Dk1nLhsOpB+KAnsOEw4Eyw6kvfsOIw619w5DCt8OQw5vDuMK/H8Ohw7fDs1pNfmPDmEfCq8O/H2fDo8W4w6vDncO6wqFDwqwkXTTDqMOew7lvTVhaw4Niw5nDryzDnn954oSiw7RfQcOMd3nFuMWTL3TDlMWhw63DnzDCvMKsGU1+Y8ONw5fDvMK+w7A9wrzCj8OITwHDoOKAnBLCv8Kkw53igJ3DtcKhwr7DnXAL4oC6w7FKwrVZe8Oiw4TCuSvDi8Kkw7/LnBzDtcK5xaAxw5/DmsO4w6XDmcK+ecOrw58hxZMv4oCewq3Dn8KtwrrDtSUOKcK2w5sVXwtrOMOffkHDv8OaaMK9wqR1WsOUKkLDoCXCqTLDqW88ScOEfOKAmXfDo8K3ZcOVe3hwPyTDveKAk8K/LcO4xaDCrR9Fw5/Ds8KlVsK1G8Kiw7pew7bDqVN6M8K1wr3DisKkw78IxZPDr8KiT8K+F8O6wrRvw4Bqw7PDosKmwrYwwoE/w53DvCsHbwtbwr9Hw5prO3XDo8W+wqHDjQnCqMKwJk7DuWjCuMOTw57DigzDtMK1A8K0LwV24oCZZ8OjJz3DhTd+w5R7wqBvCMO8wo3Cu8OmKsK2fk/DkXfCp3ovw4slwrNMwq1Gw4x5XsOPw4fDjhfDgx3igJgLGcOoZ+KAnDnDtUxkE8WTwo/DoS7CvC82fnHCqAvDtV7DiMKtw7/DkMOcwqLDoH3Cj3bCqMK6w7k9w5bDtFnDncOVwrjDlMKzw7Vvwr9uw4bCj8O44oC6w5dRBDTDkMK3w4bDuj0dTMO</t>
   </si>
 </sst>
 </file>
@@ -941,7 +941,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -982,7 +982,7 @@
         <v>8</v>
       </c>
       <c r="K1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -1009,7 +1009,7 @@
         <v>14</v>
       </c>
       <c r="K2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">

--- a/MathTest2.xlsx
+++ b/MathTest2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Taylor\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{BEE19E63-1CAB-4CC5-9DF4-624CA2BE6C90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{878FAFD2-1133-4A16-B7F3-B7656FDE6CAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{437A6C5E-B59D-4A6C-9B83-9637B857EE9D}"/>
   </bookViews>
@@ -70,7 +70,7 @@
     <t>image_base64</t>
   </si>
   <si>
-    <t>4oCwUE5HDQoaCgAAAA1JSERSAAABw70AAAHDtwgDAAAA4oCg4oCwdsOcAAADAFBMVEXDv8O/w7/CtcOmHQAAACIiIsO+w73DveKAmRYm4oCdFyfLnBgow4gqOsOFKTnCjxUlw4YpOcK/JjfDgig4wrgkNMKzIjLigJMXKMKnHi7CoRwswr0mNuKAuhkpxbgbK8KdGirCuyU1wqUdLcK2IzPDgyg4wq8hMcKrHy/CrSAww7fDt8O3w7vDu8O7w7nDucO5w60cJMOKKzvDrMOsw6zDtMO0w7TDscOxw7HDvcO8w7zCrSExIsKxTMKjHCzCsSExwqkeLsOjw6LDosOnw6fDp8Ouw67DrsOVw5XDlcKkwqTCpMKswqzCrMOyw7LDssOXw5fDly8vL3R0dMKQwpDCkMK5wrnCucOGw4bDhsW+xb7Fvn19fVhYWMOdw53DncOZw5nDmcOJKjrDqcOpw6nDtsO2w7bDhMOEw4RKSkrDi8OLw4tHR0fDkMOQw5B5eXnDgMOAw4DigJrigJrigJp+fn7DpMOkw6QNDQ3igKDigKDigKDDocOhw6DDgsOCw4LFocWhxaHCpsKmwqbigKLigKLigKLCr8Kvwq/CqcKpwqlxcHDDjsONw43DksOSw5LCu8K7wrvFvcW9xb07OzvDn8Ofw5/igJTigJTigJTFksWSxZLDiMOIw4hnZ2fCvcK9wr1/f392dnY+Pj7CtMK0wrTCtsK2wrbFoOKAsOKAsGZmZsOww7DDsMaSxpLGksuGy4bLhuKAnOKAmeKAmcOUw5TDlMKywrLCsk5OTsO8w7bDt8OZw63Dv8O5w6/DsMOtw5nDgycnJ8O7w7LDs8ODw5nDrcO2w6bDqDg4OMKgwqDCoMOjw47Dg8O0w6DDosKiwqHCocO/w7/Dtl1dXcucIjHDmcODw4PDg8ODw5lsa2vFkh4tw63Dv8O/w7/DrcOZHh4ew57CkMucw45LWeKAsC46NjY2w43CjeKAosO/w7/DrcOxw5zDnsKmJjXDmHjigJrDlOKAlMW+wqIvPsOJxpLigLnCpTxJw4o3RsOvw5fDmsOowrLCt8OlwqjCrsOby4bigJjDlm96w4gxQMK3MUDCrC074oCwJjPDt8Orw63Cs1RgxpI5Q8Okw4DDhMKzwrPCs8Ohy5zCoMOCdH5RUVHigqxDS8ODw47Do8OZwqnCruKAuiw5w7bDv8O/w5/Cs8K4eVdbw41BUMOxw5DDk8Orw5DDk8OpwrjCvcObf8uGdV9iwq83RBgYGMOow4nDjcOVZXDCt1xnwo9ZX8Orw4DDhcOfwrnCvcOTWmbDlMKhwqfDo8W4wqfDjXfCgXNqa8OFVmLDgU1awrUqOcK7ZnDDgTFAw4N94oCmxZNtc8OFZnFxZWdVVVXDrsOHw4t+bG/DkVRhwrc/TcONXWnigJpiZmBgYMK5SFV7TFLCrERRwrnCocKkw41qdcK8OUfCu294w4k+TMO2w6PDjsOSxpLigLnDiMOHw4vDgUFPREREwo97fcKrS1fCgU9Ww6TDtsO/w47Dg8ODxb1GT+KEojlFwqfigKLigJTigLBrb8O/w7bDo8K6wqvCrcOBXWjFoUxWwqVcZMW9PUfDnMOMw492BATFk8KBxpLCqXd9w47Do8O2w4vCs8K1wr/igJjigJPCqcuGxZLDmcOtw63DosOTw5XigJ3CtcODw4HCsMKyAABcw4PDg8Kvw4PDgcKjw4PCqeKCrAB2wqJXAAAAV8KPwo9XAEB/wqVoc8KdLQAAXTRJREFUeMOaw6zLnMObS+KAnGEcw4fDnzHCq+KAsMKdw5AOZsKQMQ9gw6jDhDRTPBIEIcOYXUFedOKEohfCgQxkwoEXdsKnMFZzwrrDpSEcw4NdLOKAoGnDhBzDjhnDmgwhSsKQDsWgCMKBV3XDkU1Bf0DDj8Ozw6xdwr/DrX3FvsO3wrDCtuKEom3Dj8On4oChF0bDkcOFw6fDt33CvsK/TcOgcDgcDuKAocODw6FwOBwOJ0vDiMOT4oCaw4DDiSLDmMW9KxPDoeKAucKQZUhk4oCUYi7FoFzCoMK5KFLFoMKpwqzDpFvDsMOf4oCZKMO9wo/DrsOOckTCr8OFYnM6w6cCAcKPw4cTCMOMOcKdwrYB4oC5w6kywqY8SsOnxbhlIGvDgFfDoMO/AcK8Y8OrRHrDuUBgw77DicOMw5DigLnigLDigKbCjcOhw63CtWPDsRzCjcONw5HCtcOtw5XigKLCjeKAsMKdccK7w4/Dr8Kxw7VWVMKQXSB7QMK24oKsw6/DgEEnXjzDtm7ihKJzLcKPT2zDjMOm4oCU4oCd4oCdHCsBw6USw70Mxb3DrcKufMOawrHDuwM2Uy9ZA8K0A3wFDjAgHns3B+KAkx/Cv+KAusOML8OBQ8OU4oC5A0jigJkfT1HDnMKswq3CvMKye2pMwqbCuB3CqMOkG3DCoADDscOIwrzDjTXCtDDigLrCjyDDqmNoTT7CvQTLnMOdw7Udw5/CrzLCvAPDpcOlw6Irw4A3w6AgEB/DuQHDl8O4w4Ykw5IO4oCcfMOyQTtM4oCdwrXigKLDhBXDoBvDsMKPwqDDjU8vDi1sw6cDSDwEX2vDp8aSfsOyU+KAnsOF4oCcH8Ogw7PigKDDlV9dZsOqw6Ubw7Bv4oCwMz8/PgzDmsOTxbh8w6As4oSiwqLDlVfCvsOqwrIyU0VsA8O4AsOsH8KgHl3DtsOl4oC5w6PDrwzDuRRpw6x8AFbDoMOsw5nCosOVHX8Xw5rigqzDqBtQWsOKF2DCv8uG4oCmw77DgsObwqHCpcOJ4oCaw7wCZMK74oKsKMOPdMOyw4nCjzjLhsKi4oCiwp1QDWnCgU7DsgTDsAXDiDDCoMOew6zFoRgrQCDDsUB6Oh/DhB/igKJJPsKwwrYew67DriAlw4AXIMKz4oKsesOL4oCc4oCmSSLFvsWSwqbDjsOXaUXCocOzYcOiKcO6ZsO/VcaSFsOgMsOqAMK+AEBmw5QPw4wsGQpEQMK9TMOnw6vDvh7DmcOOwqcpWsK1fsOHHcOAFwDDiOKAnsO6wrnCoWFDAR4EZMW4w5HDucK6dMOBw6h8CcOHw4nDrDoew5Z04oCdRRfigqwfwoFpd8KPU0/DlCPigJ3igJnCr8OLBMOsw6TGkn7DgsKuw6M7WQByA3DDv8OpxZJ9wqdrAcKrwo/DqWd2wr4uwrPDiCbFuAzDpsOsSsK4wqcGH8KBwp3CvAHDkhjDu8K3L8OGDAjigKbDpMOrw7YH4oSiw6QDU8OeUDVaAMOcAMO8AUjCjWjDrMKnZ+KAoMOFw5RDw6cnfMOOw5fDrS/DrMOkA8K7w5ZfXcK4AcOIA8OAw73Cp8O0w6Q7HxsQwrLDicOXw70by5zDiQfDlh9GHwBeACk9w7nCriXGksKBw4494oSiw6TDjB/igJjDp1R0wqLDqMK0A8K5Z8KwGsOuRg8AwroAeAHDvMKlw7vDqcKhWQPigJpOwr52w7UnT8W+PHISRMOLw6rCp8OQwroAw7J8dnzCjz4Aw5zDv1/DlMO9c8Oxw4lndcK+FsOt4oCh4oCYeBjCtnZIwr7igJ4zw6LCpMKwAMOnxb3FuFsPdRPDv8O8AEjDksO9In7DssOZw4lXwo87wqDFvnvDvMaSYMOqwo/CoVNGTj/FoVVfT1figKHCqeKAmsO7T8OGw73DvDvDkB4bDcOqUcOew4nLhsOiYcOYwqgkH8O0wqvCrwBTPuKEosONcCsqAMOuX8Krw7vigLnCrmFDAsWhw5TGknZtw4kHw73DrMOkM8ORKcOAw5JPeMOPw71rdn/DoQlxw4/DqHzigKLDjMODwqTDlMO5Z2ASOB0bwp08ID42wqJ/axvDssOf4oC5PwBww78Kw67Du+KAlMOJ4oSiTydfPsOz4oCh4oCYw7DDg8Kiw7J0dj7DjcOpP8Kow7knw6LDicKPw4hnw65fw53DvcOMwrZEwrs4SsOqwqVD4oKsw5zCp8OUw7kgHkZtAxLigJkPTDnDqsK74oCYf8O+w74zIH3CvzxmwqDCkFd/WATCtCcAw6rDk8OUw7nCp2lkw73GksO6eMO/VsOww4/DtScGwr90fsOYYGQkX019wqrCncW4fMOywoHDgsOT4oCmOibCkHzDoMOEwrkTw6/Dg23DncOiw73Dh8OjH8Ovw77DueKAmcKBBVs9wrDDj8KdT1NYw4heACzFuMOWf2LDs0dbNcO3Lyl8w4tjxpLigJhOwr7CunrLnMO0f8OOV08+xZLFveKApkTCvTjigJjCvcOWw6oOw7TDvR8/w7/DhMOCN8KPTyYZe8OVw47igJRlZMOUw60ORiJbw543DuKAocOVw6F4w6PDncWgROKAmm7Dt8OoSMKywp0Pw7rCo8OIw7oHw71RXntvwrd2IcO/wp0XcsK9w77DsxDDqMOYM8OSw4lnwqs/RMOJw5fDksO5xpLCo8Ouy4bDg8OuCwVsZkEewrMtEMOyw5kdEcO3aGESw4nigKEVYMOe4oKsw5LDpBPCphzCtT1dZcKmHH/DvsOJwqPDvxzFvT1AMcO2w5o7w7/Dg+KAk8OVw6dxw7YLw4lidnp8w5bCrQ8aOh/DvcOEw4PDsg/DiQfDnsO/IMOnXy4/w7/DpMORf2E0wpBRcQ/CqcOXw5bDucOPw5wOxbjCs1JIwo1KwqfDj8OhHlFLwr5qAUDDssKBc+KAmFvDqMOrX8O8w7zDp2bDvMOJwqXDr8OaBsOxCsOuQcK94oCgw44fCVo9FiF9WDzDlsOgy4Ziw6fCq8OmH8OEA1M/a1tzw7bDucOHw4EfWDBAw7LigKJywo8GOl/DtnM+ER/FoRYywoElBCtAJV9DAUDDsgHDt17DrMO5w4/CscOrwo9cezPigJzDrcOt4oCZw6TCs8OUHwLDrUrCncO/LBLCtgnihKLDhRbFvcWSUMKdw4/igKDigJh/xaHDl29u4oCcT385FsO/w6jCtWfCpOKAmcOPeMOyw5HCqHfDvmDDkD4nJEHDm8aSeMOa4oCeJHDDmsaSwo9kOh/CqELCo8KoH8Kuwr/DusW+HOKAuX8ewqJvw4hobAfDsTLDrnHDrsOVOn/DkG0NwqjFvnctLQ1NAlDCr8KPwqdeAMWhGlpaVMKPw4HigqzDlV0sUU7Dq8KvwqrDksOkw597HX3DueKAlEPDscOHw4F3DhPDtWTDpMOdQ8Oyw6U+w6cPRsO8feKAmgbCkMOjOk3DtsOrw5DDr+KAmgbDusO8w6vCj8OYwp1fBcKjw67DvxLFvT/CusO+ciXDvsOkw5Rfxb5sN0o6xbhywo9Rw6x8UMKvw44dwr3CvlHigJzDvUbCvcO+xb3CoMKNwr4QWgAmRD1Gw5E/wrR/w47DhMW4fMKpwr9k4oCew6TDi8K7V8Ouw7xnW8KhUsKBRW3Ds8OdOsO6w6VPw4I+w73DsjfDn23CrhVY4oCd4oCgwrxP4oSiw6rigLDDvmIyxaDDui/igJjDmcOc4oC5w4Y/w5s/w7vigJzDj8O4Y0g+w5bCr8uce8OFw44/EsO0w4tWw709w6LCj8K2w5/CosOJfuKAucOMwr/Cvid7BOKAniLDheKAncO+GFh/ccKxwqJ/wqzDv8OSw6vFuCjDvh3CpsOsfsO9w7MQw6bigLB2acOyWcOuw6nDjuKAocOkf8Kw4oC6BXnFoVnDjcOdy5zigJ7DvUbDlsOVw5Asw4hjDm8yOsK/GEbDqh9yTwZxPsK4V+KAucW9w7/Di8Kdw5nDu8O6w6NXf3HDlmjigJ7DjlcIwr7DnMOnw7wR4oChTVDCpAnCucKqZcOYb8OQZMK/woFhwr8Ww73CnSZBEeKAukNsAMKkHcKyXwzDkMO+IcO54oCewqnCj8K3W8KzOcO+w7gLxb4hwqM0w7nCtHvCpcOOw7/DosKvTMOiwr4Hwq7Coj/DlGQfw716VQDCtH8Ow4jDs8K7CxnDiQfDvRLDosKzf8W+w4zDlsKtw7rDrsOow7HigJR9w7rDsxDDk0tGI3Q+w5vCvULDpw96wp3igJrigJ7FoMK6akHDijXCvcO+CsOrQcKow5Bgwr/igJoVw7MresO9NUFKdV0Fw7UAeB9Rwp3Crxh/SD7Dln9+w7PDpsO9LD3DvsOIwrd7wrPigJnDpMOTw64VOn/DlMOeLzDCvMOcEMKkw5wAWcOUw6PDjcK2wq9SG8OXy5zDvwvDrBjDkG9/SXXCvuKAmn/CscOzY3PDvsOlw5fDrDzDvn7Cs3d2wrFRVGEYHmdXTcK4wrJ3JsK0w5RWwqbCvcOow6J2w6nDvsOV4oCaw5Atw5LigKLCtRBBw4TDhSBmQcOFwr/DhsOQNMKmw4YmXMKgwoFYw4HigJoGbGjLhsucQBpEU+KApgjigJ7CqATigLAJJOKAmWIwJsKkVyQSbkjDpOKAmmvDj+KEosKdw607Z8OOw58swrvDrcOuIsOv4oCeRBvDksOOw6zCs8OvecK/w687wqdLwr7DiW9Gw6bCq8KNw49nw77DuGlJfcW4M3wtw5RFw5BXRQnigJ0FfcK34oCawqdPceKEoi/DpU/DocODw7tUF8OWd2wkwqvDv8O94oCmxbg8w4rDgMKBZ8OEw44He3nDpsW4w4figJnDj8KBDsKrfQ7igJpxH8O0w6MCw7pJw5kP4oCwSCrDgOKAucKPw4PDt27DleKAmMOL4oC5H8Oew4/Dq1TDsiV7w7XCv3/Dgj9INMO0STPigLrDuSrDn8Kzw6gfwr0mwq3Dsi3DtGJCw5JQ4oCUb8O6XcWgfgHFoMKjwpDDoDV0wqQOw6hZw7x1dcOsxpI7w7jCocOLd8Opw6rDv8OmfRPDvnbCo8K3wo91wr4CPjLDnynDtXBSQ8K4w7TCp8OUw4MZfC3DpsaSfgzDtMOVw6PCoxR+4oCgSMaSw6dGw6B9OF/igqzDn3E+w7TDq8K/wrTDtsK/X8OCxbjDgsO/xaHigqxHw6ZLwo3Dj8O3w7nDgxdwWEPCtsO04oChOF/CohpgwrAqw6nDo00iw58j4oKsQljDuGXDvD8fw6HCvU/DhcOzw7fDqlpPeMOJwqInw6/igLnDsMKnwrvCuQfFoVnDp3PDsCXihKI/w7w5O8OUwrN0Sz/FoXtLOcOsw5vDuMW+WxsZS8OHBcKgE8OcQBE/Qnp/4oChdsKPwrjDgMOjw6LDsMODw7lsw7gvwq/DucOwwqfCs13CssKpw4NkPsOHXsWTw7nCj15gw5lHUjnDmcOSwq/Dp8OV4oCwfXvDjTnigqxOw4F7KcOkb8Ohw4/CpiLDrAgYw77Dj2PigKHDlMOuxbjDmsOs4oCef03Do3fDqj04X8Whw7h8w6bFuB/DohfDucKkdsOpw4daXR5hw49Xwr/DsCfDuMKvDl3DpMKdw7/CuGbDtW8lw5fDpF0Sw77Di8W+wqrDqcOawo/DnHfDi8K3w7vDmMOMw6fDoQvDu8O8w6kTwqIOwrtLwrvDtMKjTivCj1BDw6oXw74uw5HDmeKCrBNXwpDDucKsVMO4W8OHwq7DtuKAnjfDlnTDrUfDq8K9Lw7DisWTD8O2fMOmwo9Oy4ZNGAgr4oCUfsO8w43CrjJ6wr8rEMO3wrXDsOKAocORaTLFocK4DMOnwqvDsMODw7kNw6Rqw713w5M7wrVcw7tRw7gfNxMhw7NVw7DigJjDucOHw7bCtAjigLrDu8KoaMK8w5bigLDCpcOfwo82ZEzDk1zDscKkw4FoecOvw4ocw7l6wrTDq+KAosKQw751w4bDgsOPwrcVUUt4BMOgw6wYwpB7w7FDw4DFuMOXNVrDu8OVKn7Cu8OYf+KAoHE+w4t+xb7DhMO5w5dkwrvDtzERw6gQ4oCTfh9aw77CqsOJw5Ffw7jDgnZzRh9tNMO0w6rigJ3DnUhMdgLDoBzDjXsdw7/igJrDs8OpxbhWcsKNwq8mwrVfbeKAk8O+dMK4e8Ky4oSiw4l84oCmw7HDkcOnwo/CugM/ZHlfw5/CuGrDrsKiVyLDg8ORX8WhMsOdw5oZCcO6KQVSw4JgCjFr4oCiw7vDv37CvAzDpBrDvDNqy5zDrl3CvzRU4oC5Y18Kw7/FksOKw7nDosOMH8Oew61ew7TDo8ORy5w3w6PCo+KAk8K8AsOTK8K8w4vDtMOSX8WhNVnDrVxrQMO6w7kycsOJw7suxZJFw6PDrsOlf8OPy4YefyHDtVvCnWtqw7PDug7DksO5w5UafsOaw6ZfambDunw5e2TDvsO4wpDDm8KnOW/ihKLigJQUw6VtKMKQTcO7wqTCv8OoPcOTS3/DuQ7Dk8KrXUt1w7TDk1nCuFzDkMKQwqIIw4wlDGjDqMKmw57DvnDCvsaSP8ORQzvCv8OaasO8w6lJxb1LcsOnPyzDjsO8Y0cNKMOcFcKgw6rDssKuw7I5w57DkOKAoE/DtX1j4oCaPsKqQE5PwrfDqBcRwr4fw7XCpsKBc8O/YQPFocucw7TigqxvwqN/WMO7w5vihKLCj2vDsm5PwrhvUU3DoSc3OsO4CTJfw5nDqMKhw48/w6XCqsO2wqxYw4BRw4JrwrDDhMK9w55Ud8OUw6TDqC94w5HCtOKAosOqfcOCeMKiw5fCqQBywqvFkmLigKZJD8K+w6Bo4oC6a2EawrjDiDnCv8KNw4NPwqDCtxbDoDc0TMO+QxrDv1rDgk/DoR/igKHDs8K9w7DDpwkzf8O4KDPigJQNFOKAnVNOfMO8a2EaLgfDvcK+fMOqwr/Ct8OIwqB6w6oj4oCcKuKAnDR0w5JOesKsXMKgIGZ2PDHDpkHDj8OjwqfDmHERw7zigLrDnsKpIcO8dMK6e8WTw6nDs8Klw4YHw77DsUPCrnjDjwVcxaDDqyc+elkfUMOjw7PDtOKAnBkbw7cGNgfDnjXFoFVYcMKjUC7DqcOaw7vCucOJw6HCp2LDnA/Dp1PCjRHDvEtqBT/CucOFT8O/4oCZOsO/YWHDpg/FuMOlw5ZMWCfCpMWhw7jDuG/Ds+KApsO0w5tNwqpsX8KhAcOIw7cEw6sMwo3CtOKAnMW+EBYvLsK/w47FvSDDsx3DvMO1bcO1CsO3wo9dTcK+VCPDuMOJDcOuw5/igKHDjFc4H33DvsOUEF8vQTHDncOEw4c/w73Dn8K3ecOo4oChw5vDn8Wgwq3DiMO9w77CpuKAmMOXwrLDqyZVwrfDoVvLnETCpMOZw5vigJ7CuMOadcOoCsOrfCoBw74Zw5UOfsOqw7x9csOn4oC5MsO/wrHDnUHDriAdwqMkw7M6wqciw7fDrMO94oCi4oC5w5tBX8KkDjsfwqIdRsKxxaDCpAIhw50TQMOBPcO1w4h8G8K9w5zDvcK14oCew5/DicO8Z8Wgw4jDvMK9GMOuw7lxTsKxw4YHw73DrVvigJrigKDigKB+JD/DrV1sFMKvwpDCj8OVCzoxCcOnO8O4w6tZw7xEwrXDpn5Uw7vCvjN/HH3FvjQ1w7Vuw5fDk8OPwrxOwpBrw6hbw7nFoX/CjVHCoiLFvsOKw4USTMO+byLDs8OJJXXCv8Kjw7rCsX/Cqh4/HcOywrB9wr7CtsOLw58tOVHDgShn4oCiSn/DpRrDizB0w7TGksOtw7fDmsOuw7NDX1nDlwLDrcKu4oChw7PDqwl6W1LDt8OXT1Y7fjrDnsO9RMOmw7x5wqLDjD/DtsKjIVbigJN7w71K4oCT4oCTfnDDq07Cu8O9W1vDumkgRllDwqzFuMOGGMOnw7PDuFsdw7DDtMKqesO8w45sH30+C1/CoMOpQTTDjGHDj8OoxZJVaMO2w6kHN8Obw7DDjcOYAsKjNOKApgLDgm7Cj3/DkMOBX8KQw7nFvcOEw6FPw6HDl8OXwo9uwq1iw7zDrMKuHg/FuMOPw7wjLS7Cu8KkLEXDlxfCs2bCjz7Fk8KPwrFfScKyYsWgbsOPSsK5FsKy4oCTwr/DoXw5w77DusOCNUXDsFfDqcOUwo8ew6Y4wqnDj3zDgB/FvmB3acOTxb7DoRnigJ7CneKAmcOZwqMfxZLDpMOhwqfDusWSEuKAnh0qy4bCvcO5NFvDhE7FkiHDs1XDuMOzxaFKw5hDw5/DqsObw7DCpcK/xZN/wrLLnMOMw5/Cu8OfwrN5F0jLhsK7wr4swr4+e8O0G8OXZMOyw6PCoFVGWRTihKIpXMOSXMKiwqXLnF/DuuKAuiTDsMOlw7htw7TDgD9Nw7FXw59+Pz3Dg8O3GcO6fH3DpsKPHsOiesK8aEhQOEfDo+KAkzHDu8O0G1/Dj8ODw5/CscOYKOKAnMKseBTDnR7Dv8ucw5DCoSvDgC7Dgw/CjW/DmBTDriPDuMKrw6vCrB/CgcO/dTHihKJ/wqrDn2sWLiE7w63DgA/DoRwmwqvigKZ/UFzDrWXCocK/w6B54oCcKsOzdmkFw5/CosOrw64xccOIXsK9OsK5asOGwrvigJ3DtV9kw5ETw5xuw7wUPsOeAG3CtzfDtBDDvMOkwqxfS8O1w5Anw7DCvyvCpsOPwr8gPsKyGcO3dH3CqcKkw7ccJsOUw7tDw5nDqC9/w43CpMOawrkuWMW94oCmwqUbw7PDnuKAncKnw5vigLkLw6d+w4HCv8K9w55vaHDDo2d1Z3NPBznDq8K3w6DigLDCqjE/wrnigJhvDxbigJjDuWdFS2XDljsPT0ZEw6cwMeKAkysXw73DhsK3TMKqaMOSKE3Cq3IOfSjDgj4Qwq1iREF2wrQVw6DCnUvFoH/DpEYvw4XCv8K4asOww5PDucOuPsO/fcO+w7Bhw6kWecOOw5LCncODBMKxwrLDkMOHwrdawrHDlChNC3fLnMKgL+KAmeKApnPFoF4dHmPFk08lw4U/duKAosWTw7Qlw6fDvMKrwqTDr8KzR3zDvjPDn13DrHNBw7/CqsO6HCZmwrLihKLCssOQw4fCt8OaVUJX4oCwN+KAmOKAmcO+GygDOMOtxbjigJ7Ds1XDuGl/MMK54oCTxZPDs19VJW0/w63DtcOOw7jDj8O8w5FBw5XDqcKoQMKnw7wcJsOUw7hBw4YsF8O9w57CnXbDpsO34oCTwrrigJzCsC3Co8Khw5/igLDCulbCoMOBw4vFksOzVcOub+KAusOaw5rDvcOs4oCZKmnDu2nCr8OnP8OzR8OfV8Ovxb1Ew4PCsnPLnMOQw6LigKLCplkuw7rDi8K+MXnCtRdfw67igJwyRE0/HEXDuwcxwp1fA8K8T8O3w7d4w7xtw451K8ORbcOPfCtfw7jDk17Dj3/FuD89wqDDu8ucw43igJ3CpT7igKFpBHvCsmbDmcOoB8OXy5xlwqAfw5zCssOdw5TDkMK3Uihqw4Uaw7gFw47igJTCusW4w4InwrrCnUjCvlMNfR9Ze35iw47DrSszf8K8fwbCtAHCsXPDkMK0w7IcZsOwwqU/MmbDqcO0w5HCouKAlE7Cv3E1wrN+dCvFuAzDol7igLDDvsW4ZzLCv+KAonc/xZNPw7HDn8KhbX/DhQt/wrvDnGd+V0/igKLDucKnWsOwYsOEDOKAmFLCgVRYeQ7Cs8Ob4oCew4pAP2LigJNAH8OfU08/xZPDheKAnuKAlFEMU8W9w4bigLrCrMO1woEfa8K/wqPigJh2w5rDtlfCrMOww4fDlsOOJcOGw7nCqsOMPx8EfEnDuRtKW8Wgc8ucwqDFuHnDuXppw7TDsVPDikV/w7vDm1FVw65bw6nCkMOkLADDluKAnuKAkz/CncOMw4fDpcOCD8On4oCcM0HCo2vDrcK+wq8y4oCmP0LDv3vDt8Ovw6crM8O/CFsCBSLDhcW+w4MEw71ow7figJwrw4pBf1XCrmzDtFd0dOKCrMK+b0UCbMKhew7DhhfDosW4UcOdwq0twqvFuMKtUMOlB8O4X3DDjsOHGT4xfMOgTxR3DhPDtHcsM8OKQ8O/w5nDrWXCosW4SS80FMO0w7XDsMKBwr/igKJ1w79DEMWTT8Kvw5tbwrvDiW7Dv+KAuhXCqMO8cHrDuyAyX8Odw6jFuFc+wrfDvhwmw6jCp1YHDcOQwq/CvMOIHX4UDhrCvsOpwqvigJTDgD8bUMO4ecOxE8O0Dn7CouKAmBsJwrLDn1fCscOow4fFksKPd8O+PFHDgcKnw4fCrz/igKHihKLDnMKxxb48alnDqDdRGcKla8Odw4olw6TigJN8w5PDl8OkX8OwInwvw4JfV8K4w6rDtkYqUcO5woF+w6NJZMK+wrrDnB9vEcOWO1HDq14mw7Mlw5IHe8OgL13DhcOTwrfCosW+bU1Uw75AT8OlNX/CncKjw6l3ScOlZ8OPw7zDpuKAkz7DhjzDuDQuVcOmT8O34oC5eh3DjHbDpsW+fsOTxZI2V8uGwr7igKLDssOsw7fCosOv4oCUwrsfw47Cp8O6bUvDt8WTV37DmMOVRcOmwqvCnT8Fw7g8w75Kw5N/wq4Cw7QBXzzDtSvCuMK/NcOvw77DuQx+4oCUw67DpGd+czjDtEHDqB/igKHDs+KAogPDnsORAcOVC1Ahw7pQBcOoa8Oew7oDV1zDjsW4Ty/Cj8O7CxpZwrdhbsKjH8Orw74BZD5nfcO9w4YOw7DDvy/DqcKrw5fCvUPigJQpeEfDs8OJw6XCosOPaMOaHsO6w4zDmcOaD8OrfyfDvsOUbS7Ds8KPDcOqCsW4CsOQb8KqKH19w4k7w7jigKLDo3zigJrCvsKBw4VPwp0Pw53CpkMfw5rDtcOPwo3DuTHDnkfDpsKrxZM/wrxfw5PDtETDg8O/Q8O6w5rDpz7DsWshw7PDqUUkccO/w4jigKF2w7TDj8ONw5rCj2bDr8WSw5DDucO8GcK+w5PCul98CFdgw6Vvwqo0fcO9cx/FvsW4d8K+DsO/aOKAnkY/HcO4w486feKAnsO+4oCUw4h8wqXDtcO3GMW9w5LDksKnwp17w7pN4oCiwqcvU3hbw6HCv8O2OMOOL0gWw73Cv8K9w5s7R20fPsKiw6HCoMOww5/DmMOhw47DrV/Dg8KuXjTDvOKCrMK+wo9EQBl0wq7DlcOJfDXDvuKAmBtbw4jDgH/ihKI1V2s/OcOIdwnihKLCr3A+RnxJWsOlRMKq4oCefuKAnEfDlUM/EnXCnQAKw77DrELCr1rDu8OXJTY5bcOfwqzDksOHwpBPw6h8LsOzR8O7w5lfw4vigLk8wqDCr8O/w4zCj8ucwqvDrcO34oChw78WbcO7Zn3DrcOHw45eMzJfSh/CvR4+w5IgXg3DtOKAujhVCX3DuyXDqmTDuj7CkFdFwr/CvcO2w4/DtsOID8O1wr7DsF/DlMO0ZsO+IycEb8OsB8O0w79jw6/DjGPDmyjCojA+w5gWBuKApiPCoiUcfyRAw6sIUOKAmuKAnDZxHAxqccKhDQTDmnAnCgQIbShXKcKBCgoNIMOOcuKAnXLigKJDKsOiEg3LhksqwpByCQoUUUEBIW4oRznDhC0kEMOiPsOew47DjsO4W8Ovw4zDrMOawrXigJzCrMOdfMaSRcOjJlbDo8W4wr/Dt8OewrzihKLDnVFlDsKPD8KBwrwZw7/FvTzDtsOH4oChPcO2wqPDnsOHWcK6w6ZjVsKuw5UlwrXDpsOYKMOTB8O8UCjDs8OHAMOQwo9Zw7DigLrDnBtew67DssOCD8KtOcOswrjDocKNw73CoMK/w7wGOH8LM8O8w6fDtcOrw5nDqcOYw6jDksOfNcucw7RjacO9fuKAoeKAlEDFvsW4w5nCqcOQw5/DkRrDl8WTxpLCusW4DeKAuXDDrQZywr5Hw5JHw4XCp8OgDwbDvRAJw7hHwo8+w6B3wqnDsMOZwrxXwrPCvMK/wqfDnsO8O35DwrHFuMO3fOKAoMOHw7wow7nDlirDjsOXwp3CqzdwwrXDhyd8FMOpA37CkMOoe8OYw6LDqsOVcD4NB35+wrbFuBw/UsOdw497PsODWcO4w5EOw64HZMOOw5fDhH3DqH7DjwAXFMO6w4A/WsO0w71jw6LDvQ7Dp1tSw41Pw7B3XMOaQMKxX8O0w7vDmTDigLDFuMKxJsWTTzLFuMKle8K3Z3HigJxiwqMkw4DDn1vCoT/FoEp5w47igKDFvsKBw7NpOMOMD8OnE8O+b8KtfsO/QRPigKDCp8Oww4NUH8OON8OXw7tvw5Z6TGzDssOzw77CsMORDxDDvngTw6DCq8KqeSMTw7phfi7DqXzCri/CqMOfL8OWehlUw6TCqcK+dD7DicOow7zCgQXFvk3CjQDDgGfCgcKiw4/DosW+bcKw4oCmwqvDt3R4f1vDoOKAlMK+w6fCj8OrO2bDk1rDr3BMw7oxw5Unw7Amw6vDo37DuytYMEXCkEE/UMO4wr3CtUzDpnzDlcO8BF5qDcOFw75hw5jDpwPDumfDnSDCnU/DksODwqfDsTgLwqhAwrrCtMOowrPCr8OhfGs4w6p+w6DCp0nDv8KdMw8Y4oCTST9Kwr7FksWS4oCcwr1BwrnCj8Kv4oCiBUsAbcORLwXDvMOyHcWTf+KAusODw7vDm24Lw7zigJ4ew7pWTMO64oC5a37DrMOmwrpVcT7DiX3CusOWHcK4w7duHQvigJlKwo1+HcOuw6nDuzDFk0/Dg2F+Z8Oow5/DrgvFocO0F8K7w7BDw4nCt2QLX8OrY8KyF8K34oCUw7TGkiNgw47Con9gUMOxw7N14oCYwrjFk8O2w4HDueKAkxDDusKdw7rCpmPDtn7DhS7DvDDDm+KAnMOOJxnCncK/dMW+wqTFuBZ3w5cOxaBK4oC5wr59wqfDr8K0wqQ/w69tAi/igKAZw7/Dj1bDoVfDnMW9H8Kuw5rDs8Kzw77DplnDi8K6wrHCtjDCqTfDjgIiQMOOwqbDj+KAmsuGP8OeGybCtcOBOw/DgcO5ZsO6w5c3w5xpwq3DtsOAw7xFbMOww6saPcOuwrN0wq9kDsK1NOKApklBKcO+xZLDtFnDsMOowrfigKDigKLDtcOe4oC6wqXDr8O3NMOgw5/GksOGwo/igKHCt8OQwqwPw6Yvxb7DtS9XxZNPcsKdxbh/fW12w53igJkK4oCcUsOBy4bDvhJxw7DDqcOHw6zCty3Cu2bCrn0Vw44HfeKAlMO74oCUxb5ndcO8MMOrK8OeXTp0wo0ew4DCt8OHwqPDmsOdSk1JFgTCgcKw4oC5PgsWw71k4oCcdhfDnFrDrn0VP8K8T2NNcWd9WMObMyV9w6R8bMOg4oCg4oCZXcO8IGoWMAXLnD4v4oCUwro04oCgeQbDqE3DuMO3WMOaesucw5XDruKAocO54oC5Y8O9wqfCjcKNHjh/YMK+LsWSWcO3wqcNw5rDlMOfRcW4BQc+TcOySX1KwrLDpD0feMOfRcW4w7vFvsOjX0PDrcO+OMOMP8K8w5bigKHDt0lqfx/Dp8KpwrfCsUDDiUk/UGrDg+KEosOtxaDigJPihKLDjA/Dr8OvMcOYSnvDvGDDvmItw68Yw6jDg8O54oC6f8OMw5zDgsOUPx3FksOKL8O4w7RjXcucw6QresOORF84xbjCtF3DkcOMD8O6w5V6w6sDP8Kpw7Jqw7PCr8OUFsucWX/DkMOpwrPCuEfigJ3CvHFbD8O8wrbDiMO8wo3igJPDuU/igJrDueKAocOPw7pww77DpsOXw4lZPisBBeKAlMK+RnhPw5/Dl8OT4oChw7NpwqzCoU1ewqfDgsO8RcK4bk9vfcOMw7NJwrLDheKAugzCp+KAmjHDgSsfw7rDiVQ4KRvCvmbDvFzDm1HDmT/igLnDjMK/L8OMX+KAnsK5fkYVwqDDr3A+w6l+w4cRwrrDjQHCq8OwS8WhPj/DnMKr4oCUw5nCusOJFMO7OXp7wqjDpi9+4oC6DznFuMOrTcO0KElNCRZs4oCiDn1xwrBfwqt3w6HCt+KAoRDDgcOfxb3DjMKPw4xfTMOrV+KCrMK+w5PDueKEoi4fTh/Drw12w7ovFcO6LcK9wq5Dw7zDlxrDjE/DoMOlUMOMP2zDlifDtFzCj8OjUkTCqVTDkMOqw7zDksKjwo8DfcORMHnDiUTFuMaSw6daw5rDmsuGOX/DgQctw4LDucOIw7pwPsOXw5XDmMOSAcONwo15HsWTGcOrSMO14oChQk3Cr8W4OOKAmMO5wqtcw6lHw6rCusKtd8Khwr13w7rFksKpw57igKF5CzNdw61gwr/Dk8K2OwHCv3Q+4oCww4zCjzl/w4HCu8K4M1JKPsKhwrs1B8KnwqNpwqU9OHNqZ8K7BMOQw59Rw4PDvFTFvsO0IwfCpEIZw7U3VCstUuKAoVJow7cbQ8K/w5DDp+KApsWhH8OWfxDDjsOfQsOnfHoMLMOHEcOTw5nDqk0aDsOOxZPDkBdyaMK6wq/DvcOL4oCZfsONwqHigJMDwqBFUzDDi8OrDcK7JSrCqcOlwqvCncOeB37DrnzCoR8bRMODwo/DlsO5C8Kzw74tGsOrY8W+w491JWZ7bjXCqgdnw6LDpErDqGQ/w7figJQjw73DmmNsw7jDkMOrODEow6wSZn03Az4Nw5B3w6gbWsOqxpLDuQvCoMK/YDfDqXxkfTjFuGtwHhbDs11KGw7DjsOscMO9w57DrX5T4oCecsKkwr/Dn8KlIcK3w6bDlMOi4oKsKkUJw5HDssK5TcKgF8O4w6F9KEHDncO+w4l1fOKAnE9Bw5bCv0xrfcKgJ13igLnDk8Olw51KKgdnGk5Ce3kvw6bCrcOywqNPwrXCsMKiw75TcTghw6TFocO1w50Fw6/igJzCtMOmH8Oiw6vDvOKApsOtw7Ajw7pTb8OIOB/DtOKAmMOzYX3DlMKoDjXDqw7DjsOESWjCqX0jNcOTw5LCtsO5wo9mxb4qQ8O6w4fCrsK0f8OzOcO14oCYSMO9HMOh4oCYbibCpXk3Y8OSw7zDsD5JR8O/xaHDrg7DmsOkY8Ovw7Arw4rDusW9wqvDkcOjwrY+w6bCp1BTwp3DvsOgw4zCqT3DksOvOBhrei3Ds1HCucORw6/CtMOhN3A84oCYw5k2w77igLl4w53Cj1DCqsOtxbhcJsOg4oCcTMOmX3PDjml0XRfDrcOtwqdJXwHDt2XDjDgfc33DoXzCocKBwrMYw5TigJlVw7hNNxzFk8K5w69iwqfDnWfDoQYNxb4qM8O6w5UXw5nigKbDnsOEwqw8w7DDsknDjj3igJhQVwvGksOmwq3igKDDsw3DtOKAlMOOOsK8w4XDmsObPxXCoT9/w6vCr+KAosOGd8OBd8OoSsK1Ly3DhBnDq8OowrfDsMKvew9yw57DtMKiw78Aw6bCqcKywqMvbj/DksOJ4oCeDsOmX8KmUcO/w4TDoCTDt8K6w4llcMK+CcO/w7rDs2hvw78hw6jDuGzDpHTCr0LDjcO6w4jDucKwwr5zTUooYTo4wrPigLp/w50nPsO1e8OZ4oSiw780w6bCqcKywqM/w6nCuMOOxpJTw7vDt2d+w63Ds0LigJN6w5DDscODwqxPWTM9azXDsMOrw6hvTx3FuFnCjUcfwrlvAeKAnD7FocOuacWhwrw8w6dDw5dpw5fCoy3CpUwHZ8OWw5rigKLDoMOxEVQBMMKBSWVHw5/CpcOIw7EhS3PCgUrCtE7CtcO7JW4mw6gQw6g7w7Qjwq3DtcuGxb3Dj0Zaw79mw6l8Y8OgH8ucb8K+AlE9OFPCj8K7DR8GD+KAojnDvcK9w6zigJzCvEV6w4fCsklXI8OTaMO+auKApj7DsG/Djx/Dn8Owdi/CrsOsw4jCv8OmezfDo8O8CsOAN1sfxaAlw4LDjcO6xpIzEcOqG0AfMcOPwqwywqfDn8OCC8Okwo/DqsOdJ3TDh8ucVsOvw7vFoX/DoMOQxb3Dmcucw7RtRMONwrfCqkLigJzDteKAmMOzSeKAosOL4oSiQXUxw5PDgeKEosO0w7UYfcK3w6ptR8OMw4oGFcKrYwYtcMOCw58Gw6bigJTDjsKnwrHDphzDqsO4YMOS4oCUf8ON4oCUcX4Fw6hnw6l5w6YjP8O6wqh3Fk1ixb4qa8O6E8O6w7LDrXjCvmUIw70Iw74bwrppw5LigKENfsO5w5LFuH/Cq3DCvjnDsD9aDMO6DTlNw7jDi+KEosO+JMK7EsK6dBrDi1lrw6F8GhIPxZNPwqPigJwmfcKnwqLDrsOLw5PDusOL4oCew7PDjcOWwr9eVnljw7QLcz7Dmn4+w4J7w73FkyHDtAsRw74hwr7DgQ/DjcO+w7xqwr4nw5XFoMW4w6d8aOKApsWTy5zDtiZiY+KAmH9jNWXigJgNf+KAk8O/Mncsw5EbFsO44oCUw4HDuTRAf8O7w4zDuHzDo8Orwr5Iw61Cw6F8wrPDtQdrwrAaw5nCpMOfw4Y9VsO1w7nDqsKQwrTFuMOzw5FIw6N3w7TigKJrPcW9w5Bvw5EHfsO5WG/CrcO0w5HCjXzCqMOf4oCUw7/DmsKuw7DCveKEosO+dcOZLcOJxb4kw5NobMOGw6fCrcOJXcO2w5rDrgw/QsOJHsORw7LCj2HDksK3wo0cwqAPw69Tw6jCp8aSesORw6/Di2/Csi/DkOKAnMO0w7ArFzDCoRbCscK44oCUw5YVAH7DncW+w4jDseKAunLCt8OnwqjDhXbDlTPDmS/DncKnw4PCrsOOw59COMW44oCdwqHCj8Kyb8O7w4FTw5DDr8OLe8KBJ8Ojw73DjcO0FcO/w6MMxaDigLnDrj4KADPDvV3FvcOgX8K3wrHCsU4v4oC6ZsODX1TDr+KAusOuw5XFvcO/OsOhw7vDrMOQD8Ov4oC5w5BPdR/CpsO8wrkGw75HCMK8w47DusOQHcOZSeKAsMKvw67CoQAww5Nnwp0iw5Rvw5LCqzxcw7HDhcOYw5XDquKAosOuw4VKX8O2O8K7CsOOJ8K5J33igJPCvsOJc8OKwo/DgH/GkgjDvFtWbMKpwqNfKcKne1DCrFEUAHU+w7RPG1vDoXXDgm8/wqXDhhPCvkjDt8KNSlTDvVA6xbjCpMOLw7zDmw/Fk+KAmil/XsOWX8OLw5F7VMO84oCiwq7igKZ9FABpP8OvH8OQw4/FuMucwr1Jw6/DriDDlcW4w67Cs8KhGVPCqlQLU3UZxZPDrw7DvULDq8O54oCdH8KhP8Onw6XCvcWgxZLDtwEfw6hpLGBQVgHDkMOoR8O/wqTigJRlXxMdw67CvTfCucKdXXJbw7tFE33Dj8OobMW9M8KdFsOCw7kkwrfDt3nDqD/igJ3DtsO3w5Edw7wQw7pzwrxkwr9Cw4gUw7hvN0Yqw6ZHxbh1wo/DrcOqVMK3wrXigLpDwqDCseKAnMOywqwAw68Ow70ZDSbDjjttwr/CoxDDunPCvuKAmkfCoAd8w5DCr8K0w4YKZuKAmT/DvX0Wwo/DrcOoFsObWVXDunloGcOYw7vigKHDvsK8Wj0kwq/DgD8wwq8Aw7rigJhEKFsrwo9jPio/w7rCs0IFw5PFuMK3WuKAoX974oCh4oCgw7IIw70Iw7zigJTigLnFk8OvwqrDuMOhw713WB7DtMOHwq7DpMOSbcOmKcWTPsK7JeKAlMOQwo/Cqj/Dlx5/4oCmZ8OgwqfDhx3igKbDkMKnw6cuw5rDlMKvw6LDnMKvwr0Iw7RXw6lDPxdCwr9ow7jDpBzDuMOvEsK+VwN/wqU94oCTwrLDgsOowrPDquKAoMO+TcO7CsOuw65QEcOoR8Oew7YJw71VQ8OdHWjDuMOkwrrCuCvCncK/JQJ/FsO+FwvCpE/FoB3DvsK6fcO34oCgGMOLRWVGwr92egHDtMKhw7fDvRLDv8On4oCwPBs+4oCYw5rDpTZ6NcOwV8OKw7EoK2nCjT7DvSJpwq1nw6jCr8Kiw4fFk8OWRsOaw57igKHDkMOvH8O4b+KAmcOO4oChw7XCnTnCv8KycsKQ4oCiwrbDiuKAoD4z4oCefsOoS8Oew6vDhzLCr3/DoH9EOMOfRcK/MjPDrmbCpcKtw7LCocK/w4RMwr/FoMKPDcO2Mi92w7jDuDfDusKkw7NNwoFfVMO8w43DjcKNAcK7w73DsiZCP8OWw5jDk8WTW8OVXzXDmGnDr8OwAX3Cv8O5xb7DsD09w7TDsAfDrMKmfMWSw6/DqCnDhQ9AScOTJ8O0YeKAmcO9wrbDl8OcZjB/4oCiHMOraeKAoQ/Cv8KNCxLCv8O3Zl7DqXzDkHfDpHx6wrzGksOLDEvDswNQwrrDtAV6UsKjR8ODB2VfVcOVw5DCoQ18cycuw6bDtg7DvMK3CMOvO8OpVzrDhxNiw7XCocKtK8WTw7kABMO+w57CvGVAwr/CruKAosOQw5vDqmoTb8O4w4M6w7pwflXDlXcJwrrigJwDVnrDvAJ/w7UNAsK9M8OtA31lw6UAwrozw7HDlnRYKMOdWjof4oKsUsKkX8OnfMKrw6PDqMO1wo8zJsO+KsKuwoFjw5DDrsOLIcOwP1Qhwr3Cv8KzfDELO8OGw7PCpn9VwpBvw45aw6rDtMOjJuKAlMK94oCiYcK/w4M2O+KCrMK+cD5pfQ5zPgTDvsK7y4bCu8OLw7vDiMO54oCTVhg+4oCTXcKsVFTigJrDtFnigJQhw4AuM+KAlH3CtuKAoGjDjuKAlMWSI8Oxe8OTf8KsAsO0wrXDnl/CoMKNS31BO3rCqcOMw6jCt+KApsO7wrTCuXUhxZPDj8K9wo/DjC/DtDnDjcO5Zh7igKY5xbh3w5rCvxXDsMOdRR/Dl8O1wqZywrR0KsO/UsKkb3x7PwTDvh0yw7g5dyR+bMOxw7BJw7s3xaDFk2/CrMO4S8K9w5FXJMO6wrvDq8OFRlxLBHrFvR/DnsOPaMO8w7pDO2TDosO3xbjDrWvDkj5yPsOpflbDsirLhj7DmAfDowNw4oCcw7Q+ScOxfm7igLAfaX/igLBkwr/Cs8OWw7vigKLDkcO5wqzDpFUofeKAmh8cw7zDs8OhfD3DvQ3CvuKAsB9pw79yNcOtc8OsUm/CssOSV1nDkWfDj+KAsMWTL8OoK8O4B3NNw7zigJjFocO5FeKAk8Orw6nCocKdw61TAsK4xb3igKLCvgrCpcK/e8Kgw6jDnyzCncKvN8O/w7jCqsaSwrvigJjDuMK9w5PDvio1w61bOR/CusaS4oCiwr7DisOLw7vCq0TDjjcmw74vwq3DhMKPVsK/b8KvZ2fCrcO3LUXDp8Kxw5JXecORPwvDjsOXe3/CqOKAnFrDvcOYw57DpcK1w4TCo8KmfQt7WcKlw73DgsOpwrMgw5Fnw48RdcOQV8Oxf0figLDFuMK2d8KBwr7CscOoe1c4X8Ktw7h5AsuG4oCTw4Fswr9ww7rDkAHCuCInA8O/BDbDgloCw7jFoMO5w4fDkxjLnMOTfcO4w5HDvmVfwqRmQcOGw7oIw7xZWsOBw4pAw4XCoj/CpS8UUsOpT2QjwqxlWsO6w4DDj8O7PcOHw5rDu8K6PeKAucK+4oChCcK7w5bDu1zDkcOKw6jCjcKsDFQcw7o1c8OadcOww5nLhsOrRiPDvcOxw7bDuDJxHsOfw5zigKHCssOPe8KBb2fGksO3BxhXwrzCp8O1WFbCuioKw73DmcO9QD8qw7TigJzCrT1x4oC6w5ttPsOeH8Oyw67Dt8Kgw5PDh30Pw7gkw6R8GsK3O05bTsOPbSzihKIVw73CosOTxbjCvH9oFMOhw4cbw6fCph3CpzPCr8OLwrAf4oChwrLCj8OAw4vCscKBw6/DsMKg4oC6w7bigJrCvsK2w6h7RTjDn2DDvcOo4oCixZLCqw/Dp8OFJFpKZ09Pw5HDqE86AsOcR8ucfl1LAsOnH8O14oCwfsKPIcO0E3jCrsOB4oCcwqnDrOKAusK2T8K9Z8OZF8KpwqnCvlXDsT5yPg3CucKlwq8xFXbCqMK3J8OoR8KuF+KAlH7CpHXDpSjDgU/DtMO04oCgHUo1xaDDjX0Ow6/Cj+KAnMOgwqTDs+KAsMO+w4DDgcK8w6xDwrdPX8O0LcOMwrR6dMOewo9GwqNnOeKAmk9zOsWTESspFUZ/RlNIwoE/QsO0w7HigKDCp+KAuh1pd8O5DsWhw5Avw5BzHcOowrHDjOKAocK0wr9qS8OFw7vDiMO5NOKAk8K6C8KPRF/igJR9RnBJwqkQw7p1xaELw6/Dm0cAPg5rw6nDqkskw50XdOKEosK9w4/DtcKlZ8K3DyU/w4/DuSTDlcO7UcOSw61MVcWSEsORJhPDuSfCtsK1wqvDsMKPGMKxNl/igJrDisKsGFPCtQ7DsB3DnuKAoeKAoMW9w4EVPcOmwqJv4oCwdD5Kfg5exb0XWVloY8OpRzouVcOZw7dOZuKCrD9KekTCoBfDnkfDqBfDmjAH4oC5wrweJT/CgcOXW8W4w5DigJzFvmJlwqHCjcKkf8OsYuKAon3DuDA2w7rDsHnCt0/DoB/igKHDkA9dccKyw5jDlg3DusK64oCZXzgfw7TCrcWTwo9Rw6LDl8OtF0R/w4oiTcOCxbhTw43igJpAf8OtOHh/xZMSw7p5w5HDnzDDm8Kzw5cbw6FdfgLCr8OxfsOUVlksw69uHMO9asK0dcKhRVNYIMOgwrPDpXDCvsOTw7tQ4oC6wrHDqEfDkcO3wpB0w77DlsKgH8OFwqDigJnCvzzigJ0/w73Dg8OCKsO7w4XDlMOsDgh9w7YCwqHigJRDwqHCj8KiH+KAlMOxa8OoP0zDqBXDr8ODw7lUw7LigJTigKHDssKlP8K5V2V/aUckOMOww5k6w6F84oCcw7dfQ8ORb8Kkw7/CtHDCvsOOw7sEwr9cSsO+PMOpTzhC4oCcw7DDmyYyFiDDusKPw4jDgMK/xpLigJN+dEh0w7pBXy3DuW8Ww4Ynw7jDsH4UwrrigJPigKLigKHDssKhX3PFoCbDocOfw6NYw5sIAnx2F0dvNsO/BmzDsDDDksK/w4VGT0PCvgB8b8OpCTZ6OsO/w5wzy5xZZ8W+wp3Ds8Krw6RHf0bCv8OKwr5pBmMBwqPDv8Kww4jDuQbDusORw6/CqMOTwo8pxbh+w4LDt8Wgw7Q+w5FHw6DigKEeYlARwrHDjiTCnR1Iw7rDu2jDmsK6K1vCs8Ofwr8gw4BnD8OCw7nDugk/wqZ8RsO6w68SeC/Dry9nw4XDl3szw4/DoFQuwrzDmOKAuW3CgcO0w7Eqw7nDkMW4ND3CpMOqCMOlw6DDgADDgGfDi3nDjjfDkMKPxb3Cjw7DjBXCu8K6QcOfPcOdxbgoAj8pQ8OfwqkBVnxdQsOUBeKAuuKCrMORV8OWccOFw6FZw4HigJ3Cp8O3wqM0w6HCpxvCuMOwO8K3YcOCw68qw7nCrybDtDrDr0tdw4/FoMKuwqsuOMaSw5zDv8OBIWfCs0vDrsK9w49+w6LigJQLZl54w7HCuTM/w7jigJ0nBcO6M08NZ8W4fy7DvQU9w4klw77igKDigLAnOcOZM8KtF3gvwqdXw7nDkUbDucObwq/DtMWSw7x7w6fDj8ucw5rCusO9wrNZUMO1ITlfTz/DisOHdMK+wrkLwqt8xaHDtV07w6crw54fw4bDqT4xJ8O3f8O1w5lPxZLDvmdzwrvDsMOiwqsuwqBsQDDDicKoxZPCq3AtUcKhJwV8w6tZQirFuMKkw6/CuMOkxpJPw6nDucW4WA7Cr8Oyw4fDnzbDvD9DB8W+eeKAoHwtw6fDj8KwOm1bwrfigKAFVsOrxZLDnifDtMOEw65LTMO4DcO0b+KAmcOOJ8O6w7A+dMK3XGTDrk3CpRLigLDigJNjw6NFw4jDusOkw5nFuBgB4oCaw7c5K8KkBHLCs8WSw5l44oCZw77Dj8K/VT5Jw5/DgcOJf0Vsc3jigKLDn38I4oCYw75pw7k3dCBew4vDsTPFuMOqw5Zxw7vCpsKwACl+bEsi4oCYSsO1w4rCrRVLAH8rJ8O9wqgYwq/ihKImw7xow7Zww7Bmw69fKcOpQ8KpVHPCouKAokHCuAF3EwXDilTDgwTDpilCb8OxwrjDqsO7T8Opc8KgcsO7w6ozxaDDli7DusOvw5FTZ2jDqHPDgsO0H8O/e8KPVwHDvcK/w77DuEFPf8OGD8WhdcOcETwyLnbCosOHwrvDl8WhaE5lERAHdCnigLAfw7gtDcOJCcK/woF+bcO1ZcOcw7lmw7orGFdTOFtdSsKtfHDDhjrDrcKdE33DqcO/ZBXDvMWga3lCOCN3w6/Ds2RPX8O6wrzFoMK/w7cPw7jCjz4VSlvigJTCjcucwqpnw7XigLrDnz3DtcOdbxJrwrwZw6fDk8OIw5DCj8OKEcO94oCewq/DscKiw53Co2nDtW3CrcKzPiQuw59NNloxB8O/xaDigJ3Dp2bDp8O9w7fDteKAsMO8w6/igJhXw4/CpOKAoeKAkxt9bXHCowfDqMOzw6864oC64oCwxZMOw7rDrEwqw5rDvF5Fw5DCp8WTw7/Ct8OIw7vDssK1w6zFuMK5wrfCj8OHBMKlwq07AsOCacO8w5DDi8O1w4zCpRTCuFvDucK3McOJwrhWwo3Dk+KAoH4Cb2vGksKhw53GksOpw74ScsK+QsOfw5zDrOKAsCXigJwJCkPDqeKAncOu4oCeScKoa8Kyw4/igJ4PcnHCow8GTQfLhhnDhcOuwrNtbsOAw4vGknk2w71LwqjigJrDt30Vw5AXNcK/eC3DvjM1w7TCgVDDqC/CqmMjJcO1w4jConvCpsK4w6nCpynDmSbigJnDicucwrbDncKz4oCiw5bDu8Kkw694wrsHw5t6VcO6b8O5eH9hTsOHDcK9xZPDl3FrZ1LDhC/igJMoexTDlsOnxbjDncKvXcOHHUHCqcKnw7TDjcKpZcK5aCHFk8KPwrwvxZPDj8OpwqPDncKjwqc/dcOdw47DnsO0w4/DmsOI4oCcw4ZmRcK8w5w/E8KNw54CRcOJwr0Aw7rDiFhKW3fDpMKkHsOVwrV4H+KAk+KAucOmc8OwWsOvWxp/w4VcwrrigJMvGTfDkMKPEMO9w4vCvcK9Pz7Cj39+w7vDicO14oCYxaHCo8OEwqTDucKjejYSw6LigJzDvcO8w6nDo8OyHFXDkyfCseKAmMOVw5HCtsO1w7vDtsKhY0rDheKAocKxwoHDpcKiy4Yuw69HwqErZMKzb8Kqxb7Dvi4Tw5/DtcKixbjDo8OOxb5pKx12wq85OcOEw5XDiOKAmiXigKbCvsK+wq17D2w3QsWgw4x1xZPDjRtvw6JfwrTDpcK4wrvigKE8wq/Ds8K+w5DDgMOxwp3CrWJ3wo/CgcO+C1rDusO5NXobw6xKw6/CkMKsSHDDhC4sUFLDqMOjw7Icwqh/BhtxTVrDhMOTwo1dalTDmwVgw4/DlMOcWsK9w5zDtcO8w6HDtD7DqMKjw5XCq8Knwr/CtTfDvcKPWQ46w5jFvVxyxaDDlCnDj8OaD+KAnVzDtOKAosOLc3Aqw74IKzJhWsODw7TDtD17w6HDlMK2xZPCvX/CucOWw7vDkMKBaMO1asOpL8OwwqHDvzjDi0Ftw7jCvCIUwqzFk8OGAiUHfcOTw6U5E8OYwqhLBMOO4oCgXBvDvcOAwq/Dg8K3N8K1esK9w6gvw7TCocO/TsOuw7QXTQJ9S8O/wrN3wqbCv1HigJ1xHH/DnF0aRURA4oC54oCiF8KtScK7JCTDm2PCocK7wr0kSMOVWsOZesKjw5LFocKqbcK0FhVDIGg0aCTCqRwRGxTDrwMUGhPDscOAMyLigJpnwrzDr2jFksORw6hbE33Dqx/DoDPDj8O8ZsK/M8OzPMOPPMKzC8Oaw5nDrXzFuDRR4oCcwqrDrGfCv8OPw696w6bihKJbWcKkw6TCosKvfjwnCnPDnFRbQQTDkSEWSsKPecK8L8Ojw6tDwqNfPcOgNcOQw5/Dh0LDqC7Du8OsE318DSMJwqHCu1jCpATDusOfwqofw4/ihKJ+wqXDjsOuFsOwC20hS8OOB0TDjMW4M8OHw7pRw5LCv1HCvMKjQ0t/wrfCgX7CqBPCvRck4oCew7rDq8Otwr8jY0XDrMOqfsOQVz/FvjPDrTprdcOJU8OlxpIGw69/ccOjJTTDplHDksKvfzkcw73DpcOLwrzDssOuTMKrRsKpPXpVA2vDqcWhSFQaw73DjeKAmMucw6M2wo1Rw53igJjigKJRDS3Ds2rCuUPDn0ZvSUl/w601w6HDqMOP4oCYw6jigLnCunEXE8K6PcOpw5U6w6bDlsOiwoHigJ5XUSzDucuGw77CtMK3dU1vwq5OXsKhwqjDtsOWJcK9wrrCnQk9GsOsfcOQwq9PKUd8bxTCrcKvw7zDssWTwr4j4oKsPjQ0y5zCkMOFa+KCrCgJw7TCpcOHc8KiwqHDpU46MnFZfVjDusOkw7zDk3TDnh/DoMO0w60Rwq/igJnDvl5Cw6/DtT7DnG/Cpk/CscK+MsOpW3PDnMKow6h8xZLigLrDhhrDg8ORwr/Dj8Ogw71vaMOEwqvCp0/DuDXDnsW4DEc/dcaSC3/Cj8KdBlwfFVMJNWDFkwPDrcKPw5LDlWPCjWfFuMOFw5LigJ01w6XDqsODw5HDp8OYHeKAokPDv8KQQC97w790w6vigKEvA31oWcKvY8Knw7HDjHnDkcOLw7o0wo/Dp0RPw7YuWsK4OhTDvcOnw4jDtybDumkNw70Xw4jDucOeX8OHF8OgwrDCgT7igJ06wrfDu8O2RMOiw7bDscKhFAXCsAEWGcKdwr1/w7rDp8K4IcK1wrjDm07ihKLDq8ODw5B/dw5UJsO9OcKyw7cFfMKxwrTDtMONAcKswo1FRMK6w4dzwqLCqQswMjPDkw/DtsO+wrxgw7oNw7XigKHDiMO5SsOvw7PDk8Kh4oCcZcOQw69ICEVkX8KtwqzDh3N4CG1Hw6PDtMK/w7E+w6jDr3XFk8KPX8Kny5wvVsOJw7Qxw6Nrwo/Dhgccw73Dh3NWXMOcw5bCv8O/w7Y1wr7DgxIrQ8OHfeKAmcOWw7vDgwHDtDl4w6nDlynDpnPigKbCq8O3U8Ond8Ksw4nCncOnJFE3fWbFuMOswrvigLBNwr/DsHjFvUvCv0XDq8OxxZMBb318K8K8Y8OOw7lNw57Dh8Kxw44gw6/Cu38dw44PRR89w4o1FMK4w6wvw694BOKAmcKq4oCi4oCmBBTDlTfCscOawrg3w5DigJwjw7XCq3E6w4JMw5/DoH0Tw703OHjCpcO3T8K3ZcOqw7TDisOnOcWhw5fDmeKApsOfSjbDvcKqxbjCqADDusOLw5ptw7Mvw4XLhhdbwoHCqcOXByl7fQbDui87w47Dh8Kvw4PDucOhw6jDg2PDu8OPw4fCucOEw43igJh4P8OzwqUVQMW4w5zFvsOoPcK3IcOVwrzCtuKCrFPigJjDh0R/xb7CtSzDukFxw79lw7nDl0XDjHfCpOKAusOx4oSiw44kFzpYJMK0PcO6w7RFwqhUPg5hxb7DsQV6xbjDkzfDlMO7wrvDicO54oCZw7dJw7vLnFk4w44Dwo1HJMKzGsKuAMO6DX3DksOoKWTCtcO84oKs4oCaPsWTH+KAmsK+w7zDq0APw7rCpT7igLl0b2TigKAnw5c6c8OcbyNLxbg1f8Omw5s4L00dA31Yw59Iw79+w4XCr8K7w7F/w4jDjHJyPcKoLzrCjcK0FQVqw6t2R+KAlMK+w686w6AN4oCU4oChLeKAlB5Tw5PFuMOnwqwRA8O9OxXDnnfDq+KEosOQE8Kq4oCYYnXCtcO9w6oIFHsowqfDqcObGGXDusKswr4NU8Kow41Dw6Evw69Qw5FHw5pHw7TDtTPCvsK0w4rDuy7DvR7CvsKjOnTDo3nigKZEYcK0w7vDnMuG4oCew7xiw5VnPcW+E3HDusOOw60NE8OrLsOL4oCdYMKdwq3CgcOexbg3wq/Dj0B/w6lHw4HDnn/CkFXCvBoZwqsAw7plw6lnNX3CgcW+w6vDrsK+woHDosO1DcOKc31Lfw7CpsK/4oCcVeKAucKq4oCYPsKs4oC5w4M5cH7DjcOdfcKBw6fDulJnLcOdwqrCpA9FKeKAnsOHw7R94oCaw7M9A8O6ecOkw71tw504w5PCq8Kmw791MMO94oCmw6tZ4oCiwqgKw6k/DcOnw7vCvU/DtG/CvCTLnMO+wo8Gw6/Dn8OJwqpEVUgfw6XCusOncMOOPEd7wroNw4/DsjQdwqHDnz9NwqbCv8OQWsO+e3vigKDigKHDhcK9PRXDtjLCvgrCp2/Dn8ObMzzDrMK/wrfigKHDkEvDnsOnwqrDoT9/dRvFvsOja8O6ZQ5JdcOLM8OHwq/CuMKzwqsCX8OFWMOpw7R9d3YNw5PCnV1wwr7Dp+KAoHVHUxcaxb7DoW3CusOPAsOP4oCUw47Du8Whw7vDukZZwqXCqeKAmcOpw6vDrsOrxpLDs0Ffw4DCt8Odw7/Dh8O14oCgw6fDt+KAug7Cq8OiPsOwL8OUw57DlVlpwqpkw7rCusK7OsOhfOKAlMO3wqE/xZJ3d8K8w6B4w5/Cv8O1L8K0w5c+4oChw77CoMK4wqfCt8KzQsOfwr5fw5nDtEnCrcKdw6LFvsOeQeKAocO+A3DCvuKAoX4Nwr1Hw7nigqzDocOexb7igKBzw7bFoMucw69Lw7vigqx/w6FbwqxKVAXDtMO9w7oaw44HfOKAlMK+w6nDj8Of4oCmO8K7VMOHO3bDi0/igJrDgcO5fFVBwqvCt2rDqcK/CMOnw7vDqMOXWMKrw6YLw5zDl8KnwqHDnyJOd8OIaR8HL1Q1wq3DnirCpE/DqMK1w57DrzPDncOVWcW4w75Vw7I+wrnDnsO+AlRNwrPCr8O6w6g/DcOnxpLCvsuGw7nDtnrCqk93Ty9GwrzDrylKPkIvw7QywqsOVR/DveKAlMOgfMOZw7scw7/Ctj7DnR3DnRjDscO+wqjDt8K+w5AhVh3Cqj7DusKvw4DDuW7DujXDjsOaI0Z8wrjFuF/DlcOow7/DhcKBX8Kkb8KB4oChwqrDpMO1w7tVSMO/w51TIMOQR8OaN8OlGsOyaMOoN03DqsK8T8Wh4oSiw6/DocKtBB3igJ7Ds+KAonHDvw/CtMO5QV9uw7fLhsK7XsK9w7jCoeKEosO6DsOuw6jDq2vCncO1wqnDnXMAwo1eLcO9N04Lw57DumfDrsO7w7fCo8Ku4oChVMO0a8Kwxb3CosORwqvCocOfw5DCtELigqzDpwJ9wqDCr8Ki4oCZwq/DqsOoP8KtC8O7BMK/ZuKAnsK3w7rFvsKlVl/FoGnDmj0/4oCYw7PDncOed8OrDRYrxaDDusO84oCdYMOvb8ORN3tAw7/CpsO3RMOMw7d5wr8K4oCcw75q4oCcJsOlwqfCtMKvwqZmW0DCswfDrcW+I8OCw7law7rCtcOV4oCZw7RX4oC6DhrCvD/DpTrDjcKvwqXCv3QSwq9zBH5Dw5LFuMOpw4jDt8OkWcKsw79Dw7zigJzDrkgzWcOvwqjDqBN6S390F1/DhQnDulLDkn9oxb3igJ7Dn8Olw7zigKbCtcO+wqTCvzN/w61oZR7DrsKqTMO1y4bCs1TDl8Om4oChw73igKHDuR3DsuKAucK8w7Bpw5XCvHohw4p9PcO9w7sJwr12w6t/GsOHC8KywrnDnmRRLMOWw78hfMOgwr3CuSwOw5dsUuKAoX0BXignw4rDvcKrLgrCpsOfw7LigJjigJN+wq1Yw5TDqcOvw6pJwro0OBbDr8O8w7/Cj8OyY8aSSeKAlHrCusKow4t/CsK8wr/DiMOvfQ5/w4tIw78aw74+NsOrZA8KPsO5dE/Di3tBw57Cr8Ktwq3DncOF4oCew4Zwwq40w58RwqULbsKrXzzDjcOCecOqMSbDtMOoKcOAw69Jw7pIw5sCCz7igJ18RxzDuGd4w6nDl8OSeuKAoMK8LzbFuMO+bMOFxb7DrMKrcMK1ZsO7RcOYw61yJ33igLnigJ3DnsK3wrRHwqTDvCjDuMOKSMO6ay3DrcK0f8K5dcKswqvigJzDhcWhXnV2wo3CtcOaw6A+4oCZNn4uGzzCpcO8w7Z8FwXFuMWhw74hcj5fLsO6wrVYwrtZwqzCqGk3wqEXC8OwwrHDtcK/Kh7Do8OCfFfigJTDtmV0SX8tw6l5FitqegTDjndtw7wuw6Uww6ELwqTDn8O4wqtwPsO/AX04xbjDk8Ofw4diRU0PcMOwSsOv4oCcxb5Cw4oPw7rDisKkw79HZcOaV1vDlA8sVsOUwrQVw45fwqTDssO+HlfDig/DusKqY8K94oCcIsOmI8Ouc8OBw7nigJNuY8KxwqLCpcKNDnpdw5LDtz11w7nigJjDssOrw5LCvsK9w4XCtA/DpsKvdWsv4oC5FS3CvcOtcsK+MsOswr/DqnTDueKAmMOyawLDvwrCgV4sxbjDt0nCu1jCrGjDqVF4f8ORScOqwqRPPMK9wo0uwr8+w617xbjFkw/Dr1vDjMOjw4AfXW3igKbDs+KAosOew582w5IvHcOrw5LCpX1Hw47igqzDt11ZP8K04oCYw4XFoOKAmcOWC8O0w5jDuCXDulN2w5LDl8K6CsOHwrrCtGnDn2Fywr7DlsO8L8KwWFHDksODcMK+OsOsHzAmfUjDu8O+IcOncynDksK+wrjDosKPxZMeKMOGfMK+JMO6wrNqasW9w7JOxbghw6lDw6DDv+KAsHMPw7LDvmtMwq10JMOew4FQwrXDkn7CvA/DgcO5w4rCpG/igLnDqMO0IcOpC8Kmw7/igLBwwr7igJPDvuKAmsOaw7vihKLCrAzFuMO4R8Oq4oCm4oC6VcKnw77DpMK1XRkmw6t+csK+w5bDu3vDuGnDrsOgTh/DksK+w7rigJNJQT4Aw79hGX1vZcOew55USRoUQ3XDuQvDsMKuw4vDucOKwqTDrw9xxb43wrjDk+KAoXPCvX/FuBZAfwFff0rDqEnDscK0w7/Cv1NrUkjDvgLCvEkxXywvw7xZw6LDp8KoNcOew5U8wrwtw5/DlcK8w6JXxpLDt8Orw5DDrG3DjcO3SsO/V1rCnXNBw59oIeKAmMOYw5BzTcKmam7DvD0+Sm8OeE09XOKAoMKPGj7Cu8OtwqTCosOzT+KAmsO3PWHDnz7DkeKAsMOxbnDDoMO/EcO0HcOBw7nDlsKixaEvMz7FoSTCjWUzw6FeOuKCrMK3DsOEw4LCp8W+T+KCrH7igqwyw5nCsSRpdDxDw7UeYsK+wrzDsXPDp8OPw5pDwr0exZJ3xpLDuz3igKHDlcKBH8O4P2FCw5kiw7o0M8KqacK1w7cFwqgReTNvJMK0cgLDtA1KF8K/AFkmw7QYOcOfwrfDsQPDvwEaw7DCocOXE8Ocw6/DuUdDf8KBwrN2NsOYw78nZsO0cH4uw6HDlcO2OElwwr3DhwjDtEN/AcOswo99w7FHAsK8w4/Du07DjMK3FsOCPno9w7rCtC8ww7AvWMKww4DDusKhOV8uB8O0BnUUAD5Kwq9oxZLigqwaw5Ymw4LDksOHFyDigJTCo8O5HmI+w79RbMO8T8Olwq4v4oCgfSR9QcKBw7/LhirDsC/DgCrCvcOdw5dkwr8Dwq3CsMKmMcOVcFXCj8O9w5dXwrNY4oCTLsucAMO9Mhp9w7DCvgUfw57CpzUlw47DtSDDrOKAugPDv8Ozw4rCrcW4w5BbeuKAmeKAosKow6XDmwXDsDbDscW4b8Kxw585NsOAYnE1w7cmw4rCp8W4esKoGMOzZcOrc8O4wrNmw7Emw7/DjW03IMOs4oC6A3/igKAqw77CuWfDjD3CgSTDgGPCvVFqXmPCv+KAusK34oCmw4LigqzDs+KAocKNJV7Cvlk+w73Djzl2w5nDu8KzXMOeXy0OcyPDrOKAugLDv1lLV8K8dwbDocOHw5ZPMcW4w7RxGcO0w7HDh1vDlh7Dk3d0ecOhWMOoH0TDjOKAocO1T+KCrMOzZ20rxb7DrEDCtW8Kw7zigJzDpHwXfsKvw7fFuCzCsV3Dk1nLhsOpB+KAnsOEw4Eyw6kvfsOIw619w5DCt8OQw5vDuMK/H8Ohw7fDs1pNfmPDmEfCq8O/H2fDo8W4w6vDncO6wqFDwqwkXTTDqMOew7lvTVhaw4Niw5nDryzDnn954oSiw7RfQcOMd3nFuMWTL3TDlMWhw63DnzDCvMKsGU1+Y8ONw5fDvMK+w7A9wrzCj8OITwHDoOKAnBLCv8Kkw53igJ3DtcKhwr7DnXAL4oC6w7FKwrVZe8Oiw4TCuSvDi8Kkw7/LnBzDtcK5xaAxw5/DmsO4w6XDmcK+ecOrw58hxZMv4oCewq3Dn8KtwrrDtSUOKcK2w5sVXwtrOMOffkHDv8OaaMK9wqR1WsOUKkLDoCXCqTLDqW88ScOEfOKAmXfDo8K3ZcOVe3hwPyTDveKAk8K/LcO4xaDCrR9Fw5/Ds8KlVsK1G8Kiw7pew7bDqVN6M8K1wr3DisKkw78IxZPDr8KiT8K+F8O6wrRvw4Bqw7PDosKmwrYwwoE/w53DvCsHbwtbwr9Hw5prO3XDo8W+wqHDjQnCqMKwJk7DuWjCuMOTw57DigzDtMK1A8K0LwV24oCZZ8OjJz3DhTd+w5R7wqBvCMO8wo3Cu8OmKsK2fk/DkXfCp3ovw4slwrNMwq1Gw4x5XsOPw4fDjhfDgx3igJgLGcOoZ+KAnDnDtUxkE8WTwo/DoS7CvC82fnHCqAvDtV7DiMKtw7/DkMOcwqLDoH3Cj3bCqMK6w7k9w5bDtFnDncOVwrjDlMKzw7Vvwr9uw4bCj8O44oC6w5dRBDTDkMK3w4bDuj0dTMO</t>
+    <t>iVBORw0KGgoAAAANSUhEUgAAAf0AAAH3CAMAAACGiXbcAAADAFBMVEX///+15h0AAAAiIiL+/f2SFiaUFyeYGCjIKjrFKTmPFSXGKTm/JjfCKDi4JDSzIjKWFyinHi6hHCy9JjabGSmfGyudGiq7JTWlHS22IzPDKDivITGrHy+tIDD39/f7+/v5+fntHCTKKzvs7Oz09PTx8fH9/PytITEisUyjHCyxITGpHi7j4uLn5+fu7u7V1dWkpKSsrKzy8vLX19cvLy90dHSQkJC5ubnGxsaenp59fX1YWFjd3d3Z2dnJKjrp6en29vbExMRKSkrLy8tHR0fQ0NB5eXnAwMCCgoJ+fn7k5OQNDQ2Ghobh4eDCwsKampqmpqaVlZWvr6+pqalxcHDOzc3S0tK7u7uOjo47Ozvf39+Xl5eMjIzIyMhnZ2e9vb1/f392dnY+Pj60tLS2traKiYlmZmbw8PCDg4OIiIiTkpLU1NSysrJOTk789vfZ7f/57/Dt2cMnJyf78vPD2e325ug4ODigoKDjzsP04OKioaH///ZdXV2YIjHZw8PDw9lsa2uMHi3t////7dkeHh7ekJjOS1mJLjo2NjbNjZX//+3x3N6mJjXYeILUl56iLz7Jg4ulPEnKN0bv19rosrflqK7biJHWb3rIMUC3MUCsLTuJJjP36+2zVGCDOUPkwMSzs7PhmKDCdH5RUVGAQ0vDzuPZqa6bLDn2///fs7h5V1vNQVDx0NPr0NPpuL3bf4h1X2KvN0QYGBjoyc3VZXC3XGePWV/rwMXfub3TWmbUoafjn6fNd4FzamvFVmLBTVq1Kjm7ZnDBMUDDfYWcbXPFZnFxZWdVVVXux8t+bG/RVGG3P03NXWmCYmZgYGC5SFV7TFKsRFG5oaTNanW8OUe7b3jJPkz2487Sg4vIx8vBQU9ERESPe32rS1eBT1bk9v/Ow8OORk+ZOUWnlZeJa2//9uO6q63BXWiaTFalXGSOPUfczM92BAScgYOpd33O4/bLs7W/kZapiIzZ7e3i09WUtcPBsLIAAFzDw6/DwaPDqYAAdqJXAAAAV4+PVwBAf6Voc50tAABdNElEQVR42uyY20uTYRzH3zGriZ3QDmaQMQ9g6MQ0UzwSBCHYXUFedJkXgQxkgRd2pzBWc7rlIRzDXSyGacQczhnaDCFKkA6KCIFXddFNQX9Az/PsXb/tfZ73sLaZbc/nhxdG0cXn932+v03gcDgcDofD4XA4HA4nS8jTgsDJItiOKxPhi5BlSGSXYi6KXKC5KFKKqazkW/Dfkij9j+7OckSvxWJzOucCAY/HEwjMOZ22AYvpMqY8SuefZSBrwFfg/wG8Y+tEevlAYP7JzNCLiYWN4e21Y/Ecjc3Rte3VlY2JnXG7z++x9VZUkF0ge0C2gO/AQSdePPZumXMtj09szOaXlJQcKwHlEv0Mju2ufNqx+wM2Uy9ZA7QDfAUOMCAeezcHlh+/m8wvwUPUiwNIkh9PUdysrbyye2pMprgdqOQbcKAA8ci8zTW0MJuPIOpjaE0+vQSY3fUd368yvAPl5eIrwDfgIBAf+QHX+MYk0g6TfPJBO0yUtZXEFeAb8I+gzU8vDi1s5wNIPARfa+eDfvJThMWTH+DzhtVfXWbq5Rvwb4kzPz8+DNrTn3zgLJmi1Ve+6rIyU0VsA/gC7B+gHl325Yvj7wz5FGnsfABW4OzZotUdfxfagOgbUFrKF2C/iIX+wtuhpcmC/AJku4Aoz3TyyY84iKKVnVANaYFO8gTwBcgwoN7smhgrQCDxQHo6H8QflUk+sLYe7u4gJcAXILOAesuThUkinoymztdpRaHzYeIp+mb/VYMW4DLqAL4AQGbUD8wsGQpEQL1M5+v+HtnOpylatX7HHcAXAMiE+rmhYUMBHgRkn9H5unTB6HwJx8nsOh7WdJRFF4AfgWl3j1NP1COUkq/LBOzkg37CruM7WQByA3D/6Yx9p2sBq4/pZ3a+LrPIJp8M5uxKuKcGH4GdvAHSGPu3L8YMCIXk6/YHmeQDU95QNVoA3AD8AUiNaOynZ4bF1EPnJ3zO1+0v7OQDu9ZfXbgByAPA/af05DsfGxCyydf9G5jJB9YfRh8AXgApPfmuJYOBzj2Z5MwfkedUdKLotAO5Z7Aa7kYPALoAeAH8pfvpoVkDgk6+dvUnT548chJEy+qn0LoA8nx2fI8+ANz/X9T9c/HJZ3W+Fu2HkXgYtnZIvoQz4qSwAOeOn1sPdRP//ABI0v0ifvLZyVePO6Cee/yDYOqPoVNGTj+aVV9PV4epgvtPxv38O9AeGw3qUd7JiOJh2KgkH/SrrwBTPpnNcCsqAO5fq/uLrmFDAprUg3ZtyQf97OQz0SnA0k94z/1rdn/hCXHP6HyVzMOk1PlnYBI4HRudPCA+NqJ/axvy34s/AHD/Cu77l8mZTydfPvOHkfDDovJ0dj7N6T+o+SfiyY/IZ+5f3f3MtkS7OErqpUOA3KfU+SAeRm0DEpIPTDnqu5F//v4zIH2/PGagkFd/WAS0JwDq09T5p2lk/YP6eP9W8M/1Jwa/dH7YYGQkX019qp2ffPKBwtOFOiaQfODEuRPvw23d4v3H4x/v/vmSgQVbPbDPnU9TWMheACyf1n9i80dbNfcvKXzLY4ORTr66epj0f85XTz6MjoVEvTiRvdbqDvT9Hz//xMI3j08mGXvVzpdlZNTtDkYiW943DofV4Xjj3YpEgm736EiynQ/6o8j6B/1RXntvt3Yh/50Xcr3+8xDo2DPSyWerP0TJ19L5g6PuiMPuCwVsZkEesy0Q8tkdEfdoYRLJhxVg3oDS5BOmHLU9XWWmHH/+yaP/HI49QDH22jv/w5bV53H2C8lidnp81q0PGjof/cTD8g/JB97/IOdfLj//5NF/YTSQUXEPqdfW+c/cDp+zUkiNSqfP4R5RS75qAUDygXORW+jrX/z852b8yaXv2gbxCu5BvYbOHwlaPRYhfVg81uCIYuer5h/EA1M/a1tz9vnHwR9YMEDylXKPBjpf9nM+ER+aFjKBJQQrQCVfQwFA8gH3Xuz5z7Hrj1x7M5Pt7ZLks9QfAu1Knf8sErYJmcUWjoxQnc+GkX+a129uk09/ORb/6LVnpJLPePLRqHf+YNA+JyRB24N42oQkcNqDj2Q6H6hCo6gfrr/6nhyLfx6ib8hobAfxMu5x7tU6f9BtDaiedy0tDU0CUK+Pp14AmhpaWlSPwYDVXSxRTuuvqtLk33sdffmXQ/HHwXcOE/Vk5N1D8uU+5w9G/H2CBpDjOk3269Dvggb6/OuP2J1fBaPu/xKOP7r+ciX+5NRfnmw3Sjqfco9R7HxQr84dvb5Rk/1Gvf6OoI2+EFoAJkQ9RtE/tH/OxJ98qb9khOTLu1fu/GdboVKBRW3z3Tr65U/CPv3yN99trhVYlIa8T5nqif5iMor6L5HZ3IvGP9s/+5PP+GNIPtavmHvFzj8S9MtW/T3ij7bfosl+i8y/vid7BIQixZT+GFh/cbGif6z/0uufKP4dpux+/fMQ5ol2afJZ7unOh+R/sJsFeZpZzd2YhP1G1tXQLMhjDm8yOr8YRuofck8GcT64V4uO/8ud2fv641d/cdZohM5XCL7c5/wRh01QpAm5qmXYb9Bkv4Fhvxb9nSZBEZtDbACkHbJfDND+IfmEqY+3W7M5/vgLniGjNPm0e6XO/+KvTOK+B66iP9RkH/16VQC0fw7I87sLGckH/RLis3+ezNat+u7o8Zd9+vMQ00tGI3Q+271C5w96nYKEirpqQco1vf4K60Go0GC/ghXzK3r9NUFKdV0F9QB4H1Gdrxh/SD7Wf37z5v0sPf7It3uzkuTT7hU6f9TeLzC83BCk3ABZ1OPNtq9SG9eY/wvsGNBvf0l1voJ/sfNjc/7l1+w8/n6zd3axUVRhGB5nV024sncmtNRWpr3o4nbp/tWC0C3SlbUQQcTFIGZBxb/G0DSmxiZcoIFYwYIGbGiImEAaRFOFCISoBIkJJJJiMCakVyQSbkjkgmvPmZ3tO2fO3yy77e4i74REG9LO7LPveb/vO6dLvslvRuarjc9n/vhpSX2fM3wt1EXQV0UJlAV9t4KnT3GZL+VP4cP7VBfWd2wkq//9hZ88ysCBZ8TOB3t55p/Hks+BDqt9DoJxH/TjAvpJ2Q+JSCrAi4/D927VkcuLH97P61TyJXv1v3/CP0g09Ekzm/kq37PoH70mrfIt9GJC0lCXb/pdin4BiqOQ4DV0pA7oWfx1deyDO/ihy3fp6v/mfRP+dqO3j3W+Aj4y3yn1cFJDuPSn1MMZfC3mg34M9NXjoxR+hkiD50bgfThfgN9xPvTrv7T2v1/Cn8L/moBH5kuNz/f5wxdwWEO29Ic4X6IaYLAq6eNNIt8jgEJY+GX8Px/hvU/F8/fqWk94yaIn74vwp7u5B5pZ53PwJZk//Dk71LN0Sz+ae0s57Nv4nlsbGUvHBaAT3EARP0J6f4d2j7jA4+Lww/ls+C+v+fCns12yqcNkPsdenPmPXmDZR1I52dKv59WJfXvNOYBOwXsp5G/hz6Yi7AgY/s9jh9Tun9rshH9N43fqPThfmvh85p8f4hf5pHbpx1pdHmHPV7/wJ/ivDl3knf+4ZvVvJdfkXRL+y56q6dqP3HfLt/vYzOfhC/v86ROiDrtLu/SjTiuPUEPqF/4u0dmAE1eQ+axU+FvHrvaEN9Z07UfrvS8OypwP9nzmj06ITRgIK5d+/M2uMnq/KxD3tfCH0WkymrgM56vww/kN5Gr9d9M7tVz7UfgfNxMh81XwkfnH9rQIm/uoaLzWiaXfjzZkTNNc8aTBaHnvyhz5erTrlZD+dcbCz7cVUUt4BODsGJB78UPAn9c1WvvVKn672H+GcT7Lfp7E+ddku/cxEegQln4fWv6qydFf+MJ2c0YfbTT06pTdSEx2AuAczXsd/4Lz6Z9Wco2vJrVfbZb+dLh7spnJfIXx0eePugM/ZHlf37hq7qJXIsPRX5oy3doZCfopBVLCYAoxa5X7/368DOQa/DNqmO5dvzRUi2NfCv+MyvnizB/e7V7049GYN+OjlrwC0yu8y/TSX5o1We1ca0D6+TJyyfsujEXj7uV/z4gefyH1W51ravP6DtL51Rp+2uZfamb6fDl7ZP74kNunOW+ZlxTlbSiQTfukv+g900t/+Q7Tq11LdfTTWbhc0JCiCMwlDGjopt7+cL6DP9FDO7/aavzpSY5Lcuc/LM78Y0cNKNwVoOryrvI53tCGT/V9Y4I+qkBOT7foFxG+H/WmgXP/YQOamPSAb6N/WPvbmY9r8m5PuG9RTeEnNzr4CTJf2eihzz/lqvasWMBRwmuwxL3eVHfU5OgveNG0lep9wnii16kAcquMYoVJD77gaJtrYRq4yDm/jcNPoLcW4Dc0TP5DGv9awk/hH4fzvfDnCTN/+Cgzlw0UlFNOfPxrYRouB/2+fOq/t8igeuojkyqTNHTSTnqsXKAgZnY8MeZBz+On2HER/JveqSH8dLp7nOnzpcYH/vFDrnjPBVyK6yc+elkfUOPz9JMZG/cGNgfeNYpVWHCjUC7p2vu5yeGnYtwP51ONEfxLagU/ucVP/5I6/2Fh5g+f5dZMWCekmvj4b/OF9NtNqmxfoQHI9wTrDI20k54QFi8uv86OIPMd/PVt9Qr3j11NvlQj+MkN7t+HzFc4H33+1BBfL0Ex3cTHP/3ft3noh9vfiq3I/f6mkdey6yZVt+FbmESk2duEuNp16ArrfCoB/hnVDn7q/H1y54sy/7HdQe4gHaMk8zqnIvfs/ZWL20FfpA47H6IdRrGKpAIh3RNAwT31yHwbvdz9tYTfyfxnisj8vRju+XFOscYH/e1bgoaGfiQ/7V1sFK+Qj9ULOjEJ5zv461n8RLXmflT7vjN/HH2eNDX1btfTz7xOkGvoW/maf41RoiKeysUSTP5vIvPJJXW/o/qxf6oePx3ysH2+tsvfLTlRwShnlUp/5RrLMHT0g+332u7zQ19Z1wLtrofz6wl6W1L3109WO3463v1E5vx5osw/9qMhVpZ7/UqWln5w6067/Vtb+mkgRllDrJ/GGOfz+Fsd8PSqevzObB99PgtfoOlBNMxhz+iMVWj26Qc32/DN2AKjNIUCwm6Pf9DBX5D5jsThT+HX149urWL87K4eD5/P/CMtLrukLEXXF7Nmjz6cj7FfSbJiim7PSrkWspa/4Xw5/vrCNUXwV+nUjx7mOKnPfMAfnmB3adOe4RmEnZLZox+M5OGn+owShB0qiL35NFvETowh81X485pK2EPf6tvwpb+cf7KYzN+737N5F0iIu74svj579BvXZPLjoFVGWRSZKVzSXKKlmF/6myTw5fht9MA/TfFX334/PcP3Gfp8feaPHuJ6vGhIUDhH45Yx+/QbX8/D37HYKJOseBTdHv+Y0KErwC7DD41v2BTuI/ir66wfgf91MZl/qt9rFi4hO+3AD+EcJquFf1Bc7WWhv+B5kyrzdmkF36Lr7jFxyF69OrlqxruU9V9k0RPcbvwUPt4Abbc39BD85KxfS/XQJ/C/K6bPvyA+shn3dH2ppPccJtT7Q9noL3/NpNq5LliOhaUb896Up9uLC+d+wb+93m9ocONndWdzTwc567fgiaoxP7mRbw8WkflnRUtl1jsPT0ZE5zAxlisX/ca3TKpo0ihNq3IOfSjCPhCtYkRBdrQV4J1Lin/kRi/Fv7hq8NP57j7/ff7wYekWec7SncMEsbLQx7dasdQoTQt3mKAvkoVzil4dHmOcTyXFP3aVnPQl5/yrpO+zR3z+M99d7HNB/6r6HCZmspmy0Me32lVCV4k3kZL+GygDOO2fhPNV+Gl/MLmWnPNfVSVtP+31zvjP/NFB1emoQKf8HCbU+EHGLBf93p125veWupOwLaOh34m6VqDBy4zzVe5vm9ra/eySKmn7aa/nP/NH31fvjkTDsnOY0OKVplku+su+MXm1F1/ukzJETT8cRfsHMZ1fA7xP9/d4/G3OdSvRbc98K1/4017Pf58/PaD7mM2UpT6HaQR7smbZ6AfXmGWgH9yy3dTQt1IoasUa+AXOl7qfwie6nUi+Uw19H1l7fmLO7Sszf7x/BrQBsXPQtPIcZvClPzJm6fTRopdOv3E1s350K58M4l6J/p9nMr+Vdz+cT/HfoW1/xQt/u9xnfldPlfmnWvBixAyRUoFUWHkOs9uEykA/YpZAH99TTz+cxYSXUQxTjsabrPWBH2u/o5F22vZXrPDH1s4lxvmqzD8fBHxJ+RtKW4pzmKCfefl6afTxU8pFf/vbUVXuW+mQ5CwA1oSWP53Mx+XCD+eTM0Gja+2+rzKFP0L/e/fv5ysz/whbAgUixZ7DBP1o95MrykF/Va5s9Fd0dIC+b0UCbKF7DsYX4p9R3a0tq5+tUOUH+F9wzscZPjF84E8Udw4T9HcsM8pD/9ntZaKfSS80FPT18IG/lXX/QxCcT6/bW7vJbv+bFaj8cHr7IDJf3eifVz63/hwm6KdWBw3Qr7zIHX4UDhq+6auXwD8bUPh58RP0Dn6ikRsJst9XsejHjI93/jxRwafHrz+HmdyxnjxqWeg3URmla93KJeSWfNPX5F/wInwvwl9XuOr2RipR+YF+40lkvrrcH28R1jtR614m8yXSB3vgL13F07einm1NVP5AT+U1f52j6XdJ5WfP/OaWPsY8+DQuVeZP94t6Hcx25p5+04w2V4i+lfLs96Lvl7sfzqf6bUv3nFd+2NVF5qudPwX4PP5K03+uAvQBXzz1K7i/Ne/++Qx+l+7kZ35zOPRB6B+H85UD3tEB1QtQIfpQBehr3voDV1zOn08vj/sLGlm3YW6jH+v+AWQ+Z339xg7w/y/pq9e9Q5cpeEfzyeWiz2jaHvrM2doP638n/tRtLvOPDeoKnwrQb6oofX3JO/iV43yCvoHFT50P3aZDH9r1z435Md5H5qucP7xf0/REw/9D+trnPvFrIfPpRSRx/8iHdvTPzdqPZu+M0Pn8Gb7Tul98CFdg5W+qNH39cx+en3e+Dv9ohEY/HfjPOn2E/pfIfKX19xiO0tKnnXv6TZWnL1N4W+G/9jjOL0gW/b+92ztHbR8+ouGg8N/Y4c7tX8OuXjT8gL6PREAZdK7VyXw1/pEbW8jAf5k1V2s/Och3CZmvcD5GfEla5USqhH6TR9VDPxJ1nQAK/uxCr1r71yU2OW3frNLHkE/ofC7zR/vZX8uLPKCv/8yPmKvt94f/Fm37Zn3tx85eMzJfSh+9Hj7SIF4N9Js4VQl9+yXqZPo+kFdFv732z/bID/W+8F/U9Gb+IycEb+wH9P9j78xj2yiiMD7YFgaFI6IlHH8kQOsIUIKTNnEcDGpxoQ0E2nAnCgQIbShXKYEKCg0gznKUcpVDKuISDYhLKpByCQoUUUEBIW4oRznELSQQ4j7ezs74W+/M7Nq1k6zdfINF4yZW45+/9968md1RZQ6PD4G8Gf+OPPbHhz32o97HWbrmY1au1SW15tgo0wf8UCjzxwDQj1nwm9wbXu7ywg+tOey44Y39oL/8Bjh/CzP85/Xr2enY6NLfNZj0Y2n9foeXQJ6f2anQ39Ea15yDup8Ni3DtBnK+R9JHxafgDwb9EAn4R48+4Hep8Nm8V7O8v6fe/Dt+Q7Gf93yGx/wo+dYqztedqzdwtccnfBTpA36Q6HvY4urVcD4NB35+tp8cP1Ldz3s+w1n40Q7uB2TO18R96H7PABcU+sA/WvT9Y+L9DudbUs1P8Hdc2kCxX/T72TCJn7EmnE8yn6V7t2dxk2KjJMDfW6E/ikp5zoaegfNpOMwP5xP+b61+/0EThqfww1QfzjfX+2/Wekxs8vP+sNEPEP54E+CrqnkjE/phfi7pfK4vqN8v1noZVOSpvnQ+yej8gQWeTY0AwGeBos/inm2whav3dHh/W+CXvueP6ztm01rvcEz6MdUn8Cbr4377K1gwRZBBP1D4vbVM5nzV/AReag3F/mHY5wP6Z90gnU/Sw6fxOAuoQLq06LOv4XxrOOp+4KdJ/50zDxiWST9KvoyMk71BuY+vlQVLAG3RLwX88h2cf5vD+9tuC/yEHvpWTPqLa37s5rpVcT7JfbrWHbj3bh0LkkqNfh3u6fswnE/DYX5n6N/uC5r0F7vwQ8m3ZAtf62OyF7eX9IMjYM6if2BQ8fN1kbic9sH5lhD6nfqmY/Z+xS78MNuTzicZnb90nqSfFnfXDopKi759p++0pD/vbQIvhhn/z1bhV9yOH67a87P+5lnLurG2MKk3zgIiQM6mz4KIP94bJrXBOw/B+Wb61zfcaa32wPxFbPDrGj3us3SvZA61NIVJQSn+jPRZ8Oi3hpX13pul7/c04N+Dxo+Ht9CsD+YvnvUvV5xPcp2ff31tdt2SCpNSwYj+EnHw6cfsty27Zq59Fc4HfZf7l55ndfww6yveXTp0jR7At8ej2t1KTUkWBIGwiz4LFv1kk3YX3FrufRU/vE9jTXFnfVjbMyV95Hxs4IaSXfwgahYwBZg+L5e6NIZ5BuhN+PdY2nqY1e6H+Ytj/aeNjR44f2C+LoxZ96cN2tTfRZ8FBz5N8kl9SrLkPR9430Wf+57jX0Pt/jjMP7zWh/dJan8f56m3sUDJST9QasOZ7YqWmcwP7+8x2Ep7/GD+Yi3vGOjD+Zt/zNzC1D8djMov+PRjXZjkK3rORF84n7Rd0cwP+tV66wM/qfJq86/UFphZf9Dps7hHlLxxWw/8tsj8jZb5T4L5h8/6cP7m18lZPisBBZe+RnhP39fTh/NprKFNXqfC/EW4bk9vfczzSbLFmwyngjHBKx/6yVQ4KRu+Zvxc21HZP4vMvy/MX4S5fkYVoO9wPul+xxG6zQGr8EuaPj/cq5fZuskU+zl6e6jmL36bDzmf6030KElNCRZslQ59cbBfq3fht4cQwd+OzI/MX0zrV4C+0/mZLh9OH+8NdvovFfotva5D/NcazE/g5VDMP2zWJ/Rcj+NSRKlU0Or80qOPA33RMHnJRJ+D51ra2og5f8EHLcL5yPpwPtfV2NIBzY15HpwZ60j1h0JNr584kfmrXOlH6rqtd6G9d/qMqd6HeQszXe1gv9O2OwG/dD6JzI85f8G7uDNSSj6huzUHp6NppT04c2pnuwTQ31HD/FSe9CMHpEIZ9TdUKy1Sh1Jo9xtDv9DnhZof1n8Qzt9C53x6DCzHEdPZ6k0aDs6c0BdyaLqv/cuSfs2hlgOgRVMwy+sNuyUqqeWrnd4Hfu58oR8bRMOP1vkLs/4tGutjns91JWZ7bjWqB2fi5EroZD/3lyP92mNs+NDrODEo7BJmfTcDPg3Qd+gbWuqD+Qugv2A36XxkfTifa3AeFvNdShsOzuxw/d7tflOEcqS/36Uht+bU4oAqRQnR8rlNoBf44X0oQd3+yXV8k09B1r9Ma32gJ12L0+XdSioHZxpOQnt5L+at8qNPtbCi/lNxOCHkmvXdBe+TtOYf4uv8he3wI/pTb8g4H/SR82F91KgONesOzsRJaKl9IzXT0rb5j2aeKkP6x660f/M59ZFI/RzhkW4mpXk3Y9L88D5JR/+a7g7a5GPv8CvK+o6r0eO2PuanUFOd/uDMqT3S7zgYa3ot81G50e+04TdwPJHZNv6LeN2PUKrtn1wm4JNM5l9zzml0XRft7adJXwH3Zcw4H3N94XyhgbMY1JJV+E03HJy572Kn3WfhBg2eKjP61RfZhd7ErDzw8knOPZFQVwuD5q2G8w30l846vMXa2z8VoT9/66+VxnfBd+hKtS8txBnr6Lfwr3sPct70ov8A5qmyoy9uP9LJhA7mX6ZR/8TgJPe6yWVwvgn/+vNob/8h6Phs5HSvQs36yPmwvnNNSihhOjizm3/dJz71e9mZ/zTmqbKjP+m4zoNT+/dnfu3zQpZ60PHDrE9ZMz1rNfDr6G9PHZ9ZjUcfuW8Bkz6a7mmavDznQ9dp16MtpUwHZ9baleDxEVQBMIFJZUffpcjxIUtzgUq0TrX7JW4m6BDoO/QjrfWIjs9GWv9m6Xxj4B+Yb74CUT04U4+7DR8GD5U5/b3sk7xFeseySVcj02j+aoU+8G/PH9/wdi+u7Mi/5ns34/wKwDdbH4olws36gzMR6htAHzHPrDKn38IL5I/q3Sd0x5hW7/uaf+DQjtmY9G1EzbeqQpP1kfNJlcuZQXUx08GZ9PUYfbfqbUfMygYVq2MGLXDC3wbml86nseYc6vhg0pd/zZdxfgXoZ+l55iM/+qh3Fk1inipr+hP68u14vmUI/Qj+G7pp0ocNfvnSn3+rcL458D9aDPoNOU34y5n+JLsSunQay1lr4XwaEg+cT6OTJn2nou7L0/rLhPPN1r9eVnlj9AtzPtp+PsJ7/Zwh9AsR/iG+wQ/N/vxqvifVip/nfGiFnJj2JmJjkX9jNWWRDX+W/zJ3LNEbFviXwfk0QH/7zPh84+u+SO1C4Xyz9QdrsBrZpN/GPVb1+eqQtJ/z0Ujjd/SVaz2O0G/RB375WG+t9NGNfKjfl//arvC9mf512S3JniTTaGzG563JXfba7gw/Qske0fKPYdK3jRygD+9T6KeDetHvy2+yL9CT9PArFzChFrG4l9YVAH7dnsjxm3K356jFdtUz2S/dp8Ouzt9COJ+UoY+yb/vBU9Dvy3uBJ+P9zfQV/+MMiovuPgoAM/1djuBft7GxTi+bZsNfVO+b7tWO/zrh++zQD++L0E91H6b8uQb+Rwi8zvrQHdlJia/uoQAw02edItRv0qs8XPHF2NXqle7FSl/2O7sKzie5J32Wvslzyo/Af4MI/FtWbKmjXymne1CsURQAdT70Txtb4XXCbz+lxhO+SPeNSlT9UDqfpMv82w+cgil/XtZfy9F7VPyVroV9FABpP+8f0M+fmL1J7+4g1Z/us6EZU6pUC1N1GZzvDv1C6/mUH6E/5+W9ioz3AR/oaSxgUFYB0OhH/6SXZV8THe69N7mdXXJb+0UTfc/obI4znRbC+SS393noP5T299Ed/BD6c7xkv0LIFPhvN0Yq5kefdY/t6lS3tZtDoLGT8qwA7w79GQ0mzjttv6MQ+nO+gkegB3zQr7TGCmaSP/19Fo/t6BbbWVX6eWgZ2PuH/rxaPSSvwD8wrwD6kUQoWyuPYz4qP/qzQgXTn7dah397h4byCP0I/JeLnO+q+OH9d1ge9Meu5NJt5imcPrsll9CPqj/XHn+FZ+Cnxx2F0KfnLtrUr+Lcr70I9FfpQz8XQr9o+OQc+O8SvlcDf6U9lrLC6LPqhv5N+wru7lAR6Efe9gn9VUPdHWj45Lq4K52/JQJ/Fv4XC6RPih3+un33hhjLRWVGv3Z6AfSh9/0S/+eJPBs+kdrlNno18FfK8SgraY0+/SJprWfor6LHnNZG2t6H0O8f+G+Szof1nTm/snKQlbbKhj4zhH7oS97rxzKvf+B/RDjfRb8yM+5mpa3yob/ETL+Kjw32Mi92+Pg3+qTzTYFfVPzNzY0Bu/3yJkI/1tjTnFvVXzXYae/wAX2/+Z7wPT308AfspnyM7+gpxQ9ASdMn9GGS/bbX3GYwf5Uc62mHD7+NCxK/92Ze6XzQd+R8eryDywxL8wNQuvQFelKjR8MHZV9V1dChDXxzJy7m9g78twjvO+lXOscTYvWhrSuc+QAE/t68ZUC/rpXQ2+pqE2/4wzr6cH5V1XcJupMDVnr8An/1DQK9M+0DfWXlALoz8dZ0WCjdWjofgFKkX+d8q+Po9Y8zJv4qroFj0O7LIfA/VCG9v7N8MQs7xvOmf1WQb85a6vTjJpe9lWG/wzY7gL5wPml9DnM+BP67iLvL+8j5llYYPpZdrFRUgvRZlyHALjOXfbaGaM6XjCPxe9N/rAL0td5foI1LfUE7eqnM6LeF+7S5dSGcz72PzC/0Oc35Zh6FOZ932r8V8N1FH9f1pnK0dCr/UqRvfHs/BP4dMvg5dyR+bPHwSfs3ipxvrPhLvdFXJPq768VGXEsEeo4f3s9o/PpDO2Ti95/ta9I+cj7pflbyKog+2AfjA3CT9D5J8X5uiR9pf4lkv7PW+5XR+azkVSh9gh8c/PPhfD39Db6JH2n/cjXtc+xSb7LSV1nRZ8+JnC/oK/gHc038kZr5FZbr6aGd7VMCuI6Vvgqlv3ug6N8sna83//iqg7uR+L3T/io17Vs5H7qDlb7Ky/urRM43Jv4vrcSPVr9vr2dnrfctReex0ld50T8Lztd7f6iTWv3Y3uW1xKOmfQt7WaX9wumzINFnzxF10Ffxf0eJn7Z3gb6x6HtXOF+t+HkCiJbBbL9w+tABuCInA/8ENsJaAviK+cfTGJjTffjR/mVfpGZBxvoI/FlawcpAxaI/pS8UUulPZCOsZVr6wM/7Pcfa+7o9i76HCbvW+1zRyuiNrAxUHPo1c9p18NmI60Yj/fH2+DJxHt/ch7LPe4FvZ4P3BxhXvKf1WFa6Kgr92f1APyr0k609cZvbbT7eH/Lu96DTx30P+CTkfBq3O05bTs9tLJkV/aLTn7x/aBThxxvnph2nM6/LsB+Hso/Ay7GB7/Cgm/aCvrboe0U432D96JWMqw/nxSRaSmdPT9HoTzoC3EeYfl1LAucf9Yl+jyH0E3iuwZOp7Ju2T71n2Repqb5V8T5yPg25pa8xFXaotyfoR64Xl36kdeUowU/09IYdSjWKzX0O74+T4KTzif7AwbzsQ7dPX/QtzLR6dN6PRqNnOYJPczqcESspFUZ/RlNIgT9C9PGGp5sdaXf5DprQL9BzHeixzIe0v2pLxfvI+TSWuguPRF+XfUZwSakQ+nWaC+/bRwA+Dmvp6ksk3Rd0mb3P9aVntw8lP8/5JNX7UdLtTFWMEtEmE/kntrWr8I8YsTZfgsqsGFO1DvAd3oeGjsEVPeaib4l0Pkp+Dl6OF1lZaGPpRzouVdn3TmaAP0p6RKAX3kfoF9owB4u8HiU/gddbn9CTnmJloY2kf+xilX34MDb68Hm3T+Afh9APXXGy2NYN+rqSXzgf9K2cj1Hi1+0XRH/KIk3Cn1PNgkB/7Th4f5wS+nnR3zDbs9cb4V1+Aq/xftRWWSzvbhz9arR1oUVTWCDgs+VwvtP7UJux6EfR95B0/tagH8Wgkr88lD/9w8Iq+8XU7A4IffYCoZdDoY+iH5fxa+g/TOgV78P5VPKXh/KlP7lXZX9pRyQ48Nk64XyT919D0W+k/7Rwvs77BL9cSv486U84QpPw2yYyFiD6j8jAv4OWfnRIdPpBXy35bxbGJ/jwfhS6lpWH8qFfc4om4d/jWNsIAnx2F0dvNv8GbPAw0r/FRk9DvgB8b+kJNno6/9wzmFlnnp3zq+RHf0a/yr5pBmMBo/+wyPkG+tHvqNOPKZ9+wveK9D7RR+CHHmJQEbHOJJ0dSPr7aNq6K1uz378gwGcPwvn6CT+mfEb67xJ4L+8vZ8XXezPP4FQuvNiLbYH08Sr50J80PaTqCOXgwADAZ8t5zjfQj46PDswVu7pB3z3dnygCPylD36kBVnxdQtQFm4DRV9ZxxeFZwZSn96M04acbuPA7t2HC7yr5ryb0Ou9LXc+KrqsuOIPc/8EhZ7NL7r3PfuKXC2ZeePG5Mz/4lCcF+jNPDWeffy79BT3JJf6GiSc52TOtF3gvp1f50Ub526/0jPx758+Y2rr9s1lQ9SE5X08/ysd0vrkLq3ya9V075yveH8bpPjEn93/12U+M/mdzu/Diqy6gbEAwyaicq3AtUaEnBXzrWUIqn6TvuOSDT+n5n1gOr/LH3zb8P0MHnnmGfC3nz7A6bVu3hgVW64zeJ/TE7ktM+A30b5LOJ/rwPnS3XGTuTaUSiZZj40XI+uTZnxgBgvc5K6QEcrOM2XiS/s+/VT5J38HJf0Vsc3iV338Ikf5p+Td0IF7L8TOf6tZx+6awACl+bEsikUr1yq0VSwB/Kyf9qBivmSb8aPZw8GbvXynpQ6lUc6KVQbgBdxMFylTDBOYpQm/xuOr7T+lzoHL76jOK1i7679FTZ2joc8L0H/97j1cB/b/++EFPf8YPmnXcETwyLnaix7vXmmhOZREQB3QpiR/4LQ3JCb+Bfm31Zdz5ZvorGFdTOFtdSq18cMY67Z0Tfen/ZBX8imt5Qjgjd+/zZE9f+ryKv/cP+I8+FUpbl42Yqmf1m9899d1vEmu8GefTyNCPyhH9hK/xot2jafVtrbM+JC7fTTZaMQf/ipTnZuf99/WJ/O+RV8+kh5YbfW1xowfo8+86m4mcDvrsTCra/F5F0Kec/7fI+/K17J+5t4/HBKWtOwLCafzQy/XMpRS4W/m3Mcm4Vo3Thn4Cb2uDod2D6f4Scr5C39zsiSWTCQpD6ZTuhEmoa7LPhA9ycaMPBk0HiBnF7rNtbsDLg3k2/Uuogvd9FdAXNb94Lf4zNfSBUOgvqmMjJfXIonumuOmnKdkmksmYtt2zldb7pO94uwfbelX6b/l4f2FOxw29nNdxa2dSxC+WKHsU1uef3a9dxx1Bqaf0zalluWghnI+8L5zP6aPdo6c/dd3O3vTP2siTxmZFvNw/E43eAkXJvQD6yFhKW3fkpB7VtXgflovmc/Ba71saf8VcupYvGTfQjxD9y729Pz6Pf377yfWRmqPEpPmjejYS4pP9/Onj8hxV0yexkdXRtvX79qFjSsWHsYHloogu70ehK2Szb6qe/i4T3/Win+POnmkrHXavOTnE1ciCJYW+vq17D2w3QorMdZzNG2/iX7TluLuHPK/zvtDA8Z2tYnePgf4LWvr5NXob7ErvkKxIcMQuLFBS6OPyHKh/BhtxTVrE041dalTbBWDP1Nxavdz1/OH0Puij1aunv7U3/Y9ZDjrYjlxyitQpz9oPlFz0lctzcCr+CCsyYVrD9PQ9e+HUtpy9f7nW+9CBaPVq6S/wof84y0Ft+LwiFKycxgIlB33T5TkT2KhLBM6GXBv9wK/Dtze1er3oL/Sh/07u9BdNAn1L/7N3pr9RlHEcf9xdGkVEQIuVF61JuyQk22Ohu70kSNVa2Xqj0pqqbbQWFUMgaDRoJKkcERsU7wMUGhPxwDMigme872iM0ehbE33rH+Azz/xmvzPzPM88swva2e18nzRRk6rsZ7/P73rmmVtZpOSir348Jwpz3FRbQQTRIRZKj3m8L+PrQ6NfPeA10N/HQugu++wTfXwNIwmhu1ikBPrfqh/PmX6lzu4W8AttIUvOB0TMnzPH+lHSv1G8o0NLf7eBfqgTvRckhPrr7b8jY0Xs6n7QVz+eM+06a3XJU+WDBu9/ceMlNOZR0q9/ORz95cu88u5Mq0apPXpVA2vpmkhUGv3NkZjjNo1R3ZGVUQ0t82q5Q99Gb0lJf+014ejPkeiLunEXE7o96dU65tbigYRXUSz5iP60t3VNb65OXqGo9tYlvbqdCT0a7H3Qr08pR3xvFK2v/PKcviOAPjQ0mJDFa4AoCfSlx3OioeVOOjJxWX1Y+uT803TeH+D07RGvkv5eQu/1Ptxvpk+xvjLpW3PcqOh8jJvGGsPRv8/g/W9oxKunT/g13p8MRz91gwt/j50GXB8VUwk1YJwD7Y/S1WONZ5/F0pQ15erD0efYHZVD/5BAL3v/dOuHLwN9aFmvY6fxzHnRy/o0j+dET/YuWrg6FP3nyPcm+mkN/RfI+d5fxxfgsIE+lDq3+/ZE4vbxoRQFsAEWGZ29f/rnuCG1uNtOmevD0H93DlQm/Tmy9wV8sbT0zQGsjUVEusdzoqkLMDIz0w/2/rxg+g31h8j5Su/z06GTZdDvSAhFZF+trMdzeAhtR+P0v/E+6O91nI9fp5gvVsn0MeNrj8YHHP3Hc1Zc3Na///Y1vsMSK0PHfZLW+8MB9Dl46dcp5nOFq/dT53esyZ3nJFE3fWaf7LuJTb/weI5Lv0Xr8ZwBb318K7xjzvlN3sexziDvu38dzg9FHz3KNRS47C/veASSqpWFBBTVN7HauDfQkyP1q3E6wkzf4H0T/Tc4eKX3T7dl6vTK5zma19mF30o2/aqfqAD6y9pt8y/FiBdbganXByl7fQb6LzvOx6/D+eHow2P7z8e5xM2ReD/zpRVAn9ye6D23IdW8toBTkcdEf561LPpBcf9l+ddFzHekm/GZziQXOlgktD369EWoVD4OYZ7xBXqf0zfU+7vJ+ZL3SfuYWTjOA41HJLMargD6DX3S6ClktfyAgj6cH4K+/OtAD/qlPot0b2SGJ9c6c9xvI0ufNX/m2zgvTR0DfVjfSP9+xa+78X/IzHJyPagvOo20FQVq63ZHl77vOuANl4ctlx5T05/nrBED/TsV3nfrmdATqpFidbX96ggUeyin6dsYZfqsvg1TqM1D4S/vUNFH2kf09TO+tMr7Lv0evqM6dON5hURhtPvciIT8YtVnPZ4TcfrO7Q0T6y7LlGCdrYHenzevz0B/6UfB3n+QVbwaGasA+mXpZzV9gZ7r7r6B4vUNynN9S38Opr+TVYuqkT6si8M5cH7N3X2B5/pSZy3dqqQPRSmEx/R9gvM9A/p55P1t3TjTq6b/dTD9hetZlagK6T8N5/u9T/RvvCSY/o8G79/JqkRVSB/luudwzjxHe7oNz/I0HaHfP02mv9Ba/nt7hofFvT0V9jK+Cqdv39szPOy/t4fQS97nquE/f3UbnuNr+mUOSXXLM8evuLOrAl/FWOn0fXd2DdOdXXC+54Z1R1MXGp7hbbrPAs+Xzvua+/pGWaWpkunr7uuD80FfwLfd/8f1huf3mw6r4j7wL9Te1VlpqmT6urs64XyX96E/jHd3vOB437/1L7TXPof+oLint7NC375f2fRJrZ3int5Bh/4DcL6Hfg29R/mA4d6ehnP2ipjvS/uAf+FbrEpUBfT9+hrOB3yXvunP34U7u1THO3bLT4LB+XxVQau3aum/COf76NdYq+YL3Nenod8iTnfIaR8HL1Q1rd4qpE/otd7vM93VWZ/+VfI+ud7+AlRNs6/66D8N54O+iPn2eqpPd08vRrzvKUo+Qi/0MqsOVR/9l+B82fsc/7Y+3R3dGPH+qPe+0CFWHao++q/A+W76Nc7aI0Z8uJ9f1ej/xYFfpG+Bh6rk9ftVSP/dUyDQR9o35RryaOg3Teq8T5qZ7+GtBB2E85Vx/w+0+UFfbveIu169+KGZ+g7u6OtrnfWp3XMAjV4t/TdOC976Z+7796Ouh1T0a7COotGrod/QtEKA5wJ9oK+ikq/q6D+tC/sEv2aEt/qepVZfimnaPT+R893ed+sNFiuK+vyUYO9v0Td7QP+m90TM93m/CpP+apMm5ae0r6ZmW0CzB+2eI8L5Wvq11ZL0V5sOGrw/5TrNr6W/dBKvcwR+Q9Kf6cj35Fms/0P8k+5IM1nvqOgTekt/dBdfxQn6UtJ/aI6E3+X8hbX+pL8zf+1oZR7uqkz1iLNU1+aH/Yf5HfKLvPBp1bx6Icp9Pf37Cb12638axwuyud5kUSzW/yF84L25LA7XbFKHfQFeKCfK/asuCqbf8pGWfq1Y1Onv6km6NDgW7/z/j/Jjg0mXerqoy38KvL/I730Of8tI/xr+PjbrZA8KPvl0T8t7Qd6vra3dxYTGcK403xGlC26rXzzNwnnqMSb06CnA70n6SNsCCz6UfEcc+Gd46dfSeoa8Lzaf/mzFnuyrcLVm+0XY7XInfYuU3re0R6T8KPjKSPprLe20f7l1rKuTxZpedXaNtdrgPpI2fi4bPKX89nwXBZ+a/iFyPl8u+rVYu1msqGk3oRcL8LH1vyoe48J8V5f2ZXRJfy3peRYranoEzndt/C7lMOELpN/4q3A+/wF9OJ/T38diRU0PcPBK75OeQsoP+sqk/0dl2ldb1A8sVtS0Fc5fpPL+HlfKD/qqY72TIuYj7nPB+ZZuY7GipY0Oel3S9z11+ZHy69K+vcW0D+avdWsvixUtve1yvjLsv+p0+ZHyawL/CoFeLJ/3SbtYrGjpUXh/0UnqpE88vY0uvz7te5+cD+9bzOPAH11thfOV3t820i8d69KlfUfOgPddWT+0kcWKktYL9Nj4JfpTdtLXugrHurRp32Fyvtb8L7BYUdLDcL467B8wJn1I+/4h53Mp0r644o+cHijGfL4k+rNqao7yTp8h6UPg/4lzD/L+a0ytdCTewVC10n68D8H5yqRvi+j0IekLpv+JcL6W/oLa+5msDJ/4R+qFm1Wn/uS1XRkm635yvtb7e/hp7uBOH9K++pZJQT4A/2EZfW9l3t5USRoUQ3X5C/Cuy/nKpO8PcZ43uNOHc71/nxZAfwFff0roSfG0/79Ta1JI/gK8STFfLC/8WeLnqDXe1Ty8Ld/VvOJXg/fr0OxtzfdK/1danXNB32ghkdjQc02mam78PT5Kbw54TT1cho8aPrvtpKLzT4L3PWHfPtGJ8W5w4P8R9B3B+daimi8zPpokjWUz4V46gLcOxMKnnk+AfoAy2bEkaXQ8Q/UeYr688XPnz9pDvR6Md4P7PYfVgR/4P2FC2SL6NDOqabX3BagReTNvJLRyAvQNShe/AFkm9Bg537fxA/8BGvCh1xPc7/lHQ3+Bs3Y22P8nZvRwfi7h1fY4SXC9xwj0Q38B7I998UcCvM/7Tsy3FsI+ej36tC8w8C9YsMD6oTlfLgf0BnUUAD5Kr2iMgBrWJsLSxxcgl6P5HmI+/1Fs/E/lri+GfSR9QYH/iCrwL8Aqvd3XZL8DrbCmMdVwVY/911ezWJYumAD9Mhp98L4FH96nNSXO9SDsmwP/88qtn9BbepKVqOXbBfA28Z9vsd85NsBicTX3Jsqnn3qoGPNl63P4s2bxJv/NbTcg7JsDf4Yq/rlnzD2BJMBjvVFqXmO/m7eFwoDzh40lXr5ZPv3POXbZ+7Nc3l8tDnMj7JsC/1lLV7x3BuHH1k8xn/RxGfTxx1vWHtN3dHnhWOgfRMyH9U+A82dtK57sQLVvCvyT5HwXfq/3nyyxXdNZiOkHhMTBMukvfsjtfdC30Nv4vx/h9/NaTX5j2Eer/x9n45/r3fqhQ6wkXTTo3vlvTVhaw2LZ7yzef3mZ9F9BzHd5n5wvdNSa7d8wvKwZTX5jzdf8vvA9vI/ITwHgkxK/pN2U9aG+3XALm/FKtVl74sS5K8uk/5gc9bmKMd/a+OXZvnnr3yGcL4St36269SUOKbbbFV8LazjffkH/2mi9pHVa1CpC4CWpMulvPEnEfJJ347dl1Xt4cD8k/Za/LfiKrR9F3/OlVrUbovpe9ulTejO1vcqk/wic76JPvhf6tG/AavPiprYwgT/d/CsHbwtbv0faazt1456hzQmosCZO+Wi4097KDPS1A7QvBXaSZ+MnPcU3ftR7oG8I/I275iq2fk/Rd6d6L8sls0ytRsx5Xs/HzhfDHZELGehnkzn1TGQTnI/hLrwvNn5xqAv1Xsit/9DcouB9j3aouvk91vRZ3dW41LP1b79uxo/4m9dRBDTQt8b6PR1M1n1wvnfjL+pVPt+zr+hE2A+x9d/U/BPoq4u+1+TRA437Myr4N/rGPIW2GY6/YS1GnUH0MzTQlwdqL8L56o1/S443+sRZ7ptCbfyY8x0xmn+v938y325f5NOvDFOXFgTykVV8ymMnABMzfMJ/3evWB3IpM9FnmRx9svmMt8vLsUPY+KGpEbvRh3ovbM2n2vq9Rd+f3nAvNJhPq3e536jKQ4sjsW4Fm8FaNZrgytXr6UPpPN3U5UkA3nScL2f82Pj53cxyo8/c7lNu/R4t2eQK90K9WaZRNmFpdBU6vVy3spkr+7TL4BALpA9l6VAfEoA7T9JaHxn/WvEQDxp9obf+Xcatfxd9M+mLOdbJdDrLTvfHU56/7VvMZqzIAJLOa9SOSsYoAaDd9VHhfPPGfx02/hK2/r/nmsy/8zYkpe25DNOrxZ5htzHSwIwf8ZZEHwkASqrbHvd4H/Cho6Vv/Nj63w+iv8Ra1O/LItxr1Hiel36b8yedsSqVPhKALPp8quEu4G8TGT82/tD0xdY/Gbz1c/xfMVsI9yHp99sn+5ayGavS6fs+6xeN1v/eavU4Gz/oh9z6z/5AbX54P8wRH+z8CPTnXGu3+uvZjFXZ9FHuLVLmfNBq3uopeeNHw+cTpfmBf8mSD1kIIc3bfrbzR5/xA/5jpf+YMePfI3r8ulaPeet/XpP3LSmuuk3aDCUtV3yirYl6//VhFiuw4ktrM+lNFPOFTlZt/LMP2MPd84ew8Ze09V/0hG7r577n8Ll26bKTZE7u9nBtXp5KLadh37fxpMdAP5fUZdMHjdbfkuOneuzhbkkbP8a86m4vvL+kbud6ZWbSjgd60en1aWIlixVIv9WqpJUZ9XqQ584/GfChKevhTf1w13y0Vy75gd/RL4q2RI/dlfLPNOIpT4n06XNUNNEeNVhfnOvgT3GIhzfVz/CYx7yr/rTRn8lXkb7L+Xzt3Ci1JJKkrBf/ZQUP/Dvig10G+tkkSWqkrX8cMZ8vif7sWbN5sW8f51yFjb/ErV/kfYT/BC9+Ul3dDl/AF/MotCSh1JX7Ab/3ytj5Bvrp0aSj9rxvsG+2/gFe7NOl7Nj4S8z7Mj8J9PA+F5wvlsf8HaNJl/L+f2Xmmp4NPOCvW9MaszfSzyddGu1g0MbHEfP5An14/6nVfQOmYt9c8u8oev9M4HdkwXebv1UEKqg9fmFP+cq0Jz3qaVVa3wMf+L83FPvhSv7lT3DwYoE+nC/Wk2T+dC7pV47FKldj8qeZduY7iPly1J9trS1H+6Riv5y8b58DH+ZHzLc1iS+rX/G7e8pVZ1JSO9F/zu38k1Hueft8a8vP+VDy3zPXgQ/zu5xvicyPQAX1sljlqTcpKY+oL8BLUR/e/9Qa8IicD8V+WXnfezZ6N37EfFu/4EY5v7IsVjnKJiUNyrX+yV7ro9xbLR7iKDvnQ953mJzvNj+8L7RzE2X88v9xvPWXp07ZSR3U4T/R7Xyv9WfTEuXeFVcj5yuHvuj3Df3E4Uvmr/NoH7Plz/m7WKxy1eXP+THcczlfWe5tWd1nPbZNfT7QL3nrP6dl1Y4ifJjf9j20G41pqD++lulYlO7HR4mxyW4bvBz14X2Ue/y2Fmz8ZRd9svnrvHqrOJTCdzW+ka18yf2Tfvpn78D5luRyb/Zsbn1TuRe+6MvsUpjf9j60l76v7U7A72Cxjl0dg75q72043wd/trO49c3lXviiT2X+Op++SlG0sv9f4xeyHy/R3KSLgGz1OF9V7nHr82MdUrlXdtEnmV/GP7/ueVfVl4sD/vFTJueq9h5xxXwvfHh/KtdNxzpQ7h2L+Zc9YcbvtHw6kz1xlXd81dnj9Ew3PuR2vqrc49Y/6kz3cKyj/LzPOuH1MaE/9cxTVfTnW+sIsxUH/OMtfKYHEfM98Iu+55oSJ7qo04Oc7xg6Prd8oMYPzZ8//2V97TIe5/9h1TquD5sveZ0vl3uw/tVXSp2ecos+Mv+pYkn059P6LqX7A/Ume+NMwCAc6ejVWWXxVsR8rhMBH94n6z+7Uur0lN/xaf77A8LPpcIvNKlvWsUvbPqXvTOPjaKK4/hsW40GFe+TwwQXoi5s13aPWpraVmylXLaU0iJWy1Gh2DQ2SEo0wcSCRvBArnriEY1aObRqFAXEM2pEQY3xSIwmHn9o1D/82997+7bfmXlv9s3uzq7b4/uyMYoK3c98f9d7M+NSdUlGpE8qnI92jwTrsyEvJj0Zm/8p4Xxr6Ifzz6DP5kdVF/MNfK9v7JyHOwX43t4NqlC5dhd8T86Xsj4Tt/5qYX1MejwwP3e+yvxnJPS+ol5tLxxzforuJ7Ur+qZBOB/wUe+brN/olfWR+Qm+HPrPwGJ6woCw5V861gKmolgpNvNN2mPJ+XLWz4L1Yf5gv3C+hN+k/V3WMFbOB/5jFV9q8se/Nmuy7PoazreXfMj6C721Psx/jxT6SXA+fUgPWLpUfhGP7fKmrjIeMi2Tk71DvofzkfWFPkfB74X1sdczveITlfnPsOkVU5PPd3vGOv10FOS7O6bW/yM4397qA/4jC6WC3zPzvzleiZ8taH8PmvyxiX9awgFptP49Wy05H/AtgX9ffMLvofWR+SseU9A/w67j0h2IGaquQKV8ugO04u707sGHtHfC7oTz7SUftInt67Mxn1fWx7iXzP/XBSr89uD/fKLcZ03+qKAfq/eWPlr/ROG/zZTzbfAZflh/FZ/ww/qemb9jesU7Mn3Z/Q8/igfMjA76jQWe0ofKxF8f3Yo+H/U+kxn+43Saj470sM29Dljfo8xP+/w/HnYT+w8aQqOF/pzs0IfeMOd8acqX0Nvha1csWbA8FlRv7mW8zz/zXb35SW+OLvqTNmSZ/gFrzof1LVn/GXaQdx2d5tPs66e9zx8IfuIG/+ZeI4kiwbTo5++LPWZUZ0o/GEn2q727kPPZkuGj22uMLi3x2Pq4nX/mv+PdxP6jkw1HhQtLgxnTX5lH8I2S0gzpB0uT3e7atXEcRM631PvQPjbjpTP8s3Caz0v6/J5Od4Xf5U8lbWPLM3qHVd69vrsq09fKlicdjOy05Hznku+muvighx/kBX1Pu76aw67wP+sAnz/RN5jpu0zy6/BYMaffaKQueL/Q8fzLdmvON8M36c4PWLcnBj2wvnf0xcjn7wT7y8ZfpqJ/Of9Me8hz+HiXyTX59cQfnpperjGygv+hXcj5HD/gm/W56PbEoAf0vTV/IHhUa/7Lae3v0fyQ6b/LpKXVyCfFnzrbMtdIXXpbdL9o7vNV1kfJRw9k5t1eFqyPru8veF+F/3KxfvUSPuI+qdjIK8UfQP1hh5EF/EVvIOej3ncs+eRuz+uub3bJV+MR/EHfip90j2puHfZn/u7CPNs4ipf8CytWfFdfcGv5An+6uzrY04X6rDnfKe4/Iwb8NXTvltTteRr7K1tn9RN2Qo/Mz4ScH8c/4fLX5ccRhDN/V3l9s5Ffipf8L9dn+prJsPywi4+Q8/lyKvkWDpV8eDyb5yoSG/3HhkL/ZTb8cD7p4V77Ea+IkYkqb8nL93msL7Dpw9lGWorYz8L0bjXV+1LSh14I05RPlHxSt+d94fcq970NP0cP59P6pFu6sDPrrPLR+kU3Fth1y3QjDSE8ouJDzudLDf/xxJSPl3xy3Pd64lfTL5wP+ib8QoT/UKI1i2GzPwPr52PWNy5ZWSApPCmDLf1YYsb3sS3nO8X9DfxMx27NlM+rwo8mfscE/ItomfDD+WK9j2PKabX58hP+8+4pUJXfSfDTD1DBUmTHQWufD+fb4z5v9UNtNRWaks+ziV/nVwRf6CIzfjh/wgT2uWcIfzBTj30mXuiXZxJT/vJ5VxhFU8rEq4YXTkoXfx3KffT5cL5D3Ocbu95P+WT6/JzHzKb944m7WDb88D7hf17z07p+vkvNywWkK/PuDX5TiueUt9+6THzpwbsLXM1+gtWan3ubPec7zXl43I+3+h2aKZ9nTX/Fv9z8DP5FJvObcr7QtFc0kc5lRii6Pi9rPkkhHD/I5Of+6CTkfKX1Mefhcb9ZE/e9jv3vct/L+CdgcaHvswhP+Ym4nKh5G/iLgiuuri+ob79ykbff19yWAhfzyAiexANJvZ6j86FneL1Pcb9TE/c9jv2zjia8b8WPnC+0f23S8WbY5Uyl3stXtxY14UTG7QHDO+HFg8kVTjr0Xvv1OCGN8x+Jz3nWzMt+3If5eez/67BwPqMPwflCaPtThw8txjZq5pq8ur4AainJ5FhXbNn14atL1+vp6/Gj0ZdyvtO+Ls33I7mo90FfxP7g3xy9Hf8QeOhoj+YL0OsKPuK/dZY38FdlOp2BOj5EkW9qATCwTz3u9WxEzof1HfZ169icR1fvZyX2v+qEn5ZFh7oygY8vtXqGAWV0PgjK8MDA1GsKhq5LHPUoLTHSw48pD/r8pM3eCprzZCPu62c+Sz+5SI1f0sHJysKnBfA1isYddnF2zuHd2mmkrTWW+LHobs0LhrUlb9cb6PMdnY9mb/U6mu/nJO6Dvpj3U+p3gX8irfeL5Jl2KuO/xd69uXXqlQJ58SVFs8MFmf2P8ZrJq2svNmYkpj3Frk/0hOx/ukF7zpfhI+nfTPu6bL6fo7iP2E/z/tZFf5vpQ5L3J048nj58vMY3anigmXF73lXLi7YwvJqeiiIFkp6uNNLEX7RTzvlOE14x5Kta1Erz/VzFfcR+Sv1fgf40Nf6J8TXtLennjqZaW71c4+E8Zn4ROsmMzmVVPl0A4cJSS+eBLeMk5zt3+tdSs8eHfDmL+2j72K1dFUuPOuKHJnK9pYl5mq0UqZbKpEzD28BnX/3dhlUNsbQPDWC6q3/JqB7/XvT5mqS/aaFI+tTsZeson77tq90v0NOaKNOfmFik40XY8XN4pEfgZn+SQu27Sk/uvPH8fpCmFovzQyoQ/psDTkO/OoR9Kec7Jv23edKnTX3R7OWSPtq+RccuGsI/zeR+i/OF3p8K/GGHVxG1B53pXz3Fu4p/juGhKm+qx+iwVRkf2h1eUBVG2T8VOd/B+dA+3unzpD/dn71mT5/63004X3I/fE+aRp9fhxq/mOPDyurUZ+c8ox+rx9TQQ/7z4y8ZvS5QlNpPhm+ia1Dq8x3hfy46/f8j6SP2s4lvzatx/Fw+CM6HDnYlBZOLV7hFE5twU+bTNs+tn0WzfU4Qsx0CDen7fOeK73Ge9Ncj6eecPrr+pV8I75O/zfjNOX+aWId6ko0/UAJlT8ViNhcir3Ld3ZyLry5YmnxXr+djZc5XV3xszBOhbV3e6ecePlI/6/pr9wvnS+6faBXhP9qd9GbGkJFVYRQbRqauXzHZyL7Kkt6+2r1RnfPVMz5R8cU6WyuznvT1qf/fh5n3hb99EHI+3P9Jb5KvZ6WRNYG+rFW5wL8SjY6k3hfHaZ2PGR9VfDTmWVaV/aSvT/008G86RqYntNMk/EPCRdD/kjo0aub+2aT/cpuRfflb8Awumwa2qvt8dbnPKr4lNOZh4/3sJ3196q+o+ZuDl92PnI81fo/yufT2siiGLJAl+tCHM4xsKBSzF7Xtqut7zy5XOR8D3lXX8Yrv/0v6SP288qv5irs/viYq3Z/4Vfr37lP0vdKGV0thNb487+nX3xQoKpq+qj7+N1WG94rR9EIa7SjmHE+Oc5PzMeBlMz52zx6D/38lfaR+qvzmdsZenah2P3K+ab2lGnmWy4+qDQcMr9WIcaxpr3+x4bUC/L0EZfq6dov93L4SPno9Xu5Hl3bOpYovN0lfX/ktqvpCoCVJ7kfhJ+oDW+MfYP0QSOO1jqURr0uBKrENNwOHhkgbJhmeyh8Rf36/8seEeqjN1/X50Kahcn9Rjio+feqPF/5t+x3db1/UIRxda3/ZfFTKBFztHqZ/THpxPrQOW7zeKdSOF6iaFbXPs9ZuHOcu56PXowFvotzPXdLXF/7/Mvwk2f0AL0T4+1+xRvk6qQPIzgt9Z7dz3HWoA6Qhsnevz0WVr97f+mirq5yP8xy816OjXLzc///hDxX+hP8XuJ/k7P74nsBFptovghN+yJBQGL/o0YNWcCP4HA+3/PAcBqjcPvGNSPWe5HznRv/G60WvN+WKvICPwr+k5peHibra/cj5BJ8t0vs9sEtQipBmeVn8LcG5S1wMODGYsQKFJiGjyT9oz6CAjz5fC38F6/Xyody3Vn6TqPAPEn4UfhPU7r+ILYH/k3sNtVoKLYoYHqrm5bj545m+9q4CpiWGd4oUWtRuqHUvndo/OSXn38Th817Pnzfw0fcFlx5zcr8559MSOvy89vvzcgSIm4FJ1TiG6dWNAmhX9Nfutl3jUsv5fMqzjm3t5EOvZ6bP+76O6a2dJvwTVO4n8ML5Qm9NNiA0RpD3Wz+1ZH4IN2N4plAh5HDD3uS95Ht9nw/4+xj81Qw+be10UK+XN9Y39X2LYhb8E6z44Xzo0FrF3M+5bvKgAph8cwHklfUDTjUr5nvWRo/kss8H/LIQ29fLj15PKvyBn6MX+CHmehl//zbpkIdVMUtJVZ15JJiyUj6GmZlC1YUB7U8Abds6TpHzfUnhX8vg8ylPnvR6OvwkK36At+h4j6F3DsJCIHP8G6RjmBmX+WFN9IJ66PCmlPOHNXwb/rjv2Uflfosuo/XlR87dXmnAVlCFjcw1qfhW6RhmJgoju6Nycej6Xv+a+z5F58/Ja/hm/FUcP0nlfoXoOQDfdJniZouiYkYzEPRm6BPdUMqOYS5u9eKLDCr+oFBLDL/QtdfyXj03zv8gAb8qf+Gb8M+q+mW/S/yXJda3DxlQGazTYp8DlBv5qHL09TjKQbK/T32AnsHnPuej1ct7+Hb8TMAP2Z1P6JnG901VTUuj9lYqv57Nb05XIeW0ss6UEab2nQTnS8/kUW/sDBf4luC/7EEX+C/Douf/HR2QdkpsTq9GLICCRu4VVE0nq63RQN6hGthIrpf7/KTw3yb4+V3wKUu/ZV+4cT9hh8a/1WN2j3QOLgaDmevtdtz+lRP5b24vDKgmPDHpnGLUgHpowAPno89PCn8Dn+2vGxbwLfiX/5BAfzlbVvyy8/my9v6R0rD9VGypX3UUOMf0sUtr7UZWWvuA0ojU46tyvoo9DnMMJ/gW/FHCLyTwQwj9cD7XwV6zry1YA8qZeTW+9VypHFEeitgnEX6/AfW+Qb5X5XyfHv76UPMwgW/Gv7T59yHnS/hVzh/PPod3TDYg7aQnACPmTGXqP4jzKKKrbxd8b3G+Ej7O8NFhDrart3S4wAd+2vJp/jNhfSYrfnvOh740hX/NpAckciOADmknPtC2F08Wzof0zv+cw19S3MA2doYLfCv+fzYnnE86w8qf+Z6DFwv8D+GGD92kZyVFYfnfLI94t1tfXhjRZhtMfGR9tJHAK3O+Lxn8Fwj+zQx+27CCb8IfrGn7+WGBXmF/yfnQ+0j/0qRHW4GtxL/pSZJfqak05YkP1DtI7NU5X80e090r5yyeX7ymrSY4dzjBH8LPTvvUHtufcD5bVvy2nG/WBd90J2+p8E8DiuvEQ++DqSb0R+V/2r2Xg5dzvhN8zHg4/AW7awl+5bCCn8DfUTm3pKa24QtCL/CTfBbB+ZL67+uy7aK2GJrADzZRu1tLy8vdGL28tEzBNOCu0Wix7T53PblL+F7u833Ji32a8cyJzG9cVttUMreyY3jBTxz38FcGKprmLf+doRfLzh/el/XlASt/vy7wg5dfdrCJfustZrVaqEYUv0XUXej3W9kf+JqoO+R8n6bYp05vdVnj8nlNFYFKf74d5nCNn+7wnFUV/TPufSbZ/qCt4P+khb+7wB9RzIPDFvolhWaVWFJ32CGP6EO/zfdbCbxDzndkj2Kfz3iqZlXQAc6rhh18cdbvKnbOf1Ys+s9m4Xw1fnhfUn8fpr/qwK+p04BVQx8Xia6G1M+Yeoj9hRbnM7mq9e+kYv9KKvbXN0Rjs2bSuf2r8uoMX0r4JxF+Nvc59iDHnrr9L5D5qwM/hH9ooR/R0EeCkEJJqbL99Duy74PvpT4/GXvUe9Tp8RkPndsflvCH8LPGv6at4Xdyvlv8QM9X/45u58AfVPXdMacrQk+/0LAppvxNnEN/dx9qPUXOTw7/cRrusnpvAev0qM0ftvAJP+li1vizzm/Zn5vTsT/BJx1+6yGHwN+ivCRU8SDmgn5M9d8qQbc4zHUHtoC9Iuf7nOBjxFNH9R4V+zUlos0fpvDR+MdL/5/vV+CHnL3PdXB7l2q4Wqd6NF61ZFU9fWefVyt/FxX9ru0fX8jyvWPO10d9Svms3mPF/vDr9JKW/qEfXOMHfKh/R6+U+EMBVUEWVkVvvwv6flXWCKtKy0BISvu9O5DulX2+Txf1h1J+jBX7w7DTU+K/Kl77ta15b7OWP9CLZdJpn+5RfRn6QB1FRFfRh9Dc21KJTlP3DJLjaTnmfJ9VJ6gavRtX8ZRP9R4V+8Ox03Ou/VjyV0d/yO59SV/ukO781BVpqNv19EvRG8hpw1n37vga2GXnw/fOUZ8G+2w/l6X84V7vSfj51L+iiaL/7wnw5/PP+U744XzoNL4OHejWbL4bEDo5DX10hpoWUlL3Acr2fDnnfEf2qPV51F9PI56mCjbZHxnwGX5e+/HkH2teQ5Mfvf1l9LgASMf3TDYg/XCmPAX65S7GR9BkivhAbpXe+JjwJKI+HeNhKX94F/vq5D99ZidF/wU/JNwvlsT/Aifni0X8+3fuUQ+Bg2UrQyp+EVf0Iyr6ZSvLgupx7h7q7+B7h5zvkzL+CTbjv81qfRH1O2dOHxkpX5H855aw6G9u/Qn/+edL/J2dD/Uf39ZluFNLCvTbDXfq2bZz14UkYLfKje9hfLaX30BRv2TuiEn5UvTvqKToT7X/zw8K53P4yP5QMudDh49vRw2g6QO09FHf69W9nUp8eN4x5/vsEr6HNrEmv+761WWs1p/FuvyRFPWBn3f+FP2p9l8eeg/O55L5J3U+dN7BvoEiF/v2MVf0Yy7OAUwd6PuY0MeVNOf7kgZ99Hm83FtOtT5FfdrSG3HwRfKPR3+a/DQ3kP2F913wh++VOnJ8e6+RgipuM6vCSEG92wd3nXohW6TkOV/le1p247PR7vwFfMLDo/6ISvlS69cxZTYv/hrf2wz0ev5Ar9a3W/b0GNlVz569X586hF6T8xW+tzv/zoTx14V4uTd7in/ENHpK/KL258Vfw/rf4H3gt0qd81UZ4LTzzju0ZfvAVMNLIdpv37KRsBN8vnQ535ccPkp9ZnxR7lGtPzKjvjT5CdDgl+z/z/0g78QfztfpPKazDu7d1mt4qd5tez8+ciqTgK/N+Qr2JAEfwz1hfOrzaLQbGEETHk3tT/Zv5fYv/n2zmf2ltHySXDmfr4SOHNxy4PW1RqZa+/qBLRw80Otzvk/le7EQ9J9ZGGY9PmV8bvxWZvyRV+s7FH9815fZP/Tzgzb8l17qkwXwzvghXANPbhvoNlLXowN7ngR3SJ/zfVrfo9pbxUt9Mn4FM/5ILfccBr/c/s1rFvx5vwAvlpq/O+dDZ7EPX0cOHd9x4PWBe9f26Jr4tfcOvH5gx+DGI6ecypZZbnK+xvcI+vH5Dg33aLLLjT+yRrt6/InsX1MbDRVT9Q/vc53pUyip9yUJ+BYd+fLbjZ9+Onh855a9e3f09fXt2Ltly86dg59+uvHFrUdOgazoXeZ8n4PvhfdR6fOgz6q9UJSV+tz4I7rck4s/bn/W+8fadjeW/Z7wPkfPl5q/3vlAjzWkU1RLCOjhfH3O17G3e/+Zt4k9D/qNu9t4j8+NP7LLPSf7z54ZbJoXbVjw828cvRDDfyb8b5YKvzvnQyroqTkf2IHe2fdw/uOU8FmlT0GfVXtB6vFHl/Et2Z9Gf1T9sdFv8R8Pwvl8gb9Nzs6H4PrkzpfRp5zzfZDG95v2iYRPLT4Ndqnamz5jVJT6Mn7e+4vqj8L/MuJ/P3zP5e4CSMn5p8D5Evp0cn4S9PC+qdjjXV5xaBkFfV7tsR5/9MFH+L+Ch3+q/nc3rnvvfjgf/NXKg5zv07CH94n955z9ighL+M086FfOuGL0BX1p9MfDf2fNvOiaxrL37gd68HdQqjkf0D3I+T7Ile9FsbeucU10Xk0nD/ojfrjnxv6i+qf0T+Uf8Zfxn4MLwC6pz89Fzvfp0cP3IuYz9rzYo4TPK/1RWO05Vv9TZlP6X1q7nPH/Cdwhn6NSyvmnZOZ8mF5je3h/k5k9jfZ4wu8YYy/ws+b/Kp7+qfwj/sVl31v4n8M/tHxJlIucD/Aa9PC+nT0Ve5TweaU/Oqs9p+qf+Aeo/Iu1LQ8tKPtD5X9cAGpltc/3uUcP/Jv2gX1oeVuMir0AsR+1lb4m/Zv4/2ZxPpYvubKQ832QEv2JfMm+f3xfvM5fvIR8L9hPnzGW8PX8Kf+vfu25IdfjMmDy6eRZn+/T6USAt+pOmunSXI/1eGA/Vuy548/rvyVUANqcjwvAhdLO+cCuRy/jZyGf7eWwuV5kyTqW78fYu0j/Fv7RhsZ187+PJwCAh3zu5brP90Fa9CS180XIr5tDc731jQ1RqvWG2I8Ve+74U/9H85/i+ZQArM6HzsUVkFsx7PyjyPmPJEL+Yprn02yndukY+zT4U/8/r3l3qLhsyfe/3cHdr5Qvl4Lp1c6/M257HvLLikO7m+fVzCoZY586f9b/L6qpYgXguvmrqQKQnS8WyZcTAbza99Tcc9uvItuzdN9WRXO91tmVY+xT50/zn7kVnU0xlgAoAFxPGUDWuZAvuwJ4tfMf+ZwiPmV7bnse8mNNnRVz2WxnjH0q/EmT+fyH5v8zgywBLAtRALjue+oBVc7P9iVw4um0IEXOf+SZDwg9RfwV3PahZc3zWLqneX6cfdEY+/T4B3gCoADAKoDVK177yRr8JZ197tlne8b99NMB3tH5m8j1Av1qlu3J9hTyKd2Psc+MPy8AKAHwALC8oVFcAHC+hF4srkywn2hdVsH3Jwr0VONfz9A3NizntqeQz9P9GPv/2jWfnTSiMIpvJu22iz6CuqLiSALaQIAY0DYi/wpDBsxggCDCnoSERVc8hIlxYWLiqivfwYVv0JDQuGh8ip7vu3e4IypGi4rmHtKkLcvf75xvxvh0/kveAcATgFVTAqibf0uAW3lM11UU+NuR6Ic/+Naj9QJ9zcK1L0ZU7Zc0+/98AIytNmkA8ApIF0AKULn6ezq9+Sof3c89+SQ/jNz9Iz/33Xyc+jP8imbymwc9Fp9e8Lj2qzH9qDebAyAH4Lsd8XsEyJYaV6PT6b1X+B/KJ8BXUQrcmcOjM7n325VS1oPejxc8WXs9+TM8ALGFRboANwRIZ4OV3+fX/dk1n7FPvfn4gc5QkEfpK8Fs+gZ6WvzFhZie/Od4AsDPAKQAeAao58xMjyYABoxO+wL/E5vP6B+++YOTM5d8i0vfy5i5Om69RB9dXtTXfvb81QVoKgF2rNCxmV/ppssHpUrrCgrM4uZPfNTYD38BvCSPS5/uruTN45Czo9A35eJr9s81ACwAnwC8BezGMQEdk45AGVegsQ0F/vQf3/ypN//n4GQMfp/Xvkxzb3ZQ+vhuoRiQgw/0uvYqzygAPQPgLSDSpglw8BRAG4DngIMSFKhenV+f9qc1X2X6zR+4hRfgUXnc+S6Rr4nStyN4wtfoXyJKAJwAegiMigkQBtQ7uXwGZwAKYAVacODyfHQ96H9+XO8RtP3oZHh2eeFyx9RXggCPsc/kc526IC9KH6XHPAy+Rv8SUQLE6DUQE+ALCwNwBUK1jkkK4BDQDFRa29v7W0loMByNrmFC/76b/6F/OADykyFBTyKgTtjBHYWnqQd4rjzWXpAP+1B6ermLafQvFvUQOL4BUT4CgXaigBFgBXJjB7LBEixokAb7W1vVavVrMnlBuaTw3/b2GDelCuRb+wS9AeqlYHbMPcfgUflCoi3IR8d7rx/zXjiGdwKkAT6pAK2AY9WlAyRBugwNDoIkAkxoNFqQYSKtFv6/wsix8YCeJuySe91y0HgJPiXJu6XX6F8jhpoAYYBQwJYK7GIGHCtEEsAC0qDX667DBLhAyXpTpqSJ+Hq31yPooE7YQ5aDwu9uJBi8LcAzeVF6jf61oiYABtAV4BGQKxCO+NsJliBOFkCDeu0YIuRMEy4gGW/yFHyTA/LjWh3QiXoc2Avg7o+EZeO58lh7dF6Xfi5iqCtAI+CugHQAQ1AkC6DBWhwibG46joWEbsZCHGdzE8jja4BO1Iv+QERydxuPyvPa687PUwzvCPAKsANCAl/KZg0C/naxmIAKyMZkCkgCxIttf4Ch2ymfwM7cqfEMXpOfzxgeBXgG2IEmJIAFpAE88KVSth3mRLwJc2w7BeRgDuigDuxNcJeFZ/C</t>
   </si>
 </sst>
 </file>

--- a/MathTest2.xlsx
+++ b/MathTest2.xlsx
@@ -5,22 +5,35 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Taylor\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Taylor\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{878FAFD2-1133-4A16-B7F3-B7656FDE6CAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2326F48-8097-4B85-BB8B-BAE2FE33A824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{437A6C5E-B59D-4A6C-9B83-9637B857EE9D}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="13056" xr2:uid="{437A6C5E-B59D-4A6C-9B83-9637B857EE9D}"/>
   </bookViews>
   <sheets>
     <sheet name="MathTest" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>passage_title</t>
   </si>
@@ -70,7 +83,31 @@
     <t>image_base64</t>
   </si>
   <si>
-    <t>iVBORw0KGgoAAAANSUhEUgAAAf0AAAH3CAMAAACGiXbcAAADAFBMVEX///+15h0AAAAiIiL+/f2SFiaUFyeYGCjIKjrFKTmPFSXGKTm/JjfCKDi4JDSzIjKWFyinHi6hHCy9JjabGSmfGyudGiq7JTWlHS22IzPDKDivITGrHy+tIDD39/f7+/v5+fntHCTKKzvs7Oz09PTx8fH9/PytITEisUyjHCyxITGpHi7j4uLn5+fu7u7V1dWkpKSsrKzy8vLX19cvLy90dHSQkJC5ubnGxsaenp59fX1YWFjd3d3Z2dnJKjrp6en29vbExMRKSkrLy8tHR0fQ0NB5eXnAwMCCgoJ+fn7k5OQNDQ2Ghobh4eDCwsKampqmpqaVlZWvr6+pqalxcHDOzc3S0tK7u7uOjo47Ozvf39+Xl5eMjIzIyMhnZ2e9vb1/f392dnY+Pj60tLS2traKiYlmZmbw8PCDg4OIiIiTkpLU1NSysrJOTk789vfZ7f/57/Dt2cMnJyf78vPD2e325ug4ODigoKDjzsP04OKioaH///ZdXV2YIjHZw8PDw9lsa2uMHi3t////7dkeHh7ekJjOS1mJLjo2NjbNjZX//+3x3N6mJjXYeILUl56iLz7Jg4ulPEnKN0bv19rosrflqK7biJHWb3rIMUC3MUCsLTuJJjP36+2zVGCDOUPkwMSzs7PhmKDCdH5RUVGAQ0vDzuPZqa6bLDn2///fs7h5V1vNQVDx0NPr0NPpuL3bf4h1X2KvN0QYGBjoyc3VZXC3XGePWV/rwMXfub3TWmbUoafjn6fNd4FzamvFVmLBTVq1Kjm7ZnDBMUDDfYWcbXPFZnFxZWdVVVXux8t+bG/RVGG3P03NXWmCYmZgYGC5SFV7TFKsRFG5oaTNanW8OUe7b3jJPkz2487Sg4vIx8vBQU9ERESPe32rS1eBT1bk9v/Ow8OORk+ZOUWnlZeJa2//9uO6q63BXWiaTFalXGSOPUfczM92BAScgYOpd33O4/bLs7W/kZapiIzZ7e3i09WUtcPBsLIAAFzDw6/DwaPDqYAAdqJXAAAAV4+PVwBAf6Voc50tAABdNElEQVR42uyY20uTYRzH3zGriZ3QDmaQMQ9g6MQ0UzwSBCHYXUFedJkXgQxkgRd2pzBWc7rlIRzDXSyGacQczhnaDCFKkA6KCIFXddFNQX9Az/PsXb/tfZ73sLaZbc/nhxdG0cXn932+v03gcDgcDofD4XA4HA4nS8jTgsDJItiOKxPhi5BlSGSXYi6KXKC5KFKKqazkW/Dfkij9j+7OckSvxWJzOucCAY/HEwjMOZ22AYvpMqY8SuefZSBrwFfg/wG8Y+tEevlAYP7JzNCLiYWN4e21Y/Ecjc3Rte3VlY2JnXG7z++x9VZUkF0ge0C2gO/AQSdePPZumXMtj09szOaXlJQcKwHlEv0Mju2ufNqx+wM2Uy9ZA7QDfAUOMCAeezcHlh+/m8wvwUPUiwNIkh9PUdysrbyye2pMprgdqOQbcKAA8ci8zTW0MJuPIOpjaE0+vQSY3fUd368yvAPl5eIrwDfgIBAf+QHX+MYk0g6TfPJBO0yUtZXEFeAb8I+gzU8vDi1s5wNIPARfa+eDfvJThMWTH+DzhtVfXWbq5Rvwb4kzPz8+DNrTn3zgLJmi1Ve+6rIyU0VsA/gC7B+gHl325Yvj7wz5FGnsfABW4OzZotUdfxfagOgbUFrKF2C/iIX+wtuhpcmC/AJku4Aoz3TyyY84iKKVnVANaYFO8gTwBcgwoN7smhgrQCDxQHo6H8QflUk+sLYe7u4gJcAXILOAesuThUkinoymztdpRaHzYeIp+mb/VYMW4DLqAL4AQGbUD8wsGQpEQL1M5+v+HtnOpylatX7HHcAXAMiE+rmhYUMBHgRkn9H5unTB6HwJx8nsOh7WdJRFF4AfgWl3j1NP1COUkq/LBOzkg37CruM7WQByA3D/6Yx9p2sBq4/pZ3a+LrPIJp8M5uxKuKcGH4GdvAHSGPu3L8YMCIXk6/YHmeQDU95QNVoA3AD8AUiNaOynZ4bF1EPnJ3zO1+0v7OQDu9ZfXbgByAPA/af05DsfGxCyydf9G5jJB9YfRh8AXgApPfmuJYOBzj2Z5MwfkedUdKLotAO5Z7Aa7kYPALoAeAH8pfvpoVkDgk6+dvUnT548chJEy+qn0LoA8nx2fI8+ANz/X9T9c/HJZ3W+Fu2HkXgYtnZIvoQz4qSwAOeOn1sPdRP//ABI0v0ifvLZyVePO6Cee/yDYOqPoVNGTj+aVV9PV4epgvtPxv38O9AeGw3qUd7JiOJh2KgkH/SrrwBTPpnNcCsqAO5fq/uLrmFDAprUg3ZtyQf97OQz0SnA0k94z/1rdn/hCXHP6HyVzMOk1PlnYBI4HRudPCA+NqJ/axvy34s/AHD/Cu77l8mZTydfPvOHkfDDovJ0dj7N6T+o+SfiyY/IZ+5f3f3MtkS7OErqpUOA3KfU+SAeRm0DEpIPTDnqu5F//v4zIH2/PGagkFd/WAS0JwDq09T5p2lk/YP6eP9W8M/1Jwa/dH7YYGQkX019qp2ffPKBwtOFOiaQfODEuRPvw23d4v3H4x/v/vmSgQVbPbDPnU9TWMheACyf1n9i80dbNfcvKXzLY4ORTr66epj0f85XTz6MjoVEvTiRvdbqDvT9Hz//xMI3j08mGXvVzpdlZNTtDkYiW943DofV4Xjj3YpEgm736EiynQ/6o8j6B/1RXntvt3Yh/50Xcr3+8xDo2DPSyWerP0TJ19L5g6PuiMPuCwVsZkEesy0Q8tkdEfdoYRLJhxVg3oDS5BOmHLU9XWWmHH/+yaP/HI49QDH22jv/w5bV53H2C8lidnp81q0PGjof/cTD8g/JB97/IOdfLj//5NF/YTSQUXEPqdfW+c/cDp+zUkiNSqfP4R5RS75qAUDygXORW+jrX/z852b8yaXv2gbxCu5BvYbOHwlaPRYhfVg81uCIYuer5h/EA1M/a1tz9vnHwR9YMEDylXKPBjpf9nM+ER+aFjKBJQQrQCVfQwFA8gH3Xuz5z7Hrj1x7M5Pt7ZLks9QfAu1Knf8sErYJmcUWjoxQnc+GkX+a129uk09/ORb/6LVnpJLPePLRqHf+YNA+JyRB24N42oQkcNqDj2Q6H6hCo6gfrr/6nhyLfx6ib8hobAfxMu5x7tU6f9BtDaiedy0tDU0CUK+Pp14AmhpaWlSPwYDVXSxRTuuvqtLk33sdffmXQ/HHwXcOE/Vk5N1D8uU+5w9G/H2CBpDjOk3269Dvggb6/OuP2J1fBaPu/xKOP7r+ciX+5NRfnmw3Sjqfco9R7HxQr84dvb5Rk/1Gvf6OoI2+EFoAJkQ9RtE/tH/OxJ98qb9khOTLu1fu/GdboVKBRW3z3Tr65U/CPv3yN99trhVYlIa8T5nqif5iMor6L5HZ3IvGP9s/+5PP+GNIPtavmHvFzj8S9MtW/T3ij7bfosl+i8y/vid7BIQixZT+GFh/cbGif6z/0uufKP4dpux+/fMQ5ol2afJZ7unOh+R/sJsFeZpZzd2YhP1G1tXQLMhjDm8yOr8YRuofck8GcT64V4uO/8ud2fv641d/cdZohM5XCL7c5/wRh01QpAm5qmXYb9Bkv4Fhvxb9nSZBEZtDbACkHbJfDND+IfmEqY+3W7M5/vgLniGjNPm0e6XO/+KvTOK+B66iP9RkH/16VQC0fw7I87sLGckH/RLis3+ezNat+u7o8Zd9+vMQ00tGI3Q+271C5w96nYKEirpqQco1vf4K60Go0GC/ghXzK3r9NUFKdV0F9QB4H1Gdrxh/SD7Wf37z5v0sPf7It3uzkuTT7hU6f9TeLzC83BCk3ABZ1OPNtq9SG9eY/wvsGNBvf0l1voJ/sfNjc/7l1+w8/n6zd3axUVRhGB5nV024sncmtNRWpr3o4nbp/tWC0C3SlbUQQcTFIGZBxb/G0DSmxiZcoIFYwYIGbGiImEAaRFOFCISoBIkJJJJiMCakVyQSbkjkgmvPmZ3tO2fO3yy77e4i74REG9LO7LPveb/vO6dLvslvRuarjc9n/vhpSX2fM3wt1EXQV0UJlAV9t4KnT3GZL+VP4cP7VBfWd2wkq//9hZ88ysCBZ8TOB3t55p/Hks+BDqt9DoJxH/TjAvpJ2Q+JSCrAi4/D927VkcuLH97P61TyJXv1v3/CP0g09Ekzm/kq37PoH70mrfIt9GJC0lCXb/pdin4BiqOQ4DV0pA7oWfx1deyDO/ihy3fp6v/mfRP+dqO3j3W+Aj4y3yn1cFJDuPSn1MMZfC3mg34M9NXjoxR+hkiD50bgfThfgN9xPvTrv7T2v1/Cn8L/moBH5kuNz/f5wxdwWEO29Ic4X6IaYLAq6eNNIt8jgEJY+GX8Px/hvU/F8/fqWk94yaIn74vwp7u5B5pZ53PwJZk//Dk71LN0Sz+ae0s57Nv4nlsbGUvHBaAT3EARP0J6f4d2j7jA4+Lww/ls+C+v+fCns12yqcNkPsdenPmPXmDZR1I52dKv59WJfXvNOYBOwXsp5G/hz6Yi7AgY/s9jh9Tun9rshH9N43fqPThfmvh85p8f4hf5pHbpx1pdHmHPV7/wJ/ivDl3knf+4ZvVvJdfkXRL+y56q6dqP3HfLt/vYzOfhC/v86ROiDrtLu/SjTiuPUEPqF/4u0dmAE1eQ+axU+FvHrvaEN9Z07UfrvS8OypwP9nzmj06ITRgIK5d+/M2uMnq/KxD3tfCH0WkymrgM56vww/kN5Gr9d9M7tVz7UfgfNxMh81XwkfnH9rQIm/uoaLzWiaXfjzZkTNNc8aTBaHnvyhz5erTrlZD+dcbCz7cVUUt4BODsGJB78UPAn9c1WvvVKn672H+GcT7Lfp7E+ddku/cxEegQln4fWv6qydFf+MJ2c0YfbTT06pTdSEx2AuAczXsd/4Lz6Z9Wco2vJrVfbZb+dLh7spnJfIXx0eePugM/ZHlf37hq7qJXIsPRX5oy3doZCfopBVLCYAoxa5X7/368DOQa/DNqmO5dvzRUi2NfCv+MyvnizB/e7V7049GYN+OjlrwC0yu8y/TSX5o1We1ca0D6+TJyyfsujEXj7uV/z4gefyH1W51ravP6DtL51Rp+2uZfamb6fDl7ZP74kNunOW+ZlxTlbSiQTfukv+g900t/+Q7Tq11LdfTTWbhc0JCiCMwlDGjopt7+cL6DP9FDO7/aavzpSY5Lcuc/LM78Y0cNKNwVoOryrvI53tCGT/V9Y4I+qkBOT7foFxG+H/WmgXP/YQOamPSAb6N/WPvbmY9r8m5PuG9RTeEnNzr4CTJf2eihzz/lqvasWMBRwmuwxL3eVHfU5OgveNG0lep9wnii16kAcquMYoVJD77gaJtrYRq4yDm/jcNPoLcW4Dc0TP5DGv9awk/hH4fzvfDnCTN/+Cgzlw0UlFNOfPxrYRouB/2+fOq/t8igeuojkyqTNHTSTnqsXKAgZnY8MeZBz+On2HER/JveqSH8dLp7nOnzpcYH/vFDrnjPBVyK6yc+elkfUOPz9JMZG/cGNgfeNYpVWHCjUC7p2vu5yeGnYtwP51ONEfxLagU/ucVP/5I6/2Fh5g+f5dZMWCekmvj4b/OF9NtNqmxfoQHI9wTrDI20k54QFi8uv86OIPMd/PVt9Qr3j11NvlQj+MkN7t+HzFc4H33+1BBfL0Ex3cTHP/3ft3noh9vfiq3I/f6mkdey6yZVt+FbmESk2duEuNp16ArrfCoB/hnVDn7q/H1y54sy/7HdQe4gHaMk8zqnIvfs/ZWL20FfpA47H6IdRrGKpAIh3RNAwT31yHwbvdz9tYTfyfxnisj8vRju+XFOscYH/e1bgoaGfiQ/7V1sFK+Qj9ULOjEJ5zv461n8RLXmflT7vjN/HH2eNDX1btfTz7xOkGvoW/maf41RoiKeysUSTP5vIvPJJXW/o/qxf6oePx3ysH2+tsvfLTlRwShnlUp/5RrLMHT0g+332u7zQ19Z1wLtrofz6wl6W1L3109WO3463v1E5vx5osw/9qMhVpZ7/UqWln5w6067/Vtb+mkgRllDrJ/GGOfz+Fsd8PSqevzObB99PgtfoOlBNMxhz+iMVWj26Qc32/DN2AKjNIUCwm6Pf9DBX5D5jsThT+HX149urWL87K4eD5/P/CMtLrukLEXXF7Nmjz6cj7FfSbJiim7PSrkWspa/4Xw5/vrCNUXwV+nUjx7mOKnPfMAfnmB3adOe4RmEnZLZox+M5OGn+owShB0qiL35NFvETowh81X485pK2EPf6tvwpb+cf7KYzN+737N5F0iIu74svj579BvXZPLjoFVGWRSZKVzSXKKlmF/6myTw5fht9MA/TfFX334/PcP3Gfp8feaPHuJ6vGhIUDhH45Yx+/QbX8/D37HYKJOseBTdHv+Y0KErwC7DD41v2BTuI/ir66wfgf91MZl/qt9rFi4hO+3AD+EcJquFf1Bc7WWhv+B5kyrzdmkF36Lr7jFxyF69OrlqxruU9V9k0RPcbvwUPt4Abbc39BD85KxfS/XQJ/C/K6bPvyA+shn3dH2ppPccJtT7Q9noL3/NpNq5LliOhaUb896Up9uLC+d+wb+93m9ocONndWdzTwc567fgiaoxP7mRbw8WkflnRUtl1jsPT0ZE5zAxlisX/ca3TKpo0ihNq3IOfSjCPhCtYkRBdrQV4J1Lin/kRi/Fv7hq8NP57j7/ff7wYekWec7SncMEsbLQx7dasdQoTQt3mKAvkoVzil4dHmOcTyXFP3aVnPQl5/yrpO+zR3z+M99d7HNB/6r6HCZmspmy0Me32lVCV4k3kZL+GygDOO2fhPNV+Gl/MLmWnPNfVSVtP+31zvjP/NFB1emoQKf8HCbU+EHGLBf93p125veWupOwLaOh34m6VqDBy4zzVe5vm9ra/eySKmn7aa/nP/NH31fvjkTDsnOY0OKVplku+su+MXm1F1/ukzJETT8cRfsHMZ1fA7xP9/d4/G3OdSvRbc98K1/4017Pf58/PaD7mM2UpT6HaQR7smbZ6AfXmGWgH9yy3dTQt1IoasUa+AXOl7qfwie6nUi+Uw19H1l7fmLO7Sszf7x/BrQBsXPQtPIcZvClPzJm6fTRopdOv3E1s350K58M4l6J/p9nMr+Vdz+cT/HfoW1/xQt/u9xnfldPlfmnWvBixAyRUoFUWHkOs9uEykA/YpZAH99TTz+cxYSXUQxTjsabrPWBH2u/o5F22vZXrPDH1s4lxvmqzD8fBHxJ+RtKW4pzmKCfefl6afTxU8pFf/vbUVXuW+mQ5CwA1oSWP53Mx+XCD+eTM0Gja+2+rzKFP0L/e/fv5ysz/whbAgUixZ7DBP1o95MrykF/Va5s9Fd0dIC+b0UCbKF7DsYX4p9R3a0tq5+tUOUH+F9wzscZPjF84E8Udw4T9HcsM8pD/9ntZaKfSS80FPT18IG/lXX/QxCcT6/bW7vJbv+bFaj8cHr7IDJf3eifVz63/hwm6KdWBw3Qr7zIHX4UDhq+6auXwD8bUPh58RP0Dn6ikRsJst9XsejHjI93/jxRwafHrz+HmdyxnjxqWeg3URmla93KJeSWfNPX5F/wInwvwl9XuOr2RipR+YF+40lkvrrcH28R1jtR614m8yXSB3vgL13F07einm1NVP5AT+U1f52j6XdJ5WfP/OaWPsY8+DQuVeZP94t6Hcx25p5+04w2V4i+lfLs96Lvl7sfzqf6bUv3nFd+2NVF5qudPwX4PP5K03+uAvQBXzz1K7i/Ne/++Qx+l+7kZ35zOPRB6B+H85UD3tEB1QtQIfpQBehr3voDV1zOn08vj/sLGlm3YW6jH+v+AWQ+Z339xg7w/y/pq9e9Q5cpeEfzyeWiz2jaHvrM2doP638n/tRtLvOPDeoKnwrQb6oofX3JO/iV43yCvoHFT50P3aZDH9r1z435Md5H5qucP7xf0/REw/9D+trnPvFrIfPpRSRx/8iHdvTPzdqPZu+M0Pn8Gb7Tul98CFdg5W+qNH39cx+en3e+Dv9ohEY/HfjPOn2E/pfIfKX19xiO0tKnnXv6TZWnL1N4W+G/9jjOL0gW/b+92ztHbR8+ouGg8N/Y4c7tX8OuXjT8gL6PREAZdK7VyXw1/pEbW8jAf5k1V2s/Och3CZmvcD5GfEla5USqhH6TR9VDPxJ1nQAK/uxCr1r71yU2OW3frNLHkE/ofC7zR/vZX8uLPKCv/8yPmKvt94f/Fm37Zn3tx85eMzJfSh+9Hj7SIF4N9Js4VQl9+yXqZPo+kFdFv732z/bID/W+8F/U9Gb+IycEb+wH9P9j78xj2yiiMD7YFgaFI6IlHH8kQOsIUIKTNnEcDGpxoQ0E2nAnCgQIbShXKYEKCg0gznKUcpVDKuISDYhLKpByCQoUUUEBIW4oRznELSQQ4j7ezs74W+/M7Nq1k6zdfINF4yZW45+/9968md1RZQ6PD4G8Gf+OPPbHhz32o97HWbrmY1au1SW15tgo0wf8UCjzxwDQj1nwm9wbXu7ywg+tOey44Y39oL/8Bjh/CzP85/Xr2enY6NLfNZj0Y2n9foeXQJ6f2anQ39Ea15yDup8Ni3DtBnK+R9JHxafgDwb9EAn4R48+4Hep8Nm8V7O8v6fe/Dt+Q7Gf93yGx/wo+dYqztedqzdwtccnfBTpA36Q6HvY4urVcD4NB35+tp8cP1Ldz3s+w1n40Q7uB2TO18R96H7PABcU+sA/WvT9Y+L9DudbUs1P8Hdc2kCxX/T72TCJn7EmnE8yn6V7t2dxk2KjJMDfW6E/ikp5zoaegfNpOMwP5xP+b61+/0EThqfww1QfzjfX+2/Wekxs8vP+sNEPEP54E+CrqnkjE/phfi7pfK4vqN8v1noZVOSpvnQ+yej8gQWeTY0AwGeBos/inm2whav3dHh/W+CXvueP6ztm01rvcEz6MdUn8Cbr4377K1gwRZBBP1D4vbVM5nzV/AReag3F/mHY5wP6Z90gnU/Sw6fxOAuoQLq06LOv4XxrOOp+4KdJ/50zDxiWST9KvoyMk71BuY+vlQVLAG3RLwX88h2cf5vD+9tuC/yEHvpWTPqLa37s5rpVcT7JfbrWHbj3bh0LkkqNfh3u6fswnE/DYX5n6N/uC5r0F7vwQ8m3ZAtf62OyF7eX9IMjYM6if2BQ8fN1kbic9sH5lhD6nfqmY/Z+xS78MNuTzicZnb90nqSfFnfXDopKi759p++0pD/vbQIvhhn/z1bhV9yOH67a87P+5lnLurG2MKk3zgIiQM6mz4KIP94bJrXBOw/B+Wb61zfcaa32wPxFbPDrGj3us3SvZA61NIVJQSn+jPRZ8Oi3hpX13pul7/c04N+Dxo+Ht9CsD+YvnvUvV5xPcp2ff31tdt2SCpNSwYj+EnHw6cfsty27Zq59Fc4HfZf7l55ndfww6yveXTp0jR7At8ej2t1KTUkWBIGwiz4LFv1kk3YX3FrufRU/vE9jTXFnfVjbMyV95Hxs4IaSXfwgahYwBZg+L5e6NIZ5BuhN+PdY2nqY1e6H+Ytj/aeNjR44f2C+LoxZ96cN2tTfRZ8FBz5N8kl9SrLkPR9430Wf+57jX0Pt/jjMP7zWh/dJan8f56m3sUDJST9QasOZ7YqWmcwP7+8x2Ep7/GD+Yi3vGOjD+Zt/zNzC1D8djMov+PRjXZjkK3rORF84n7Rd0cwP+tV66wM/qfJq86/UFphZf9Dps7hHlLxxWw/8tsj8jZb5T4L5h8/6cP7m18lZPisBBZe+RnhP39fTh/NprKFNXqfC/EW4bk9vfczzSbLFmwyngjHBKx/6yVQ4KRu+Zvxc21HZP4vMvy/MX4S5fkYVoO9wPul+xxG6zQGr8EuaPj/cq5fZuskU+zl6e6jmL36bDzmf6030KElNCRZslQ59cbBfq3fht4cQwd+OzI/MX0zrV4C+0/mZLh9OH+8NdvovFfotva5D/NcazE/g5VDMP2zWJ/Rcj+NSRKlU0Or80qOPA33RMHnJRJ+D51ra2og5f8EHLcL5yPpwPtfV2NIBzY15HpwZ60j1h0JNr584kfmrXOlH6rqtd6G9d/qMqd6HeQszXe1gv9O2OwG/dD6JzI85f8G7uDNSSj6huzUHp6NppT04c2pnuwTQ31HD/FSe9CMHpEIZ9TdUKy1Sh1Jo9xtDv9DnhZof1n8Qzt9C53x6DCzHEdPZ6k0aDs6c0BdyaLqv/cuSfs2hlgOgRVMwy+sNuyUqqeWrnd4Hfu58oR8bRMOP1vkLs/4tGutjns91JWZ7bjWqB2fi5EroZD/3lyP92mNs+NDrODEo7BJmfTcDPg3Qd+gbWuqD+Qugv2A36XxkfTifa3AeFvNdShsOzuxw/d7tflOEcqS/36Uht+bU4oAqRQnR8rlNoBf44X0oQd3+yXV8k09B1r9Ma32gJ12L0+XdSioHZxpOQnt5L+at8qNPtbCi/lNxOCHkmvXdBe+TtOYf4uv8he3wI/pTb8g4H/SR82F91KgONesOzsRJaKl9IzXT0rb5j2aeKkP6x660f/M59ZFI/RzhkW4mpXk3Y9L88D5JR/+a7g7a5GPv8CvK+o6r0eO2PuanUFOd/uDMqT3S7zgYa3ot81G50e+04TdwPJHZNv6LeN2PUKrtn1wm4JNM5l9zzml0XRft7adJXwH3Zcw4H3N94XyhgbMY1JJV+E03HJy572Kn3WfhBg2eKjP61RfZhd7ErDzw8knOPZFQVwuD5q2G8w30l846vMXa2z8VoT9/66+VxnfBd+hKtS8txBnr6Lfwr3sPct70ov8A5qmyoy9uP9LJhA7mX6ZR/8TgJPe6yWVwvgn/+vNob/8h6Phs5HSvQs36yPmwvnNNSihhOjizm3/dJz71e9mZ/zTmqbKjP+m4zoNT+/dnfu3zQpZ60PHDrE9ZMz1rNfDr6G9PHZ9ZjUcfuW8Bkz6a7mmavDznQ9dp16MtpUwHZ9baleDxEVQBMIFJZUffpcjxIUtzgUq0TrX7JW4m6BDoO/QjrfWIjs9GWv9m6Xxj4B+Yb74CUT04U4+7DR8GD5U5/b3sk7xFeseySVcj02j+aoU+8G/PH9/wdi+u7Mi/5ns34/wKwDdbH4olws36gzMR6htAHzHPrDKn38IL5I/q3Sd0x5hW7/uaf+DQjtmY9G1EzbeqQpP1kfNJlcuZQXUx08GZ9PUYfbfqbUfMygYVq2MGLXDC3wbml86nseYc6vhg0pd/zZdxfgXoZ+l55iM/+qh3Fk1inipr+hP68u14vmUI/Qj+G7pp0ocNfvnSn3+rcL458D9aDPoNOU34y5n+JLsSunQay1lr4XwaEg+cT6OTJn2nou7L0/rLhPPN1r9eVnlj9AtzPtp+PsJ7/Zwh9AsR/iG+wQ/N/vxqvifVip/nfGiFnJj2JmJjkX9jNWWRDX+W/zJ3LNEbFviXwfk0QH/7zPh84+u+SO1C4Xyz9QdrsBrZpN/GPVb1+eqQtJ/z0Ujjd/SVaz2O0G/RB375WG+t9NGNfKjfl//arvC9mf512S3JniTTaGzG563JXfba7gw/Qske0fKPYdK3jRygD+9T6KeDetHvy2+yL9CT9PArFzChFrG4l9YVAH7dnsjxm3K356jFdtUz2S/dp8Ouzt9COJ+UoY+yb/vBU9Dvy3uBJ+P9zfQV/+MMiovuPgoAM/1djuBft7GxTi+bZsNfVO+b7tWO/zrh++zQD++L0E91H6b8uQb+Rwi8zvrQHdlJia/uoQAw02edItRv0qs8XPHF2NXqle7FSl/2O7sKzie5J32Wvslzyo/Af4MI/FtWbKmjXymne1CsURQAdT70Txtb4XXCbz+lxhO+SPeNSlT9UDqfpMv82w+cgil/XtZfy9F7VPyVroV9FABpP+8f0M+fmL1J7+4g1Z/us6EZU6pUC1N1GZzvDv1C6/mUH6E/5+W9ioz3AR/oaSxgUFYB0OhH/6SXZV8THe69N7mdXXJb+0UTfc/obI4znRbC+SS393noP5T299Ed/BD6c7xkv0LIFPhvN0Yq5kefdY/t6lS3tZtDoLGT8qwA7w79GQ0mzjttv6MQ+nO+gkegB3zQr7TGCmaSP/19Fo/t6BbbWVX6eWgZ2PuH/rxaPSSvwD8wrwD6kUQoWyuPYz4qP/qzQgXTn7dah397h4byCP0I/JeLnO+q+OH9d1ge9Meu5NJt5imcPrsll9CPqj/XHn+FZ+Cnxx2F0KfnLtrUr+Lcr70I9FfpQz8XQr9o+OQc+O8SvlcDf6U9lrLC6LPqhv5N+wru7lAR6Efe9gn9VUPdHWj45Lq4K52/JQJ/Fv4XC6RPih3+un33hhjLRWVGv3Z6AfSh9/0S/+eJPBs+kdrlNno18FfK8SgraY0+/SJprWfor6LHnNZG2t6H0O8f+G+Szof1nTm/snKQlbbKhj4zhH7oS97rxzKvf+B/RDjfRb8yM+5mpa3yob/ETL+Kjw32Mi92+Pg3+qTzTYFfVPzNzY0Bu/3yJkI/1tjTnFvVXzXYae/wAX2/+Z7wPT308AfspnyM7+gpxQ9ASdMn9GGS/bbX3GYwf5Uc62mHD7+NCxK/92Ze6XzQd+R8eryDywxL8wNQuvQFelKjR8MHZV9V1dChDXxzJy7m9g78twjvO+lXOscTYvWhrSuc+QAE/t68ZUC/rpXQ2+pqE2/4wzr6cH5V1XcJupMDVnr8An/1DQK9M+0DfWXlALoz8dZ0WCjdWjofgFKkX+d8q+Po9Y8zJv4qroFj0O7LIfA/VCG9v7N8MQs7xvOmf1WQb85a6vTjJpe9lWG/wzY7gL5wPml9DnM+BP67iLvL+8j5llYYPpZdrFRUgvRZlyHALjOXfbaGaM6XjCPxe9N/rAL0td5foI1LfUE7eqnM6LeF+7S5dSGcz72PzC/0Oc35Zh6FOZ932r8V8N1FH9f1pnK0dCr/UqRvfHs/BP4dMvg5dyR+bPHwSfs3ipxvrPhLvdFXJPq768VGXEsEeo4f3s9o/PpDO2Ti95/ta9I+cj7pflbyKog+2AfjA3CT9D5J8X5uiR9pf4lkv7PW+5XR+azkVSh9gh8c/PPhfD39Db6JH2n/cjXtc+xSb7LSV1nRZ8+JnC/oK/gHc038kZr5FZbr6aGd7VMCuI6Vvgqlv3ug6N8sna83//iqg7uR+L3T/io17Vs5H7qDlb7Ky/urRM43Jv4vrcSPVr9vr2dnrfctReex0ld50T8Lztd7f6iTWv3Y3uW1xKOmfQt7WaX9wumzINFnzxF10Ffxf0eJn7Z3gb6x6HtXOF+t+HkCiJbBbL9w+tABuCInA/8ENsJaAviK+cfTGJjTffjR/mVfpGZBxvoI/FlawcpAxaI/pS8UUulPZCOsZVr6wM/7Pcfa+7o9i76HCbvW+1zRyuiNrAxUHPo1c9p18NmI60Yj/fH2+DJxHt/ch7LPe4FvZ4P3BxhXvKf1WFa6Kgr92f1APyr0k609cZvbbT7eH/Lu96DTx30P+CTkfBq3O05bTs9tLJkV/aLTn7x/aBThxxvnph2nM6/LsB+Hso/Ay7GB7/Cgm/aCvrboe0U432D96JWMqw/nxSRaSmdPT9HoTzoC3EeYfl1LAucf9Yl+jyH0E3iuwZOp7Ju2T71n2Repqb5V8T5yPg25pa8xFXaotyfoR64Xl36kdeUowU/09IYdSjWKzX0O74+T4KTzif7AwbzsQ7dPX/QtzLR6dN6PRqNnOYJPczqcESspFUZ/RlNIgT9C9PGGp5sdaXf5DprQL9BzHeixzIe0v2pLxfvI+TSWuguPRF+XfUZwSakQ+nWaC+/bRwA+Dmvp6ksk3Rd0mb3P9aVntw8lP8/5JNX7UdLtTFWMEtEmE/kntrWr8I8YsTZfgsqsGFO1DvAd3oeGjsEVPeaib4l0Pkp+Dl6OF1lZaGPpRzouVdn3TmaAP0p6RKAX3kfoF9owB4u8HiU/gddbn9CTnmJloY2kf+xilX34MDb68Hm3T+Afh9APXXGy2NYN+rqSXzgf9K2cj1Hi1+0XRH/KIk3Cn1PNgkB/7Th4f5wS+nnR3zDbs9cb4V1+Aq/xftRWWSzvbhz9arR1oUVTWCDgs+VwvtP7UJux6EfR95B0/tagH8Wgkr88lD/9w8Iq+8XU7A4IffYCoZdDoY+iH5fxa+g/TOgV78P5VPKXh/KlP7lXZX9pRyQ48Nk64XyT919D0W+k/7Rwvs77BL9cSv486U84QpPw2yYyFiD6j8jAv4OWfnRIdPpBXy35bxbGJ/jwfhS6lpWH8qFfc4om4d/jWNsIAnx2F0dvNv8GbPAw0r/FRk9DvgB8b+kJNno6/9wzmFlnnp3zq+RHf0a/yr5pBmMBo/+wyPkG+tHvqNOPKZ9+wveK9D7RR+CHHmJQEbHOJJ0dSPr7aNq6K1uz378gwGcPwvn6CT+mfEb67xJ4L+8vZ8XXezPP4FQuvNiLbYH08Sr50J80PaTqCOXgwADAZ8t5zjfQj46PDswVu7pB3z3dnygCPylD36kBVnxdQtQFm4DRV9ZxxeFZwZSn96M04acbuPA7t2HC7yr5ryb0Ou9LXc+KrqsuOIPc/8EhZ7NL7r3PfuKXC2ZeePG5Mz/4lCcF+jNPDWeffy79BT3JJf6GiSc52TOtF3gvp1f50Ub526/0jPx758+Y2rr9s1lQ9SE5X08/ysd0vrkLq3ya9V075yveH8bpPjEn93/12U+M/mdzu/Diqy6gbEAwyaicq3AtUaEnBXzrWUIqn6TvuOSDT+n5n1gOr/LH3zb8P0MHnnmGfC3nz7A6bVu3hgVW64zeJ/TE7ktM+A30b5LOJ/rwPnS3XGTuTaUSiZZj40XI+uTZnxgBgvc5K6QEcrOM2XiS/s+/VT5J38HJf0Vsc3iV338Ikf5p+Td0IF7L8TOf6tZx+6awACl+bEsikUr1yq0VSwB/Kyf9qBivmSb8aPZw8GbvXynpQ6lUc6KVQbgBdxMFylTDBOYpQm/xuOr7T+lzoHL76jOK1i7679FTZ2joc8L0H/97j1cB/b/++EFPf8YPmnXcETwyLnaix7vXmmhOZREQB3QpiR/4LQ3JCb+Bfm31Zdz5ZvorGFdTOFtdSq18cMY67Z0Tfen/ZBX8imt5Qjgjd+/zZE9f+ryKv/cP+I8+FUpbl42Yqmf1m9899d1vEmu8GefTyNCPyhH9hK/xot2jafVtrbM+JC7fTTZaMQf/ipTnZuf99/WJ/O+RV8+kh5YbfW1xowfo8+86m4mcDvrsTCra/F5F0Kec/7fI+/K17J+5t4/HBKWtOwLCafzQy/XMpRS4W/m3Mcm4Vo3Thn4Cb2uDod2D6f4Scr5C39zsiSWTCQpD6ZTuhEmoa7LPhA9ycaMPBk0HiBnF7rNtbsDLg3k2/Uuogvd9FdAXNb94Lf4zNfSBUOgvqmMjJfXIonumuOmnKdkmksmYtt2zldb7pO94uwfbelX6b/l4f2FOxw29nNdxa2dSxC+WKHsU1uef3a9dxx1Bqaf0zalluWghnI+8L5zP6aPdo6c/dd3O3vTP2siTxmZFvNw/E43eAkXJvQD6yFhKW3fkpB7VtXgflovmc/Ba71saf8VcupYvGTfQjxD9y729Pz6Pf377yfWRmqPEpPmjejYS4pP9/Onj8hxV0yexkdXRtvX79qFjSsWHsYHloogu70ehK2Szb6qe/i4T3/Win+POnmkrHXavOTnE1ciCJYW+vq17D2w3QorMdZzNG2/iX7TluLuHPK/zvtDA8Z2tYnePgf4LWvr5NXob7ErvkKxIcMQuLFBS6OPyHKh/BhtxTVrE041dalTbBWDP1Nxavdz1/OH0Puij1aunv7U3/Y9ZDjrYjlxyitQpz9oPlFz0lctzcCr+CCsyYVrD9PQ9e+HUtpy9f7nW+9CBaPVq6S/wof84y0Ft+LwiFKycxgIlB33T5TkT2KhLBM6GXBv9wK/Dtze1er3oL/Sh/07u9BdNAn1L/7N3pr9RlHEcf9xdGkVEQIuVF61JuyQk22Ohu70kSNVa2Xqj0pqqbbQWFUMgaDRoJKkcERsU7wMUGhPxwDMigme872iM0ehbE33rH+Azz/xmvzPzPM88swva2e18nzRRk6rsZ7/P73rmmVtZpOSir348Jwpz3FRbQQTRIRZKj3m8L+PrQ6NfPeA10N/HQugu++wTfXwNIwmhu1ikBPrfqh/PmX6lzu4W8AttIUvOB0TMnzPH+lHSv1G8o0NLf7eBfqgTvRckhPrr7b8jY0Xs6n7QVz+eM+06a3XJU+WDBu9/ceMlNOZR0q9/ORz95cu88u5Mq0apPXpVA2vpmkhUGv3NkZjjNo1R3ZGVUQ0t82q5Q99Gb0lJf+014ejPkeiLunEXE7o96dU65tbigYRXUSz5iP60t3VNb65OXqGo9tYlvbqdCT0a7H3Qr08pR3xvFK2v/PKcviOAPjQ0mJDFa4AoCfSlx3OioeVOOjJxWX1Y+uT803TeH+D07RGvkv5eQu/1Ptxvpk+xvjLpW3PcqOh8jJvGGsPRv8/g/W9oxKunT/g13p8MRz91gwt/j50GXB8VUwk1YJwD7Y/S1WONZ5/F0pQ15erD0efYHZVD/5BAL3v/dOuHLwN9aFmvY6fxzHnRy/o0j+dET/YuWrg6FP3nyPcm+mkN/RfI+d5fxxfgsIE+lDq3+/ZE4vbxoRQFsAEWGZ29f/rnuCG1uNtOmevD0H93DlQm/Tmy9wV8sbT0zQGsjUVEusdzoqkLMDIz0w/2/rxg+g31h8j5Su/z06GTZdDvSAhFZF+trMdzeAhtR+P0v/E+6O91nI9fp5gvVsn0MeNrj8YHHP3Hc1Zc3Na///Y1vsMSK0PHfZLW+8MB9Dl46dcp5nOFq/dT53esyZ3nJFE3fWaf7LuJTb/weI5Lv0Xr8ZwBb318K7xjzvlN3sexziDvu38dzg9FHz3KNRS47C/veASSqpWFBBTVN7HauDfQkyP1q3E6wkzf4H0T/Tc4eKX3T7dl6vTK5zma19mF30o2/aqfqAD6y9pt8y/FiBdbganXByl7fQb6LzvOx6/D+eHow2P7z8e5xM2ReD/zpRVAn9ye6D23IdW8toBTkcdEf561LPpBcf9l+ddFzHekm/GZziQXOlgktD369EWoVD4OYZ7xBXqf0zfU+7vJ+ZL3SfuYWTjOA41HJLMargD6DX3S6ClktfyAgj6cH4K+/OtAD/qlPot0b2SGJ9c6c9xvI0ufNX/m2zgvTR0DfVjfSP9+xa+78X/IzHJyPagvOo20FQVq63ZHl77vOuANl4ctlx5T05/nrBED/TsV3nfrmdATqpFidbX96ggUeyin6dsYZfqsvg1TqM1D4S/vUNFH2kf09TO+tMr7Lv0evqM6dON5hURhtPvciIT8YtVnPZ4TcfrO7Q0T6y7LlGCdrYHenzevz0B/6UfB3n+QVbwaGasA+mXpZzV9gZ7r7r6B4vUNynN9S38Opr+TVYuqkT6si8M5cH7N3X2B5/pSZy3dqqQPRSmEx/R9gvM9A/p55P1t3TjTq6b/dTD9hetZlagK6T8N5/u9T/RvvCSY/o8G79/JqkRVSB/luudwzjxHe7oNz/I0HaHfP02mv9Ba/nt7hofFvT0V9jK+Cqdv39szPOy/t4fQS97nquE/f3UbnuNr+mUOSXXLM8evuLOrAl/FWOn0fXd2DdOdXXC+54Z1R1MXGp7hbbrPAs+Xzvua+/pGWaWpkunr7uuD80FfwLfd/8f1huf3mw6r4j7wL9Te1VlpqmT6urs64XyX96E/jHd3vOB437/1L7TXPof+oLint7NC375f2fRJrZ3int5Bh/4DcL6Hfg29R/mA4d6ehnP2ipjvS/uAf+FbrEpUBfT9+hrOB3yXvunP34U7u1THO3bLT4LB+XxVQau3aum/COf76NdYq+YL3Nenod8iTnfIaR8HL1Q1rd4qpE/otd7vM93VWZ/+VfI+ud7+AlRNs6/66D8N54O+iPn2eqpPd08vRrzvKUo+Qi/0MqsOVR/9l+B82fsc/7Y+3R3dGPH+qPe+0CFWHao++q/A+W76Nc7aI0Z8uJ9f1ej/xYFfpG+Bh6rk9ftVSP/dUyDQR9o35RryaOg3Teq8T5qZ7+GtBB2E85Vx/w+0+UFfbveIu169+KGZ+g7u6OtrnfWp3XMAjV4t/TdOC976Z+7796Ouh1T0a7COotGrod/QtEKA5wJ9oK+ikq/q6D+tC/sEv2aEt/qepVZfimnaPT+R893ed+sNFiuK+vyUYO9v0Td7QP+m90TM93m/CpP+apMm5ae0r6ZmW0CzB+2eI8L5Wvq11ZL0V5sOGrw/5TrNr6W/dBKvcwR+Q9Kf6cj35Fms/0P8k+5IM1nvqOgTekt/dBdfxQn6UtJ/aI6E3+X8hbX+pL8zf+1oZR7uqkz1iLNU1+aH/Yf5HfKLvPBp1bx6Icp9Pf37Cb12638axwuyud5kUSzW/yF84L25LA7XbFKHfQFeKCfK/asuCqbf8pGWfq1Y1Onv6km6NDgW7/z/j/Jjg0mXerqoy38KvL/I730Of8tI/xr+PjbrZA8KPvl0T8t7Qd6vra3dxYTGcK403xGlC26rXzzNwnnqMSb06CnA70n6SNsCCz6UfEcc+Gd46dfSeoa8Lzaf/mzFnuyrcLVm+0XY7XInfYuU3re0R6T8KPjKSPprLe20f7l1rKuTxZpedXaNtdrgPpI2fi4bPKX89nwXBZ+a/iFyPl8u+rVYu1msqGk3oRcL8LH1vyoe48J8V5f2ZXRJfy3peRYranoEzndt/C7lMOELpN/4q3A+/wF9OJ/T38diRU0PcPBK75OeQsoP+sqk/0dl2ldb1A8sVtS0Fc5fpPL+HlfKD/qqY72TIuYj7nPB+ZZuY7GipY0Oel3S9z11+ZHy69K+vcW0D+avdWsvixUtve1yvjLsv+p0+ZHyawL/CoFeLJ/3SbtYrGjpUXh/0UnqpE88vY0uvz7te5+cD+9bzOPAH11thfOV3t820i8d69KlfUfOgPddWT+0kcWKktYL9Nj4JfpTdtLXugrHurRp32Fyvtb8L7BYUdLDcL467B8wJn1I+/4h53Mp0r644o+cHijGfL4k+rNqao7yTp8h6UPg/4lzD/L+a0ytdCTewVC10n68D8H5yqRvi+j0IekLpv+JcL6W/oLa+5msDJ/4R+qFm1Wn/uS1XRkm635yvtb7e/hp7uBOH9K++pZJQT4A/2EZfW9l3t5USRoUQ3X5C/Cuy/nKpO8PcZ43uNOHc71/nxZAfwFff0roSfG0/79Ta1JI/gK8STFfLC/8WeLnqDXe1Ty8Ld/VvOJXg/fr0OxtzfdK/1danXNB32ghkdjQc02mam78PT5Kbw54TT1cho8aPrvtpKLzT4L3PWHfPtGJ8W5w4P8R9B3B+daimi8zPpokjWUz4V46gLcOxMKnnk+AfoAy2bEkaXQ8Q/UeYr688XPnz9pDvR6Md4P7PYfVgR/4P2FC2SL6NDOqabX3BagReTNvJLRyAvQNShe/AFkm9Bg537fxA/8BGvCh1xPc7/lHQ3+Bs3Y22P8nZvRwfi7h1fY4SXC9xwj0Q38B7I998UcCvM/7Tsy3FsI+ej36tC8w8C9YsMD6oTlfLgf0BnUUAD5Kr2iMgBrWJsLSxxcgl6P5HmI+/1Fs/E/lri+GfSR9QYH/iCrwL8Aqvd3XZL8DrbCmMdVwVY/911ezWJYumAD9Mhp98L4FH96nNSXO9SDsmwP/88qtn9BbepKVqOXbBfA28Z9vsd85NsBicTX3Jsqnn3qoGPNl63P4s2bxJv/NbTcg7JsDf4Yq/rlnzD2BJMBjvVFqXmO/m7eFwoDzh40lXr5ZPv3POXbZ+7Nc3l8tDnMj7JsC/1lLV7x3BuHH1k8xn/RxGfTxx1vWHtN3dHnhWOgfRMyH9U+A82dtK57sQLVvCvyT5HwXfq/3nyyxXdNZiOkHhMTBMukvfsjtfdC30Nv4vx/h9/NaTX5j2Eer/x9n45/r3fqhQ6wkXTTo3vlvTVhaw2LZ7yzef3mZ9F9BzHd5n5wvdNSa7d8wvKwZTX5jzdf8vvA9vI/ITwHgkxK/pN2U9aG+3XALm/FKtVl74sS5K8uk/5gc9bmKMd/a+OXZvnnr3yGcL4St36269SUOKbbbFV8LazjffkH/2mi9pHVa1CpC4CWpMulvPEnEfJJ347dl1Xt4cD8k/Za/LfiKrR9F3/OlVrUbovpe9ulTejO1vcqk/wic76JPvhf6tG/AavPiprYwgT/d/CsHbwtbv0faazt1456hzQmosCZO+Wi4097KDPS1A7QvBXaSZ+MnPcU3ftR7oG8I/I275iq2fk/Rd6d6L8sls0ytRsx5Xs/HzhfDHZELGehnkzn1TGQTnI/hLrwvNn5xqAv1Xsit/9DcouB9j3aouvk91vRZ3dW41LP1b79uxo/4m9dRBDTQt8b6PR1M1n1wvnfjL+pVPt+zr+hE2A+x9d/U/BPoq4u+1+TRA437Myr4N/rGPIW2GY6/YS1GnUH0MzTQlwdqL8L56o1/S443+sRZ7ptCbfyY8x0xmn+v938y325f5NOvDFOXFgTykVV8ymMnABMzfMJ/3evWB3IpM9FnmRx9svmMt8vLsUPY+KGpEbvRh3ovbM2n2vq9Rd+f3nAvNJhPq3e536jKQ4sjsW4Fm8FaNZrgytXr6UPpPN3U5UkA3nScL2f82Pj53cxyo8/c7lNu/R4t2eQK90K9WaZRNmFpdBU6vVy3spkr+7TL4BALpA9l6VAfEoA7T9JaHxn/WvEQDxp9obf+Xcatfxd9M+mLOdbJdDrLTvfHU56/7VvMZqzIAJLOa9SOSsYoAaDd9VHhfPPGfx02/hK2/r/nmsy/8zYkpe25DNOrxZ5htzHSwIwf8ZZEHwkASqrbHvd4H/Cho6Vv/Nj63w+iv8Ra1O/LItxr1Hiel36b8yedsSqVPhKALPp8quEu4G8TGT82/tD0xdY/Gbz1c/xfMVsI9yHp99sn+5ayGavS6fs+6xeN1v/eavU4Gz/oh9z6z/5AbX54P8wRH+z8CPTnXGu3+uvZjFXZ9FHuLVLmfNBq3uopeeNHw+cTpfmBf8mSD1kIIc3bfrbzR5/xA/5jpf+YMePfI3r8ulaPeet/XpP3LSmuuk3aDCUtV3yirYl6//VhFiuw4ktrM+lNFPOFTlZt/LMP2MPd84ew8Ze09V/0hG7r577n8Ll26bKTZE7u9nBtXp5KLadh37fxpMdAP5fUZdMHjdbfkuOneuzhbkkbP8a86m4vvL+kbud6ZWbSjgd60en1aWIlixVIv9WqpJUZ9XqQ584/GfChKevhTf1w13y0Vy75gd/RL4q2RI/dlfLPNOIpT4n06XNUNNEeNVhfnOvgT3GIhzfVz/CYx7yr/rTRn8lXkb7L+Xzt3Ci1JJKkrBf/ZQUP/Dvig10G+tkkSWqkrX8cMZ8vif7sWbN5sW8f51yFjb/ErV/kfYT/BC9+Ul3dDl/AF/MotCSh1JX7Ab/3ytj5Bvrp0aSj9rxvsG+2/gFe7NOl7Nj4S8z7Mj8J9PA+F5wvlsf8HaNJl/L+f2Xmmp4NPOCvW9MaszfSzyddGu1g0MbHEfP5An14/6nVfQOmYt9c8u8oev9M4HdkwXebv1UEKqg9fmFP+cq0Jz3qaVVa3wMf+L83FPvhSv7lT3DwYoE+nC/Wk2T+dC7pV47FKldj8qeZduY7iPly1J9trS1H+6Riv5y8b58DH+ZHzLc1iS+rX/G7e8pVZ1JSO9F/zu38k1Hueft8a8vP+VDy3zPXgQ/zu5xvicyPQAX1sljlqTcpKY+oL8BLUR/e/9Qa8IicD8V+WXnfezZ6N37EfFu/4EY5v7IsVjnKJiUNyrX+yV7ro9xbLR7iKDvnQ953mJzvNj+8L7RzE2X88v9xvPWXp07ZSR3U4T/R7Xyv9WfTEuXeFVcj5yuHvuj3Df3E4Uvmr/NoH7Plz/m7WKxy1eXP+THcczlfWe5tWd1nPbZNfT7QL3nrP6dl1Y4ifJjf9j20G41pqD++lulYlO7HR4mxyW4bvBz14X2Ue/y2Fmz8ZRd9svnrvHqrOJTCdzW+ka18yf2Tfvpn78D5luRyb/Zsbn1TuRe+6MvsUpjf9j60l76v7U7A72Cxjl0dg75q72043wd/trO49c3lXviiT2X+Op++SlG0sv9f4xeyHy/R3KSLgGz1OF9V7nHr82MdUrlXdtEnmV/GP7/ueVfVl4sD/vFTJueq9h5xxXwvfHh/KtdNxzpQ7h2L+Zc9YcbvtHw6kz1xlXd81dnj9Ew3PuR2vqrc49Y/6kz3cKyj/LzPOuH1MaE/9cxTVfTnW+sIsxUH/OMtfKYHEfM98Iu+55oSJ7qo04Oc7xg6Prd8oMYPzZ8//2V97TIe5/9h1TquD5sveZ0vl3uw/tVXSp2ecos+Mv+pYkn059P6LqX7A/Ume+NMwCAc6ejVWWXxVsR8rhMBH94n6z+7Uur0lN/xaf77A8LPpcIvNKlvWsUvbPqXvTOPjaKK4/hsW40GFe+TwwQXoi5s13aPWpraVmylXLaU0iJWy1Gh2DQ2SEo0wcSCRvBArnriEY1aObRqFAXEM2pEQY3xSIwmHn9o1D/82997+7bfmXlv9s3uzq7b4/uyMYoK3c98f9d7M+NSdUlGpE8qnI92jwTrsyEvJj0Zm/8p4Xxr6Ifzz6DP5kdVF/MNfK9v7JyHOwX43t4NqlC5dhd8T86Xsj4Tt/5qYX1MejwwP3e+yvxnJPS+ol5tLxxzforuJ7Ur+qZBOB/wUe+brN/olfWR+Qm+HPrPwGJ6woCw5V861gKmolgpNvNN2mPJ+XLWz4L1Yf5gv3C+hN+k/V3WMFbOB/5jFV9q8se/Nmuy7PoazreXfMj6C721Psx/jxT6SXA+fUgPWLpUfhGP7fKmrjIeMi2Tk71DvofzkfWFPkfB74X1sdczveITlfnPsOkVU5PPd3vGOv10FOS7O6bW/yM4397qA/4jC6WC3zPzvzleiZ8taH8PmvyxiX9awgFptP49Wy05H/AtgX9ffMLvofWR+SseU9A/w67j0h2IGaquQKV8ugO04u707sGHtHfC7oTz7SUftInt67Mxn1fWx7iXzP/XBSr89uD/fKLcZ03+qKAfq/eWPlr/ROG/zZTzbfAZflh/FZ/ww/qemb9jesU7Mn3Z/Q8/igfMjA76jQWe0ofKxF8f3Yo+H/U+kxn+43Saj470sM29Dljfo8xP+/w/HnYT+w8aQqOF/pzs0IfeMOd8acqX0Nvha1csWbA8FlRv7mW8zz/zXb35SW+OLvqTNmSZ/gFrzof1LVn/GXaQdx2d5tPs66e9zx8IfuIG/+ZeI4kiwbTo5++LPWZUZ0o/GEn2q727kPPZkuGj22uMLi3x2Pq4nX/mv+PdxP6jkw1HhQtLgxnTX5lH8I2S0gzpB0uT3e7atXEcRM631PvQPjbjpTP8s3Caz0v6/J5Od4Xf5U8lbWPLM3qHVd69vrsq09fKlicdjOy05Hznku+muvighx/kBX1Pu76aw67wP+sAnz/RN5jpu0zy6/BYMaffaKQueL/Q8fzLdmvON8M36c4PWLcnBj2wvnf0xcjn7wT7y8ZfpqJ/Of9Me8hz+HiXyTX59cQfnpperjGygv+hXcj5HD/gm/W56PbEoAf0vTV/IHhUa/7Lae3v0fyQ6b/LpKXVyCfFnzrbMtdIXXpbdL9o7vNV1kfJRw9k5t1eFqyPru8veF+F/3KxfvUSPuI+qdjIK8UfQP1hh5EF/EVvIOej3ncs+eRuz+uub3bJV+MR/EHfip90j2puHfZn/u7CPNs4ipf8CytWfFdfcGv5An+6uzrY04X6rDnfKe4/Iwb8NXTvltTteRr7K1tn9RN2Qo/Mz4ScH8c/4fLX5ccRhDN/V3l9s5Ffipf8L9dn+prJsPywi4+Q8/lyKvkWDpV8eDyb5yoSG/3HhkL/ZTb8cD7p4V77Ea+IkYkqb8nL93msL7Dpw9lGWorYz8L0bjXV+1LSh14I05RPlHxSt+d94fcq970NP0cP59P6pFu6sDPrrPLR+kU3Fth1y3QjDSE8ouJDzudLDf/xxJSPl3xy3Pd64lfTL5wP+ib8QoT/UKI1i2GzPwPr52PWNy5ZWSApPCmDLf1YYsb3sS3nO8X9DfxMx27NlM+rwo8mfscE/ItomfDD+WK9j2PKabX58hP+8+4pUJXfSfDTD1DBUmTHQWufD+fb4z5v9UNtNRWaks+ziV/nVwRf6CIzfjh/wgT2uWcIfzBTj30mXuiXZxJT/vJ5VxhFU8rEq4YXTkoXfx3KffT5cL5D3Ocbu95P+WT6/JzHzKb944m7WDb88D7hf17z07p+vkvNywWkK/PuDX5TiueUt9+6THzpwbsLXM1+gtWan3ubPec7zXl43I+3+h2aKZ9nTX/Fv9z8DP5FJvObcr7QtFc0kc5lRii6Pi9rPkkhHD/I5Of+6CTkfKX1Mefhcb9ZE/e9jv3vct/L+CdgcaHvswhP+Ym4nKh5G/iLgiuuri+ob79ykbff19yWAhfzyAiexANJvZ6j86FneL1Pcb9TE/c9jv2zjia8b8WPnC+0f23S8WbY5Uyl3stXtxY14UTG7QHDO+HFg8kVTjr0Xvv1OCGN8x+Jz3nWzMt+3If5eez/67BwPqMPwflCaPtThw8txjZq5pq8ur4AainJ5FhXbNn14atL1+vp6/Gj0ZdyvtO+Ls33I7mo90FfxP7g3xy9Hf8QeOhoj+YL0OsKPuK/dZY38FdlOp2BOj5EkW9qATCwTz3u9WxEzof1HfZ169icR1fvZyX2v+qEn5ZFh7oygY8vtXqGAWV0PgjK8MDA1GsKhq5LHPUoLTHSw48pD/r8pM3eCprzZCPu62c+Sz+5SI1f0sHJysKnBfA1isYddnF2zuHd2mmkrTWW+LHobs0LhrUlb9cb6PMdnY9mb/U6mu/nJO6Dvpj3U+p3gX8irfeL5Jl2KuO/xd69uXXqlQJ58SVFs8MFmf2P8ZrJq2svNmYkpj3Frk/0hOx/ukF7zpfhI+nfTPu6bL6fo7iP2E/z/tZFf5vpQ5L3J048nj58vMY3anigmXF73lXLi7YwvJqeiiIFkp6uNNLEX7RTzvlOE14x5Kta1Erz/VzFfcR+Sv1fgf40Nf6J8TXtLennjqZaW71c4+E8Zn4ROsmMzmVVPl0A4cJSS+eBLeMk5zt3+tdSs8eHfDmL+2j72K1dFUuPOuKHJnK9pYl5mq0UqZbKpEzD28BnX/3dhlUNsbQPDWC6q3/JqB7/XvT5mqS/aaFI+tTsZeson77tq90v0NOaKNOfmFik40XY8XN4pEfgZn+SQu27Sk/uvPH8fpCmFovzQyoQ/psDTkO/OoR9Kec7Jv23edKnTX3R7OWSPtq+RccuGsI/zeR+i/OF3p8K/GGHVxG1B53pXz3Fu4p/juGhKm+qx+iwVRkf2h1eUBVG2T8VOd/B+dA+3unzpD/dn71mT5/63004X3I/fE+aRp9fhxq/mOPDyurUZ+c8ox+rx9TQQ/7z4y8ZvS5QlNpPhm+ia1Dq8x3hfy46/f8j6SP2s4lvzatx/Fw+CM6HDnYlBZOLV7hFE5twU+bTNs+tn0WzfU4Qsx0CDen7fOeK73Ge9Ncj6eecPrr+pV8I75O/zfjNOX+aWId6ko0/UAJlT8ViNhcir3Ld3ZyLry5YmnxXr+djZc5XV3xszBOhbV3e6ecePlI/6/pr9wvnS+6faBXhP9qd9GbGkJFVYRQbRqauXzHZyL7Kkt6+2r1RnfPVMz5R8cU6WyuznvT1qf/fh5n3hb99EHI+3P9Jb5KvZ6WRNYG+rFW5wL8SjY6k3hfHaZ2PGR9VfDTmWVaV/aSvT/008G86RqYntNMk/EPCRdD/kjo0aub+2aT/cpuRfflb8Awumwa2qvt8dbnPKr4lNOZh4/3sJ3196q+o+ZuDl92PnI81fo/yufT2siiGLJAl+tCHM4xsKBSzF7Xtqut7zy5XOR8D3lXX8Yrv/0v6SP288qv5irs/viYq3Z/4Vfr37lP0vdKGV0thNb487+nX3xQoKpq+qj7+N1WG94rR9EIa7SjmHE+Oc5PzMeBlMz52zx6D/38lfaR+qvzmdsZenah2P3K+ab2lGnmWy4+qDQcMr9WIcaxpr3+x4bUC/L0EZfq6dov93L4SPno9Xu5Hl3bOpYovN0lfX/ktqvpCoCVJ7kfhJ+oDW+MfYP0QSOO1jqURr0uBKrENNwOHhkgbJhmeyh8Rf36/8seEeqjN1/X50Kahcn9Rjio+feqPF/5t+x3db1/UIRxda3/ZfFTKBFztHqZ/THpxPrQOW7zeKdSOF6iaFbXPs9ZuHOcu56PXowFvotzPXdLXF/7/Mvwk2f0AL0T4+1+xRvk6qQPIzgt9Z7dz3HWoA6Qhsnevz0WVr97f+mirq5yP8xy816OjXLzc///hDxX+hP8XuJ/k7P74nsBFptovghN+yJBQGL/o0YNWcCP4HA+3/PAcBqjcPvGNSPWe5HznRv/G60WvN+WKvICPwr+k5peHibra/cj5BJ8t0vs9sEtQipBmeVn8LcG5S1wMODGYsQKFJiGjyT9oz6CAjz5fC38F6/Xyody3Vn6TqPAPEn4UfhPU7r+ILYH/k3sNtVoKLYoYHqrm5bj545m+9q4CpiWGd4oUWtRuqHUvndo/OSXn38Th817Pnzfw0fcFlx5zcr8559MSOvy89vvzcgSIm4FJ1TiG6dWNAmhX9Nfutl3jUsv5fMqzjm3t5EOvZ6bP+76O6a2dJvwTVO4n8ML5Qm9NNiA0RpD3Wz+1ZH4IN2N4plAh5HDD3uS95Ht9nw/4+xj81Qw+be10UK+XN9Y39X2LYhb8E6z44Xzo0FrF3M+5bvKgAph8cwHklfUDTjUr5nvWRo/kss8H/LIQ29fLj15PKvyBn6MX+CHmehl//zbpkIdVMUtJVZ15JJiyUj6GmZlC1YUB7U8Abds6TpHzfUnhX8vg8ylPnvR6OvwkK36At+h4j6F3DsJCIHP8G6RjmBmX+WFN9IJ66PCmlPOHNXwb/rjv2Uflfosuo/XlR87dXmnAVlCFjcw1qfhW6RhmJgoju6Nycej6Xv+a+z5F58/Ja/hm/FUcP0nlfoXoOQDfdJniZouiYkYzEPRm6BPdUMqOYS5u9eKLDCr+oFBLDL/QtdfyXj03zv8gAb8qf+Gb8M+q+mW/S/yXJda3DxlQGazTYp8DlBv5qHL09TjKQbK/T32AnsHnPuej1ct7+Hb8TMAP2Z1P6JnG901VTUuj9lYqv57Nb05XIeW0ss6UEab2nQTnS8/kUW/sDBf4luC/7EEX+C/Douf/HR2QdkpsTq9GLICCRu4VVE0nq63RQN6hGthIrpf7/KTw3yb4+V3wKUu/ZV+4cT9hh8a/1WN2j3QOLgaDmevtdtz+lRP5b24vDKgmPDHpnGLUgHpowAPno89PCn8Dn+2vGxbwLfiX/5BAfzlbVvyy8/my9v6R0rD9VGypX3UUOMf0sUtr7UZWWvuA0ojU46tyvoo9DnMMJ/gW/FHCLyTwQwj9cD7XwV6zry1YA8qZeTW+9VypHFEeitgnEX6/AfW+Qb5X5XyfHv76UPMwgW/Gv7T59yHnS/hVzh/PPod3TDYg7aQnACPmTGXqP4jzKKKrbxd8b3G+Ej7O8NFhDrart3S4wAd+2vJp/jNhfSYrfnvOh740hX/NpAckciOADmknPtC2F08Wzof0zv+cw19S3MA2doYLfCv+fzYnnE86w8qf+Z6DFwv8D+GGD92kZyVFYfnfLI94t1tfXhjRZhtMfGR9tJHAK3O+Lxn8Fwj+zQx+27CCb8IfrGn7+WGBXmF/yfnQ+0j/0qRHW4GtxL/pSZJfqak05YkP1DtI7NU5X80e090r5yyeX7ymrSY4dzjBH8LPTvvUHtufcD5bVvy2nG/WBd90J2+p8E8DiuvEQ++DqSb0R+V/2r2Xg5dzvhN8zHg4/AW7awl+5bCCn8DfUTm3pKa24QtCL/CTfBbB+ZL67+uy7aK2GJrADzZRu1tLy8vdGL28tEzBNOCu0Wix7T53PblL+F7u833Ji32a8cyJzG9cVttUMreyY3jBTxz38FcGKprmLf+doRfLzh/el/XlASt/vy7wg5dfdrCJfustZrVaqEYUv0XUXej3W9kf+JqoO+R8n6bYp05vdVnj8nlNFYFKf74d5nCNn+7wnFUV/TPufSbZ/qCt4P+khb+7wB9RzIPDFvolhWaVWFJ32CGP6EO/zfdbCbxDzndkj2Kfz3iqZlXQAc6rhh18cdbvKnbOf1Ys+s9m4Xw1fnhfUn8fpr/qwK+p04BVQx8Xia6G1M+Yeoj9hRbnM7mq9e+kYv9KKvbXN0Rjs2bSuf2r8uoMX0r4JxF+Nvc59iDHnrr9L5D5qwM/hH9ooR/R0EeCkEJJqbL99Duy74PvpT4/GXvUe9Tp8RkPndsflvCH8LPGv6at4Xdyvlv8QM9X/45u58AfVPXdMacrQk+/0LAppvxNnEN/dx9qPUXOTw7/cRrusnpvAev0qM0ftvAJP+li1vizzm/Zn5vTsT/BJx1+6yGHwN+ivCRU8SDmgn5M9d8qQbc4zHUHtoC9Iuf7nOBjxFNH9R4V+zUlos0fpvDR+MdL/5/vV+CHnL3PdXB7l2q4Wqd6NF61ZFU9fWefVyt/FxX9ru0fX8jyvWPO10d9Svms3mPF/vDr9JKW/qEfXOMHfKh/R6+U+EMBVUEWVkVvvwv6flXWCKtKy0BISvu9O5DulX2+Txf1h1J+jBX7w7DTU+K/Kl77ta15b7OWP9CLZdJpn+5RfRn6QB1FRFfRh9Dc21KJTlP3DJLjaTnmfJ9VJ6gavRtX8ZRP9R4V+8Ox03Ou/VjyV0d/yO59SV/ukO781BVpqNv19EvRG8hpw1n37vga2GXnw/fOUZ8G+2w/l6X84V7vSfj51L+iiaL/7wnw5/PP+U744XzoNL4OHejWbL4bEDo5DX10hpoWUlL3Acr2fDnnfEf2qPV51F9PI56mCjbZHxnwGX5e+/HkH2teQ5Mfvf1l9LgASMf3TDYg/XCmPAX65S7GR9BkivhAbpXe+JjwJKI+HeNhKX94F/vq5D99ZidF/wU/JNwvlsT/Aifni0X8+3fuUQ+Bg2UrQyp+EVf0Iyr6ZSvLgupx7h7q7+B7h5zvkzL+CTbjv81qfRH1O2dOHxkpX5H855aw6G9u/Qn/+edL/J2dD/Uf39ZluFNLCvTbDXfq2bZz14UkYLfKje9hfLaX30BRv2TuiEn5UvTvqKToT7X/zw8K53P4yP5QMudDh49vRw2g6QO09FHf69W9nUp8eN4x5/vsEr6HNrEmv+761WWs1p/FuvyRFPWBn3f+FP2p9l8eeg/O55L5J3U+dN7BvoEiF/v2MVf0Yy7OAUwd6PuY0MeVNOf7kgZ99Hm83FtOtT5FfdrSG3HwRfKPR3+a/DQ3kP2F913wh++VOnJ8e6+RgipuM6vCSEG92wd3nXohW6TkOV/le1p247PR7vwFfMLDo/6ISvlS69cxZTYv/hrf2wz0ev5Ar9a3W/b0GNlVz569X586hF6T8xW+tzv/zoTx14V4uTd7in/ENHpK/KL258Vfw/rf4H3gt0qd81UZ4LTzzju0ZfvAVMNLIdpv37KRsBN8vnQ535ccPkp9ZnxR7lGtPzKjvjT5CdDgl+z/z/0g78QfztfpPKazDu7d1mt4qd5tez8+ciqTgK/N+Qr2JAEfwz1hfOrzaLQbGEETHk3tT/Zv5fYv/n2zmf2ltHySXDmfr4SOHNxy4PW1RqZa+/qBLRw80Otzvk/le7EQ9J9ZGGY9PmV8bvxWZvyRV+s7FH9815fZP/Tzgzb8l17qkwXwzvghXANPbhvoNlLXowN7ngR3SJ/zfVrfo9pbxUt9Mn4FM/5ILfccBr/c/s1rFvx5vwAvlpq/O+dDZ7EPX0cOHd9x4PWBe9f26Jr4tfcOvH5gx+DGI6ecypZZbnK+xvcI+vH5Dg33aLLLjT+yRrt6/InsX1MbDRVT9Q/vc53pUyip9yUJ+BYd+fLbjZ9+Onh855a9e3f09fXt2Ltly86dg59+uvHFrUdOgazoXeZ8n4PvhfdR6fOgz6q9UJSV+tz4I7rck4s/bn/W+8fadjeW/Z7wPkfPl5q/3vlAjzWkU1RLCOjhfH3O17G3e/+Zt4k9D/qNu9t4j8+NP7LLPSf7z54ZbJoXbVjw828cvRDDfyb8b5YKvzvnQyroqTkf2IHe2fdw/uOU8FmlT0GfVXtB6vFHl/Et2Z9Gf1T9sdFv8R8Pwvl8gb9Nzs6H4PrkzpfRp5zzfZDG95v2iYRPLT4Ndqnamz5jVJT6Mn7e+4vqj8L/MuJ/P3zP5e4CSMn5p8D5Evp0cn4S9PC+qdjjXV5xaBkFfV7tsR5/9MFH+L+Ch3+q/nc3rnvvfjgf/NXKg5zv07CH94n955z9ighL+M086FfOuGL0BX1p9MfDf2fNvOiaxrL37gd68HdQqjkf0D3I+T7Ile9FsbeucU10Xk0nD/ojfrjnxv6i+qf0T+Uf8Zfxn4MLwC6pz89Fzvfp0cP3IuYz9rzYo4TPK/1RWO05Vv9TZlP6X1q7nPH/Cdwhn6NSyvmnZOZ8mF5je3h/k5k9jfZ4wu8YYy/ws+b/Kp7+qfwj/sVl31v4n8M/tHxJlIucD/Aa9PC+nT0Ve5TweaU/Oqs9p+qf+Aeo/Iu1LQ8tKPtD5X9cAGpltc/3uUcP/Jv2gX1oeVuMir0AsR+1lb4m/Zv4/2ZxPpYvubKQ832QEv2JfMm+f3xfvM5fvIR8L9hPnzGW8PX8Kf+vfu25IdfjMmDy6eRZn+/T6USAt+pOmunSXI/1eGA/Vuy548/rvyVUANqcjwvAhdLO+cCuRy/jZyGf7eWwuV5kyTqW78fYu0j/Fv7RhsZ187+PJwCAh3zu5brP90Fa9CS180XIr5tDc731jQ1RqvWG2I8Ve+74U/9H85/i+ZQArM6HzsUVkFsx7PyjyPmPJEL+Yprn02yndukY+zT4U/8/r3l3qLhsyfe/3cHdr5Qvl4Lp1c6/M257HvLLikO7m+fVzCoZY586f9b/L6qpYgXguvmrqQKQnS8WyZcTAbza99Tcc9uvItuzdN9WRXO91tmVY+xT50/zn7kVnU0xlgAoAFxPGUDWuZAvuwJ4tfMf+ZwiPmV7bnse8mNNnRVz2WxnjH0q/EmT+fyH5v8zgywBLAtRALjue+oBVc7P9iVw4um0IEXOf+SZDwg9RfwV3PahZc3zWLqneX6cfdEY+/T4B3gCoADAKoDVK177yRr8JZ197tlne8b99NMB3tH5m8j1Av1qlu3J9hTyKd2Psc+MPy8AKAHwALC8oVFcAHC+hF4srkywn2hdVsH3Jwr0VONfz9A3NizntqeQz9P9GPv/2jWfnTSiMIpvJu22iz6CuqLiSALaQIAY0DYi/wpDBsxggCDCnoSERVc8hIlxYWLiqivfwYVv0JDQuGh8ip7vu3e4IypGi4rmHtKkLcvf75xvxvh0/kveAcATgFVTAqibf0uAW3lM11UU+NuR6Ic/+Naj9QJ9zcK1L0ZU7Zc0+/98AIytNmkA8ApIF0AKULn6ezq9+Sof3c89+SQ/jNz9Iz/33Xyc+jP8imbymwc9Fp9e8Lj2qzH9qDebAyAH4Lsd8XsEyJYaV6PT6b1X+B/KJ8BXUQrcmcOjM7n325VS1oPejxc8WXs9+TM8ALGFRboANwRIZ4OV3+fX/dk1n7FPvfn4gc5QkEfpK8Fs+gZ6WvzFhZie/Od4AsDPAKQAeAao58xMjyYABoxO+wL/E5vP6B+++YOTM5d8i0vfy5i5Om69RB9dXtTXfvb81QVoKgF2rNCxmV/ppssHpUrrCgrM4uZPfNTYD38BvCSPS5/uruTN45Czo9A35eJr9s81ACwAnwC8BezGMQEdk45AGVegsQ0F/vQf3/ypN//n4GQMfp/Xvkxzb3ZQ+vhuoRiQgw/0uvYqzygAPQPgLSDSpglw8BRAG4DngIMSFKhenV+f9qc1X2X6zR+4hRfgUXnc+S6Rr4nStyN4wtfoXyJKAJwAegiMigkQBtQ7uXwGZwAKYAVacODyfHQ96H9+XO8RtP3oZHh2eeFyx9RXggCPsc/kc526IC9KH6XHPAy+Rv8SUQLE6DUQE+ALCwNwBUK1jkkK4BDQDFRa29v7W0loMByNrmFC/76b/6F/OADykyFBTyKgTtjBHYWnqQd4rjzWXpAP+1B6ermLafQvFvUQOL4BUT4CgXaigBFgBXJjB7LBEixokAb7W1vVavVrMnlBuaTw3/b2GDelCuRb+wS9AeqlYHbMPcfgUflCoi3IR8d7rx/zXjiGdwKkAT6pAK2AY9WlAyRBugwNDoIkAkxoNFqQYSKtFv6/wsix8YCeJuySe91y0HgJPiXJu6XX6F8jhpoAYYBQwJYK7GIGHCtEEsAC0qDX667DBLhAyXpTpqSJ+Hq31yPooE7YQ5aDwu9uJBi8LcAzeVF6jf61oiYABtAV4BGQKxCO+NsJliBOFkCDeu0YIuRMEy4gGW/yFHyTA/LjWh3QiXoc2Avg7o+EZeO58lh7dF6Xfi5iqCtAI+CugHQAQ1AkC6DBWhwibG46joWEbsZCHGdzE8jja4BO1Iv+QERydxuPyvPa687PUwzvCPAKsANCAl/KZg0C/naxmIAKyMZkCkgCxIttf4Ch2ymfwM7cqfEMXpOfzxgeBXgG2IEmJIAFpAE88KVSth3mRLwJc2w7BeRgDuigDuxNcJeFZ/C</t>
+    <t>iVBORw0KGgoAAAANSUhEUgAAAf0AAAH3CAMAAACGiXbcAAADAFBMVEX///+15h0AAAAiIiL+/f2SFiaUFyeYGCjIKjrFKTmPFSXGKTm/JjfCKDi4JDSzIjKWFyinHi6hHCy9JjabGSmfGyudGiq7JTWlHS22IzPDKDivITGrHy+tIDD39/f7+/v5+fntHCTKKzvs7Oz09PTx8fH9/PytITEisUyjHCyxITGpHi7j4uLn5+fu7u7V1dWkpKSsrKzy8vLX19cvLy90dHSQkJC5ubnGxsaenp59fX1YWFjd3d3Z2dnJKjrp6en29vbExMRKSkrLy8tHR0fQ0NB5eXnAwMCCgoJ+fn7k5OQNDQ2Ghobh4eDCwsKampqmpqaVlZWvr6+pqalxcHDOzc3S0tK7u7uOjo47Ozvf39+Xl5eMjIzIyMhnZ2e9vb1/f392dnY+Pj60tLS2traKiYlmZmbw8PCDg4OIiIiTkpLU1NSysrJOTk789vfZ7f/57/Dt2cMnJyf78vPD2e325ug4ODigoKDjzsP04OKioaH///ZdXV2YIjHZw8PDw9lsa2uMHi3t////7dkeHh7ekJjOS1mJLjo2NjbNjZX//+3x3N6mJjXYeILUl56iLz7Jg4ulPEnKN0bv19rosrflqK7biJHWb3rIMUC3MUCsLTuJJjP36+2zVGCDOUPkwMSzs7PhmKDCdH5RUVGAQ0vDzuPZqa6bLDn2///fs7h5V1vNQVDx0NPr0NPpuL3bf4h1X2KvN0QYGBjoyc3VZXC3XGePWV/rwMXfub3TWmbUoafjn6fNd4FzamvFVmLBTVq1Kjm7ZnDBMUDDfYWcbXPFZnFxZWdVVVXux8t+bG/RVGG3P03NXWmCYmZgYGC5SFV7TFKsRFG5oaTNanW8OUe7b3jJPkz2487Sg4vIx8vBQU9ERESPe32rS1eBT1bk9v/Ow8OORk+ZOUWnlZeJa2//9uO6q63BXWiaTFalXGSOPUfczM92BAScgYOpd33O4/bLs7W/kZapiIzZ7e3i09WUtcPBsLIAAFzDw6/DwaPDqYAAdqJXAAAAV4+PVwBAf6Voc50tAABdNElEQVR42uyY20uTYRzH3zGriZ3QDmaQMQ9g6MQ0UzwSBCHYXUFedJkXgQxkgRd2pzBWc7rlIRzDXSyGacQczhnaDCFKkA6KCIFXddFNQX9Az/PsXb/tfZ73sLaZbc/nhxdG0cXn932+v03gcDgcDofD4XA4HA4nS8jTgsDJItiOKxPhi5BlSGSXYi6KXKC5KFKKqazkW/Dfkij9j+7OckSvxWJzOucCAY/HEwjMOZ22AYvpMqY8SuefZSBrwFfg/wG8Y+tEevlAYP7JzNCLiYWN4e21Y/Ecjc3Rte3VlY2JnXG7z++x9VZUkF0ge0C2gO/AQSdePPZumXMtj09szOaXlJQcKwHlEv0Mju2ufNqx+wM2Uy9ZA7QDfAUOMCAeezcHlh+/m8wvwUPUiwNIkh9PUdysrbyye2pMprgdqOQbcKAA8ci8zTW0MJuPIOpjaE0+vQSY3fUd368yvAPl5eIrwDfgIBAf+QHX+MYk0g6TfPJBO0yUtZXEFeAb8I+gzU8vDi1s5wNIPARfa+eDfvJThMWTH+DzhtVfXWbq5Rvwb4kzPz8+DNrTn3zgLJmi1Ve+6rIyU0VsA/gC7B+gHl325Yvj7wz5FGnsfABW4OzZotUdfxfagOgbUFrKF2C/iIX+wtuhpcmC/AJku4Aoz3TyyY84iKKVnVANaYFO8gTwBcgwoN7smhgrQCDxQHo6H8QflUk+sLYe7u4gJcAXILOAesuThUkinoymztdpRaHzYeIp+mb/VYMW4DLqAL4AQGbUD8wsGQpEQL1M5+v+HtnOpylatX7HHcAXAMiE+rmhYUMBHgRkn9H5unTB6HwJx8nsOh7WdJRFF4AfgWl3j1NP1COUkq/LBOzkg37CruM7WQByA3D/6Yx9p2sBq4/pZ3a+LrPIJp8M5uxKuKcGH4GdvAHSGPu3L8YMCIXk6/YHmeQDU95QNVoA3AD8AUiNaOynZ4bF1EPnJ3zO1+0v7OQDu9ZfXbgByAPA/af05DsfGxCyydf9G5jJB9YfRh8AXgApPfmuJYOBzj2Z5MwfkedUdKLotAO5Z7Aa7kYPALoAeAH8pfvpoVkDgk6+dvUnT548chJEy+qn0LoA8nx2fI8+ANz/X9T9c/HJZ3W+Fu2HkXgYtnZIvoQz4qSwAOeOn1sPdRP//ABI0v0ifvLZyVePO6Cee/yDYOqPoVNGTj+aVV9PV4epgvtPxv38O9AeGw3qUd7JiOJh2KgkH/SrrwBTPpnNcCsqAO5fq/uLrmFDAprUg3ZtyQf97OQz0SnA0k94z/1rdn/hCXHP6HyVzMOk1PlnYBI4HRudPCA+NqJ/axvy34s/AHD/Cu77l8mZTydfPvOHkfDDovJ0dj7N6T+o+SfiyY/IZ+5f3f3MtkS7OErqpUOA3KfU+SAeRm0DEpIPTDnqu5F//v4zIH2/PGagkFd/WAS0JwDq09T5p2lk/YP6eP9W8M/1Jwa/dH7YYGQkX019qp2ffPKBwtOFOiaQfODEuRPvw23d4v3H4x/v/vmSgQVbPbDPnU9TWMheACyf1n9i80dbNfcvKXzLY4ORTr66epj0f85XTz6MjoVEvTiRvdbqDvT9Hz//xMI3j08mGXvVzpdlZNTtDkYiW943DofV4Xjj3YpEgm736EiynQ/6o8j6B/1RXntvt3Yh/50Xcr3+8xDo2DPSyWerP0TJ19L5g6PuiMPuCwVsZkEesy0Q8tkdEfdoYRLJhxVg3oDS5BOmHLU9XWWmHH/+yaP/HI49QDH22jv/w5bV53H2C8lidnp81q0PGjof/cTD8g/JB97/IOdfLj//5NF/YTSQUXEPqdfW+c/cDp+zUkiNSqfP4R5RS75qAUDygXORW+jrX/z852b8yaXv2gbxCu5BvYbOHwlaPRYhfVg81uCIYuer5h/EA1M/a1tz9vnHwR9YMEDylXKPBjpf9nM+ER+aFjKBJQQrQCVfQwFA8gH3Xuz5z7Hrj1x7M5Pt7ZLks9QfAu1Knf8sErYJmcUWjoxQnc+GkX+a129uk09/ORb/6LVnpJLPePLRqHf+YNA+JyRB24N42oQkcNqDj2Q6H6hCo6gfrr/6nhyLfx6ib8hobAfxMu5x7tU6f9BtDaiedy0tDU0CUK+Pp14AmhpaWlSPwYDVXSxRTuuvqtLk33sdffmXQ/HHwXcOE/Vk5N1D8uU+5w9G/H2CBpDjOk3269Dvggb6/OuP2J1fBaPu/xKOP7r+ciX+5NRfnmw3Sjqfco9R7HxQr84dvb5Rk/1Gvf6OoI2+EFoAJkQ9RtE/tH/OxJ98qb9khOTLu1fu/GdboVKBRW3z3Tr65U/CPv3yN99trhVYlIa8T5nqif5iMor6L5HZ3IvGP9s/+5PP+GNIPtavmHvFzj8S9MtW/T3ij7bfosl+i8y/vid7BIQixZT+GFh/cbGif6z/0uufKP4dpux+/fMQ5ol2afJZ7unOh+R/sJsFeZpZzd2YhP1G1tXQLMhjDm8yOr8YRuofck8GcT64V4uO/8ud2fv641d/cdZohM5XCL7c5/wRh01QpAm5qmXYb9Bkv4Fhvxb9nSZBEZtDbACkHbJfDND+IfmEqY+3W7M5/vgLniGjNPm0e6XO/+KvTOK+B66iP9RkH/16VQC0fw7I87sLGckH/RLis3+ezNat+u7o8Zd9+vMQ00tGI3Q+271C5w96nYKEirpqQco1vf4K60Go0GC/ghXzK3r9NUFKdV0F9QB4H1Gdrxh/SD7Wf37z5v0sPf7It3uzkuTT7hU6f9TeLzC83BCk3ABZ1OPNtq9SG9eY/wvsGNBvf0l1voJ/sfNjc/7l1+w8/n6zd3axUVRhGB5nV024sncmtNRWpr3o4nbp/tWC0C3SlbUQQcTFIGZBxb/G0DSmxiZcoIFYwYIGbGiImEAaRFOFCISoBIkJJJJiMCakVyQSbkjkgmvPmZ3tO2fO3yy77e4i74REG9LO7LPveb/vO6dLvslvRuarjc9n/vhpSX2fM3wt1EXQV0UJlAV9t4KnT3GZL+VP4cP7VBfWd2wkq//9hZ88ysCBZ8TOB3t55p/Hks+BDqt9DoJxH/TjAvpJ2Q+JSCrAi4/D927VkcuLH97P61TyJXv1v3/CP0g09Ekzm/kq37PoH70mrfIt9GJC0lCXb/pdin4BiqOQ4DV0pA7oWfx1deyDO/ihy3fp6v/mfRP+dqO3j3W+Aj4y3yn1cFJDuPSn1MMZfC3mg34M9NXjoxR+hkiD50bgfThfgN9xPvTrv7T2v1/Cn8L/moBH5kuNz/f5wxdwWEO29Ic4X6IaYLAq6eNNIt8jgEJY+GX8Px/hvU/F8/fqWk94yaIn74vwp7u5B5pZ53PwJZk//Dk71LN0Sz+ae0s57Nv4nlsbGUvHBaAT3EARP0J6f4d2j7jA4+Lww/ls+C+v+fCns12yqcNkPsdenPmPXmDZR1I52dKv59WJfXvNOYBOwXsp5G/hz6Yi7AgY/s9jh9Tun9rshH9N43fqPThfmvh85p8f4hf5pHbpx1pdHmHPV7/wJ/ivDl3knf+4ZvVvJdfkXRL+y56q6dqP3HfLt/vYzOfhC/v86ROiDrtLu/SjTiuPUEPqF/4u0dmAE1eQ+axU+FvHrvaEN9Z07UfrvS8OypwP9nzmj06ITRgIK5d+/M2uMnq/KxD3tfCH0WkymrgM56vww/kN5Gr9d9M7tVz7UfgfNxMh81XwkfnH9rQIm/uoaLzWiaXfjzZkTNNc8aTBaHnvyhz5erTrlZD+dcbCz7cVUUt4BODsGJB78UPAn9c1WvvVKn672H+GcT7Lfp7E+ddku/cxEegQln4fWv6qydFf+MJ2c0YfbTT06pTdSEx2AuAczXsd/4Lz6Z9Wco2vJrVfbZb+dLh7spnJfIXx0eePugM/ZHlf37hq7qJXIsPRX5oy3doZCfopBVLCYAoxa5X7/368DOQa/DNqmO5dvzRUi2NfCv+MyvnizB/e7V7049GYN+OjlrwC0yu8y/TSX5o1We1ca0D6+TJyyfsujEXj7uV/z4gefyH1W51ravP6DtL51Rp+2uZfamb6fDl7ZP74kNunOW+ZlxTlbSiQTfukv+g900t/+Q7Tq11LdfTTWbhc0JCiCMwlDGjopt7+cL6DP9FDO7/aavzpSY5Lcuc/LM78Y0cNKNwVoOryrvI53tCGT/V9Y4I+qkBOT7foFxG+H/WmgXP/YQOamPSAb6N/WPvbmY9r8m5PuG9RTeEnNzr4CTJf2eihzz/lqvasWMBRwmuwxL3eVHfU5OgveNG0lep9wnii16kAcquMYoVJD77gaJtrYRq4yDm/jcNPoLcW4Dc0TP5DGv9awk/hH4fzvfDnCTN/+Cgzlw0UlFNOfPxrYRouB/2+fOq/t8igeuojkyqTNHTSTnqsXKAgZnY8MeZBz+On2HER/JveqSH8dLp7nOnzpcYH/vFDrnjPBVyK6yc+elkfUOPz9JMZG/cGNgfeNYpVWHCjUC7p2vu5yeGnYtwP51ONEfxLagU/ucVP/5I6/2Fh5g+f5dZMWCekmvj4b/OF9NtNqmxfoQHI9wTrDI20k54QFi8uv86OIPMd/PVt9Qr3j11NvlQj+MkN7t+HzFc4H33+1BBfL0Ex3cTHP/3ft3noh9vfiq3I/f6mkdey6yZVt+FbmESk2duEuNp16ArrfCoB/hnVDn7q/H1y54sy/7HdQe4gHaMk8zqnIvfs/ZWL20FfpA47H6IdRrGKpAIh3RNAwT31yHwbvdz9tYTfyfxnisj8vRju+XFOscYH/e1bgoaGfiQ/7V1sFK+Qj9ULOjEJ5zv461n8RLXmflT7vjN/HH2eNDX1btfTz7xOkGvoW/maf41RoiKeysUSTP5vIvPJJXW/o/qxf6oePx3ysH2+tsvfLTlRwShnlUp/5RrLMHT0g+332u7zQ19Z1wLtrofz6wl6W1L3109WO3463v1E5vx5osw/9qMhVpZ7/UqWln5w6067/Vtb+mkgRllDrJ/GGOfz+Fsd8PSqevzObB99PgtfoOlBNMxhz+iMVWj26Qc32/DN2AKjNIUCwm6Pf9DBX5D5jsThT+HX149urWL87K4eD5/P/CMtLrukLEXXF7Nmjz6cj7FfSbJiim7PSrkWspa/4Xw5/vrCNUXwV+nUjx7mOKnPfMAfnmB3adOe4RmEnZLZox+M5OGn+owShB0qiL35NFvETowh81X485pK2EPf6tvwpb+cf7KYzN+737N5F0iIu74svj579BvXZPLjoFVGWRSZKVzSXKKlmF/6myTw5fht9MA/TfFX334/PcP3Gfp8feaPHuJ6vGhIUDhH45Yx+/QbX8/D37HYKJOseBTdHv+Y0KErwC7DD41v2BTuI/ir66wfgf91MZl/qt9rFi4hO+3AD+EcJquFf1Bc7WWhv+B5kyrzdmkF36Lr7jFxyF69OrlqxruU9V9k0RPcbvwUPt4Abbc39BD85KxfS/XQJ/C/K6bPvyA+shn3dH2ppPccJtT7Q9noL3/NpNq5LliOhaUb896Up9uLC+d+wb+93m9ocONndWdzTwc567fgiaoxP7mRbw8WkflnRUtl1jsPT0ZE5zAxlisX/ca3TKpo0ihNq3IOfSjCPhCtYkRBdrQV4J1Lin/kRi/Fv7hq8NP57j7/ff7wYekWec7SncMEsbLQx7dasdQoTQt3mKAvkoVzil4dHmOcTyXFP3aVnPQl5/yrpO+zR3z+M99d7HNB/6r6HCZmspmy0Me32lVCV4k3kZL+GygDOO2fhPNV+Gl/MLmWnPNfVSVtP+31zvjP/NFB1emoQKf8HCbU+EHGLBf93p125veWupOwLaOh34m6VqDBy4zzVe5vm9ra/eySKmn7aa/nP/NH31fvjkTDsnOY0OKVplku+su+MXm1F1/ukzJETT8cRfsHMZ1fA7xP9/d4/G3OdSvRbc98K1/4017Pf58/PaD7mM2UpT6HaQR7smbZ6AfXmGWgH9yy3dTQt1IoasUa+AXOl7qfwie6nUi+Uw19H1l7fmLO7Sszf7x/BrQBsXPQtPIcZvClPzJm6fTRopdOv3E1s350K58M4l6J/p9nMr+Vdz+cT/HfoW1/xQt/u9xnfldPlfmnWvBixAyRUoFUWHkOs9uEykA/YpZAH99TTz+cxYSXUQxTjsabrPWBH2u/o5F22vZXrPDH1s4lxvmqzD8fBHxJ+RtKW4pzmKCfefl6afTxU8pFf/vbUVXuW+mQ5CwA1oSWP53Mx+XCD+eTM0Gja+2+rzKFP0L/e/fv5ysz/whbAgUixZ7DBP1o95MrykF/Va5s9Fd0dIC+b0UCbKF7DsYX4p9R3a0tq5+tUOUH+F9wzscZPjF84E8Udw4T9HcsM8pD/9ntZaKfSS80FPT18IG/lXX/QxCcT6/bW7vJbv+bFaj8cHr7IDJf3eifVz63/hwm6KdWBw3Qr7zIHX4UDhq+6auXwD8bUPh58RP0Dn6ikRsJst9XsejHjI93/jxRwafHrz+HmdyxnjxqWeg3URmla93KJeSWfNPX5F/wInwvwl9XuOr2RipR+YF+40lkvrrcH28R1jtR614m8yXSB3vgL13F07einm1NVP5AT+U1f52j6XdJ5WfP/OaWPsY8+DQuVeZP94t6Hcx25p5+04w2V4i+lfLs96Lvl7sfzqf6bUv3nFd+2NVF5qudPwX4PP5K03+uAvQBXzz1K7i/Ne/++Qx+l+7kZ35zOPRB6B+H85UD3tEB1QtQIfpQBehr3voDV1zOn08vj/sLGlm3YW6jH+v+AWQ+Z339xg7w/y/pq9e9Q5cpeEfzyeWiz2jaHvrM2doP638n/tRtLvOPDeoKnwrQb6oofX3JO/iV43yCvoHFT50P3aZDH9r1z435Md5H5qucP7xf0/REw/9D+trnPvFrIfPpRSRx/8iHdvTPzdqPZu+M0Pn8</t>
+  </si>
+  <si>
+    <t>Gb7Tul98CFdg5W+qNH39cx+en3e+Dv9ohEY/HfjPOn2E/pfIfKX19xiO0tKnnXv6TZWnL1N4W+G/9jjOL0gW/b+92ztHbR8+ouGg8N/Y4c7tX8OuXjT8gL6PREAZdK7VyXw1/pEbW8jAf5k1V2s/Och3CZmvcD5GfEla5USqhH6TR9VDPxJ1nQAK/uxCr1r71yU2OW3frNLHkE/ofC7zR/vZX8uLPKCv/8yPmKvt94f/Fm37Zn3tx85eMzJfSh+9Hj7SIF4N9Js4VQl9+yXqZPo+kFdFv732z/bID/W+8F/U9Gb+IycEb+wH9P9j78xj2yiiMD7YFgaFI6IlHH8kQOsIUIKTNnEcDGpxoQ0E2nAnCgQIbShXKYEKCg0gznKUcpVDKuISDYhLKpByCQoUUUEBIW4oRznELSQQ4j7ezs74W+/M7Nq1k6zdfINF4yZW45+/9968md1RZQ6PD4G8Gf+OPPbHhz32o97HWbrmY1au1SW15tgo0wf8UCjzxwDQj1nwm9wbXu7ywg+tOey44Y39oL/8Bjh/CzP85/Xr2enY6NLfNZj0Y2n9foeXQJ6f2anQ39Ea15yDup8Ni3DtBnK+R9JHxafgDwb9EAn4R48+4Hep8Nm8V7O8v6fe/Dt+Q7Gf93yGx/wo+dYqztedqzdwtccnfBTpA36Q6HvY4urVcD4NB35+tp8cP1Ldz3s+w1n40Q7uB2TO18R96H7PABcU+sA/WvT9Y+L9DudbUs1P8Hdc2kCxX/T72TCJn7EmnE8yn6V7t2dxk2KjJMDfW6E/ikp5zoaegfNpOMwP5xP+b61+/0EThqfww1QfzjfX+2/Wekxs8vP+sNEPEP54E+CrqnkjE/phfi7pfK4vqN8v1noZVOSpvnQ+yej8gQWeTY0AwGeBos/inm2whav3dHh/W+CXvueP6ztm01rvcEz6MdUn8Cbr4377K1gwRZBBP1D4vbVM5nzV/AReag3F/mHY5wP6Z90gnU/Sw6fxOAuoQLq06LOv4XxrOOp+4KdJ/50zDxiWST9KvoyMk71BuY+vlQVLAG3RLwX88h2cf5vD+9tuC/yEHvpWTPqLa37s5rpVcT7JfbrWHbj3bh0LkkqNfh3u6fswnE/DYX5n6N/uC5r0F7vwQ8m3ZAtf62OyF7eX9IMjYM6if2BQ8fN1kbic9sH5lhD6nfqmY/Z+xS78MNuTzicZnb90nqSfFnfXDopKi759p++0pD/vbQIvhhn/z1bhV9yOH67a87P+5lnLurG2MKk3zgIiQM6mz4KIP94bJrXBOw/B+Wb61zfcaa32wPxFbPDrGj3us3SvZA61NIVJQSn+jPRZ8Oi3hpX13pul7/c04N+Dxo+Ht9CsD+YvnvUvV5xPcp2ff31tdt2SCpNSwYj+EnHw6cfsty27Zq59Fc4HfZf7l55ndfww6yveXTp0jR7At8ej2t1KTUkWBIGwiz4LFv1kk3YX3FrufRU/vE9jTXFnfVjbMyV95Hxs4IaSXfwgahYwBZg+L5e6NIZ5BuhN+PdY2nqY1e6H+Ytj/aeNjR44f2C+LoxZ96cN2tTfRZ8FBz5N8kl9SrLkPR9430Wf+57jX0Pt/jjMP7zWh/dJan8f56m3sUDJST9QasOZ7YqWmcwP7+8x2Ep7/GD+Yi3vGOjD+Zt/zNzC1D8djMov+PRjXZjkK3rORF84n7Rd0cwP+tV66wM/qfJq86/UFphZf9Dps7hHlLxxWw/8tsj8jZb5T4L5h8/6cP7m18lZPisBBZe+RnhP39fTh/NprKFNXqfC/EW4bk9vfczzSbLFmwyngjHBKx/6yVQ4KRu+Zvxc21HZP4vMvy/MX4S5fkYVoO9wPul+xxG6zQGr8EuaPj/cq5fZuskU+zl6e6jmL36bDzmf6030KElNCRZslQ59cbBfq3fht4cQwd+OzI/MX0zrV4C+0/mZLh9OH+8NdvovFfotva5D/NcazE/g5VDMP2zWJ/Rcj+NSRKlU0Or80qOPA33RMHnJRJ+D51ra2og5f8EHLcL5yPpwPtfV2NIBzY15HpwZ60j1h0JNr584kfmrXOlH6rqtd6G9d/qMqd6HeQszXe1gv9O2OwG/dD6JzI85f8G7uDNSSj6huzUHp6NppT04c2pnuwTQ31HD/FSe9CMHpEIZ9TdUKy1Sh1Jo9xtDv9DnhZof1n8Qzt9C53x6DCzHEdPZ6k0aDs6c0BdyaLqv/cuSfs2hlgOgRVMwy+sNuyUqqeWrnd4Hfu58oR8bRMOP1vkLs/4tGutjns91JWZ7bjWqB2fi5EroZD/3lyP92mNs+NDrODEo7BJmfTcDPg3Qd+gbWuqD+Qugv2A36XxkfTifa3AeFvNdShsOzuxw/d7tflOEcqS/36Uht+bU4oAqRQnR8rlNoBf44X0oQd3+yXV8k09B1r9Ma32gJ12L0+XdSioHZxpOQnt5L+at8qNPtbCi/lNxOCHkmvXdBe+TtOYf4uv8he3wI/pTb8g4H/SR82F91KgONesOzsRJaKl9IzXT0rb5j2aeKkP6x660f/M59ZFI/RzhkW4mpXk3Y9L88D5JR/+a7g7a5GPv8CvK+o6r0eO2PuanUFOd/uDMqT3S7zgYa3ot81G50e+04TdwPJHZNv6LeN2PUKrtn1wm4JNM5l9zzml0XRft7adJXwH3Zcw4H3N94XyhgbMY1JJV+E03HJy572Kn3WfhBg2eKjP61RfZhd7ErDzw8knOPZFQVwuD5q2G8w30l846vMXa2z8VoT9/66+VxnfBd+hKtS8txBnr6Lfwr3sPct70ov8A5qmyoy9uP9LJhA7mX6ZR/8TgJPe6yWVwvgn/+vNob/8h6Phs5HSvQs36yPmwvnNNSihhOjizm3/dJz71e9mZ/zTmqbKjP+m4zoNT+/dnfu3zQpZ60PHDrE9ZMz1rNfDr6G9PHZ9ZjUcfuW8Bkz6a7mmavDznQ9dp16MtpUwHZ9baleDxEVQBMIFJZUffpcjxIUtzgUq0TrX7JW4m6BDoO/QjrfWIjs9GWv9m6Xxj4B+Yb74CUT04U4+7DR8GD5U5/b3sk7xFeseySVcj02j+aoU+8G/PH9/wdi+u7Mi/5ns34/wKwDdbH4olws36gzMR6htAHzHPrDKn38IL5I/q3Sd0x5hW7/uaf+DQjtmY9G1EzbeqQpP1kfNJlcuZQXUx08GZ9PUYfbfqbUfMygYVq2MGLXDC3wbml86nseYc6vhg0pd/zZdxfgXoZ+l55iM/+qh3Fk1inipr+hP68u14vmUI/Qj+G7pp0ocNfvnSn3+rcL458D9aDPoNOU34y5n+JLsSunQay1lr4XwaEg+cT6OTJn2nou7L0/rLhPPN1r9eVnlj9AtzPtp+PsJ7/Zwh9AsR/iG+wQ/N/vxqvifVip/nfGiFnJj2JmJjkX9jNWWRDX+W/zJ3LNEbFviXwfk0QH/7zPh84+u+SO1C4Xyz9QdrsBrZpN/GPVb1+eqQtJ/z0Ujjd/SVaz2O0G/RB375WG+t9NGNfKjfl//arvC9mf512S3JniTTaGzG563JXfba7gw/Qske0fKPYdK3jRygD+9T6KeDetHvy2+yL9CT9PArFzChFrG4l9YVAH7dnsjxm3K356jFdtUz2S/dp8Ouzt9COJ+UoY+yb/vBU9Dvy3uBJ+P9zfQV/+MMiovuPgoAM/1djuBft7GxTi+bZsNfVO+b7tWO/zrh++zQD++L0E91H6b8uQb+Rwi8zvrQHdlJia/uoQAw02edItRv0qs8XPHF2NXqle7FSl/2O7sKzie5J32Wvslzyo/Af4MI/FtWbKmjXymne1CsURQAdT70Txtb4XXCbz+lxhO+SPeNSlT9UDqfpMv82w+cgil/XtZfy9F7VPyVroV9FABpP+8f0M+fmL1J7+4g1Z/us6EZU6pUC1N1GZzvDv1C6/mUH6E/5+W9ioz3AR/oaSxgUFYB0OhH/6SXZV8THe69N7mdXXJb+0UTfc/obI4znRbC+SS393noP5T299Ed/BD6c7xkv0LIFPhvN0Yq5kefdY/t6lS3tZtDoLGT8qwA7w79GQ0mzjttv6MQ+nO+gkegB3zQr7TGCmaSP/19Fo/t6BbbWVX6eWgZ2PuH/rxaPSSvwD8wrwD6kUQoWyuPYz4qP/qzQgXTn7dah397h4byCP0I/JeLnO+q+OH9d1ge9Meu5NJt5imcPrsll9CPqj/XHn+FZ+Cnxx2F0KfnLtrUr+Lcr70I9FfpQz8XQr9o+OQc+O8SvlcDf6U9lrLC6LPqhv5N+wru7lAR6Efe9gn9VUPdHWj45Lq4K52/JQJ/Fv4XC6RPih3+un33hhjLRWVGv3Z6AfSh9/0S/+eJPBs+kdrlNno18FfK8SgraY0+/SJprWfor6LHnNZG2t6H0O8f+G+Szof1nTm/snKQlbbKhj4zhH7oS97rxzKvf+B/RDjfRb8yM+5mpa3yob/ETL+Kjw32Mi92+Pg3+qTzTYFfVPzNzY0Bu/3yJkI/1tjTnFvVXzXYae/wAX2/+Z7wPT308AfspnyM7+gpxQ9ASdMn9GGS/bbX3GYwf5Uc62mHD7+NCxK/92Ze6XzQd+R8eryDywxL8wNQuvQFelKjR8MHZV9V1dChDXxzJy7m9g78twjvO+lXOscTYvWhrSuc+QAE/t68ZUC/rpXQ2+pqE2/4wzr6cH5V1XcJupMDVnr8An/1DQK9M+0DfWXlALoz8dZ0WCjdWjofgFKkX+d8q+Po9Y8zJv4qroFj0O7LIfA/VCG9v7N8MQs7xvOmf1WQb85a6vTjJpe9lWG/wzY7gL5wPml9DnM+BP67iLvL+8j5llYYPpZdrFRUgvRZlyHALjOXfbaGaM6XjCPxe9N/rAL0td5foI1LfUE7eqnM6LeF+7S5dSGcz72PzC/0Oc35Zh6FOZ932r8V8N1FH9f1pnK0dCr/UqRvfHs/BP4dMvg5dyR+bPHwSfs3ipxvrPhLvdFXJPq768VGXEsEeo4f3s9o/PpDO2Ti95/ta9I+cj7pflbyKog+2AfjA3CT9D5J8X5uiR9pf4lkv7PW+5XR+azkVSh9gh8c/PPhfD39Db6JH2n/cjXtc+xSb7LSV1nRZ8+JnC/oK/gHc038kZr5FZbr6aGd7VMCuI6Vvgqlv3ug6N8sna83//iqg7uR+L3T/io17Vs5H7qDlb7Ky/urRM43Jv4vrcSPVr9vr2dnrfctReex0ld50T8Lztd7f6iTWv3Y3uW1xKOmfQt7WaX9wumzINFnzxF10Ffxf0eJn7Z3gb6x6HtXOF+t+HkCiJbBbL9w+tABuCInA/8ENsJaAviK+cfTGJjTffjR/mVfpGZBxvoI/FlawcpAxaI/pS8UUulPZCOsZVr6wM/7Pcfa+7o9i76HCbvW+1zRyuiNrAxUHPo1c9p18NmI60Yj/fH2+DJxHt/ch7LPe4FvZ4P3BxhXvKf1WFa6Kgr92f1APyr0k609cZvbbT7eH/Lu96DTx30P+CTkfBq3O05bTs9tLJkV/aLTn7x/aBThxxvnph2nM6/LsB+Hso/Ay7GB7/Cgm/aCvrboe0U432D96JWMqw/nxSRaSmdPT9HoTzoC3EeYfl1LAucf9Yl+jyH0E3iuwZOp7Ju2T71n2Repqb5V8T5yPg25pa8xFXaotyfoR64Xl36kdeUowU/09IYdSjWKzX0O74+T4KTzif7AwbzsQ7dPX/QtzLR6dN6PRqNnOYJPczqcESspFUZ/RlNIgT9C9PGGp5sdaXf5DprQL9BzHeixzIe0v2pLxfvI+TSWuguPRF+XfUZwSakQ+nWaC+/bRwA+Dmvp6ksk3Rd0mb3P9aVntw8lP8/5JNX7UdLtTFWMEtEmE/kntrWr8I8YsTZfgsqsGFO1DvAd3oeGjsEVPeaib4l0Pkp+Dl6OF1lZaGPpRzouVdn3TmaAP0p6RKAX3kfoF9owB4u8HiU/gddbn9CTnmJloY2kf+xilX34MDb68Hm3T+Afh9APXXGy2NYN+rqSXzgf9K2cj1Hi1+0XRH/KIk3Cn1PNgkB/7Th4f5wS+nnR3zDbs9cb4V1+Aq/xftRWWSzvbhz9arR1oUVTWCDgs+VwvtP7UJux6EfR95B0/tagH8Wgkr88lD/9w8Iq+8XU7A4IffYCoZdDoY+iH5fxa+g/TOgV78P5VPKXh/KlP7lXZX9pRyQ48Nk64XyT919D0W+k/7Rwvs77BL9cSv486U84QpPw2yYyFiD6j8jAv4OWfnRIdPpBXy35bxbGJ/jwfhS6lpWH8qFfc4om4d/jWNsIAnx2F0dvNv8GbPAw0r/FRk9DvgB8b+kJNno6/9wzmFlnnp3zq+RHf0a/yr5pBmMBo/+wyPkG+tHvqNOPKZ9+wveK9D7RR+CHHmJQEbHOJJ0dSPr7aNq6K1uz378gwGcPwvn6CT+mfEb67xJ4L+8vZ8XXezPP4FQuvNiLbYH08Sr50J80PaTqCOXgwADAZ8t5zjfQj46PDswVu7pB3z3dnygCPylD36kBVnxdQtQFm4DRV9ZxxeFZwZSn96M04acbuPA7t2HC7yr5ryb0Ou9LXc+KrqsuOIPc/8EhZ7NL7r3PfuKXC2ZeePG5Mz/4lCcF+jNPDWeffy79BT3JJf6GiSc52TOtF3gvp1f50Ub526/0jPx758+Y2rr9s1lQ9SE5X08/ysd0vrkLq3ya9V075yveH8bpPjEn93/12U+M/mdzu/Diqy6gbEAwyaicq3AtUaEnBXzrWUIqn6TvuOSDT+n5n1gOr/LH3zb8P0MHnnmGfC3nz7A6bVu3hgVW64zeJ/TE7ktM+A30b5LOJ/rwPnS3XGTuTaUSiZZj40XI+uTZnxgBgvc5K6QEcrOM2XiS/s+/VT5J38HJf0Vsc3iV338Ikf5p+Td0IF7L8TOf6tZx+6awACl+bEsikUr1yq0VSwB/Kyf9qBivmSb8aPZw8GbvXynpQ6lUc6KVQbgBdxMFylTDBOYpQm/xuOr7T+lzoHL76jOK1i7679FTZ2joc8L0H/97j1cB/b/++EFPf8YPmnXcETwyLnaix7vXmmhOZREQB3QpiR/4LQ3JCb+Bfm31Zdz5ZvorGFdTOFtdSq18cMY67Z0Tfen/ZBX8imt5Qjgjd+/zZE9f+ryKv/cP+I8+FUpbl42Yqmf1m9899d1vEmu8GefTyNCPyhH9hK/xot2jafVtrbM+JC7fTTZaMQf/ipTnZuf99/WJ/O+RV8+kh5YbfW1xowfo8+86m4mcDvrsTCra/F5F0Kec/7fI+/K17J+5t4/HBKWtOwLCafzQy/XMpRS4W/m3Mcm4Vo3Thn4Cb2uDod2D6f4Scr5C39zsiSWTCQpD6ZTuhEmoa7LPhA9ycaMPBk0HiBnF7rNtbsDLg3k2/Uuogvd9FdAXNb94Lf4zNfSBUOgvqmMjJfXIonumuOmnKdkmksmYtt2zldb7pO94uwfbelX6b/l4f2FOxw29nNdxa2dSxC+WKHsU1uef3a9dxx1Bqaf0zalluWghnI+8L5zP6aPdo6c/dd3O3vTP2siTxmZFvNw/E43eAkXJvQD6yFhKW3fkpB7VtXgflovmc/Ba71saf8VcupYvGTfQjxD9y729Pz6Pf377yfWRmqPEpPmjejYS4pP9/Onj8hxV0yexkdXRtvX79qFjSsWHsYHloogu70ehK2Szb6qe/i4T3/Win+POnmkrHXavOTnE1ciCJYW+vq17D2w3QorMdZzNG2/iX7TluLuHPK/zvtDA8Z2tYnePgf4LWvr5NXob7ErvkKxIcMQuLFBS6OPyHKh/BhtxTVrE041dalTbBWDP1Nxavdz1/OH0Puij1aunv7U3/Y9ZDjrYjlxyitQpz9oPlFz0lctzcCr+CCsyYVrD9PQ9e+HUtpy9f7nW+9CBaPVq6S/wof84y0Ft+LwiFKycxgIlB33T5TkT2KhLBM6GXBv9wK/Dtze1er3oL/Sh/07u9BdNAn1L/7N3pr9RlHEcf9xdGkVEQIuVF61JuyQk22Ohu70kSNVa2Xqj</t>
+  </si>
+  <si>
+    <t>0pqqbbQWFUMgaDRoJKkcERsU7wMUGhPxwDMigme872iM0ehbE33rH+Azz/xmvzPzPM88swva2e18nzRRk6rsZ7/P73rmmVtZpOSir348Jwpz3FRbQQTRIRZKj3m8L+PrQ6NfPeA10N/HQugu++wTfXwNIwmhu1ikBPrfqh/PmX6lzu4W8AttIUvOB0TMnzPH+lHSv1G8o0NLf7eBfqgTvRckhPrr7b8jY0Xs6n7QVz+eM+06a3XJU+WDBu9/ceMlNOZR0q9/ORz95cu88u5Mq0apPXpVA2vpmkhUGv3NkZjjNo1R3ZGVUQ0t82q5Q99Gb0lJf+014ejPkeiLunEXE7o96dU65tbigYRXUSz5iP60t3VNb65OXqGo9tYlvbqdCT0a7H3Qr08pR3xvFK2v/PKcviOAPjQ0mJDFa4AoCfSlx3OioeVOOjJxWX1Y+uT803TeH+D07RGvkv5eQu/1Ptxvpk+xvjLpW3PcqOh8jJvGGsPRv8/g/W9oxKunT/g13p8MRz91gwt/j50GXB8VUwk1YJwD7Y/S1WONZ5/F0pQ15erD0efYHZVD/5BAL3v/dOuHLwN9aFmvY6fxzHnRy/o0j+dET/YuWrg6FP3nyPcm+mkN/RfI+d5fxxfgsIE+lDq3+/ZE4vbxoRQFsAEWGZ29f/rnuCG1uNtOmevD0H93DlQm/Tmy9wV8sbT0zQGsjUVEusdzoqkLMDIz0w/2/rxg+g31h8j5Su/z06GTZdDvSAhFZF+trMdzeAhtR+P0v/E+6O91nI9fp5gvVsn0MeNrj8YHHP3Hc1Zc3Na///Y1vsMSK0PHfZLW+8MB9Dl46dcp5nOFq/dT53esyZ3nJFE3fWaf7LuJTb/weI5Lv0Xr8ZwBb318K7xjzvlN3sexziDvu38dzg9FHz3KNRS47C/veASSqpWFBBTVN7HauDfQkyP1q3E6wkzf4H0T/Tc4eKX3T7dl6vTK5zma19mF30o2/aqfqAD6y9pt8y/FiBdbganXByl7fQb6LzvOx6/D+eHow2P7z8e5xM2ReD/zpRVAn9ye6D23IdW8toBTkcdEf561LPpBcf9l+ddFzHekm/GZziQXOlgktD369EWoVD4OYZ7xBXqf0zfU+7vJ+ZL3SfuYWTjOA41HJLMargD6DX3S6ClktfyAgj6cH4K+/OtAD/qlPot0b2SGJ9c6c9xvI0ufNX/m2zgvTR0DfVjfSP9+xa+78X/IzHJyPagvOo20FQVq63ZHl77vOuANl4ctlx5T05/nrBED/TsV3nfrmdATqpFidbX96ggUeyin6dsYZfqsvg1TqM1D4S/vUNFH2kf09TO+tMr7Lv0evqM6dON5hURhtPvciIT8YtVnPZ4TcfrO7Q0T6y7LlGCdrYHenzevz0B/6UfB3n+QVbwaGasA+mXpZzV9gZ7r7r6B4vUNynN9S38Opr+TVYuqkT6si8M5cH7N3X2B5/pSZy3dqqQPRSmEx/R9gvM9A/p55P1t3TjTq6b/dTD9hetZlagK6T8N5/u9T/RvvCSY/o8G79/JqkRVSB/luudwzjxHe7oNz/I0HaHfP02mv9Ba/nt7hofFvT0V9jK+Cqdv39szPOy/t4fQS97nquE/f3UbnuNr+mUOSXXLM8evuLOrAl/FWOn0fXd2DdOdXXC+54Z1R1MXGp7hbbrPAs+Xzvua+/pGWaWpkunr7uuD80FfwLfd/8f1huf3mw6r4j7wL9Te1VlpqmT6urs64XyX96E/jHd3vOB437/1L7TXPof+oLint7NC375f2fRJrZ3int5Bh/4DcL6Hfg29R/mA4d6ehnP2ipjvS/uAf+FbrEpUBfT9+hrOB3yXvunP34U7u1THO3bLT4LB+XxVQau3aum/COf76NdYq+YL3Nenod8iTnfIaR8HL1Q1rd4qpE/otd7vM93VWZ/+VfI+ud7+AlRNs6/66D8N54O+iPn2eqpPd08vRrzvKUo+Qi/0MqsOVR/9l+B82fsc/7Y+3R3dGPH+qPe+0CFWHao++q/A+W76Nc7aI0Z8uJ9f1ej/xYFfpG+Bh6rk9ftVSP/dUyDQR9o35RryaOg3Teq8T5qZ7+GtBB2E85Vx/w+0+UFfbveIu169+KGZ+g7u6OtrnfWp3XMAjV4t/TdOC976Z+7796Ouh1T0a7COotGrod/QtEKA5wJ9oK+ikq/q6D+tC/sEv2aEt/qepVZfimnaPT+R893ed+sNFiuK+vyUYO9v0Td7QP+m90TM93m/CpP+apMm5ae0r6ZmW0CzB+2eI8L5Wvq11ZL0V5sOGrw/5TrNr6W/dBKvcwR+Q9Kf6cj35Fms/0P8k+5IM1nvqOgTekt/dBdfxQn6UtJ/aI6E3+X8hbX+pL8zf+1oZR7uqkz1iLNU1+aH/Yf5HfKLvPBp1bx6Icp9Pf37Cb12638axwuyud5kUSzW/yF84L25LA7XbFKHfQFeKCfK/asuCqbf8pGWfq1Y1Onv6km6NDgW7/z/j/Jjg0mXerqoy38KvL/I730Of8tI/xr+PjbrZA8KPvl0T8t7Qd6vra3dxYTGcK403xGlC26rXzzNwnnqMSb06CnA70n6SNsCCz6UfEcc+Gd46dfSeoa8Lzaf/mzFnuyrcLVm+0XY7XInfYuU3re0R6T8KPjKSPprLe20f7l1rKuTxZpedXaNtdrgPpI2fi4bPKX89nwXBZ+a/iFyPl8u+rVYu1msqGk3oRcL8LH1vyoe48J8V5f2ZXRJfy3peRYranoEzndt/C7lMOELpN/4q3A+/wF9OJ/T38diRU0PcPBK75OeQsoP+sqk/0dl2ldb1A8sVtS0Fc5fpPL+HlfKD/qqY72TIuYj7nPB+ZZuY7GipY0Oel3S9z11+ZHy69K+vcW0D+avdWsvixUtve1yvjLsv+p0+ZHyawL/CoFeLJ/3SbtYrGjpUXh/0UnqpE88vY0uvz7te5+cD+9bzOPAH11thfOV3t820i8d69KlfUfOgPddWT+0kcWKktYL9Nj4JfpTdtLXugrHurRp32Fyvtb8L7BYUdLDcL467B8wJn1I+/4h53Mp0r644o+cHijGfL4k+rNqao7yTp8h6UPg/4lzD/L+a0ytdCTewVC10n68D8H5yqRvi+j0IekLpv+JcL6W/oLa+5msDJ/4R+qFm1Wn/uS1XRkm635yvtb7e/hp7uBOH9K++pZJQT4A/2EZfW9l3t5USRoUQ3X5C/Cuy/nKpO8PcZ43uNOHc71/nxZAfwFff0roSfG0/79Ta1JI/gK8STFfLC/8WeLnqDXe1Ty8Ld/VvOJXg/fr0OxtzfdK/1danXNB32ghkdjQc02mam78PT5Kbw54TT1cho8aPrvtpKLzT4L3PWHfPtGJ8W5w4P8R9B3B+daimi8zPpokjWUz4V46gLcOxMKnnk+AfoAy2bEkaXQ8Q/UeYr688XPnz9pDvR6Md4P7PYfVgR/4P2FC2SL6NDOqabX3BagReTNvJLRyAvQNShe/AFkm9Bg537fxA/8BGvCh1xPc7/lHQ3+Bs3Y22P8nZvRwfi7h1fY4SXC9xwj0Q38B7I998UcCvM/7Tsy3FsI+ej36tC8w8C9YsMD6oTlfLgf0BnUUAD5Kr2iMgBrWJsLSxxcgl6P5HmI+/1Fs/E/lri+GfSR9QYH/iCrwL8Aqvd3XZL8DrbCmMdVwVY/911ezWJYumAD9Mhp98L4FH96nNSXO9SDsmwP/88qtn9BbepKVqOXbBfA28Z9vsd85NsBicTX3Jsqnn3qoGPNl63P4s2bxJv/NbTcg7JsDf4Yq/rlnzD2BJMBjvVFqXmO/m7eFwoDzh40lXr5ZPv3POXbZ+7Nc3l8tDnMj7JsC/1lLV7x3BuHH1k8xn/RxGfTxx1vWHtN3dHnhWOgfRMyH9U+A82dtK57sQLVvCvyT5HwXfq/3nyyxXdNZiOkHhMTBMukvfsjtfdC30Nv4vx/h9/NaTX5j2Eer/x9n45/r3fqhQ6wkXTTo3vlvTVhaw2LZ7yzef3mZ9F9BzHd5n5wvdNSa7d8wvKwZTX5jzdf8vvA9vI/ITwHgkxK/pN2U9aG+3XALm/FKtVl74sS5K8uk/5gc9bmKMd/a+OXZvnnr3yGcL4St36269SUOKbbbFV8LazjffkH/2mi9pHVa1CpC4CWpMulvPEnEfJJ347dl1Xt4cD8k/Za/LfiKrR9F3/OlVrUbovpe9ulTejO1vcqk/wic76JPvhf6tG/AavPiprYwgT/d/CsHbwtbv0faazt1456hzQmosCZO+Wi4097KDPS1A7QvBXaSZ+MnPcU3ftR7oG8I/I275iq2fk/Rd6d6L8sls0ytRsx5Xs/HzhfDHZELGehnkzn1TGQTnI/hLrwvNn5xqAv1Xsit/9DcouB9j3aouvk91vRZ3dW41LP1b79uxo/4m9dRBDTQt8b6PR1M1n1wvnfjL+pVPt+zr+hE2A+x9d/U/BPoq4u+1+TRA437Myr4N/rGPIW2GY6/YS1GnUH0MzTQlwdqL8L56o1/S443+sRZ7ptCbfyY8x0xmn+v938y325f5NOvDFOXFgTykVV8ymMnABMzfMJ/3evWB3IpM9FnmRx9svmMt8vLsUPY+KGpEbvRh3ovbM2n2vq9Rd+f3nAvNJhPq3e536jKQ4sjsW4Fm8FaNZrgytXr6UPpPN3U5UkA3nScL2f82Pj53cxyo8/c7lNu/R4t2eQK90K9WaZRNmFpdBU6vVy3spkr+7TL4BALpA9l6VAfEoA7T9JaHxn/WvEQDxp9obf+Xcatfxd9M+mLOdbJdDrLTvfHU56/7VvMZqzIAJLOa9SOSsYoAaDd9VHhfPPGfx02/hK2/r/nmsy/8zYkpe25DNOrxZ5htzHSwIwf8ZZEHwkASqrbHvd4H/Cho6Vv/Nj63w+iv8Ra1O/LItxr1Hiel36b8yedsSqVPhKALPp8quEu4G8TGT82/tD0xdY/Gbz1c/xfMVsI9yHp99sn+5ayGavS6fs+6xeN1v/eavU4Gz/oh9z6z/5AbX54P8wRH+z8CPTnXGu3+uvZjFXZ9FHuLVLmfNBq3uopeeNHw+cTpfmBf8mSD1kIIc3bfrbzR5/xA/5jpf+YMePfI3r8ulaPeet/XpP3LSmuuk3aDCUtV3yirYl6//VhFiuw4ktrM+lNFPOFTlZt/LMP2MPd84ew8Ze09V/0hG7r577n8Ll26bKTZE7u9nBtXp5KLadh37fxpMdAP5fUZdMHjdbfkuOneuzhbkkbP8a86m4vvL+kbud6ZWbSjgd60en1aWIlixVIv9WqpJUZ9XqQ584/GfChKevhTf1w13y0Vy75gd/RL4q2RI/dlfLPNOIpT4n06XNUNNEeNVhfnOvgT3GIhzfVz/CYx7yr/rTRn8lXkb7L+Xzt3Ci1JJKkrBf/ZQUP/Dvig10G+tkkSWqkrX8cMZ8vif7sWbN5sW8f51yFjb/ErV/kfYT/BC9+Ul3dDl/AF/MotCSh1JX7Ab/3ytj5Bvrp0aSj9rxvsG+2/gFe7NOl7Nj4S8z7Mj8J9PA+F5wvlsf8HaNJl/L+f2Xmmp4NPOCvW9MaszfSzyddGu1g0MbHEfP5An14/6nVfQOmYt9c8u8oev9M4HdkwXebv1UEKqg9fmFP+cq0Jz3qaVVa3wMf+L83FPvhSv7lT3DwYoE+nC/Wk2T+dC7pV47FKldj8qeZduY7iPly1J9trS1H+6Riv5y8b58DH+ZHzLc1iS+rX/G7e8pVZ1JSO9F/zu38k1Hueft8a8vP+VDy3zPXgQ/zu5xvicyPQAX1sljlqTcpKY+oL8BLUR/e/9Qa8IicD8V+WXnfezZ6N37EfFu/4EY5v7IsVjnKJiUNyrX+yV7ro9xbLR7iKDvnQ953mJzvNj+8L7RzE2X88v9xvPWXp07ZSR3U4T/R7Xyv9WfTEuXeFVcj5yuHvuj3Df3E4Uvmr/NoH7Plz/m7WKxy1eXP+THcczlfWe5tWd1nPbZNfT7QL3nrP6dl1Y4ifJjf9j20G41pqD++lulYlO7HR4mxyW4bvBz14X2Ue/y2Fmz8ZRd9svnrvHqrOJTCdzW+ka18yf2Tfvpn78D5luRyb/Zsbn1TuRe+6MvsUpjf9j60l76v7U7A72Cxjl0dg75q72043wd/trO49c3lXviiT2X+Op++SlG0sv9f4xeyHy/R3KSLgGz1OF9V7nHr82MdUrlXdtEnmV/GP7/ueVfVl4sD/vFTJueq9h5xxXwvfHh/KtdNxzpQ7h2L+Zc9YcbvtHw6kz1xlXd81dnj9Ew3PuR2vqrc49Y/6kz3cKyj/LzPOuH1MaE/9cxTVfTnW+sIsxUH/OMtfKYHEfM98Iu+55oSJ7qo04Oc7xg6Prd8oMYPzZ8//2V97TIe5/9h1TquD5sveZ0vl3uw/tVXSp2ecos+Mv+pYkn059P6LqX7A/Ume+NMwCAc6ejVWWXxVsR8rhMBH94n6z+7Uur0lN/xaf77A8LPpcIvNKlvWsUvbPqXvTOPjaKK4/hsW40GFe+TwwQXoi5s13aPWpraVmylXLaU0iJWy1Gh2DQ2SEo0wcSCRvBArnriEY1aObRqFAXEM2pEQY3xSIwmHn9o1D/82997+7bfmXlv9s3uzq7b4/uyMYoK3c98f9d7M+NSdUlGpE8qnI92jwTrsyEvJj0Zm/8p4Xxr6Ifzz6DP5kdVF/MNfK9v7JyHOwX43t4NqlC5dhd8T86Xsj4Tt/5qYX1MejwwP3e+yvxnJPS+ol5tLxxzforuJ7Ur+qZBOB/wUe+brN/olfWR+Qm+HPrPwGJ6woCw5V861gKmolgpNvNN2mPJ+XLWz4L1Yf5gv3C+hN+k/V3WMFbOB/5jFV9q8se/Nmuy7PoazreXfMj6C721Psx/jxT6SXA+fUgPWLpUfhGP7fKmrjIeMi2Tk71DvofzkfWFPkfB74X1sdczveITlfnPsOkVU5PPd3vGOv10FOS7O6bW/yM4397qA/4jC6WC3zPzvzleiZ8taH8PmvyxiX9awgFptP49Wy05H/AtgX9ffMLvofWR+SseU9A/w67j0h2IGaquQKV8ugO04u707sGHtHfC7oTz7SUftInt67Mxn1fWx7iXzP/XBSr89uD/fKLcZ03+qKAfq/eWPlr/ROG/zZTzbfAZflh/FZ/ww/qemb9jesU7Mn3Z/Q8/igfMjA76jQWe0ofKxF8f3Yo+H/U+kxn+43Saj470sM29Dljfo8xP+/w/HnYT+w8aQqOF/pzs0IfeMOd8acqX0Nvha1csWbA8FlRv7mW8zz/zXb35SW+OLvqTNmSZ/gFrzof1LVn/GXaQdx2d5tPs66e9zx8IfuIG/+ZeI4kiwbTo5++LPWZUZ0o/GEn2q727kPPZkuGj22uMLi3x2Pq4nX/mv+PdxP6jkw1HhQtLgxnTX5lH8I2S0gzpB0uT3e7atXEcRM631PvQPjbjpTP8s3Caz0v6/J5Od4Xf5U8lbWPLM3qHVd69vrsq09fKlicdjOy05Hznku+muvighx/kBX1Pu76aw67wP+sAnz/RN5jpu0zy6/BYMaffaKQueL/Q8fzLdmvON8M36c4PWLcnBj2wvnf0xcjn7wT7y8ZfpqJ/Of9Me8hz+HiXyTX59cQfnpperjGygv+hXcj5HD/gm/W56PbEoAf0vTV/IHhUa/7Lae3v0fyQ6b/LpKXVyCfFnzrbMtdIXXpbdL9o7vNV1kfJRw9k5t1eFqyPru8veF+F/3KxfvUSPuI+qdjIK8UfQP1hh5EF/EVvIOej3ncs+eRuz+uub3bJV+MR/EHfip90j2puHfZn/u7CPNs4ipf8CytWfFdfcGv5An+6uzrY04X6rDnfKe4/Iwb8NXTvltTteRr7K1tn9RN2Qo/Mz4ScH8c/4fLX5ccRhDN/V3l9s5Ffipf8L9dn+prJsPywi4+Q8/lyKvkWDpV8eDyb5yoSG/3HhkL/ZTb8cD7p4V77Ea+IkYkqb8nL93msL7Dpw9lGWorYz8L0bjXV+1LSh14I05RPlHxSt+d9</t>
+  </si>
+  <si>
+    <t>4fcq970NP0cP59P6pFu6sDPrrPLR+kU3Fth1y3QjDSE8ouJDzudLDf/xxJSPl3xy3Pd64lfTL5wP+ib8QoT/UKI1i2GzPwPr52PWNy5ZWSApPCmDLf1YYsb3sS3nO8X9DfxMx27NlM+rwo8mfscE/ItomfDD+WK9j2PKabX58hP+8+4pUJXfSfDTD1DBUmTHQWufD+fb4z5v9UNtNRWaks+ziV/nVwRf6CIzfjh/wgT2uWcIfzBTj30mXuiXZxJT/vJ5VxhFU8rEq4YXTkoXfx3KffT5cL5D3Ocbu95P+WT6/JzHzKb944m7WDb88D7hf17z07p+vkvNywWkK/PuDX5TiueUt9+6THzpwbsLXM1+gtWan3ubPec7zXl43I+3+h2aKZ9nTX/Fv9z8DP5FJvObcr7QtFc0kc5lRii6Pi9rPkkhHD/I5Of+6CTkfKX1Mefhcb9ZE/e9jv3vct/L+CdgcaHvswhP+Ym4nKh5G/iLgiuuri+ob79ykbff19yWAhfzyAiexANJvZ6j86FneL1Pcb9TE/c9jv2zjia8b8WPnC+0f23S8WbY5Uyl3stXtxY14UTG7QHDO+HFg8kVTjr0Xvv1OCGN8x+Jz3nWzMt+3If5eez/67BwPqMPwflCaPtThw8txjZq5pq8ur4AainJ5FhXbNn14atL1+vp6/Gj0ZdyvtO+Ls33I7mo90FfxP7g3xy9Hf8QeOhoj+YL0OsKPuK/dZY38FdlOp2BOj5EkW9qATCwTz3u9WxEzof1HfZ169icR1fvZyX2v+qEn5ZFh7oygY8vtXqGAWV0PgjK8MDA1GsKhq5LHPUoLTHSw48pD/r8pM3eCprzZCPu62c+Sz+5SI1f0sHJysKnBfA1isYddnF2zuHd2mmkrTWW+LHobs0LhrUlb9cb6PMdnY9mb/U6mu/nJO6Dvpj3U+p3gX8irfeL5Jl2KuO/xd69uXXqlQJ58SVFs8MFmf2P8ZrJq2svNmYkpj3Frk/0hOx/ukF7zpfhI+nfTPu6bL6fo7iP2E/z/tZFf5vpQ5L3J048nj58vMY3anigmXF73lXLi7YwvJqeiiIFkp6uNNLEX7RTzvlOE14x5Kta1Erz/VzFfcR+Sv1fgf40Nf6J8TXtLennjqZaW71c4+E8Zn4ROsmMzmVVPl0A4cJSS+eBLeMk5zt3+tdSs8eHfDmL+2j72K1dFUuPOuKHJnK9pYl5mq0UqZbKpEzD28BnX/3dhlUNsbQPDWC6q3/JqB7/XvT5mqS/aaFI+tTsZeson77tq90v0NOaKNOfmFik40XY8XN4pEfgZn+SQu27Sk/uvPH8fpCmFovzQyoQ/psDTkO/OoR9Kec7Jv23edKnTX3R7OWSPtq+RccuGsI/zeR+i/OF3p8K/GGHVxG1B53pXz3Fu4p/juGhKm+qx+iwVRkf2h1eUBVG2T8VOd/B+dA+3unzpD/dn71mT5/63004X3I/fE+aRp9fhxq/mOPDyurUZ+c8ox+rx9TQQ/7z4y8ZvS5QlNpPhm+ia1Dq8x3hfy46/f8j6SP2s4lvzatx/Fw+CM6HDnYlBZOLV7hFE5twU+bTNs+tn0WzfU4Qsx0CDen7fOeK73Ge9Ncj6eecPrr+pV8I75O/zfjNOX+aWId6ko0/UAJlT8ViNhcir3Ld3ZyLry5YmnxXr+djZc5XV3xszBOhbV3e6ecePlI/6/pr9wvnS+6faBXhP9qd9GbGkJFVYRQbRqauXzHZyL7Kkt6+2r1RnfPVMz5R8cU6WyuznvT1qf/fh5n3hb99EHI+3P9Jb5KvZ6WRNYG+rFW5wL8SjY6k3hfHaZ2PGR9VfDTmWVaV/aSvT/008G86RqYntNMk/EPCRdD/kjo0aub+2aT/cpuRfflb8Awumwa2qvt8dbnPKr4lNOZh4/3sJ3196q+o+ZuDl92PnI81fo/yufT2siiGLJAl+tCHM4xsKBSzF7Xtqut7zy5XOR8D3lXX8Yrv/0v6SP288qv5irs/viYq3Z/4Vfr37lP0vdKGV0thNb487+nX3xQoKpq+qj7+N1WG94rR9EIa7SjmHE+Oc5PzMeBlMz52zx6D/38lfaR+qvzmdsZenah2P3K+ab2lGnmWy4+qDQcMr9WIcaxpr3+x4bUC/L0EZfq6dov93L4SPno9Xu5Hl3bOpYovN0lfX/ktqvpCoCVJ7kfhJ+oDW+MfYP0QSOO1jqURr0uBKrENNwOHhkgbJhmeyh8Rf36/8seEeqjN1/X50Kahcn9Rjio+feqPF/5t+x3db1/UIRxda3/ZfFTKBFztHqZ/THpxPrQOW7zeKdSOF6iaFbXPs9ZuHOcu56PXowFvotzPXdLXF/7/Mvwk2f0AL0T4+1+xRvk6qQPIzgt9Z7dz3HWoA6Qhsnevz0WVr97f+mirq5yP8xy816OjXLzc///hDxX+hP8XuJ/k7P74nsBFptovghN+yJBQGL/o0YNWcCP4HA+3/PAcBqjcPvGNSPWe5HznRv/G60WvN+WKvICPwr+k5peHibra/cj5BJ8t0vs9sEtQipBmeVn8LcG5S1wMODGYsQKFJiGjyT9oz6CAjz5fC38F6/Xyody3Vn6TqPAPEn4UfhPU7r+ILYH/k3sNtVoKLYoYHqrm5bj545m+9q4CpiWGd4oUWtRuqHUvndo/OSXn38Th817Pnzfw0fcFlx5zcr8559MSOvy89vvzcgSIm4FJ1TiG6dWNAmhX9Nfutl3jUsv5fMqzjm3t5EOvZ6bP+76O6a2dJvwTVO4n8ML5Qm9NNiA0RpD3Wz+1ZH4IN2N4plAh5HDD3uS95Ht9nw/4+xj81Qw+be10UK+XN9Y39X2LYhb8E6z44Xzo0FrF3M+5bvKgAph8cwHklfUDTjUr5nvWRo/kss8H/LIQ29fLj15PKvyBn6MX+CHmehl//zbpkIdVMUtJVZ15JJiyUj6GmZlC1YUB7U8Abds6TpHzfUnhX8vg8ylPnvR6OvwkK36At+h4j6F3DsJCIHP8G6RjmBmX+WFN9IJ66PCmlPOHNXwb/rjv2Uflfosuo/XlR87dXmnAVlCFjcw1qfhW6RhmJgoju6Nycej6Xv+a+z5F58/Ja/hm/FUcP0nlfoXoOQDfdJniZouiYkYzEPRm6BPdUMqOYS5u9eKLDCr+oFBLDL/QtdfyXj03zv8gAb8qf+Gb8M+q+mW/S/yXJda3DxlQGazTYp8DlBv5qHL09TjKQbK/T32AnsHnPuej1ct7+Hb8TMAP2Z1P6JnG901VTUuj9lYqv57Nb05XIeW0ss6UEab2nQTnS8/kUW/sDBf4luC/7EEX+C/Douf/HR2QdkpsTq9GLICCRu4VVE0nq63RQN6hGthIrpf7/KTw3yb4+V3wKUu/ZV+4cT9hh8a/1WN2j3QOLgaDmevtdtz+lRP5b24vDKgmPDHpnGLUgHpowAPno89PCn8Dn+2vGxbwLfiX/5BAfzlbVvyy8/my9v6R0rD9VGypX3UUOMf0sUtr7UZWWvuA0ojU46tyvoo9DnMMJ/gW/FHCLyTwQwj9cD7XwV6zry1YA8qZeTW+9VypHFEeitgnEX6/AfW+Qb5X5XyfHv76UPMwgW/Gv7T59yHnS/hVzh/PPod3TDYg7aQnACPmTGXqP4jzKKKrbxd8b3G+Ej7O8NFhDrart3S4wAd+2vJp/jNhfSYrfnvOh740hX/NpAckciOADmknPtC2F08Wzof0zv+cw19S3MA2doYLfCv+fzYnnE86w8qf+Z6DFwv8D+GGD92kZyVFYfnfLI94t1tfXhjRZhtMfGR9tJHAK3O+Lxn8Fwj+zQx+27CCb8IfrGn7+WGBXmF/yfnQ+0j/0qRHW4GtxL/pSZJfqak05YkP1DtI7NU5X80e090r5yyeX7ymrSY4dzjBH8LPTvvUHtufcD5bVvy2nG/WBd90J2+p8E8DiuvEQ++DqSb0R+V/2r2Xg5dzvhN8zHg4/AW7awl+5bCCn8DfUTm3pKa24QtCL/CTfBbB+ZL67+uy7aK2GJrADzZRu1tLy8vdGL28tEzBNOCu0Wix7T53PblL+F7u833Ji32a8cyJzG9cVttUMreyY3jBTxz38FcGKprmLf+doRfLzh/el/XlASt/vy7wg5dfdrCJfustZrVaqEYUv0XUXej3W9kf+JqoO+R8n6bYp05vdVnj8nlNFYFKf74d5nCNn+7wnFUV/TPufSbZ/qCt4P+khb+7wB9RzIPDFvolhWaVWFJ32CGP6EO/zfdbCbxDzndkj2Kfz3iqZlXQAc6rhh18cdbvKnbOf1Ys+s9m4Xw1fnhfUn8fpr/qwK+p04BVQx8Xia6G1M+Yeoj9hRbnM7mq9e+kYv9KKvbXN0Rjs2bSuf2r8uoMX0r4JxF+Nvc59iDHnrr9L5D5qwM/hH9ooR/R0EeCkEJJqbL99Duy74PvpT4/GXvUe9Tp8RkPndsflvCH8LPGv6at4Xdyvlv8QM9X/45u58AfVPXdMacrQk+/0LAppvxNnEN/dx9qPUXOTw7/cRrusnpvAev0qM0ftvAJP+li1vizzm/Zn5vTsT/BJx1+6yGHwN+ivCRU8SDmgn5M9d8qQbc4zHUHtoC9Iuf7nOBjxFNH9R4V+zUlos0fpvDR+MdL/5/vV+CHnL3PdXB7l2q4Wqd6NF61ZFU9fWefVyt/FxX9ru0fX8jyvWPO10d9Svms3mPF/vDr9JKW/qEfXOMHfKh/R6+U+EMBVUEWVkVvvwv6flXWCKtKy0BISvu9O5DulX2+Txf1h1J+jBX7w7DTU+K/Kl77ta15b7OWP9CLZdJpn+5RfRn6QB1FRFfRh9Dc21KJTlP3DJLjaTnmfJ9VJ6gavRtX8ZRP9R4V+8Ox03Ou/VjyV0d/yO59SV/ukO781BVpqNv19EvRG8hpw1n37vga2GXnw/fOUZ8G+2w/l6X84V7vSfj51L+iiaL/7wnw5/PP+U744XzoNL4OHejWbL4bEDo5DX10hpoWUlL3Acr2fDnnfEf2qPV51F9PI56mCjbZHxnwGX5e+/HkH2teQ5Mfvf1l9LgASMf3TDYg/XCmPAX65S7GR9BkivhAbpXe+JjwJKI+HeNhKX94F/vq5D99ZidF/wU/JNwvlsT/Aifni0X8+3fuUQ+Bg2UrQyp+EVf0Iyr6ZSvLgupx7h7q7+B7h5zvkzL+CTbjv81qfRH1O2dOHxkpX5H855aw6G9u/Qn/+edL/J2dD/Uf39ZluFNLCvTbDXfq2bZz14UkYLfKje9hfLaX30BRv2TuiEn5UvTvqKToT7X/zw8K53P4yP5QMudDh49vRw2g6QO09FHf69W9nUp8eN4x5/vsEr6HNrEmv+761WWs1p/FuvyRFPWBn3f+FP2p9l8eeg/O55L5J3U+dN7BvoEiF/v2MVf0Yy7OAUwd6PuY0MeVNOf7kgZ99Hm83FtOtT5FfdrSG3HwRfKPR3+a/DQ3kP2F913wh++VOnJ8e6+RgipuM6vCSEG92wd3nXohW6TkOV/le1p247PR7vwFfMLDo/6ISvlS69cxZTYv/hrf2wz0ev5Ar9a3W/b0GNlVz569X586hF6T8xW+tzv/zoTx14V4uTd7in/ENHpK/KL258Vfw/rf4H3gt0qd81UZ4LTzzju0ZfvAVMNLIdpv37KRsBN8vnQ535ccPkp9ZnxR7lGtPzKjvjT5CdDgl+z/z/0g78QfztfpPKazDu7d1mt4qd5tez8+ciqTgK/N+Qr2JAEfwz1hfOrzaLQbGEETHk3tT/Zv5fYv/n2zmf2ltHySXDmfr4SOHNxy4PW1RqZa+/qBLRw80Otzvk/le7EQ9J9ZGGY9PmV8bvxWZvyRV+s7FH9815fZP/Tzgzb8l17qkwXwzvghXANPbhvoNlLXowN7ngR3SJ/zfVrfo9pbxUt9Mn4FM/5ILfccBr/c/s1rFvx5vwAvlpq/O+dDZ7EPX0cOHd9x4PWBe9f26Jr4tfcOvH5gx+DGI6ecypZZbnK+xvcI+vH5Dg33aLLLjT+yRrt6/InsX1MbDRVT9Q/vc53pUyip9yUJ+BYd+fLbjZ9+Onh855a9e3f09fXt2Ltly86dg59+uvHFrUdOgazoXeZ8n4PvhfdR6fOgz6q9UJSV+tz4I7rck4s/bn/W+8fadjeW/Z7wPkfPl5q/3vlAjzWkU1RLCOjhfH3O17G3e/+Zt4k9D/qNu9t4j8+NP7LLPSf7z54ZbJoXbVjw828cvRDDfyb8b5YKvzvnQyroqTkf2IHe2fdw/uOU8FmlT0GfVXtB6vFHl/Et2Z9Gf1T9sdFv8R8Pwvl8gb9Nzs6H4PrkzpfRp5zzfZDG95v2iYRPLT4Ndqnamz5jVJT6Mn7e+4vqj8L/MuJ/P3zP5e4CSMn5p8D5Evp0cn4S9PC+qdjjXV5xaBkFfV7tsR5/9MFH+L+Ch3+q/nc3rnvvfjgf/NXKg5zv07CH94n955z9ighL+M086FfOuGL0BX1p9MfDf2fNvOiaxrL37gd68HdQqjkf0D3I+T7Ile9FsbeucU10Xk0nD/ojfrjnxv6i+qf0T+Uf8Zfxn4MLwC6pz89Fzvfp0cP3IuYz9rzYo4TPK/1RWO05Vv9TZlP6X1q7nPH/Cdwhn6NSyvmnZOZ8mF5je3h/k5k9jfZ4wu8YYy/ws+b/Kp7+qfwj/sVl31v4n8M/tHxJlIucD/Aa9PC+nT0Ve5TweaU/Oqs9p+qf+Aeo/Iu1LQ8tKPtD5X9cAGpltc/3uUcP/Jv2gX1oeVuMir0AsR+1lb4m/Zv4/2ZxPpYvubKQ832QEv2JfMm+f3xfvM5fvIR8L9hPnzGW8PX8Kf+vfu25IdfjMmDy6eRZn+/T6USAt+pOmunSXI/1eGA/Vuy548/rvyVUANqcjwvAhdLO+cCuRy/jZyGf7eWwuV5kyTqW78fYu0j/Fv7RhsZ187+PJwCAh3zu5brP90Fa9CS180XIr5tDc731jQ1RqvWG2I8Ve+74U/9H85/i+ZQArM6HzsUVkFsx7PyjyPmPJEL+Yprn02yndukY+zT4U/8/r3l3qLhsyfe/3cHdr5Qvl4Lp1c6/M257HvLLikO7m+fVzCoZY586f9b/L6qpYgXguvmrqQKQnS8WyZcTAbza99Tcc9uvItuzdN9WRXO91tmVY+xT50/zn7kVnU0xlgAoAFxPGUDWuZAvuwJ4tfMf+ZwiPmV7bnse8mNNnRVz2WxnjH0q/EmT+fyH5v8zgywBLAtRALjue+oBVc7P9iVw4um0IEXOf+SZDwg9RfwV3PahZc3zWLqneX6cfdEY+/T4B3gCoADAKoDVK177yRr8JZ197tlne8b99NMB3tH5m8j1Av1qlu3J9hTyKd2Psc+MPy8AKAHwALC8oVFcAHC+hF4srkywn2hdVsH3Jwr0VONfz9A3NizntqeQz9P9GPv/2jWfnTSiMIpvJu22iz6CuqLiSALaQIAY0DYi/wpDBsxggCDCnoSERVc8hIlxYWLiqivfwYVv0JDQuGh8ip7vu3e4IypGi4rmHtKkLcvf75xvxvh0/kveAcATgFVTAqibf0uAW3lM11UU+NuR6Ic/+Naj9QJ9zcK1L0ZU7Zc0+/98AIytNmkA8ApIF0AKULn6ezq9+Sof3c89+SQ/jNz9Iz/33Xyc+jP8imbymwc9Fp9e8Lj2qzH9qDebAyAH4Lsd8XsEyJYaV6PT6b1X+B/KJ8BXUQrcmcOjM7n325VS1oPejxc8WXs9+TM8ALGFRboANwRIZ4OV3+fX/dk1n7FPvfn4gc5QkEfpK8Fs+gZ6WvzFhZie/Od4AsDPAKQAeAao58xMjyYABoxO+wL/E5vP6B+++YOTM5d8i0vfy5i5Om69RB9dXtTXfvb81QVoKgF2rNCxmV/ppssHpUrrCgrM4uZPfNTYD38BvCSPS5/uruTN45Czo9A35eJr9s81ACwAnwC8BezGMQEdk45AGVegsQ0F/vQf3/ypN//n4GQMfp/Xvkxzb3ZQ+vhuoRiQgw/0uvYqzygAPQPgLSDSpglw8BRA</t>
+  </si>
+  <si>
+    <t>G4DngIMSFKhenV+f9qc1X2X6zR+4hRfgUXnc+S6Rr4nStyN4wtfoXyJKAJwAegiMigkQBtQ7uXwGZwAKYAVacODyfHQ96H9+XO8RtP3oZHh2eeFyx9RXggCPsc/kc526IC9KH6XHPAy+Rv8SUQLE6DUQE+ALCwNwBUK1jkkK4BDQDFRa29v7W0loMByNrmFC/76b/6F/OADykyFBTyKgTtjBHYWnqQd4rjzWXpAP+1B6ermLafQvFvUQOL4BUT4CgXaigBFgBXJjB7LBEixokAb7W1vVavVrMnlBuaTw3/b2GDelCuRb+wS9AeqlYHbMPcfgUflCoi3IR8d7rx/zXjiGdwKkAT6pAK2AY9WlAyRBugwNDoIkAkxoNFqQYSKtFv6/wsix8YCeJuySe91y0HgJPiXJu6XX6F8jhpoAYYBQwJYK7GIGHCtEEsAC0qDX667DBLhAyXpTpqSJ+Hq31yPooE7YQ5aDwu9uJBi8LcAzeVF6jf61oiYABtAV4BGQKxCO+NsJliBOFkCDeu0YIuRMEy4gGW/yFHyTA/LjWh3QiXoc2Avg7o+EZeO58lh7dF6Xfi5iqCtAI+CugHQAQ1AkC6DBWhwibG46joWEbsZCHGdzE8jja4BO1Iv+QERydxuPyvPa687PUwzvCPAKsANCAl/KZg0C/naxmIAKyMZkCkgCxIttf4Ch2ymfwM7cqfEMXpOfzxgeBXgG2IEmJIAFpAE88KVSth3mRLwJc2w7BeRgDuigDuxNcJeFZ/Ca/FzHmHCAh4A1gAcQgROlfFGJAjYivlwm5gSdqY+5a/BvJYZyABLAAtaA14CzKrLoRv6bv2PmDB3UgX3J0ODfYiQzpYEUgWWYiMQtkUvomvs7iHFnlrzxwNbUdXR0dHR0dN5d/gFDNMMwbmq6wwAAAABJRU5ErkJggg==</t>
+  </si>
+  <si>
+    <t>image_base64_2</t>
+  </si>
+  <si>
+    <t>image_base64_3</t>
+  </si>
+  <si>
+    <t>image_base64_4</t>
+  </si>
+  <si>
+    <t>image_base64_5</t>
   </si>
 </sst>
 </file>
@@ -938,10 +975,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F08E4B06-5F70-4089-B959-9664D588885E}">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -953,7 +990,7 @@
     <col min="5" max="5" width="10.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -981,11 +1018,23 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" t="s">
+        <v>15</v>
+      </c>
       <c r="K1" t="s">
-        <v>15</v>
+        <v>21</v>
+      </c>
+      <c r="L1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1"/>
       <c r="C2" t="s">
         <v>9</v>
@@ -1008,23 +1057,35 @@
       <c r="I2" t="s">
         <v>14</v>
       </c>
+      <c r="J2" t="s">
+        <v>16</v>
+      </c>
       <c r="K2" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N2" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B3" s="1"/>
       <c r="C3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B5" s="1"/>
       <c r="C5" t="s">
         <v>12</v>

--- a/MathTest2.xlsx
+++ b/MathTest2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Taylor\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{047F3398-1200-4254-AC62-4396A896C6B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDEF62B7-DD15-45C4-AAAC-CE4AB90C90E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="13056" xr2:uid="{437A6C5E-B59D-4A6C-9B83-9637B857EE9D}"/>
   </bookViews>
@@ -80,6 +80,9 @@
     <t>C</t>
   </si>
   <si>
+    <t>image_base64</t>
+  </si>
+  <si>
     <t>iVBORw0KGgoAAAANSUhEUgAAAf0AAAH3CAMAAACGiXbcAAADAFBMVEX///+15h0AAAAiIiL+/f2SFiaUFyeYGCjIKjrFKTmPFSXGKTm/JjfCKDi4JDSzIjKWFyinHi6hHCy9JjabGSmfGyudGiq7JTWlHS22IzPDKDivITGrHy+tIDD39/f7+/v5+fntHCTKKzvs7Oz09PTx8fH9/PytITEisUyjHCyxITGpHi7j4uLn5+fu7u7V1dWkpKSsrKzy8vLX19cvLy90dHSQkJC5ubnGxsaenp59fX1YWFjd3d3Z2dnJKjrp6en29vbExMRKSkrLy8tHR0fQ0NB5eXnAwMCCgoJ+fn7k5OQNDQ2Ghobh4eDCwsKampqmpqaVlZWvr6+pqalxcHDOzc3S0tK7u7uOjo47Ozvf39+Xl5eMjIzIyMhnZ2e9vb1/f392dnY+Pj60tLS2traKiYlmZmbw8PCDg4OIiIiTkpLU1NSysrJOTk789vfZ7f/57/Dt2cMnJyf78vPD2e325ug4ODigoKDjzsP04OKioaH///ZdXV2YIjHZw8PDw9lsa2uMHi3t////7dkeHh7ekJjOS1mJLjo2NjbNjZX//+3x3N6mJjXYeILUl56iLz7Jg4ulPEnKN0bv19rosrflqK7biJHWb3rIMUC3MUCsLTuJJjP36+2zVGCDOUPkwMSzs7PhmKDCdH5RUVGAQ0vDzuPZqa6bLDn2///fs7h5V1vNQVDx0NPr0NPpuL3bf4h1X2KvN0QYGBjoyc3VZXC3XGePWV/rwMXfub3TWmbUoafjn6fNd4FzamvFVmLBTVq1Kjm7ZnDBMUDDfYWcbXPFZnFxZWdVVVXux8t+bG/RVGG3P03NXWmCYmZgYGC5SFV7TFKsRFG5oaTNanW8OUe7b3jJPkz2487Sg4vIx8vBQU9ERESPe32rS1eBT1bk9v/Ow8OORk+ZOUWnlZeJa2//9uO6q63BXWiaTFalXGSOPUfczM92BAScgYOpd33O4/bLs7W/kZapiIzZ7e3i09WUtcPBsLIAAFzDw6/DwaPDqYAAdqJXAAAAV4+PVwBAf6Voc50tAABdNElEQVR42uyY20uTYRzH3zGriZ3QDmaQMQ9g6MQ0UzwSBCHYXUFedJkXgQxkgRd2pzBWc7rlIRzDXSyGacQczhnaDCFKkA6KCIFXddFNQX9Az/PsXb/tfZ73sLaZbc/nhxdG0cXn932+v03gcDgcDofD4XA4HA4nS8jTgsDJItiOKxPhi5BlSGSXYi6KXKC5KFKKqazkW/Dfkij9j+7OckSvxWJzOucCAY/HEwjMOZ22AYvpMqY8SuefZSBrwFfg/wG8Y+tEevlAYP7JzNCLiYWN4e21Y/Ecjc3Rte3VlY2JnXG7z++x9VZUkF0ge0C2gO/AQSdePPZumXMtj09szOaXlJQcKwHlEv0Mju2ufNqx+wM2Uy9ZA7QDfAUOMCAeezcHlh+/m8wvwUPUiwNIkh9PUdysrbyye2pMprgdqOQbcKAA8ci8zTW0MJuPIOpjaE0+vQSY3fUd368yvAPl5eIrwDfgIBAf+QHX+MYk0g6TfPJBO0yUtZXEFeAb8I+gzU8vDi1s5wNIPARfa+eDfvJThMWTH+DzhtVfXWbq5Rvwb4kzPz8+DNrTn3zgLJmi1Ve+6rIyU0VsA/gC7B+gHl325Yvj7wz5FGnsfABW4OzZotUdfxfagOgbUFrKF2C/iIX+wtuhpcmC/AJku4Aoz3TyyY84iKKVnVANaYFO8gTwBcgwoN7smhgrQCDxQHo6H8QflUk+sLYe7u4gJcAXILOAesuThUkinoymztdpRaHzYeIp+mb/VYMW4DLqAL4AQGbUD8wsGQpEQL1M5+v+HtnOpylatX7HHcAXAMiE+rmhYUMBHgRkn9H5unTB6HwJx8nsOh7WdJRFF4AfgWl3j1NP1COUkq/LBOzkg37CruM7WQByA3D/6Yx9p2sBq4/pZ3a+LrPIJp8M5uxKuKcGH4GdvAHSGPu3L8YMCIXk6/YHmeQDU95QNVoA3AD8AUiNaOynZ4bF1EPnJ3zO1+0v7OQDu9ZfXbgByAPA/af05DsfGxCyydf9G5jJB9YfRh8AXgApPfmuJYOBzj2Z5MwfkedUdKLotAO5Z7Aa7kYPALoAeAH8pfvpoVkDgk6+dvUnT548chJEy+qn0LoA8nx2fI8+ANz/X9T9c/HJZ3W+Fu2HkXgYtnZIvoQz4qSwAOeOn1sPdRP//ABI0v0ifvLZyVePO6Cee/yDYOqPoVNGTj+aVV9PV4epgvtPxv38O9AeGw3qUd7JiOJh2KgkH/SrrwBTPpnNcCsqAO5fq/uLrmFDAprUg3ZtyQf97OQz0SnA0k94z/1rdn/hCXHP6HyVzMOk1PlnYBI4HRudPCA+NqJ/axvy34s/AHD/Cu77l8mZTydfPvOHkfDDovJ0dj7N6T+o+SfiyY/IZ+5f3f3MtkS7OErqpUOA3KfU+SAeRm0DEpIPTDnqu5F//v4zIH2/PGagkFd/WAS0JwDq09T5p2lk/YP6eP9W8M/1Jwa/dH7YYGQkX019qp2ffPKBwtOFOiaQfODEuRPvw23d4v3H4x/v/vmSgQVbPbDPnU9TWMheACyf1n9i80dbNfcvKXzLY4ORTr66epj0f85XTz6MjoVEvTiRvdbqDvT9Hz//xMI3j08mGXvVzpdlZNTtDkYiW943DofV4Xjj3YpEgm736EiynQ/6o8j6B/1RXntvt3Yh/50Xcr3+8xDo2DPSyWerP0TJ19L5g6PuiMPuCwVsZkEesy0Q8tkdEfdoYRLJhxVg3oDS5BOmHLU9XWWmHH/+yaP/HI49QDH22jv/w5bV53H2C8lidnp81q0PGjof/cTD8g/JB97/IOdfLj//5NF/YTSQUXEPqdfW+c/cDp+zUkiNSqfP4R5RS75qAUDygXORW+jrX/z852b8yaXv2gbxCu5BvYbOHwlaPRYhfVg81uCIYuer5h/EA1M/a1tz9vnHwR9YMEDylXKPBjpf9nM+ER+aFjKBJQQrQCVfQwFA8gH3Xuz5z7Hrj1x7M5Pt7ZLks9QfAu1Knf8sErYJmcUWjoxQnc+GkX+a129uk09/ORb/6LVnpJLPePLRqHf+YNA+JyRB24N42oQkcNqDj2Q6H6hCo6gfrr/6nhyLfx6ib8hobAfxMu5x7tU6f9BtDaiedy0tDU0CUK+Pp14AmhpaWlSPwYDVXSxRTuuvqtLk33sdffmXQ/HHwXcOE/Vk5N1D8uU+5w9G/H2CBpDjOk3269Dvggb6/OuP2J1fBaPu/xKOP7r+ciX+5NRfnmw3Sjqfco9R7HxQr84dvb5Rk/1Gvf6OoI2+EFoAJkQ9RtE/tH/OxJ98qb9khOTLu1fu/GdboVKBRW3z3Tr65U/CPv3yN99trhVYlIa8T5nqif5iMor6L5HZ3IvGP9s/+5PP+GNIPtavmHvFzj8S9MtW/T3ij7bfosl+i8y/vid7BIQixZT+GFh/cbGif6z/0uufKP4dpux+/fMQ5ol2afJZ7unOh+R/sJsFeZpZzd2YhP1G1tXQLMhjDm8yOr8YRuofck8GcT64V4uO/8ud2fv641d/cdZohM5XCL7c5/wRh01QpAm5qmXYb9Bkv4Fhvxb9nSZBEZtDbACkHbJfDND+IfmEqY+3W7M5/vgLniGjNPm0e6XO/+KvTOK+B66iP9RkH/16VQC0fw7I87sLGckH/RLis3+ezNat+u7o8Zd9+vMQ00tGI3Q+271C5w96nYKEirpqQco1vf4K60Go0GC/ghXzK3r9NUFKdV0F9QB4H1Gdrxh/SD7Wf37z5v0sPf7It3uzkuTT7hU6f9TeLzC83BCk3ABZ1OPNtq9SG9eY/wvsGNBvf0l1voJ/sfNjc/7l1+w8/n6zd3axUVRhGB5nV024sncmtNRWpr3o4nbp/tWC0C3SlbUQQcTFIGZBxb/G0DSmxiZcoIFYwYIGbGiImEAaRFOFCISoBIkJJJJiMCakVyQSbkjkgmvPmZ3tO2fO3yy77e4i74REG9LO7LPveb/vO6dLvslvRuarjc9n/vhpSX2fM3wt1EXQV0UJlAV9t4KnT3GZL+VP4cP7VBfWd2wkq//9hZ88ysCBZ8TOB3t55p/Hks+BDqt9DoJxH/TjAvpJ2Q+JSCrAi4/D927VkcuLH97P61TyJXv1v3/CP0g09Ekzm/kq37PoH70mrfIt9GJC0lCXb/pdin4BiqOQ4DV0pA7oWfx1deyDO/ihy3fp6v/mfRP+dqO3j3W+Aj4y3yn1cFJDuPSn1MMZfC3mg34M9NXjoxR+hkiD50bgfThfgN9xPvTrv7T2v1/Cn8L/moBH5kuNz/f5wxdwWEO29Ic4X6IaYLAq6eNNIt8jgEJY+GX8Px/hvU/F8/fqWk94yaIn74vwp7u5B5pZ53PwJZk//Dk71LN0Sz+ae0s57Nv4nlsbGUvHBaAT3EARP0J6f4d2j7jA4+Lww/ls+C+v+fCns12yqcNkPsdenPmPXmDZR1I52dKv59WJfXvNOYBOwXsp5G/hz6Yi7AgY/s9jh9Tun9rshH9N43fqPThfmvh85p8f4hf5pHbpx1pdHmHPV7/wJ/ivDl3knf+4ZvVvJdfkXRL+y56q6dqP3HfLt/vYzOfhC/v86ROiDrtLu/SjTiuPUEPqF/4u0dmAE1eQ+axU+FvHrvaEN9Z07UfrvS8OypwP9nzmj06ITRgIK5d+/M2uMnq/KxD3tfCH0WkymrgM56vww/kN5Gr9d9M7tVz7UfgfNxMh81XwkfnH9rQIm/uoaLzWiaXfjzZkTNNc8aTBaHnvyhz5erTrlZD+dcbCz7cVUUt4BODsGJB78UPAn9c1WvvVKn672H+GcT7Lfp7E+ddku/cxEegQln4fWv6qydFf+MJ2c0YfbTT06pTdSEx2AuAczXsd/4Lz6Z9Wco2vJrVfbZb+dLh7spnJfIXx0eePugM/ZHlf37hq7qJXIsPRX5oy3doZCfopBVLCYAoxa5X7/368DOQa/DNqmO5dvzRUi2NfCv+MyvnizB/e7V7049GYN+OjlrwC0yu8y/TSX5o1We1ca0D6+TJyyfsujEXj7uV/z4gefyH1W51ravP6DtL51Rp+2uZfamb6fDl7ZP74kNunOW+ZlxTlbSiQTfukv+g900t/+Q7Tq11LdfTTWbhc0JCiCMwlDGjopt7+cL6DP9FDO7/aavzpSY5Lcuc/LM78Y0cNKNwVoOryrvI53tCGT/V9Y4I+qkBOT7foFxG+H/WmgXP/YQOamPSAb6N/WPvbmY9r8m5PuG9RTeEnNzr4CTJf2eihzz/lqvasWMBRwmuwxL3eVHfU5OgveNG0lep9wnii16kAcquMYoVJD77gaJtrYRq4yDm/jcNPoLcW4Dc0TP5DGv9awk/hH4fzvfDnCTN/+Cgzlw0UlFNOfPxrYRouB/2+fOq/t8igeuojkyqTNHTSTnqsXKAgZnY8MeZBz+On2HER/JveqSH8dLp7nOnzpcYH/vFDrnjPBVyK6yc+elkfUOPz9JMZG/cGNgfeNYpVWHCjUC7p2vu5yeGnYtwP51ONEfxLagU/ucVP/5I6/2Fh5g+f5dZMWCekmvj4b/OF9NtNqmxfoQHI9wTrDI20k54QFi8uv86OIPMd/PVt9Qr3j11NvlQj+MkN7t+HzFc4H33+1BBfL0Ex3cTHP/3ft3noh9vfiq3I/f6mkdey6yZVt+FbmESk2duEuNp16ArrfCoB/hnVDn7q/H1y54sy/7HdQe4gHaMk8zqnIvfs/ZWL20FfpA47H6IdRrGKpAIh3RNAwT31yHwbvdz9tYTfyfxnisj8vRju+XFOscYH/e1bgoaGfiQ/7V1sFK+Qj9ULOjEJ5zv461n8RLXmflT7vjN/HH2eNDX1btfTz7xOkGvoW/maf41RoiKeysUSTP5vIvPJJXW/o/qxf6oePx3ysH2+tsvfLTlRwShnlUp/5RrLMHT0g+332u7zQ19Z1wLtrofz6wl6W1L3109WO3463v1E5vx5osw/9qMhVpZ7/UqWln5w6067/Vtb+mkgRllDrJ/GGOfz+Fsd8PSqevzObB99PgtfoOlBNMxhz+iMVWj26Qc32/DN2AKjNIUCwm6Pf9DBX5D5jsThT+HX149urWL87K4eD5/P/CMtLrukLEXXF7Nmjz6cj7FfSbJiim7PSrkWspa/4Xw5/vrCNUXwV+nUjx7mOKnPfMAfnmB3adOe4RmEnZLZox+M5OGn+owShB0qiL35NFvETowh81X485pK2EPf6tvwpb+cf7KYzN+737N5F0iIu74svj579BvXZPLjoFVGWRSZKVzSXKKlmF/6myTw5fht9MA/TfFX334/PcP3Gfp8feaPHuJ6vGhIUDhH45Yx+/QbX8/D37HYKJOseBTdHv+Y0KErwC7DD41v2BTuI/ir66wfgf91MZl/qt9rFi4hO+3AD+EcJquFf1Bc7WWhv+B5kyrzdmkF36Lr7jFxyF69OrlqxruU9V9k0RPcbvwUPt4Abbc39BD85KxfS/XQJ/C/K6bPvyA+shn3dH2ppPccJtT7Q9noL3/NpNq5LliOhaUb896Up9uLC+d+wb+93m9ocONndWdzTwc567fgiaoxP7mRbw8WkflnRUtl1jsPT0ZE5zAxlisX/ca3TKpo0ihNq3IOfSjCPhCtYkRBdrQV4J1Lin/kRi/Fv7hq8NP57j7/ff7wYekWec7SncMEsbLQx7dasdQoTQt3mKAvkoVzil4dHmOcTyXFP3aVnPQl5/yrpO+zR3z+M99d7HNB/6r6HCZmspmy0Me32lVCV4k3kZL+GygDOO2fhPNV+Gl/MLmWnPNfVSVtP+31zvjP/NFB1emoQKf8HCbU+EHGLBf93p125veWupOwLaOh34m6VqDBy4zzVe5vm9ra/eySKmn7aa/nP/NH31fvjkTDsnOY0OKVplku+su+MXm1F1/ukzJETT8cRfsHMZ1fA7xP9/d4/G3OdSvRbc98K1/4017Pf58/PaD7mM2UpT6HaQR7smbZ6AfXmGWgH9yy3dTQt1IoasUa+AXOl7qfwie6nUi+Uw19H1l7fmLO7Sszf7x/BrQBsXPQtPIcZvClPzJm6fTRopdOv3E1s350K58M4l6J/p9nMr+Vdz+cT/HfoW1/xQt/u9xnfldPlfmnWvBixAyRUoFUWHkOs9uEykA/YpZAH99TTz+cxYSXUQxTjsabrPWBH2u/o5F22vZXrPDH1s4lxvmqzD8fBHxJ+RtKW4pzmKCfefl6afTxU8pFf/vbUVXuW+mQ5CwA1oSWP53Mx+XCD+eTM0Gja+2+rzKFP0L/e/fv5ysz/whbAgUixZ7DBP1o95MrykF/Va5s9Fd0dIC+b0UCbKF7DsYX4p9R3a0tq5+tUOUH+F9wzscZPjF84E8Udw4T9HcsM8pD/9ntZaKfSS80FPT18IG/lXX/QxCcT6/bW7vJbv+bFaj8cHr7IDJf3eifVz63/hwm6KdWBw3Qr7zIHX4UDhq+6auXwD8bUPh58RP0Dn6ikRsJst9XsejHjI93/jxRwafHrz+HmdyxnjxqWeg3URmla93KJeSWfNPX5F/wInwvwl9XuOr2RipR+YF+40lkvrrcH28R1jtR614m8yXSB3vgL13F07einm1NVP5AT+U1f52j6XdJ5WfP/OaWPsY8+DQuVeZP94t6Hcx25p5+04w2V4i+lfLs96Lvl7sfzqf6bUv3nFd+2NVF5qudPwX4PP5K03+uAvQBXzz1K7i/Ne/++Qx+l+7kZ35zOPRB6B+H85UD3tEB1QtQIfpQBehr3voDV1zOn08vj/sLGlm3YW6jH+v+AWQ+Z339xg7w/y/pq9e9Q5cpeEfzyeWiz2jaHvrM2doP638n/tRtLvOPDeoKnwrQb6oofX3JO/iV43yCvoHFT50P3aZDH9r1z435Md5H5qucP7xf0/REw/9D+trnPvFrIfPpRSRx/8iHdvTPzdqPZu+M0Pn8</t>
   </si>
   <si>
@@ -102,9 +105,6 @@
   </si>
   <si>
     <t>image_base64_4</t>
-  </si>
-  <si>
-    <t>image_base64_5</t>
   </si>
   <si>
     <t>image_base64_1</t>
@@ -978,7 +978,7 @@
   <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1019,10 +1019,10 @@
         <v>8</v>
       </c>
       <c r="J1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" t="s">
         <v>24</v>
-      </c>
-      <c r="K1" t="s">
-        <v>20</v>
       </c>
       <c r="L1" t="s">
         <v>21</v>
@@ -1058,19 +1058,19 @@
         <v>14</v>
       </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
